--- a/fund.xlsx
+++ b/fund.xlsx
@@ -695,7 +695,7 @@
       <c r="C3" s="1" t="n">
         <v>4.54</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>4.63</v>
       </c>
       <c r="E3" t="n">
@@ -1495,7 +1495,7 @@
       <c r="C19" t="n">
         <v>-0.3</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="1" t="n">
         <v>4.91</v>
       </c>
       <c r="E19" t="n">
@@ -2316,7 +2316,7 @@
       <c r="J35" t="n">
         <v>0.3500000000000001</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="1" t="n">
         <v>4.96</v>
       </c>
       <c r="L35" s="1" t="n">

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -134,7 +134,7 @@
     <t>001714</t>
   </si>
   <si>
-    <t>工银文体产业股票</t>
+    <t>工银文体产业股票A</t>
   </si>
   <si>
     <t>001182</t>
@@ -146,7 +146,7 @@
     <t>000251</t>
   </si>
   <si>
-    <t>工银金融地产混合</t>
+    <t>工银金融地产混合A</t>
   </si>
   <si>
     <t>163415</t>
@@ -693,46 +693,46 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.54</v>
+        <v>3.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>4.63</v>
+        <v>6.62</v>
       </c>
       <c r="E3" t="n">
-        <v>7.9</v>
+        <v>6.87</v>
       </c>
       <c r="F3" t="n">
-        <v>7.640000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.739999999999998</v>
+        <v>8.330000000000002</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>5.809999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>9.829999999999998</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>4.390000000000001</v>
+        <v>3.97</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>7.319999999999999</v>
+        <v>7.34</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>11.8</v>
+        <v>12.15</v>
       </c>
       <c r="M3" t="n">
-        <v>4.760000000000002</v>
+        <v>5.500000000000004</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-10.22</v>
+        <v>-10.2</v>
       </c>
       <c r="O3" t="n">
-        <v>18.51</v>
+        <v>15.69</v>
       </c>
       <c r="P3" t="n">
-        <v>21.56</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -743,46 +743,46 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3500000000000001</v>
+        <v>-0.8399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1400000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="E4" t="n">
-        <v>5.380000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>19.43</v>
+        <v>21.01</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>21.29</v>
+        <v>20.4</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>39.76</v>
+        <v>39.73</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-1.010000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5</v>
+        <v>-0.27</v>
       </c>
       <c r="K4" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="L4" t="n">
-        <v>9.280000000000001</v>
+        <v>8.030000000000001</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>16.55</v>
+        <v>18.18</v>
       </c>
       <c r="N4" t="n">
         <v>8.99</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>51.53</v>
+        <v>49.61</v>
       </c>
       <c r="P4" t="n">
-        <v>10.72</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -793,46 +793,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-3.38</v>
+        <v>-2.66</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.72</v>
+        <v>-3.03</v>
       </c>
       <c r="F5" t="n">
-        <v>8.810000000000002</v>
+        <v>10.19</v>
       </c>
       <c r="G5" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.75</v>
+        <v>16.01</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>4.34</v>
       </c>
       <c r="I5" t="n">
-        <v>9.899999999999999</v>
+        <v>13.03</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>-3.53</v>
+        <v>-2.09</v>
       </c>
       <c r="K5" t="n">
-        <v>3.77</v>
+        <v>2.28</v>
       </c>
       <c r="L5" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="n">
-        <v>5.930000000000003</v>
+        <v>7.360000000000003</v>
       </c>
       <c r="N5" t="n">
-        <v>2.49</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>19.52</v>
+        <v>14.22</v>
       </c>
       <c r="P5" t="n">
-        <v>21.63</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -843,43 +843,43 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.51</v>
+        <v>-0.5499999999999998</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.52</v>
+        <v>-1.1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-0.07999999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.870000000000001</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>24.92</v>
       </c>
       <c r="H6" t="n">
-        <v>19.95</v>
+        <v>17.56</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6599999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="K6" t="n">
-        <v>0.42</v>
+        <v>-0.3799999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>5.42</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
-        <v>5.990000000000002</v>
+        <v>6.110000000000003</v>
       </c>
       <c r="N6" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>31.72000000000001</v>
+        <v>13.51</v>
+      </c>
+      <c r="O6" t="n">
+        <v>27.44</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
@@ -892,47 +892,47 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>-1.73</v>
+      <c r="C7" t="n">
+        <v>-0.9199999999999999</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-5.97</v>
+        <v>-4.03</v>
       </c>
       <c r="E7" t="n">
-        <v>4.18</v>
+        <v>0.62</v>
       </c>
       <c r="F7" t="n">
-        <v>4.690000000000001</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>29.34</v>
+        <v>30.91</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>35.57</v>
+        <v>31.6</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>-1.88</v>
+        <v>33.23999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3500000000000001</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-3.28</v>
+        <v>-3.31</v>
       </c>
       <c r="L7" t="n">
-        <v>8.08</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.810000000000002</v>
+        <v>1.960000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>17.04</v>
+        <v>19.5</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>47.34</v>
+        <v>41.48</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>43.93000000000001</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -943,46 +943,46 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-1.82</v>
+        <v>-2.17</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.970000000000001</v>
+        <v>6.37</v>
       </c>
       <c r="E8" t="n">
-        <v>3.15</v>
+        <v>2.21</v>
       </c>
       <c r="F8" t="n">
-        <v>13.14</v>
+        <v>12.77</v>
       </c>
       <c r="G8" t="n">
-        <v>5.02</v>
+        <v>6.649999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>9.630000000000003</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>7.379999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>-1.97</v>
+        <v>-1.6</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>8.66</v>
+        <v>7.09</v>
       </c>
       <c r="L8" t="n">
-        <v>7.05</v>
+        <v>7.49</v>
       </c>
       <c r="M8" t="n">
-        <v>10.26</v>
+        <v>9.940000000000001</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>-7.28</v>
+        <v>-4.76</v>
       </c>
       <c r="O8" t="n">
-        <v>21.40000000000001</v>
+        <v>17.75</v>
       </c>
       <c r="P8" t="n">
-        <v>19.11</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -993,46 +993,46 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.1700000000000004</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.71</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E9" t="n">
-        <v>3.37</v>
+        <v>2.72</v>
       </c>
       <c r="F9" t="n">
-        <v>8.84</v>
+        <v>8.66</v>
       </c>
       <c r="G9" t="n">
-        <v>3.51</v>
+        <v>4.42</v>
       </c>
       <c r="H9" t="n">
-        <v>14.63</v>
+        <v>13.89</v>
       </c>
       <c r="I9" t="n">
-        <v>5.249999999999998</v>
+        <v>6.479999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="K9" t="n">
-        <v>1.98</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="L9" t="n">
-        <v>7.27</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>5.960000000000001</v>
+        <v>5.830000000000002</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>-8.789999999999999</v>
+        <v>-6.989999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>26.40000000000001</v>
+        <v>23.77</v>
       </c>
       <c r="P9" t="n">
-        <v>16.98</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1043,16 +1043,16 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-0.73</v>
+        <v>-1.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9299999999999997</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9299999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13.25</v>
+        <v>-2.41</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>13.71</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1064,16 +1064,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>-1.29</v>
+        <v>-1.13</v>
       </c>
       <c r="K10" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="L10" t="n">
-        <v>2.97</v>
+        <v>2.87</v>
       </c>
       <c r="M10" t="n">
-        <v>10.37</v>
+        <v>10.88</v>
       </c>
       <c r="N10" t="s">
         <v>19</v>
@@ -1092,47 +1092,47 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>-2.35</v>
+      <c r="C11" t="n">
+        <v>0.2200000000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>1.71</v>
+        <v>3.279999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11.36</v>
+        <v>4.529999999999999</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>14.51</v>
       </c>
       <c r="G11" t="n">
-        <v>19.62</v>
+        <v>18.89</v>
       </c>
       <c r="H11" t="n">
-        <v>9.719999999999999</v>
+        <v>7.370000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>-2.5</v>
+        <v>14.42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.79</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>12.72</v>
+        <v>9.809999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>8.48</v>
+        <v>11.68</v>
       </c>
       <c r="N11" t="n">
-        <v>7.319999999999999</v>
+        <v>7.479999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>21.49</v>
+        <v>17.25</v>
       </c>
       <c r="P11" t="n">
-        <v>26.05</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1143,46 +1143,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.23</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>3.57</v>
+        <v>3.2</v>
       </c>
       <c r="F12" t="n">
-        <v>4.539999999999999</v>
+        <v>5.030000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>11.21</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>2.84</v>
+        <v>3.369999999999997</v>
       </c>
       <c r="I12" t="n">
-        <v>10.06</v>
+        <v>9.209999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.3799999999999999</v>
+        <v>0.3899999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>1.17</v>
       </c>
       <c r="L12" t="n">
-        <v>7.47</v>
+        <v>8.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.66</v>
+        <v>2.200000000000003</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>-0.8000000000000007</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="O12" t="n">
-        <v>14.61</v>
+        <v>13.25</v>
       </c>
       <c r="P12" t="n">
-        <v>21.79</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1192,20 +1192,20 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.48</v>
+      <c r="C13" s="2" t="n">
+        <v>-1.34</v>
       </c>
       <c r="D13" t="n">
-        <v>0.76</v>
+        <v>3.35</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-2.56</v>
       </c>
       <c r="F13" t="n">
-        <v>8.530000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>26.34</v>
+        <v>24.88</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1214,19 +1214,19 @@
         <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6299999999999999</v>
+        <v>-0.77</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>4.07</v>
       </c>
       <c r="L13" t="n">
-        <v>3.82</v>
+        <v>2.72</v>
       </c>
       <c r="M13" t="n">
-        <v>5.650000000000002</v>
+        <v>6.690000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>14.04</v>
+        <v>13.47</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
@@ -1243,19 +1243,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-2.86</v>
+        <v>-3.32</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.86</v>
+        <v>-2.2</v>
       </c>
       <c r="E14" t="n">
-        <v>3.46</v>
+        <v>6.7</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.1999999999999993</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>20.15</v>
+        <v>23.74</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -1264,19 +1264,19 @@
         <v>19</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>-3.01</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.36</v>
+        <v>-2.75</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>11.98</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-2.68</v>
+        <v>-7.479999999999997</v>
       </c>
       <c r="N14" t="n">
-        <v>7.85</v>
+        <v>12.33</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -1293,16 +1293,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5800000000000001</v>
+        <v>-0.2899999999999998</v>
       </c>
       <c r="D15" t="n">
-        <v>4.09</v>
+        <v>3.83</v>
       </c>
       <c r="E15" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14.28</v>
+        <v>4.23</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>14.71</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1314,16 +1314,16 @@
         <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.73</v>
+        <v>0.28</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>6.779999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.57</v>
+        <v>4.550000000000001</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>9.51</v>
       </c>
       <c r="M15" t="n">
-        <v>11.4</v>
+        <v>11.88</v>
       </c>
       <c r="N15" t="s">
         <v>19</v>
@@ -1343,46 +1343,46 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-1.21</v>
+        <v>-1.97</v>
       </c>
       <c r="D16" t="n">
-        <v>1.34</v>
+        <v>3.16</v>
       </c>
       <c r="E16" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10.43</v>
+        <v>1.16</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>13.42</v>
       </c>
       <c r="G16" t="n">
-        <v>19.59</v>
+        <v>19.49</v>
       </c>
       <c r="H16" t="n">
-        <v>24.09</v>
+        <v>22.45</v>
       </c>
       <c r="I16" t="n">
-        <v>10.27</v>
+        <v>13.45</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>-1.36</v>
+        <v>-1.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.03</v>
+        <v>3.88</v>
       </c>
       <c r="L16" t="n">
-        <v>8.41</v>
+        <v>6.44</v>
       </c>
       <c r="M16" t="n">
-        <v>7.550000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="N16" t="n">
-        <v>7.290000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>35.86</v>
+        <v>32.33</v>
       </c>
       <c r="P16" t="n">
-        <v>22</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1393,46 +1393,46 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.8200000000000001</v>
+        <v>-1.85</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>-0.6100000000000003</v>
       </c>
       <c r="E17" t="n">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-8.039999999999999</v>
+        <v>-10.55</v>
       </c>
       <c r="G17" t="n">
-        <v>8.120000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>9.759999999999998</v>
+        <v>8.84</v>
       </c>
       <c r="I17" t="n">
-        <v>14.75</v>
+        <v>16.67</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>-2.56</v>
+        <v>-1.28</v>
       </c>
       <c r="K17" t="n">
-        <v>3.51</v>
+        <v>0.1099999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>6.87</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>-10.92</v>
+        <v>-13.38</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>-4.18</v>
+        <v>-2.029999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>21.53</v>
+        <v>18.72</v>
       </c>
       <c r="P17" t="n">
-        <v>26.48</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1443,46 +1443,46 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2.78</v>
+        <v>3.160000000000001</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-3.16</v>
+        <v>-5.050000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-2.349999999999998</v>
+        <v>-2.739999999999998</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>-6.52</v>
+        <v>-6.23</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.109999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.47</v>
+        <v>3.73</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-4.33</v>
       </c>
       <c r="L18" t="n">
-        <v>4.59</v>
+        <v>7.9</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>-5.229999999999997</v>
+        <v>-5.569999999999997</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>-18.82</v>
+        <v>-17.64</v>
       </c>
       <c r="O18" t="n">
-        <v>12.02</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="P18" t="n">
-        <v>20.84</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1493,46 +1493,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3</v>
+        <v>-0.8399999999999999</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.29</v>
+        <v>6.339999999999999</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-1.58</v>
       </c>
       <c r="F19" t="n">
-        <v>7.66</v>
+        <v>8.749999999999996</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>20.04</v>
+        <v>20.41</v>
       </c>
       <c r="H19" t="n">
-        <v>28.45</v>
+        <v>27.87</v>
       </c>
       <c r="I19" t="n">
-        <v>16.45</v>
+        <v>18.25</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.45</v>
+        <v>-0.27</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>7.6</v>
+        <v>7.059999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>4.19</v>
+        <v>3.7</v>
       </c>
       <c r="M19" t="n">
-        <v>4.780000000000001</v>
+        <v>5.919999999999998</v>
       </c>
       <c r="N19" t="n">
-        <v>7.74</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>40.22000000000001</v>
+        <v>37.75</v>
       </c>
       <c r="P19" t="n">
-        <v>28.18</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1543,46 +1543,46 @@
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.220000000000001</v>
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>5.100000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>6.85</v>
+        <v>4.39</v>
       </c>
       <c r="F20" t="n">
-        <v>3.629999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="G20" t="n">
-        <v>17.77</v>
+        <v>18.01</v>
       </c>
       <c r="H20" t="n">
-        <v>25.97</v>
+        <v>25.18</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-1.950000000000003</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.48</v>
+        <v>-0.4299999999999999</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>5.91</v>
+        <v>5.82</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>0.75</v>
+        <v>9.67</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.420000000000002</v>
       </c>
       <c r="N20" t="n">
-        <v>5.470000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>37.74</v>
+        <v>35.06</v>
       </c>
       <c r="P20" t="n">
-        <v>9.780000000000001</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1593,46 +1593,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8500000000000001</v>
+        <v>-0.2599999999999998</v>
       </c>
       <c r="D21" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="E21" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="F21" t="n">
-        <v>7.93</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>6.55</v>
+        <v>9.23</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>62.48</v>
+        <v>56.51000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>8.649999999999999</v>
+        <v>12.11</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>4.36</v>
+        <v>3.51</v>
       </c>
       <c r="L21" t="n">
-        <v>6.12</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>5.050000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>-5.75</v>
+        <v>-2.18</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>74.25</v>
+        <v>66.39</v>
       </c>
       <c r="P21" t="n">
-        <v>20.38</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1643,46 +1643,46 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-4.21</v>
+        <v>-3.78</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8800000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-3.87</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1.84</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>40.65</v>
+        <v>37.40000000000001</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>40.25</v>
+        <v>41.67</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>2.689999999999998</v>
+        <v>4.009999999999998</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>-4.359999999999999</v>
+        <v>-3.21</v>
       </c>
       <c r="K22" t="n">
-        <v>3.57</v>
+        <v>2.93</v>
       </c>
       <c r="L22" t="n">
-        <v>3.09</v>
+        <v>1.41</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-4.719999999999999</v>
+        <v>-2.049999999999997</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>28.35</v>
+        <v>25.99</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>52.02</v>
+        <v>51.55</v>
       </c>
       <c r="P22" t="n">
-        <v>14.42</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1692,47 +1692,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.6200000000000001</v>
+      <c r="C23" s="2" t="n">
+        <v>-1.1</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.14</v>
+        <v>9.030000000000001</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>-0.54</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1.890000000000001</v>
+        <v>-0.5599999999999987</v>
       </c>
       <c r="G23" t="n">
-        <v>9.210000000000001</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>24.1</v>
+        <v>24.84</v>
       </c>
       <c r="I23" t="n">
-        <v>8.52</v>
+        <v>10.43</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.77</v>
+        <v>-0.53</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>8.42</v>
+        <v>9.75</v>
       </c>
       <c r="L23" t="n">
-        <v>6.04</v>
+        <v>4.74</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>-4.77</v>
+        <v>-3.389999999999997</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>-3.09</v>
+        <v>-2.709999999999999</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>35.87</v>
+        <v>34.72</v>
       </c>
       <c r="P23" t="n">
-        <v>20.25</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1743,46 +1743,46 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>-0.6499999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.57</v>
+        <v>-0.8099999999999998</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>-1.32</v>
       </c>
       <c r="F24" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G24" t="n">
-        <v>19.82</v>
+        <v>5.140000000000001</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>21.75</v>
       </c>
       <c r="H24" t="n">
-        <v>21.31</v>
+        <v>19.23</v>
       </c>
       <c r="I24" t="n">
-        <v>12.28</v>
+        <v>13.95</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.6799999999999999</v>
+        <v>-0.24</v>
       </c>
       <c r="K24" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="L24" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>0.9600000000000009</v>
+        <v>3.96</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.310000000000002</v>
       </c>
       <c r="N24" t="n">
-        <v>7.520000000000001</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>33.08000000000001</v>
+        <v>10.34</v>
+      </c>
+      <c r="O24" t="n">
+        <v>29.11</v>
       </c>
       <c r="P24" t="n">
-        <v>24.01000000000001</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1793,19 +1793,19 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-1.68</v>
+        <v>-2.26</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8299999999999998</v>
+        <v>1.17</v>
       </c>
       <c r="E25" t="n">
-        <v>5.530000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="F25" t="n">
-        <v>10.97</v>
+        <v>12.82</v>
       </c>
       <c r="G25" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1814,19 +1814,19 @@
         <v>19</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>-1.83</v>
+        <v>-1.69</v>
       </c>
       <c r="K25" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9.43</v>
+        <v>1.89</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>9.719999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.199999999999999</v>
+        <v>9.989999999999998</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>2.790000000000001</v>
       </c>
       <c r="O25" t="s">
         <v>19</v>
@@ -1842,44 +1842,44 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="n">
-        <v>-0.45</v>
+      <c r="C26" s="2" t="n">
+        <v>-2.46</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>6.790000000000001</v>
+        <v>7.079999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>4.35</v>
+        <v>4.91</v>
       </c>
       <c r="F26" t="n">
-        <v>7.82</v>
+        <v>10.43</v>
       </c>
       <c r="G26" t="n">
-        <v>16.01</v>
+        <v>14.81</v>
       </c>
       <c r="H26" t="n">
-        <v>28.9</v>
+        <v>24.9</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="J26" t="n">
-        <v>-0.5999999999999999</v>
+      <c r="J26" s="2" t="n">
+        <v>-1.89</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8.25</v>
+        <v>7.799999999999999</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>10.19</v>
       </c>
       <c r="M26" t="n">
-        <v>4.940000000000001</v>
+        <v>7.600000000000005</v>
       </c>
       <c r="N26" t="n">
-        <v>3.709999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>40.67</v>
+        <v>34.78</v>
       </c>
       <c r="P26" t="s">
         <v>19</v>
@@ -1893,46 +1893,46 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="F27" t="n">
-        <v>12.99</v>
+        <v>-2.01</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>4.930000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>13.38</v>
       </c>
       <c r="G27" t="n">
-        <v>17.3</v>
+        <v>16.26</v>
       </c>
       <c r="H27" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.869999999999999</v>
+        <v>28.85</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>5.309999999999999</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>-1.73</v>
+        <v>-1.44</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>6.1</v>
+        <v>5.65</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>14.19</v>
+        <v>13.2</v>
       </c>
       <c r="M27" t="n">
-        <v>10.11</v>
+        <v>10.55</v>
       </c>
       <c r="N27" t="n">
-        <v>4.999999999999998</v>
+        <v>4.85</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>39.51000000000001</v>
+        <v>38.73</v>
       </c>
       <c r="P27" t="n">
-        <v>17.6</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1943,46 +1943,46 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-2.04</v>
+        <v>-1.52</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>7.610000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="F28" t="n">
-        <v>7.530000000000001</v>
+        <v>7.499999999999996</v>
       </c>
       <c r="G28" t="n">
-        <v>14.07</v>
+        <v>15.17</v>
       </c>
       <c r="H28" t="n">
-        <v>16.44</v>
+        <v>16.18</v>
       </c>
       <c r="I28" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>-2.19</v>
+        <v>14.21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.95</v>
       </c>
       <c r="K28" t="n">
-        <v>2.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>11.51</v>
+        <v>10.03</v>
       </c>
       <c r="M28" t="n">
-        <v>4.650000000000002</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>1.77</v>
+        <v>4.669999999999998</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.76</v>
       </c>
       <c r="O28" t="n">
-        <v>28.21</v>
+        <v>26.06</v>
       </c>
       <c r="P28" t="n">
-        <v>24.15</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1993,46 +1993,46 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-1.35</v>
+        <v>-1.53</v>
       </c>
       <c r="D29" t="n">
-        <v>1.3</v>
+        <v>1.739999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>4.23</v>
+        <v>3.18</v>
       </c>
       <c r="F29" t="n">
-        <v>2.440000000000001</v>
+        <v>2.239999999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>3.239999999999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6.199999999999999</v>
+        <v>4.399999999999999</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>4.399999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>8.299999999999999</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>-1.5</v>
+        <v>10.67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.96</v>
       </c>
       <c r="K29" t="n">
-        <v>3.99</v>
+        <v>2.46</v>
       </c>
       <c r="L29" t="n">
-        <v>8.129999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>-0.4399999999999977</v>
+        <v>-0.5899999999999999</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>-9.06</v>
+        <v>-7.01</v>
       </c>
       <c r="O29" t="n">
-        <v>17.97</v>
+        <v>14.28</v>
       </c>
       <c r="P29" t="n">
-        <v>20.03</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2043,46 +2043,46 @@
         <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>-0.6499999999999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.57</v>
+        <v>-0.8099999999999998</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>-1.32</v>
       </c>
       <c r="F30" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G30" t="n">
-        <v>19.82</v>
+        <v>5.140000000000001</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>21.75</v>
       </c>
       <c r="H30" t="n">
-        <v>21.31</v>
+        <v>19.23</v>
       </c>
       <c r="I30" t="n">
-        <v>12.28</v>
+        <v>13.95</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.6799999999999999</v>
+        <v>-0.24</v>
       </c>
       <c r="K30" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="L30" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>0.9600000000000009</v>
+        <v>3.96</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.310000000000002</v>
       </c>
       <c r="N30" t="n">
-        <v>7.520000000000001</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>33.08000000000001</v>
+        <v>10.34</v>
+      </c>
+      <c r="O30" t="n">
+        <v>29.11</v>
       </c>
       <c r="P30" t="n">
-        <v>24.01000000000001</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2092,47 +2092,47 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="n">
-        <v>-0.07000000000000006</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.38</v>
+      <c r="C31" s="2" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>-1.35</v>
       </c>
       <c r="F31" t="n">
-        <v>5.390000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="G31" t="n">
-        <v>13.98</v>
+        <v>14.02</v>
       </c>
       <c r="H31" t="n">
-        <v>15.8</v>
+        <v>15.74</v>
       </c>
       <c r="I31" t="n">
-        <v>8.659999999999998</v>
+        <v>10.35</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.22</v>
+        <v>-0.55</v>
       </c>
       <c r="K31" t="n">
-        <v>1.29</v>
+        <v>0.8800000000000003</v>
       </c>
       <c r="L31" t="n">
-        <v>5.28</v>
+        <v>3.93</v>
       </c>
       <c r="M31" t="n">
-        <v>2.510000000000002</v>
+        <v>2.830000000000002</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.68</v>
+        <v>2.610000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>27.57</v>
+        <v>25.62</v>
       </c>
       <c r="P31" t="n">
-        <v>20.39</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2143,43 +2143,43 @@
         <v>69</v>
       </c>
       <c r="C32" t="n">
-        <v>1.07</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6099999999999999</v>
+        <v>-1.34</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>-0.9</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.1900000000000013</v>
+        <v>-0.870000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>10.32</v>
+        <v>11.83</v>
       </c>
       <c r="H32" t="n">
-        <v>12.15</v>
+        <v>11.14</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.8200000000000001</v>
+        <v>1.15</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>-0.6200000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>4.51</v>
+        <v>4.38</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>-2.689999999999998</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>-1.98</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>23.92</v>
+        <v>21.02</v>
       </c>
       <c r="P32" t="s">
         <v>19</v>
@@ -2193,46 +2193,46 @@
         <v>71</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.3199999999999998</v>
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>4.739999999999999</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>-0.09999999999999998</v>
       </c>
       <c r="F33" t="n">
-        <v>10.25</v>
+        <v>12.92</v>
       </c>
       <c r="G33" t="n">
-        <v>14.69</v>
+        <v>12.15</v>
       </c>
       <c r="H33" t="n">
-        <v>19.3</v>
+        <v>18.57</v>
       </c>
       <c r="I33" t="n">
-        <v>5.859999999999999</v>
+        <v>6.739999999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0.5299999999999998</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>6.3</v>
+        <v>5.459999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>4.22</v>
+        <v>5.18</v>
       </c>
       <c r="M33" t="n">
-        <v>7.370000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.390000000000001</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>31.07</v>
+        <v>10.09</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>0.7400000000000002</v>
+      </c>
+      <c r="O33" t="n">
+        <v>28.45</v>
       </c>
       <c r="P33" t="n">
-        <v>17.59</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2242,47 +2242,47 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.6600000000000001</v>
+      <c r="C34" s="2" t="n">
+        <v>-1.11</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2.85</v>
+        <v>-1.32</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-1.28</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.3200000000000003</v>
+        <v>-0.7100000000000009</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>22.64</v>
+        <v>24.61</v>
       </c>
       <c r="H34" t="n">
-        <v>22.77</v>
+        <v>21.45</v>
       </c>
       <c r="I34" t="n">
-        <v>4.759999999999998</v>
+        <v>7.119999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.54</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-2.01</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>6.75</v>
+        <v>4</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>-2.559999999999999</v>
+        <v>-3.539999999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>10.34</v>
+        <v>13.2</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>34.54</v>
+        <v>31.33</v>
       </c>
       <c r="P34" t="n">
-        <v>16.49</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2293,46 +2293,46 @@
         <v>75</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="D35" t="n">
-        <v>2.27</v>
+        <v>2.71</v>
       </c>
       <c r="E35" t="n">
-        <v>9.76</v>
+        <v>8.42</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>18.75</v>
+        <v>20.2</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>29.32</v>
+        <v>29.06</v>
       </c>
       <c r="H35" t="n">
-        <v>8.740000000000002</v>
+        <v>9.150000000000002</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>3.07</v>
+        <v>4.16</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3500000000000001</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>4.96</v>
+        <v>1.62</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.43</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>15.87</v>
+        <v>17.37</v>
       </c>
       <c r="N35" t="n">
-        <v>17.02</v>
+        <v>17.65</v>
       </c>
       <c r="O35" t="n">
-        <v>20.51000000000001</v>
+        <v>19.03</v>
       </c>
       <c r="P35" t="n">
-        <v>14.8</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2343,46 +2343,46 @@
         <v>77</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.5800000000000001</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.41</v>
+        <v>-0.9499999999999997</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>4.97</v>
       </c>
       <c r="E36" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F36" t="n">
-        <v>13.32</v>
+        <v>0.59</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>13.3</v>
       </c>
       <c r="G36" t="n">
-        <v>10.3</v>
+        <v>10.23</v>
       </c>
       <c r="H36" t="n">
-        <v>6.969999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>2.02</v>
+        <v>5.079999999999998</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.73</v>
+        <v>-0.3799999999999999</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>6.1</v>
+        <v>5.69</v>
       </c>
       <c r="L36" t="n">
-        <v>6.46</v>
+        <v>5.87</v>
       </c>
       <c r="M36" t="n">
-        <v>10.44</v>
+        <v>10.47</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>-2</v>
+        <v>-1.18</v>
       </c>
       <c r="O36" t="n">
-        <v>18.74</v>
+        <v>16.56</v>
       </c>
       <c r="P36" t="n">
-        <v>13.75</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2393,46 +2393,46 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3.79</v>
+        <v>-1.18</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>6.69</v>
       </c>
       <c r="E37" t="n">
-        <v>9.140000000000001</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>8.859999999999999</v>
+        <v>9.690000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>8.25</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-8.050000000000001</v>
+        <v>-9.120000000000001</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>-1.34</v>
+        <v>1.460000000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.61</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>6.48</v>
+        <v>7.41</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>13.04</v>
+        <v>11.35</v>
       </c>
       <c r="M37" t="n">
-        <v>5.98</v>
+        <v>6.860000000000003</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>-4.050000000000001</v>
+        <v>-2.469999999999999</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>3.720000000000001</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="P37" t="n">
-        <v>12.82</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -50,16 +50,37 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>040020</t>
+  </si>
+  <si>
+    <t>华安升级主题混合</t>
+  </si>
+  <si>
+    <t>001694</t>
+  </si>
+  <si>
+    <t>华安沪港深外延增长混合</t>
+  </si>
+  <si>
     <t>005267</t>
   </si>
   <si>
     <t>嘉实价值精选股票</t>
   </si>
   <si>
-    <t>001694</t>
-  </si>
-  <si>
-    <t>华安沪港深外延增长混合</t>
+    <t>005760</t>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>001508</t>
+  </si>
+  <si>
+    <t>富国新动力灵活配置混合A</t>
   </si>
   <si>
     <t>000566</t>
@@ -68,19 +89,154 @@
     <t>华泰柏瑞创新升级混合A</t>
   </si>
   <si>
-    <t>005760</t>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>001508</t>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合A</t>
+    <t>008186</t>
+  </si>
+  <si>
+    <t>淳厚信睿混合A</t>
+  </si>
+  <si>
+    <t>168002</t>
+  </si>
+  <si>
+    <t>国寿安保策略精选混合(LOF)</t>
+  </si>
+  <si>
+    <t>673100</t>
+  </si>
+  <si>
+    <t>西部利得沪深300指数增强A</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>西部利得量化成长混合</t>
+  </si>
+  <si>
+    <t>006327</t>
+  </si>
+  <si>
+    <t>易方达中证海外联接人民币A</t>
+  </si>
+  <si>
+    <t>501090</t>
+  </si>
+  <si>
+    <t>华宝中证消费龙头指数(LOF)A</t>
+  </si>
+  <si>
+    <t>001714</t>
+  </si>
+  <si>
+    <t>工银文体产业股票A</t>
+  </si>
+  <si>
+    <t>001182</t>
+  </si>
+  <si>
+    <t>易方达安心回馈混合</t>
+  </si>
+  <si>
+    <t>000251</t>
+  </si>
+  <si>
+    <t>工银金融地产混合A</t>
+  </si>
+  <si>
+    <t>163415</t>
+  </si>
+  <si>
+    <t>兴全商业模式优选混合</t>
+  </si>
+  <si>
+    <t>163406</t>
+  </si>
+  <si>
+    <t>兴全合润分级混合</t>
+  </si>
+  <si>
+    <t>003889</t>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+  </si>
+  <si>
+    <t>001410</t>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票</t>
+  </si>
+  <si>
+    <t>001938</t>
+  </si>
+  <si>
+    <t>中欧时代先锋股票A</t>
+  </si>
+  <si>
+    <t>519772</t>
+  </si>
+  <si>
+    <t>交银新生活力灵活配置混合</t>
+  </si>
+  <si>
+    <t>007412</t>
+  </si>
+  <si>
+    <t>景顺长城绩优成长混合</t>
+  </si>
+  <si>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹精选混合</t>
+  </si>
+  <si>
+    <t>002846</t>
+  </si>
+  <si>
+    <t>泓德泓华混合</t>
+  </si>
+  <si>
+    <t>001500</t>
+  </si>
+  <si>
+    <t>泓德远见回报混合</t>
+  </si>
+  <si>
+    <t>519069</t>
+  </si>
+  <si>
+    <t>汇添富价值精选混合A</t>
+  </si>
+  <si>
+    <t>519736</t>
+  </si>
+  <si>
+    <t>交银新成长混合</t>
+  </si>
+  <si>
+    <t>005001</t>
+  </si>
+  <si>
+    <t>交银持续成长主题混合</t>
+  </si>
+  <si>
+    <t>001605</t>
+  </si>
+  <si>
+    <t>国富沪港深成长精选股票</t>
+  </si>
+  <si>
+    <t>160133</t>
+  </si>
+  <si>
+    <t>南方天元新产业股票(LOF)</t>
+  </si>
+  <si>
+    <t>000991</t>
+  </si>
+  <si>
+    <t>工银战略转型股票</t>
   </si>
   <si>
     <t>000628</t>
@@ -93,156 +249,6 @@
   </si>
   <si>
     <t>国富中小盘股票</t>
-  </si>
-  <si>
-    <t>008186</t>
-  </si>
-  <si>
-    <t>淳厚信睿混合A</t>
-  </si>
-  <si>
-    <t>168002</t>
-  </si>
-  <si>
-    <t>国寿安保策略精选混合(LOF)</t>
-  </si>
-  <si>
-    <t>673100</t>
-  </si>
-  <si>
-    <t>西部利得沪深300指数增强A</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>西部利得量化成长混合</t>
-  </si>
-  <si>
-    <t>006327</t>
-  </si>
-  <si>
-    <t>易方达中证海外联接人民币A</t>
-  </si>
-  <si>
-    <t>501090</t>
-  </si>
-  <si>
-    <t>华宝中证消费龙头指数(LOF)A</t>
-  </si>
-  <si>
-    <t>001714</t>
-  </si>
-  <si>
-    <t>工银文体产业股票A</t>
-  </si>
-  <si>
-    <t>001182</t>
-  </si>
-  <si>
-    <t>易方达安心回馈混合</t>
-  </si>
-  <si>
-    <t>000251</t>
-  </si>
-  <si>
-    <t>工银金融地产混合A</t>
-  </si>
-  <si>
-    <t>163415</t>
-  </si>
-  <si>
-    <t>兴全商业模式优选混合</t>
-  </si>
-  <si>
-    <t>163406</t>
-  </si>
-  <si>
-    <t>兴全合润分级混合</t>
-  </si>
-  <si>
-    <t>003889</t>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-  </si>
-  <si>
-    <t>001410</t>
-  </si>
-  <si>
-    <t>信达澳银新能源产业股票</t>
-  </si>
-  <si>
-    <t>001938</t>
-  </si>
-  <si>
-    <t>中欧时代先锋股票A</t>
-  </si>
-  <si>
-    <t>519772</t>
-  </si>
-  <si>
-    <t>交银新生活力灵活配置混合</t>
-  </si>
-  <si>
-    <t>007412</t>
-  </si>
-  <si>
-    <t>景顺长城绩优成长混合</t>
-  </si>
-  <si>
-    <t>005827</t>
-  </si>
-  <si>
-    <t>易方达蓝筹精选混合</t>
-  </si>
-  <si>
-    <t>002846</t>
-  </si>
-  <si>
-    <t>泓德泓华混合</t>
-  </si>
-  <si>
-    <t>001500</t>
-  </si>
-  <si>
-    <t>泓德远见回报混合</t>
-  </si>
-  <si>
-    <t>519069</t>
-  </si>
-  <si>
-    <t>汇添富价值精选混合A</t>
-  </si>
-  <si>
-    <t>519736</t>
-  </si>
-  <si>
-    <t>交银新成长混合</t>
-  </si>
-  <si>
-    <t>005001</t>
-  </si>
-  <si>
-    <t>交银持续成长主题混合</t>
-  </si>
-  <si>
-    <t>001605</t>
-  </si>
-  <si>
-    <t>国富沪港深成长精选股票</t>
-  </si>
-  <si>
-    <t>160133</t>
-  </si>
-  <si>
-    <t>南方天元新产业股票(LOF)</t>
-  </si>
-  <si>
-    <t>000991</t>
-  </si>
-  <si>
-    <t>工银战略转型股票</t>
   </si>
   <si>
     <t>470098</t>
@@ -602,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,47 +698,47 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>6.62</v>
+      <c r="C3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.83</v>
       </c>
       <c r="E3" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.330000000000002</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>5.809999999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J3" s="1" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.97</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.500000000000004</v>
+      <c r="L3" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>17.14</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.69</v>
+        <v>-1.790000000000001</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>33.81</v>
       </c>
       <c r="P3" t="n">
-        <v>21.26</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -743,46 +749,46 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8399999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="D4" t="n">
-        <v>2.42</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>2.75</v>
+        <v>1.44</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>21.01</v>
+        <v>22.93</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>20.4</v>
+        <v>22.46</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>39.73</v>
+        <v>37.17</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.41</v>
+        <v>1.759999999999998</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.27</v>
+        <v>0.18</v>
       </c>
       <c r="K4" t="n">
-        <v>3.14</v>
+        <v>2.24</v>
       </c>
       <c r="L4" t="n">
-        <v>8.030000000000001</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>18.18</v>
+        <v>20.15</v>
       </c>
       <c r="N4" t="n">
-        <v>8.99</v>
+        <v>10.68</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>49.61</v>
+        <v>48</v>
       </c>
       <c r="P4" t="n">
-        <v>12.97</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -792,47 +798,47 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>-2.66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-3.03</v>
+      <c r="C5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.83</v>
       </c>
       <c r="F5" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16.01</v>
+        <v>8.16</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>1.38</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>4.34</v>
+        <v>5.809999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.25</v>
+        <v>9.569999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>11.67</v>
       </c>
       <c r="M5" t="n">
-        <v>7.360000000000003</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
+        <v>5.379999999999999</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>-10.4</v>
       </c>
       <c r="O5" t="n">
-        <v>14.22</v>
+        <v>16.64</v>
       </c>
       <c r="P5" t="n">
-        <v>24.59</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -843,43 +849,43 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5499999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.1</v>
+        <v>-2.09</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.07999999999999999</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F6" t="n">
-        <v>8.940000000000001</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>24.92</v>
+        <v>25.57</v>
       </c>
       <c r="H6" t="n">
-        <v>17.56</v>
+        <v>17.39</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-0.3799999999999999</v>
+        <v>0.19</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>-0.9500000000000002</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2</v>
+        <v>4.79</v>
       </c>
       <c r="M6" t="n">
-        <v>6.110000000000003</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="N6" t="n">
-        <v>13.51</v>
+        <v>13.79</v>
       </c>
       <c r="O6" t="n">
-        <v>27.44</v>
+        <v>28.22</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
@@ -893,46 +899,46 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9199999999999999</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-4.03</v>
+        <v>-5.68</v>
       </c>
       <c r="E7" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="F7" t="n">
-        <v>4.789999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>30.91</v>
+        <v>32.61</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>31.6</v>
+        <v>30.1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>33.23999999999999</v>
+        <v>33.19</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3500000000000001</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-3.31</v>
+        <v>-4.54</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>1.960000000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19.5</v>
+        <v>1.719999999999999</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>20.83</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>41.48</v>
+        <v>40.93000000000001</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>44.8</v>
+        <v>44.73</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -942,47 +948,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.21</v>
+      <c r="C8" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-3.89</v>
       </c>
       <c r="F8" t="n">
-        <v>12.77</v>
+        <v>11.38</v>
       </c>
       <c r="G8" t="n">
-        <v>6.649999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.870000000000001</v>
+        <v>17.41</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2.849999999999998</v>
       </c>
       <c r="I8" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>7.09</v>
+        <v>13.87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04000000000000004</v>
       </c>
       <c r="L8" t="n">
-        <v>7.49</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="M8" t="n">
-        <v>9.940000000000001</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>-4.76</v>
+        <v>8.599999999999998</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.630000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>17.75</v>
+        <v>13.68</v>
       </c>
       <c r="P8" t="n">
-        <v>20.92</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -992,47 +998,47 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1700000000000004</v>
+      <c r="C9" s="2" t="n">
+        <v>-1.01</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.72</v>
+        <v>-0.5499999999999998</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>-2.5</v>
       </c>
       <c r="F9" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.479999999999999</v>
+        <v>11.83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7400000000000002</v>
+        <v>-0.86</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>2.34</v>
       </c>
       <c r="M9" t="n">
-        <v>5.830000000000002</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>-6.989999999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="P9" t="n">
-        <v>18.04</v>
+        <v>9.050000000000001</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1042,47 +1048,47 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>-1.7</v>
+      <c r="C10" s="1" t="n">
+        <v>2.09</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9299999999999997</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-2.41</v>
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.98</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>-1.13</v>
+        <v>16.53</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>4.129999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>2.24</v>
       </c>
       <c r="K10" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M10" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>19</v>
+        <v>8.82</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.949999999999998</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="P10" t="n">
+        <v>26.21</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1093,46 +1099,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2200000000000002</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>3.279999999999999</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E11" t="n">
-        <v>4.529999999999999</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>14.51</v>
+        <v>2.58</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.34</v>
       </c>
       <c r="G11" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.370000000000001</v>
+        <v>11.48</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>3.479999999999997</v>
       </c>
       <c r="I11" t="n">
-        <v>14.42</v>
+        <v>9.209999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.79</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>9.809999999999999</v>
+        <v>1.34</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.42</v>
       </c>
       <c r="M11" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.479999999999999</v>
+        <v>2.559999999999999</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>-0.3000000000000007</v>
       </c>
       <c r="O11" t="n">
-        <v>17.25</v>
+        <v>14.31</v>
       </c>
       <c r="P11" t="n">
-        <v>25.98</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1143,46 +1149,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1799999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-2.8</v>
       </c>
       <c r="F12" t="n">
-        <v>5.030000000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3.369999999999997</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.209999999999999</v>
+        <v>9.790000000000003</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3899999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="K12" t="n">
-        <v>1.17</v>
+        <v>3.44</v>
       </c>
       <c r="L12" t="n">
-        <v>8.48</v>
+        <v>2.04</v>
       </c>
       <c r="M12" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="O12" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>20.77</v>
+        <v>7.010000000000002</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1192,20 +1198,20 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>-2.56</v>
+      <c r="C13" s="1" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.31</v>
       </c>
       <c r="F13" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>24.88</v>
+        <v>8.510000000000002</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.17</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1213,20 +1219,20 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.07</v>
+      <c r="J13" s="1" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>-3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.72</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>6.690000000000001</v>
+        <v>5.73</v>
       </c>
       <c r="N13" t="n">
-        <v>13.47</v>
+        <v>3.389999999999999</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
@@ -1242,20 +1248,20 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>-3.32</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>-2.2</v>
+      <c r="C14" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.73</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-4.649999999999999</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>23.74</v>
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -1263,20 +1269,20 @@
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>-7.479999999999997</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12.33</v>
+      <c r="J14" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -1292,47 +1298,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.2899999999999998</v>
+      <c r="C15" s="2" t="n">
+        <v>-1.95</v>
       </c>
       <c r="D15" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.23</v>
+        <v>1.7</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-0.28</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>4.550000000000001</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>9.51</v>
+        <v>14.98</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.56</v>
       </c>
       <c r="M15" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>19</v>
+        <v>12.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="P15" t="n">
+        <v>25.09</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1342,47 +1348,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.16</v>
+      <c r="C16" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-1.38</v>
       </c>
       <c r="E16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>13.42</v>
+        <v>2.81</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-9.93</v>
       </c>
       <c r="G16" t="n">
-        <v>19.49</v>
+        <v>9.98</v>
       </c>
       <c r="H16" t="n">
-        <v>22.45</v>
+        <v>7.699999999999996</v>
       </c>
       <c r="I16" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>-1.4</v>
+        <v>16.72</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.17</v>
       </c>
       <c r="K16" t="n">
-        <v>3.88</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="L16" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="M16" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>32.33</v>
+        <v>7.65</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>-1.800000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>18.53</v>
       </c>
       <c r="P16" t="n">
-        <v>25.01</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1392,47 +1398,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>-1.85</v>
+      <c r="C17" t="n">
+        <v>0.48</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.6100000000000003</v>
+        <v>-2.07</v>
       </c>
       <c r="E17" t="n">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-10.55</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8.84</v>
+        <v>-3.620000000000001</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0.5999999999999979</v>
       </c>
       <c r="I17" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1099999999999999</v>
+        <v>8.749999999999998</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>-0.9300000000000002</v>
       </c>
       <c r="L17" t="n">
-        <v>8.449999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>-13.38</v>
+        <v>-6.400000000000002</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>-2.029999999999999</v>
+        <v>-18.58</v>
       </c>
       <c r="O17" t="n">
-        <v>18.72</v>
+        <v>11.43</v>
       </c>
       <c r="P17" t="n">
-        <v>28.23</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1442,47 +1448,47 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>3.160000000000001</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>-5.050000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-2.739999999999998</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>-6.23</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.879999999999999</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25.84</v>
       </c>
       <c r="I18" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-4.33</v>
+        <v>18.64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>6.989999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>-5.569999999999997</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>-17.64</v>
-      </c>
-      <c r="O18" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="P18" t="n">
-        <v>20.75</v>
+        <v>2.54</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.099999999999998</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>30.18</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1493,46 +1499,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8399999999999999</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>6.339999999999999</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>-1.58</v>
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.180000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.98</v>
       </c>
       <c r="F19" t="n">
-        <v>8.749999999999996</v>
+        <v>5.16</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>20.41</v>
+        <v>20.22</v>
       </c>
       <c r="H19" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18.25</v>
+        <v>23.43</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0.4699999999999989</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.27</v>
+        <v>-0.79</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>7.059999999999999</v>
+        <v>5.32</v>
       </c>
       <c r="L19" t="n">
-        <v>3.7</v>
+        <v>7.82</v>
       </c>
       <c r="M19" t="n">
-        <v>5.919999999999998</v>
+        <v>2.379999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>9.000000000000002</v>
+        <v>8.44</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>37.75</v>
+        <v>34.26000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>29.81</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1543,46 +1549,46 @@
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>5.100000000000001</v>
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.98</v>
       </c>
       <c r="E20" t="n">
-        <v>4.39</v>
+        <v>1.61</v>
       </c>
       <c r="F20" t="n">
-        <v>4.25</v>
+        <v>5.379999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25.18</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>10.62</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>55.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.1</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4299999999999999</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>9.67</v>
+        <v>-0.66</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.420000000000002</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.6</v>
+        <v>2.599999999999998</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>-1.16</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>35.06</v>
+        <v>66.77000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>11.56</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1593,46 +1599,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2599999999999998</v>
+        <v>-0.47</v>
       </c>
       <c r="D21" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.02</v>
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>-5</v>
       </c>
       <c r="F21" t="n">
-        <v>5.859999999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9.23</v>
+        <v>4.150000000000002</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>40.47</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>56.51000000000001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.11</v>
+        <v>35.78</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>4.59</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3100000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="K21" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.3</v>
+        <v>1.29</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>-0.1600000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>3.030000000000001</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>-2.18</v>
+        <v>1.370000000000001</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>28.69</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>66.39</v>
+        <v>46.61</v>
       </c>
       <c r="P21" t="n">
-        <v>23.67</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1642,47 +1648,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>-3.78</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.21</v>
+      <c r="C22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>6.370000000000001</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-3.87</v>
+        <v>-1.39</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.7800000000000011</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>37.40000000000001</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>4.009999999999998</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.93</v>
+        <v>0.9400000000000013</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>7.510000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>3.45</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-2.049999999999997</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>25.99</v>
+        <v>-1.84</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>-1.610000000000001</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>51.55</v>
+        <v>33.27</v>
       </c>
       <c r="P22" t="n">
-        <v>15.57</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1693,46 +1699,46 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>9.030000000000001</v>
+        <v>-1.61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2000000000000002</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-0.5599999999999987</v>
-      </c>
-      <c r="G23" t="n">
-        <v>8.700000000000001</v>
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.960000000000001</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>24.75</v>
       </c>
       <c r="H23" t="n">
-        <v>24.84</v>
+        <v>16.33</v>
       </c>
       <c r="I23" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>9.75</v>
+        <v>14.38</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.34</v>
       </c>
       <c r="L23" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>-3.389999999999997</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>-2.709999999999999</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>34.72</v>
+        <v>4.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="O23" t="n">
+        <v>27.16</v>
       </c>
       <c r="P23" t="n">
-        <v>21.99</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1743,46 +1749,46 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8099999999999998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5.140000000000001</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="H24" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13.95</v>
+        <v>-0.77</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.24</v>
+        <v>-0.62</v>
       </c>
       <c r="K24" t="n">
-        <v>1.84</v>
+        <v>-0.23</v>
       </c>
       <c r="L24" t="n">
-        <v>3.96</v>
+        <v>6.64</v>
       </c>
       <c r="M24" t="n">
-        <v>2.310000000000002</v>
+        <v>11.74</v>
       </c>
       <c r="N24" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="O24" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="P24" t="n">
-        <v>25.51</v>
+        <v>5.529999999999999</v>
+      </c>
+      <c r="O24" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1792,44 +1798,44 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>-2.26</v>
+      <c r="C25" t="n">
+        <v>-0.25</v>
       </c>
       <c r="D25" t="n">
-        <v>1.17</v>
+        <v>4.24</v>
       </c>
       <c r="E25" t="n">
-        <v>4.44</v>
+        <v>2.08</v>
       </c>
       <c r="F25" t="n">
-        <v>12.82</v>
+        <v>11.09</v>
       </c>
       <c r="G25" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
+        <v>18.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23.23</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="2" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>9.719999999999999</v>
+      <c r="J25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.92</v>
       </c>
       <c r="M25" t="n">
-        <v>9.989999999999998</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>2.790000000000001</v>
-      </c>
-      <c r="O25" t="s">
-        <v>19</v>
+        <v>8.309999999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.019999999999998</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>34.06</v>
       </c>
       <c r="P25" t="s">
         <v>19</v>
@@ -1842,47 +1848,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>-2.46</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>7.079999999999999</v>
+      <c r="C26" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.87</v>
       </c>
       <c r="E26" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10.43</v>
+        <v>6.19</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>15.05</v>
       </c>
       <c r="G26" t="n">
-        <v>14.81</v>
+        <v>17.19</v>
       </c>
       <c r="H26" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>-1.89</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>7.799999999999999</v>
+        <v>28.39</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>5.839999999999998</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.01</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>10.19</v>
+        <v>11.03</v>
       </c>
       <c r="M26" t="n">
-        <v>7.600000000000005</v>
+        <v>12.27</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>5.409999999999998</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>34.78</v>
-      </c>
-      <c r="P26" t="s">
-        <v>19</v>
+        <v>39.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>17.38</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1892,47 +1898,47 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>4.930000000000001</v>
+      <c r="C27" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>-1.15</v>
       </c>
       <c r="E27" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>13.38</v>
+        <v>3.24</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.260000000000002</v>
       </c>
       <c r="G27" t="n">
-        <v>16.26</v>
+        <v>16.99</v>
       </c>
       <c r="H27" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>5.309999999999999</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>13.2</v>
+        <v>14.18</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.01000000000000023</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8.08</v>
       </c>
       <c r="M27" t="n">
-        <v>10.55</v>
+        <v>6.48</v>
       </c>
       <c r="N27" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>38.73</v>
+        <v>5.209999999999999</v>
+      </c>
+      <c r="O27" t="n">
+        <v>25.01</v>
       </c>
       <c r="P27" t="n">
-        <v>16.87</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1943,146 +1949,146 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-1.52</v>
+        <v>-1.13</v>
       </c>
       <c r="D28" t="n">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.620000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="M28" s="2" t="n">
         <v>-0.1600000000000001</v>
       </c>
-      <c r="E28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7.499999999999996</v>
-      </c>
-      <c r="G28" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.669999999999998</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.76</v>
+      <c r="N28" s="2" t="n">
+        <v>-6.48</v>
       </c>
       <c r="O28" t="n">
-        <v>26.06</v>
+        <v>14.51</v>
       </c>
       <c r="P28" t="n">
-        <v>25.77</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-1.53</v>
+        <v>-1.61</v>
       </c>
       <c r="D29" t="n">
-        <v>1.739999999999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.18</v>
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-0.8300000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>2.239999999999998</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>4.399999999999999</v>
+        <v>3.960000000000001</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>16.33</v>
       </c>
       <c r="I29" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-0.96</v>
+        <v>14.38</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-1.46</v>
       </c>
       <c r="K29" t="n">
-        <v>2.46</v>
+        <v>1.34</v>
       </c>
       <c r="L29" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>-0.5899999999999999</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>-7.01</v>
+        <v>4.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12.97</v>
       </c>
       <c r="O29" t="n">
-        <v>14.28</v>
+        <v>27.16</v>
       </c>
       <c r="P29" t="n">
-        <v>22.23</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.8099999999999998</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>-1.73</v>
       </c>
       <c r="D30" t="n">
-        <v>1.12</v>
+        <v>-0.3699999999999997</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.32</v>
+        <v>-1.31</v>
       </c>
       <c r="F30" t="n">
-        <v>5.140000000000001</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>21.75</v>
+        <v>4.16</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15.44</v>
       </c>
       <c r="H30" t="n">
-        <v>19.23</v>
+        <v>15.61</v>
       </c>
       <c r="I30" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-0.24</v>
+        <v>10.92</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>-1.58</v>
       </c>
       <c r="K30" t="n">
-        <v>1.84</v>
+        <v>0.77</v>
       </c>
       <c r="L30" t="n">
-        <v>3.96</v>
+        <v>3.53</v>
       </c>
       <c r="M30" t="n">
-        <v>2.310000000000002</v>
+        <v>1.379999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>10.34</v>
+        <v>3.659999999999998</v>
       </c>
       <c r="O30" t="n">
-        <v>29.11</v>
+        <v>26.44</v>
       </c>
       <c r="P30" t="n">
-        <v>25.51</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2092,47 +2098,47 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>-1.12</v>
+      <c r="C31" t="n">
+        <v>-0.72</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1600000000000001</v>
+        <v>-0.3299999999999996</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.66</v>
+        <v>-0.2100000000000001</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>-2.169999999999998</v>
       </c>
       <c r="G31" t="n">
-        <v>14.02</v>
+        <v>13.89</v>
       </c>
       <c r="H31" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10.35</v>
+        <v>9.089999999999996</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.55</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8800000000000003</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.830000000000002</v>
+        <v>4.63</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>-4.949999999999999</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.610000000000001</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>25.62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>21.91</v>
+        <v>19.92</v>
+      </c>
+      <c r="P31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2143,46 +2149,46 @@
         <v>69</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>-1.34</v>
+        <v>-0.37</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>4.609999999999999</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-0.870000000000001</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.45</v>
       </c>
       <c r="G32" t="n">
-        <v>11.83</v>
+        <v>13.7</v>
       </c>
       <c r="H32" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
+        <v>18.06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.569999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>-0.6200000000000001</v>
+        <v>-0.22</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>5.749999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>-3.699999999999999</v>
+        <v>4.15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.669999999999998</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0.4199999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="O32" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="P32" t="s">
-        <v>19</v>
+        <v>28.89</v>
+      </c>
+      <c r="P32" t="n">
+        <v>18.11</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2192,47 +2198,47 @@
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>4.739999999999999</v>
+      <c r="C33" s="2" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>-1.72</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="F33" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="G33" t="n">
-        <v>12.15</v>
+        <v>-1.13</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>-1.719999999999999</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>26.9</v>
       </c>
       <c r="H33" t="n">
-        <v>18.57</v>
+        <v>19.69</v>
       </c>
       <c r="I33" t="n">
-        <v>6.739999999999998</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5299999999999998</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>5.459999999999999</v>
+        <v>7.359999999999998</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>-0.5800000000000001</v>
       </c>
       <c r="L33" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="M33" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>0.7400000000000002</v>
-      </c>
-      <c r="O33" t="n">
-        <v>28.45</v>
+        <v>3.71</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>30.52</v>
       </c>
       <c r="P33" t="n">
-        <v>18.3</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2242,47 +2248,47 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>-0.7100000000000009</v>
+      <c r="C34" t="n">
+        <v>0.9400000000000002</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>21.56</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>24.61</v>
+        <v>31.04</v>
       </c>
       <c r="H34" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.119999999999999</v>
+        <v>7.350000000000001</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>3.93</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>-3.539999999999999</v>
+        <v>1.09</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>18.78</v>
       </c>
       <c r="N34" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>31.33</v>
+        <v>19.26</v>
+      </c>
+      <c r="O34" t="n">
+        <v>18.18</v>
       </c>
       <c r="P34" t="n">
-        <v>18.68</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2293,46 +2299,46 @@
         <v>75</v>
       </c>
       <c r="C35" t="n">
-        <v>1.05</v>
+        <v>-0.28</v>
       </c>
       <c r="D35" t="n">
-        <v>2.71</v>
+        <v>3.930000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>29.06</v>
+        <v>2.05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8.06</v>
       </c>
       <c r="H35" t="n">
-        <v>9.150000000000002</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>4.16</v>
+        <v>7.740000000000002</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.509999999999998</v>
       </c>
       <c r="J35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="N35" t="n">
-        <v>17.65</v>
+        <v>-0.13</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>-3.720000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>19.03</v>
+        <v>18.57</v>
       </c>
       <c r="P35" t="n">
-        <v>15.72</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2343,46 +2349,46 @@
         <v>77</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9499999999999997</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>4.97</v>
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>-0.8299999999999996</v>
       </c>
       <c r="E36" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>13.3</v>
+        <v>2.67</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.129999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>10.23</v>
+        <v>5.7</v>
       </c>
       <c r="H36" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>5.079999999999998</v>
+        <v>12.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.709999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.3799999999999999</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>5.69</v>
+        <v>0.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.3100000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>5.87</v>
+        <v>7.51</v>
       </c>
       <c r="M36" t="n">
-        <v>10.47</v>
+        <v>5.349999999999998</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>-1.18</v>
+        <v>-6.080000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>16.56</v>
+        <v>23.73</v>
       </c>
       <c r="P36" t="n">
-        <v>16.64</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2392,47 +2398,97 @@
       <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>6.69</v>
+      <c r="C37" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.279999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>6.069999999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9.690000000000001</v>
+        <v>0.61</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>13.76</v>
       </c>
       <c r="G37" t="n">
-        <v>8.940000000000001</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>-9.120000000000001</v>
+        <v>10.07</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6.490000000000002</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>1.460000000000001</v>
+        <v>4.939999999999998</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.61</v>
+        <v>-0.32</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>11.35</v>
+        <v>5.419999999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.45</v>
       </c>
       <c r="M37" t="n">
-        <v>6.860000000000003</v>
+        <v>10.98</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>-2.469999999999999</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>0.7599999999999998</v>
+        <v>-1.710000000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>17.32</v>
       </c>
       <c r="P37" t="n">
-        <v>13.02</v>
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>-11.52</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9.639999999999997</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>-1.090000000000002</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>-0.6899999999999995</v>
+      </c>
+      <c r="P38" t="n">
+        <v>12.94</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -50,37 +50,43 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>519773</t>
+  </si>
+  <si>
+    <t>交银数据产业灵活配置混合</t>
+  </si>
+  <si>
     <t>040020</t>
   </si>
   <si>
     <t>华安升级主题混合</t>
   </si>
   <si>
+    <t>005267</t>
+  </si>
+  <si>
+    <t>嘉实价值精选股票</t>
+  </si>
+  <si>
+    <t>005760</t>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>001508</t>
+  </si>
+  <si>
+    <t>富国新动力灵活配置混合A</t>
+  </si>
+  <si>
     <t>001694</t>
   </si>
   <si>
     <t>华安沪港深外延增长混合</t>
-  </si>
-  <si>
-    <t>005267</t>
-  </si>
-  <si>
-    <t>嘉实价值精选股票</t>
-  </si>
-  <si>
-    <t>005760</t>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>001508</t>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合A</t>
   </si>
   <si>
     <t>000566</t>
@@ -286,12 +292,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="2" tint="0.5"/>
+        <fgColor indexed="3" tint="0.5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="3" tint="0.5"/>
+        <fgColor indexed="2" tint="0.5"/>
       </patternFill>
     </fill>
   </fills>
@@ -698,47 +704,47 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22.98</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1.879999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.97</v>
+      <c r="C3" s="1" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.960000000000001</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>46.04000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-2.35</v>
       </c>
       <c r="L3" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>-1.790000000000001</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>33.81</v>
+        <v>1.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.490000000000002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>57.41</v>
       </c>
       <c r="P3" t="n">
-        <v>13.42</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -749,46 +755,46 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.5900000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>1.100000000000001</v>
+        <v>2.69</v>
       </c>
       <c r="E4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>37.17</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1.759999999999998</v>
+        <v>4.5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.18</v>
+        <v>1.18</v>
       </c>
       <c r="K4" t="n">
-        <v>2.24</v>
+        <v>4.16</v>
       </c>
       <c r="L4" t="n">
-        <v>6.279999999999999</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>48</v>
+        <v>8.4</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-1.109999999999999</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>34.03</v>
       </c>
       <c r="P4" t="n">
-        <v>13.3</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -798,47 +804,47 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>9.15</v>
+      <c r="C5" s="1" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>10.66</v>
       </c>
       <c r="E5" t="n">
-        <v>6.83</v>
+        <v>7.25</v>
       </c>
       <c r="F5" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>5.809999999999999</v>
+        <v>7.130000000000003</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.650000000000002</v>
       </c>
       <c r="I5" t="n">
-        <v>9.569999999999999</v>
+        <v>8.569999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>11.67</v>
+        <v>0.73</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>11.15</v>
       </c>
       <c r="M5" t="n">
-        <v>5.379999999999999</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>-10.4</v>
+        <v>5.660000000000004</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>-11.04</v>
       </c>
       <c r="O5" t="n">
-        <v>16.64</v>
+        <v>18.02</v>
       </c>
       <c r="P5" t="n">
-        <v>21.11</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -849,43 +855,43 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>-0.05000000000000004</v>
+        <v>-0.4</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.3</v>
       </c>
       <c r="F6" t="n">
-        <v>8.379999999999999</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>25.57</v>
+        <v>9.409999999999997</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>25.61</v>
       </c>
       <c r="H6" t="n">
-        <v>17.39</v>
+        <v>17.25</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>-0.9500000000000002</v>
+        <v>1.37</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>-2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.79</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
-        <v>5.599999999999998</v>
+        <v>7.939999999999998</v>
       </c>
       <c r="N6" t="n">
-        <v>13.79</v>
+        <v>13.29</v>
       </c>
       <c r="O6" t="n">
-        <v>28.22</v>
+        <v>28.62</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
@@ -899,46 +905,46 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06999999999999995</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-5.68</v>
+        <v>-1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-7.07</v>
       </c>
       <c r="E7" t="n">
-        <v>0.52</v>
+        <v>1.08</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>33.19</v>
+        <v>6.920000000000002</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>32.66</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08000000000000002</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>-4.54</v>
+        <v>0.77</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>-5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>5.359999999999999</v>
+        <v>4.98</v>
       </c>
       <c r="M7" t="n">
-        <v>1.719999999999999</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>40.93000000000001</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>44.73</v>
+        <v>5.450000000000003</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>44.05</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -948,47 +954,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>-3.89</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17.41</v>
+      <c r="C8" s="1" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>20.64</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2.849999999999998</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.87</v>
+        <v>38.37</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1.550000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04000000000000004</v>
+        <v>1.57</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9500000000000002</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8.599999999999998</v>
+        <v>6.720000000000001</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>22</v>
       </c>
       <c r="N8" t="n">
-        <v>5.630000000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>13.68</v>
+        <v>8.32</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>49.74</v>
       </c>
       <c r="P8" t="n">
-        <v>25.41</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -998,47 +1004,47 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-0.5499999999999998</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>-2.5</v>
+      <c r="C9" s="1" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>-2.85</v>
       </c>
       <c r="F9" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
+        <v>11.35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.31</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.5899999999999999</v>
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>-0.6999999999999997</v>
       </c>
       <c r="L9" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="M9" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>19</v>
+        <v>9.880000000000003</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.120000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25.7</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1049,46 +1055,46 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6200000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>4.129999999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>2.24</v>
+        <v>-2.18</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.4099999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>1.76</v>
+        <v>-0.3199999999999998</v>
       </c>
       <c r="L10" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.949999999999998</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="P10" t="n">
-        <v>26.21</v>
+        <v>2.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1098,47 +1104,47 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.04999999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2000000000000002</v>
+      <c r="C11" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>-0.6600000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3.479999999999997</v>
+        <v>8.24</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>5.740000000000002</v>
       </c>
       <c r="I11" t="n">
-        <v>9.209999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.09999999999999998</v>
+        <v>14.68</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>-1.43</v>
       </c>
       <c r="K11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.42</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>12.14</v>
       </c>
       <c r="M11" t="n">
-        <v>2.559999999999999</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>-0.3000000000000007</v>
+        <v>12.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.030000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>14.31</v>
+        <v>17.11</v>
       </c>
       <c r="P11" t="n">
-        <v>20.75</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1149,46 +1155,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-2.8</v>
+        <v>0.2599999999999998</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.98</v>
       </c>
       <c r="F12" t="n">
-        <v>9.790000000000003</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
+        <v>4.489999999999998</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>3.469999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.59</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.55</v>
+        <v>1.37</v>
       </c>
       <c r="K12" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="L12" t="n">
-        <v>2.04</v>
+        <v>6.880000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>7.010000000000002</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="O12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" t="s">
-        <v>19</v>
+        <v>3.02</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>19.98</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1199,19 +1205,19 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>-4.34</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.31</v>
+        <v>-2.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-0.8200000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>8.510000000000002</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15.17</v>
+        <v>8.530000000000001</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>26.71</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1219,20 +1225,20 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-3.2</v>
+      <c r="J13" t="n">
+        <v>-0.8800000000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.17</v>
       </c>
       <c r="L13" t="n">
-        <v>6.149999999999999</v>
+        <v>3.08</v>
       </c>
       <c r="M13" t="n">
-        <v>5.73</v>
+        <v>7.060000000000002</v>
       </c>
       <c r="N13" t="n">
-        <v>3.389999999999999</v>
+        <v>14.39</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
@@ -1248,20 +1254,20 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
+      <c r="C14" s="2" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-6.41</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.409999999999997</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.6</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -1269,20 +1275,20 @@
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.87</v>
+      <c r="J14" s="2" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-4.94</v>
       </c>
       <c r="L14" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
+        <v>2.53</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.939999999999998</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.280000000000001</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -1298,47 +1304,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>-1.95</v>
+      <c r="C15" s="1" t="n">
+        <v>-2.18</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.84</v>
+        <v>4.22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.4099999999999999</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>5.69</v>
       </c>
       <c r="L15" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="O15" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="P15" t="n">
-        <v>25.09</v>
+        <v>5.34</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1348,47 +1354,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-1.38</v>
+      <c r="C16" s="1" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.08999999999999986</v>
       </c>
       <c r="E16" t="n">
-        <v>2.81</v>
+        <v>2.01</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.98</v>
+        <v>13.14</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>22.65</v>
       </c>
       <c r="H16" t="n">
-        <v>7.699999999999996</v>
+        <v>21.58</v>
       </c>
       <c r="I16" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0.17</v>
+        <v>13.99</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>-2.08</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2400000000000002</v>
+        <v>1.38</v>
       </c>
       <c r="L16" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>-12.71</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="O16" t="n">
-        <v>18.53</v>
+        <v>5.91</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>32.95</v>
       </c>
       <c r="P16" t="n">
-        <v>28.26</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1398,47 +1404,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>-2.07</v>
+      <c r="C17" s="1" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-3.3</v>
       </c>
       <c r="E17" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-3.620000000000001</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0.5999999999999979</v>
+        <v>4.2</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.690000000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.809999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>8.749999999999998</v>
+        <v>16.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>-0.9300000000000002</v>
+        <v>0.37</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>-1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>-6.400000000000002</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>-18.58</v>
+        <v>8.100000000000001</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>-2.629999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>11.43</v>
+        <v>19.18</v>
       </c>
       <c r="P17" t="n">
-        <v>20.29</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1448,47 +1454,47 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.78</v>
+      <c r="C18" s="2" t="n">
+        <v>2.21</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8.879999999999999</v>
+        <v>-0.8399999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-4.140000000000001</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25.84</v>
+        <v>-6.08</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-0.5500000000000007</v>
       </c>
       <c r="I18" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>6.989999999999999</v>
+        <v>9.08</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6300000000000003</v>
       </c>
       <c r="L18" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6.099999999999998</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>36.67</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>30.18</v>
+        <v>6.11</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>-5.609999999999999</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="P18" t="n">
+        <v>20.47000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1498,47 +1504,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.9399999999999999</v>
+      <c r="C19" s="1" t="n">
+        <v>-2.36</v>
       </c>
       <c r="D19" t="n">
-        <v>4.180000000000001</v>
+        <v>2.989999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>2.98</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>20.22</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>23.31</v>
       </c>
       <c r="H19" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.4699999999999989</v>
+        <v>24.94</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.14</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>5.32</v>
+        <v>-0.5900000000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.459999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>7.82</v>
+        <v>3.91</v>
       </c>
       <c r="M19" t="n">
-        <v>2.379999999999999</v>
+        <v>7.530000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>34.26000000000001</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12.01</v>
+        <v>10.99</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>36.31</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>31.53</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1548,47 +1554,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.8100000000000001</v>
+      <c r="C20" s="1" t="n">
+        <v>-2.41</v>
       </c>
       <c r="D20" t="n">
-        <v>2.98</v>
+        <v>1.87</v>
       </c>
       <c r="E20" t="n">
-        <v>1.61</v>
+        <v>3.97</v>
       </c>
       <c r="F20" t="n">
-        <v>5.379999999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>55.94</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.1</v>
+        <v>7.009999999999998</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1.27</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.66</v>
+        <v>-0.6399999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>4.12</v>
+        <v>3.34</v>
       </c>
       <c r="L20" t="n">
-        <v>6.45</v>
+        <v>7.87</v>
       </c>
       <c r="M20" t="n">
-        <v>2.599999999999998</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>66.77000000000001</v>
+        <v>5.539999999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>34.66</v>
       </c>
       <c r="P20" t="n">
-        <v>23.64</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1598,47 +1604,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="n">
-        <v>-0.47</v>
+      <c r="C21" s="1" t="n">
+        <v>-1.53</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>-5</v>
+        <v>1.96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.78</v>
       </c>
       <c r="F21" t="n">
-        <v>4.150000000000002</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>40.47</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>35.78</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>4.59</v>
+        <v>6.52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.66</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.32</v>
+        <v>0.24</v>
       </c>
       <c r="K21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>-0.1600000000000001</v>
+        <v>3.43</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.680000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>1.370000000000001</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>46.61</v>
+        <v>-1.76</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>68.25999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>16.13</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1648,47 +1654,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.75</v>
+      <c r="C22" s="1" t="n">
+        <v>-1.75</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>6.370000000000001</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0.9400000000000013</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="H22" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10.85</v>
+        <v>-2.17</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0.7800000000000011</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>39.71000000000001</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>5.379999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>7.510000000000001</v>
+        <v>-0.6999999999999997</v>
       </c>
       <c r="L22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>-1.84</v>
+        <v>1.830000000000001</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>-0.6899999999999977</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>-1.610000000000001</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>33.27</v>
+        <v>25.01</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>51.08000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>22.39</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1698,47 +1704,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>-0.8300000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.960000000000001</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>24.75</v>
+      <c r="C23" s="1" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>5.069999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-0.3300000000000018</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.31</v>
       </c>
       <c r="H23" t="n">
-        <v>16.33</v>
+        <v>22.96</v>
       </c>
       <c r="I23" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.34</v>
+        <v>11.22</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>6.539999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="O23" t="n">
-        <v>27.16</v>
+        <v>5.25</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>-1.800000000000001</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>34.33</v>
       </c>
       <c r="P23" t="n">
-        <v>25.92</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1748,47 +1754,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="G24" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-0.62</v>
+      <c r="C24" s="1" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.719999999999999</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-2.38</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.23</v>
+        <v>1.22</v>
       </c>
       <c r="L24" t="n">
-        <v>6.64</v>
+        <v>3.63</v>
       </c>
       <c r="M24" t="n">
-        <v>11.74</v>
+        <v>2.25</v>
       </c>
       <c r="N24" t="n">
-        <v>5.529999999999999</v>
-      </c>
-      <c r="O24" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" t="s">
-        <v>19</v>
+        <v>13.34</v>
+      </c>
+      <c r="O24" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>26.52</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1798,44 +1804,44 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F25" t="n">
-        <v>11.09</v>
+      <c r="C25" s="1" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>17.68</v>
       </c>
       <c r="G25" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>23.23</v>
+        <v>17.18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>5.38</v>
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2200000000000002</v>
       </c>
       <c r="L25" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="M25" t="n">
-        <v>8.309999999999999</v>
+        <v>3.61</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>16.21</v>
       </c>
       <c r="N25" t="n">
-        <v>7.019999999999998</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>34.06</v>
+        <v>4.859999999999999</v>
+      </c>
+      <c r="O25" t="s">
+        <v>19</v>
       </c>
       <c r="P25" t="s">
         <v>19</v>
@@ -1849,46 +1855,46 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6599999999999999</v>
+        <v>-0.77</v>
       </c>
       <c r="D26" t="n">
-        <v>2.87</v>
+        <v>3.44</v>
       </c>
       <c r="E26" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>15.05</v>
+        <v>2.26</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.41</v>
       </c>
       <c r="G26" t="n">
-        <v>17.19</v>
+        <v>19.19</v>
       </c>
       <c r="H26" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>5.839999999999998</v>
+        <v>23.32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>11.03</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.16</v>
       </c>
       <c r="M26" t="n">
-        <v>12.27</v>
+        <v>10.94</v>
       </c>
       <c r="N26" t="n">
-        <v>5.409999999999998</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>17.38</v>
+        <v>6.870000000000001</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="P26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1898,47 +1904,47 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>-1.15</v>
+      <c r="C27" s="1" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.58</v>
       </c>
       <c r="E27" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F27" t="n">
-        <v>9.260000000000002</v>
+        <v>7.04</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>15.22</v>
       </c>
       <c r="G27" t="n">
-        <v>16.99</v>
+        <v>18.66</v>
       </c>
       <c r="H27" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14.56</v>
+        <v>27.07</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>5.34</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.55</v>
+        <v>-0.07000000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01000000000000023</v>
-      </c>
-      <c r="L27" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M27" t="n">
-        <v>6.48</v>
+        <v>3.05</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>13.75</v>
       </c>
       <c r="N27" t="n">
-        <v>5.209999999999999</v>
-      </c>
-      <c r="O27" t="n">
-        <v>25.01</v>
+        <v>6.34</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>38.44</v>
       </c>
       <c r="P27" t="n">
-        <v>26.1</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1948,194 +1954,194 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.3700000000000001</v>
+      <c r="C28" s="1" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>-2.09</v>
       </c>
       <c r="E28" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="F28" t="n">
-        <v>2.620000000000001</v>
+        <v>11.26</v>
       </c>
       <c r="G28" t="n">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>3.68</v>
+        <v>16.14</v>
+      </c>
+      <c r="H28" t="n">
+        <v>16.05</v>
       </c>
       <c r="I28" t="n">
-        <v>10.71</v>
+        <v>14.66</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.51</v>
+        <v>-0.7</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>-0.6199999999999997</v>
       </c>
       <c r="L28" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>-6.48</v>
+        <v>6.78</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.82</v>
       </c>
       <c r="O28" t="n">
-        <v>14.51</v>
+        <v>27.42</v>
       </c>
       <c r="P28" t="n">
-        <v>22.25</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>-1.61</v>
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-1.6</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>-0.8300000000000001</v>
+        <v>0.4400000000000004</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.95</v>
       </c>
       <c r="F29" t="n">
-        <v>3.960000000000001</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="H29" t="n">
-        <v>16.33</v>
+        <v>3.850000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.779999999999999</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>4.670000000000002</v>
       </c>
       <c r="I29" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>-1.46</v>
+        <v>11.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.17</v>
       </c>
       <c r="K29" t="n">
-        <v>1.34</v>
+        <v>1.910000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>4.01</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N29" t="n">
-        <v>12.97</v>
+        <v>2.380000000000003</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>-7.54</v>
       </c>
       <c r="O29" t="n">
-        <v>27.16</v>
+        <v>16.04</v>
       </c>
       <c r="P29" t="n">
-        <v>25.92</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.3699999999999997</v>
-      </c>
-      <c r="E30" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>-0.9100000000000001</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>-1.31</v>
       </c>
-      <c r="F30" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="G30" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>-1.58</v>
-      </c>
       <c r="K30" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>3.53</v>
+        <v>2.67</v>
       </c>
       <c r="M30" t="n">
-        <v>1.379999999999999</v>
+        <v>4.190000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>3.659999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="O30" t="n">
-        <v>26.44</v>
+        <v>26.96</v>
       </c>
       <c r="P30" t="n">
-        <v>22.46</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.3299999999999996</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>-0.2100000000000001</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-2.169999999999998</v>
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>-0.6299999999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-3.050000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>13.89</v>
+        <v>15.76</v>
       </c>
       <c r="H31" t="n">
-        <v>9.089999999999996</v>
+        <v>8.000000000000004</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.5700000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="L31" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>-4.949999999999999</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>2.109999999999999</v>
+        <v>4.09</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.44</v>
       </c>
       <c r="O31" t="n">
-        <v>19.92</v>
+        <v>19.37</v>
       </c>
       <c r="P31" t="s">
         <v>19</v>
@@ -2143,352 +2149,352 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>4.609999999999999</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>-0.6899999999999999</v>
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.87</v>
       </c>
       <c r="F32" t="n">
-        <v>12.45</v>
+        <v>11.37</v>
       </c>
       <c r="G32" t="n">
-        <v>13.7</v>
+        <v>14.19</v>
       </c>
       <c r="H32" t="n">
-        <v>18.06</v>
+        <v>17.15</v>
       </c>
       <c r="I32" t="n">
-        <v>6.569999999999999</v>
+        <v>7.619999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>5.749999999999999</v>
+        <v>0.74</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>4.51</v>
       </c>
       <c r="L32" t="n">
-        <v>4.15</v>
+        <v>4.77</v>
       </c>
       <c r="M32" t="n">
-        <v>9.669999999999998</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>1.92</v>
+        <v>9.899999999999999</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1.870000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>28.89</v>
+        <v>28.52</v>
       </c>
       <c r="P32" t="n">
-        <v>18.11</v>
+        <v>19.01000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>-1.719999999999999</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>26.9</v>
+        <v>73</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>-0.4400000000000013</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>26.48</v>
       </c>
       <c r="H33" t="n">
-        <v>19.69</v>
+        <v>20.46</v>
       </c>
       <c r="I33" t="n">
-        <v>7.359999999999998</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>-0.5800000000000001</v>
+        <v>7.68</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>-2.72</v>
       </c>
       <c r="L33" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>-4.5</v>
+        <v>4.13</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>-1.91</v>
       </c>
       <c r="N33" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>30.52</v>
+        <v>14.16</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>31.83</v>
       </c>
       <c r="P33" t="n">
-        <v>18.9</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9400000000000002</v>
+        <v>0.8599999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>31.04</v>
+        <v>1.58</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>33.27</v>
       </c>
       <c r="H34" t="n">
-        <v>7.350000000000001</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="N34" t="n">
-        <v>19.26</v>
+        <v>6.099999999999998</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>4.759999999999998</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>20.95</v>
       </c>
       <c r="O34" t="n">
-        <v>18.18</v>
+        <v>17.47</v>
       </c>
       <c r="P34" t="n">
-        <v>15.47</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.28</v>
+        <v>77</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>-1.69</v>
       </c>
       <c r="D35" t="n">
-        <v>3.930000000000001</v>
+        <v>3.909999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="F35" t="n">
-        <v>11.37</v>
+        <v>10.6</v>
       </c>
       <c r="G35" t="n">
-        <v>8.06</v>
+        <v>9.76</v>
       </c>
       <c r="H35" t="n">
-        <v>7.740000000000002</v>
+        <v>8.080000000000002</v>
       </c>
       <c r="I35" t="n">
-        <v>9.509999999999998</v>
+        <v>9.68</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>5.07</v>
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>5.379999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>6.89</v>
+        <v>5.73</v>
       </c>
       <c r="M35" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>-3.720000000000001</v>
+        <v>9.130000000000003</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>-2.56</v>
       </c>
       <c r="O35" t="n">
-        <v>18.57</v>
+        <v>19.45</v>
       </c>
       <c r="P35" t="n">
-        <v>21.05</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>-0.8299999999999996</v>
+        <v>-0.99</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-1.29</v>
       </c>
       <c r="E36" t="n">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="F36" t="n">
-        <v>8.129999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>5.7</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>12.9</v>
+        <v>11.63</v>
       </c>
       <c r="I36" t="n">
-        <v>6.709999999999999</v>
+        <v>7.139999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.1800000000000002</v>
       </c>
       <c r="L36" t="n">
-        <v>7.51</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>5.349999999999998</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>-6.080000000000001</v>
+        <v>6.670000000000002</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>-4.96</v>
       </c>
       <c r="O36" t="n">
-        <v>23.73</v>
+        <v>23</v>
       </c>
       <c r="P36" t="n">
-        <v>18.25</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.47</v>
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-2.59</v>
       </c>
       <c r="D37" t="n">
-        <v>4.279999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>13.76</v>
+        <v>2.2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12.03</v>
       </c>
       <c r="G37" t="n">
-        <v>10.07</v>
+        <v>10.79</v>
       </c>
       <c r="H37" t="n">
-        <v>6.490000000000002</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>4.939999999999998</v>
+        <v>8.029999999999998</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>4.48</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>5.419999999999999</v>
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>4.57</v>
       </c>
       <c r="L37" t="n">
-        <v>5.45</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>-1.710000000000001</v>
+        <v>10.56</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>-1.529999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>17.32</v>
+        <v>19.4</v>
       </c>
       <c r="P37" t="n">
-        <v>16.48</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.2</v>
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-1.15</v>
       </c>
       <c r="D38" t="n">
-        <v>4.06</v>
+        <v>2.43</v>
       </c>
       <c r="E38" t="n">
-        <v>4.390000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F38" t="n">
-        <v>12.42</v>
+        <v>12.44</v>
       </c>
       <c r="G38" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>-11.52</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>1.399999999999999</v>
+        <v>9.040000000000001</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>2.16</v>
       </c>
       <c r="J38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>9.23</v>
+        <v>0.62</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>11.6</v>
       </c>
       <c r="M38" t="n">
-        <v>9.639999999999997</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>-1.090000000000002</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>-0.6899999999999995</v>
+        <v>10.97</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>-3.279999999999999</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>1.02</v>
       </c>
       <c r="P38" t="n">
-        <v>12.94</v>
+        <v>13.55</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -56,6 +56,12 @@
     <t>交银数据产业灵活配置混合</t>
   </si>
   <si>
+    <t>001473</t>
+  </si>
+  <si>
+    <t>建信大安全战略精选股票</t>
+  </si>
+  <si>
     <t>040020</t>
   </si>
   <si>
@@ -68,39 +74,33 @@
     <t>嘉实价值精选股票</t>
   </si>
   <si>
-    <t>005760</t>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
+    <t>001508</t>
+  </si>
+  <si>
+    <t>富国新动力灵活配置混合A</t>
+  </si>
+  <si>
+    <t>001694</t>
+  </si>
+  <si>
+    <t>华安沪港深外延增长混合</t>
+  </si>
+  <si>
+    <t>000566</t>
+  </si>
+  <si>
+    <t>华泰柏瑞创新升级混合A</t>
+  </si>
+  <si>
+    <t>008186</t>
+  </si>
+  <si>
+    <t>淳厚信睿混合A</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t>001508</t>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合A</t>
-  </si>
-  <si>
-    <t>001694</t>
-  </si>
-  <si>
-    <t>华安沪港深外延增长混合</t>
-  </si>
-  <si>
-    <t>000566</t>
-  </si>
-  <si>
-    <t>华泰柏瑞创新升级混合A</t>
-  </si>
-  <si>
-    <t>008186</t>
-  </si>
-  <si>
-    <t>淳厚信睿混合A</t>
-  </si>
-  <si>
     <t>168002</t>
   </si>
   <si>
@@ -215,6 +215,12 @@
     <t>汇添富价值精选混合A</t>
   </si>
   <si>
+    <t>001605</t>
+  </si>
+  <si>
+    <t>国富沪港深成长精选股票</t>
+  </si>
+  <si>
     <t>519736</t>
   </si>
   <si>
@@ -225,12 +231,6 @@
   </si>
   <si>
     <t>交银持续成长主题混合</t>
-  </si>
-  <si>
-    <t>001605</t>
-  </si>
-  <si>
-    <t>国富沪港深成长精选股票</t>
   </si>
   <si>
     <t>160133</t>
@@ -705,46 +705,46 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-4.31</v>
+        <v>-1.84</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-3.82</v>
+        <v>-6.64</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-2.1</v>
+        <v>-2.04</v>
       </c>
       <c r="F3" t="n">
-        <v>4.960000000000001</v>
+        <v>4.099999999999998</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>28.26</v>
+        <v>30.73</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>46.04000000000001</v>
+        <v>47.56999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>-2.54</v>
+        <v>8.870000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7100000000000001</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>-2.35</v>
+        <v>-6.84</v>
       </c>
       <c r="L3" t="n">
-        <v>1.8</v>
+        <v>2.87</v>
       </c>
       <c r="M3" t="n">
-        <v>3.490000000000002</v>
+        <v>3.460000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>15.94</v>
+        <v>18.49</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>57.41</v>
+        <v>56.11</v>
       </c>
       <c r="P3" t="n">
-        <v>23.5</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -754,47 +754,47 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.5900000000000001</v>
+      <c r="C4" s="1" t="n">
+        <v>-1.21</v>
       </c>
       <c r="D4" t="n">
-        <v>2.69</v>
+        <v>1.34</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>17.49</v>
+        <v>4.869999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.879999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.21</v>
+        <v>16.73</v>
       </c>
       <c r="H4" t="n">
-        <v>22.66</v>
+        <v>27.62</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>1.800000000000001</v>
+        <v>-2.259999999999998</v>
       </c>
       <c r="J4" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="K4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>-1.109999999999999</v>
+        <v>1.14</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.240000000000002</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.489999999999998</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>34.03</v>
+        <v>36.16</v>
       </c>
       <c r="P4" t="n">
-        <v>13.19</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -805,46 +805,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>10.66</v>
+        <v>-1.01</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.49</v>
       </c>
       <c r="E5" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.130000000000003</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1.28</v>
+        <v>5.23</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.58</v>
       </c>
       <c r="H5" t="n">
-        <v>6.650000000000002</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.569999999999999</v>
+        <v>23.35</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>-4.169999999999998</v>
       </c>
       <c r="J5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>12.13</v>
+        <v>1.54</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.29</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5.660000000000004</v>
+        <v>10.14</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>15.51</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>-11.04</v>
-      </c>
-      <c r="O5" t="n">
-        <v>18.02</v>
+        <v>0.3399999999999999</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>31.89</v>
       </c>
       <c r="P5" t="n">
-        <v>19.96</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -854,247 +854,247 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>-3.52</v>
+      <c r="C6" s="1" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>9.540000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.409999999999997</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>25.61</v>
+        <v>9.93</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.7300000000000004</v>
       </c>
       <c r="H6" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
+        <v>6.169999999999998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.48</v>
       </c>
       <c r="J6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.2</v>
+        <v>-0.03999999999999992</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>11.27</v>
       </c>
       <c r="M6" t="n">
-        <v>7.939999999999998</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13.29</v>
+        <v>9.290000000000003</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>-11.51</v>
       </c>
       <c r="O6" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="P6" t="s">
-        <v>19</v>
+        <v>14.71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.08</v>
+        <v>-6.47</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>-0.1000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>6.920000000000002</v>
+        <v>7.18</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>29.69</v>
+        <v>30.72</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>32.55</v>
+        <v>32.73999999999999</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.77</v>
+        <v>32.15</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>2.25</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>-5.6</v>
+        <v>-6.67</v>
       </c>
       <c r="L7" t="n">
-        <v>4.98</v>
+        <v>4.81</v>
       </c>
       <c r="M7" t="n">
-        <v>5.450000000000003</v>
+        <v>6.540000000000003</v>
       </c>
       <c r="N7" t="n">
-        <v>17.37</v>
+        <v>18.48</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>43.92</v>
+        <v>41.28</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>44.05</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="1" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09999999999999964</v>
+        <v>-2.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-1.81</v>
       </c>
       <c r="E8" t="n">
-        <v>2.82</v>
+        <v>4.23</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>23.47</v>
+        <v>23.33</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>20.64</v>
+        <v>20.39</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>38.37</v>
+        <v>40.28</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>1.550000000000001</v>
+        <v>-0.2399999999999984</v>
       </c>
       <c r="J8" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.720000000000001</v>
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>9.140000000000001</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>22</v>
+        <v>22.69</v>
       </c>
       <c r="N8" t="n">
-        <v>8.32</v>
+        <v>8.149999999999999</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>49.74</v>
+        <v>48.82</v>
       </c>
       <c r="P8" t="n">
-        <v>12.94</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="1" t="n">
-        <v>-1.86</v>
+        <v>-1.5</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-2.17</v>
+        <v>-4.46</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>-2.85</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>2.809999999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="O9" t="n">
         <v>11.35</v>
       </c>
-      <c r="G9" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-0.09000000000000008</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>-0.6999999999999997</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9.880000000000003</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.120000000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14.37</v>
-      </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="1" t="n">
-        <v>-2.18</v>
+        <v>-2.32</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>-1.52</v>
+        <v>-4.199999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1999999999999997</v>
       </c>
       <c r="F10" t="n">
-        <v>12.54</v>
+        <v>12.04</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4099999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.3199999999999998</v>
+        <v>0.23</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>-4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.38</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>11.07</v>
+        <v>11.4</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1105,46 +1105,46 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>-3.2</v>
+        <v>-4.7</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-0.6600000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>13.6</v>
+        <v>-4.04</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.9</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>5.740000000000002</v>
+        <v>23.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.189999999999998</v>
       </c>
       <c r="I11" t="n">
-        <v>14.68</v>
+        <v>13.54</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.8100000000000001</v>
+        <v>-2.15</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>-4.24</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>12.14</v>
+        <v>16.2</v>
       </c>
       <c r="M11" t="n">
-        <v>12.13</v>
+        <v>10.26</v>
       </c>
       <c r="N11" t="n">
-        <v>8.030000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="O11" t="n">
-        <v>17.11</v>
+        <v>15.73</v>
       </c>
       <c r="P11" t="n">
-        <v>26.07</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1155,46 +1155,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4</v>
+        <v>-0.1199999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2599999999999998</v>
+        <v>-0.2199999999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>2.98</v>
+        <v>2.64</v>
       </c>
       <c r="F12" t="n">
-        <v>4.489999999999998</v>
+        <v>4.779999999999998</v>
       </c>
       <c r="G12" t="n">
-        <v>11.99</v>
+        <v>12.43</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>3.469999999999999</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.37</v>
+        <v>7.760000000000002</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>2.43</v>
       </c>
       <c r="K12" t="n">
-        <v>1.73</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>6.880000000000001</v>
+        <v>7.55</v>
       </c>
       <c r="M12" t="n">
-        <v>3.02</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>-0.3300000000000001</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="O12" t="n">
-        <v>14.84</v>
+        <v>12.65</v>
       </c>
       <c r="P12" t="n">
-        <v>19.98</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1205,46 +1205,46 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-2.65</v>
+        <v>-2.8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7000000000000002</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-0.6600000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>8.530000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>26.71</v>
+        <v>27.93</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.8800000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.17</v>
+        <v>-0.4500000000000002</v>
       </c>
       <c r="L13" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="M13" t="n">
-        <v>7.060000000000002</v>
+        <v>7.200000000000003</v>
       </c>
       <c r="N13" t="n">
-        <v>14.39</v>
+        <v>15.69</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1254,47 +1254,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>2.89</v>
+      <c r="C14" s="1" t="n">
+        <v>-4.38</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-6.41</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>-1.37</v>
+        <v>-7.07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.69</v>
       </c>
       <c r="F14" t="n">
-        <v>7.409999999999997</v>
+        <v>4.639999999999997</v>
       </c>
       <c r="G14" t="n">
-        <v>16.6</v>
+        <v>11.68</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>4.66</v>
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>-1.83</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>-4.94</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.53</v>
+        <v>-7.27</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>11.6</v>
       </c>
       <c r="M14" t="n">
-        <v>5.939999999999998</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.280000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>-0.5600000000000005</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1305,46 +1305,46 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-2.18</v>
+        <v>-2.86</v>
       </c>
       <c r="D15" t="n">
-        <v>4.22</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>1.44</v>
+        <v>2.8</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>15.88</v>
+        <v>16.33</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4099999999999999</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>5.69</v>
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6799999999999997</v>
       </c>
       <c r="L15" t="n">
-        <v>5.34</v>
+        <v>7.71</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>14.41</v>
+        <v>15.69</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1355,46 +1355,46 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.08999999999999986</v>
+        <v>-2.38</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-2.92</v>
       </c>
       <c r="E16" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>13.14</v>
+        <v>2.47</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.2</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>22.65</v>
+        <v>25.62</v>
       </c>
       <c r="H16" t="n">
-        <v>21.58</v>
+        <v>20.98</v>
       </c>
       <c r="I16" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.38</v>
+        <v>13.39</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>-3.12</v>
       </c>
       <c r="L16" t="n">
-        <v>5.91</v>
+        <v>7.38</v>
       </c>
       <c r="M16" t="n">
-        <v>11.67</v>
+        <v>10.56</v>
       </c>
       <c r="N16" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>32.95</v>
+        <v>13.38</v>
+      </c>
+      <c r="O16" t="n">
+        <v>29.52</v>
       </c>
       <c r="P16" t="n">
-        <v>25.38</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1405,46 +1405,46 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-1.4</v>
+        <v>-1.62</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-3.3</v>
+        <v>-4.04</v>
       </c>
       <c r="E17" t="n">
-        <v>4.2</v>
+        <v>5.34</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-9.710000000000001</v>
+        <v>-8.860000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>9.690000000000001</v>
+        <v>7.31</v>
       </c>
       <c r="H17" t="n">
-        <v>7.809999999999999</v>
+        <v>9.190000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>16.7</v>
+        <v>15.71</v>
       </c>
       <c r="J17" t="n">
-        <v>0.37</v>
+        <v>0.93</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.100000000000001</v>
+        <v>-4.24</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>10.25</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-11.18</v>
+        <v>-9.499999999999998</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-2.629999999999999</v>
+        <v>-4.930000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="P17" t="n">
-        <v>28.09</v>
+        <v>17.73</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>30.23</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1454,47 +1454,47 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>-0.8399999999999999</v>
+      <c r="C18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7599999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>2.21</v>
+        <v>1.45</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>-4.140000000000001</v>
+        <v>-4.260000000000002</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-6.08</v>
+        <v>-6.789999999999999</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-0.5500000000000007</v>
+        <v>0.1199999999999974</v>
       </c>
       <c r="I18" t="n">
-        <v>9.08</v>
+        <v>10.46</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>3.98</v>
+        <v>4.53</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6300000000000003</v>
+        <v>0.5599999999999996</v>
       </c>
       <c r="L18" t="n">
-        <v>6.11</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-5.609999999999999</v>
+        <v>-4.899999999999999</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-18.4</v>
+        <v>-19.03</v>
       </c>
       <c r="O18" t="n">
-        <v>10.82</v>
+        <v>8.659999999999998</v>
       </c>
       <c r="P18" t="n">
-        <v>20.47000000000001</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1505,46 +1505,46 @@
         <v>45</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-2.36</v>
+        <v>-1.61</v>
       </c>
       <c r="D19" t="n">
-        <v>2.989999999999999</v>
+        <v>-0.2299999999999995</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01000000000000001</v>
+        <v>2.04</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>7.029999999999998</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>23.31</v>
+        <v>24.94</v>
       </c>
       <c r="H19" t="n">
-        <v>24.94</v>
+        <v>25.49</v>
       </c>
       <c r="I19" t="n">
-        <v>20.14</v>
+        <v>17.25</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.5900000000000001</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>4.459999999999999</v>
+        <v>-0.4299999999999997</v>
       </c>
       <c r="L19" t="n">
-        <v>3.91</v>
+        <v>6.95</v>
       </c>
       <c r="M19" t="n">
-        <v>7.530000000000001</v>
+        <v>6.390000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>10.99</v>
+        <v>12.7</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>36.31</v>
+        <v>34.03</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>31.53</v>
+        <v>31.77</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1555,46 +1555,46 @@
         <v>47</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.87</v>
+        <v>-1.08</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>-1.819999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>3.97</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>7.009999999999998</v>
+        <v>5.77</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>20.48</v>
+        <v>21.78</v>
       </c>
       <c r="H20" t="n">
-        <v>23.29</v>
+        <v>23.61</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1.27</v>
+        <v>2.420000000000002</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.6399999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.87</v>
+        <v>1.47</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>10.79</v>
       </c>
       <c r="M20" t="n">
-        <v>5.539999999999999</v>
+        <v>5.130000000000003</v>
       </c>
       <c r="N20" t="n">
-        <v>8.16</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>34.66</v>
+        <v>32.15</v>
       </c>
       <c r="P20" t="n">
-        <v>12.66</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1605,46 +1605,46 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>-1.53</v>
+        <v>-1.79</v>
       </c>
       <c r="D21" t="n">
-        <v>1.96</v>
+        <v>0.4800000000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>1.78</v>
+        <v>2.83</v>
       </c>
       <c r="F21" t="n">
-        <v>6.52</v>
+        <v>7.07</v>
       </c>
       <c r="G21" t="n">
-        <v>10.56</v>
+        <v>10.89</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>56.89</v>
+        <v>54.03999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>11.66</v>
+        <v>12.01</v>
       </c>
       <c r="J21" t="n">
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="K21" t="n">
-        <v>3.43</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="L21" t="n">
-        <v>5.680000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="M21" t="n">
-        <v>5.050000000000001</v>
+        <v>6.430000000000003</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>-1.76</v>
+        <v>-1.350000000000001</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>68.25999999999999</v>
+        <v>62.58</v>
       </c>
       <c r="P21" t="n">
-        <v>23.05</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1655,46 +1655,46 @@
         <v>51</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-1.75</v>
+        <v>-1.78</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-2.17</v>
+        <v>-2.6</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-2.07</v>
+        <v>-1.55</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.7800000000000011</v>
+        <v>-1.130000000000003</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>37.33</v>
+        <v>39.17</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>39.71000000000001</v>
+        <v>42.09999999999999</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>5.379999999999999</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-0.6999999999999997</v>
+        <v>-2.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.830000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-0.6899999999999977</v>
+        <v>-1.77</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>25.01</v>
+        <v>26.93</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>51.08000000000001</v>
+        <v>50.64</v>
       </c>
       <c r="P22" t="n">
-        <v>16.77</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1705,46 +1705,46 @@
         <v>53</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>5.069999999999999</v>
+        <v>-2.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.27</v>
       </c>
       <c r="E23" t="n">
-        <v>1.35</v>
+        <v>2.96</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.3300000000000018</v>
+        <v>-2.120000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>10.31</v>
+        <v>11.84</v>
       </c>
       <c r="H23" t="n">
-        <v>22.96</v>
+        <v>23.2</v>
       </c>
       <c r="I23" t="n">
-        <v>11.22</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>6.539999999999999</v>
+        <v>-0.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.069999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>5.25</v>
+        <v>7.87</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>-1.800000000000001</v>
+        <v>-2.759999999999998</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>-2.01</v>
+        <v>-0.4000000000000021</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>34.33</v>
+        <v>31.74</v>
       </c>
       <c r="P23" t="n">
-        <v>22.61</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1755,46 +1755,46 @@
         <v>55</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-4.15</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>-0.27</v>
+        <v>-2.02</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1199999999999997</v>
       </c>
       <c r="F24" t="n">
-        <v>3.719999999999999</v>
+        <v>3.389999999999997</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>25.66</v>
+        <v>27.49</v>
       </c>
       <c r="H24" t="n">
-        <v>17.91</v>
+        <v>19.8</v>
       </c>
       <c r="I24" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>-2.38</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.22</v>
+        <v>11.01</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>-3.76</v>
       </c>
       <c r="L24" t="n">
-        <v>3.63</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N24" t="n">
-        <v>13.34</v>
+        <v>15.25</v>
       </c>
       <c r="O24" t="n">
-        <v>29.28</v>
+        <v>28.34</v>
       </c>
       <c r="P24" t="n">
-        <v>26.52</v>
+        <v>25.53</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1805,46 +1805,46 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-1.78</v>
+        <v>-3.83</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>-0.29</v>
+        <v>-4.699999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.28</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="G25" t="n">
-        <v>17.18</v>
+        <v>15.71</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>20.07</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-0.01000000000000001</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2200000000000002</v>
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>-4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>3.61</v>
+        <v>8.19</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>16.21</v>
+        <v>15.07</v>
       </c>
       <c r="N25" t="n">
-        <v>4.859999999999999</v>
+        <v>7.829999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1854,47 +1854,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="n">
-        <v>-0.77</v>
+      <c r="C26" s="1" t="n">
+        <v>-4.17</v>
       </c>
       <c r="D26" t="n">
-        <v>3.44</v>
+        <v>1.25</v>
       </c>
       <c r="E26" t="n">
-        <v>2.26</v>
+        <v>5.91</v>
       </c>
       <c r="F26" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.19</v>
+        <v>8.199999999999996</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>24.97</v>
       </c>
       <c r="H26" t="n">
-        <v>23.32</v>
+        <v>20.02</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.16</v>
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>10.82</v>
       </c>
       <c r="M26" t="n">
-        <v>10.94</v>
+        <v>7.559999999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>6.870000000000001</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>34.69</v>
+        <v>12.73</v>
+      </c>
+      <c r="O26" t="n">
+        <v>28.56</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1905,46 +1905,46 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-1.84</v>
+        <v>-1.79</v>
       </c>
       <c r="D27" t="n">
-        <v>1.58</v>
+        <v>-0.2799999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>7.04</v>
+        <v>7.08</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>15.22</v>
+        <v>15.88</v>
       </c>
       <c r="G27" t="n">
-        <v>18.66</v>
+        <v>19.69</v>
       </c>
       <c r="H27" t="n">
-        <v>27.07</v>
+        <v>24.54</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>5.34</v>
+        <v>5.65</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.07000000000000006</v>
+        <v>0.76</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>-0.4799999999999995</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>10.94</v>
+        <v>11.99</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>13.75</v>
+        <v>15.24</v>
       </c>
       <c r="N27" t="n">
-        <v>6.34</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>38.44</v>
+        <v>33.08</v>
       </c>
       <c r="P27" t="n">
-        <v>16.73</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1955,46 +1955,46 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-2.47</v>
+        <v>-2.37</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-2.09</v>
+        <v>-3.06</v>
       </c>
       <c r="E28" t="n">
-        <v>2.88</v>
+        <v>1.14</v>
       </c>
       <c r="F28" t="n">
-        <v>11.26</v>
+        <v>12.44</v>
       </c>
       <c r="G28" t="n">
-        <v>16.14</v>
+        <v>17.03</v>
       </c>
       <c r="H28" t="n">
-        <v>16.05</v>
+        <v>15.52</v>
       </c>
       <c r="I28" t="n">
-        <v>14.66</v>
+        <v>13.36</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.7</v>
+        <v>0.18</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>-0.6199999999999997</v>
+        <v>-3.26</v>
       </c>
       <c r="L28" t="n">
-        <v>6.78</v>
+        <v>6.05</v>
       </c>
       <c r="M28" t="n">
-        <v>9.789999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>3.82</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>27.42</v>
+        <v>24.06</v>
       </c>
       <c r="P28" t="n">
-        <v>26.05</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2005,46 +2005,46 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.4400000000000004</v>
+        <v>-1.43</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>-1.41</v>
       </c>
       <c r="E29" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="F29" t="n">
-        <v>3.850000000000001</v>
+        <v>3.939999999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>4.779999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>4.670000000000002</v>
+        <v>3.98</v>
       </c>
       <c r="I29" t="n">
-        <v>11.25</v>
+        <v>11.47</v>
       </c>
       <c r="J29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.910000000000001</v>
+        <v>1.12</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>-1.61</v>
       </c>
       <c r="L29" t="n">
-        <v>5.850000000000001</v>
+        <v>7.53</v>
       </c>
       <c r="M29" t="n">
-        <v>2.380000000000003</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>-7.54</v>
+        <v>-6.940000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>16.04</v>
+        <v>12.52</v>
       </c>
       <c r="P29" t="n">
-        <v>22.64</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2055,46 +2055,46 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>-0.9100000000000001</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>-1.23</v>
+        <v>-2.72</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.200000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.9</v>
       </c>
       <c r="F30" t="n">
-        <v>5.66</v>
+        <v>8.799999999999997</v>
       </c>
       <c r="G30" t="n">
-        <v>16.08</v>
+        <v>17.07</v>
       </c>
       <c r="H30" t="n">
-        <v>15.59</v>
+        <v>16.37</v>
       </c>
       <c r="I30" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>-1.31</v>
+        <v>6.74</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.1699999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>2.67</v>
+        <v>6.81</v>
       </c>
       <c r="M30" t="n">
-        <v>4.190000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="N30" t="n">
-        <v>3.76</v>
+        <v>4.829999999999998</v>
       </c>
       <c r="O30" t="n">
-        <v>26.96</v>
+        <v>24.91</v>
       </c>
       <c r="P30" t="n">
-        <v>22.77</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2105,46 +2105,46 @@
         <v>69</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>-1.48</v>
+        <v>-1.43</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.6299999999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>-3.050000000000001</v>
+        <v>-3.53</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-0.7800000000000002</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.729999999999997</v>
       </c>
       <c r="G31" t="n">
-        <v>15.76</v>
+        <v>16.51</v>
       </c>
       <c r="H31" t="n">
-        <v>8.000000000000004</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
+        <v>16.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.25</v>
       </c>
       <c r="J31" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.8400000000000003</v>
+        <v>1.12</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>-3.73</v>
       </c>
       <c r="L31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>-4.52</v>
+        <v>4.13</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3.44</v>
+        <v>4.27</v>
       </c>
       <c r="O31" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="P31" t="s">
-        <v>19</v>
+        <v>24.64</v>
+      </c>
+      <c r="P31" t="n">
+        <v>23.77</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2155,46 +2155,46 @@
         <v>71</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F32" t="n">
-        <v>11.37</v>
+        <v>-2.36</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>-1.990000000000002</v>
       </c>
       <c r="G32" t="n">
-        <v>14.19</v>
+        <v>15.09</v>
       </c>
       <c r="H32" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.619999999999999</v>
+        <v>10.1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
       </c>
       <c r="J32" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>4.51</v>
+        <v>0.1900000000000001</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>-1.16</v>
       </c>
       <c r="L32" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="M32" t="n">
-        <v>9.899999999999999</v>
+        <v>4.45</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>-2.629999999999999</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>1.870000000000001</v>
+        <v>2.849999999999998</v>
       </c>
       <c r="O32" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="P32" t="n">
-        <v>19.01000000000001</v>
+        <v>18.64</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2204,47 +2204,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>-2.69</v>
+      <c r="C33" t="n">
+        <v>-0.7</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-4.19</v>
+        <v>-6.19</v>
       </c>
       <c r="E33" t="n">
-        <v>0.23</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-0.4400000000000013</v>
+        <v>-1.290000000000003</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>26.48</v>
+        <v>28.37</v>
       </c>
       <c r="H33" t="n">
-        <v>20.46</v>
+        <v>19.56</v>
       </c>
       <c r="I33" t="n">
-        <v>7.68</v>
+        <v>6.530000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.9199999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>-2.72</v>
+        <v>-6.39</v>
       </c>
       <c r="L33" t="n">
-        <v>4.13</v>
+        <v>5.91</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-1.91</v>
+        <v>-1.93</v>
       </c>
       <c r="N33" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>31.83</v>
+        <v>16.13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>28.1</v>
       </c>
       <c r="P33" t="n">
-        <v>19.07</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2255,46 +2255,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8599999999999999</v>
+        <v>-0.47</v>
       </c>
       <c r="D34" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>9.300000000000001</v>
+        <v>1.73</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.890000000000001</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18.84</v>
+        <v>17.2</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>33.27</v>
+        <v>36.21</v>
       </c>
       <c r="H34" t="n">
-        <v>6.099999999999998</v>
+        <v>8.439999999999998</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>4.759999999999998</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>2.63</v>
+        <v>2.08</v>
       </c>
       <c r="K34" t="n">
-        <v>3.05</v>
+        <v>1.53</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>17.37</v>
+        <v>16.56</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>20.95</v>
+        <v>23.97</v>
       </c>
       <c r="O34" t="n">
-        <v>17.47</v>
+        <v>16.98</v>
       </c>
       <c r="P34" t="n">
-        <v>16.15</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2305,46 +2305,46 @@
         <v>77</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-1.69</v>
+        <v>-3.51</v>
       </c>
       <c r="D35" t="n">
-        <v>3.909999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="E35" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="F35" t="n">
-        <v>10.6</v>
+        <v>12.77</v>
       </c>
       <c r="G35" t="n">
-        <v>9.76</v>
+        <v>10.35</v>
       </c>
       <c r="H35" t="n">
-        <v>8.080000000000002</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>9.68</v>
+        <v>8.24</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>5.379999999999999</v>
+        <v>-0.9600000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.31</v>
       </c>
       <c r="L35" t="n">
-        <v>5.73</v>
+        <v>6.22</v>
       </c>
       <c r="M35" t="n">
-        <v>9.130000000000003</v>
+        <v>12.13</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>-2.56</v>
+        <v>-1.890000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>19.45</v>
+        <v>16.58</v>
       </c>
       <c r="P35" t="n">
-        <v>21.07</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2354,47 +2354,47 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.99</v>
+      <c r="C36" s="1" t="n">
+        <v>-1.81</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-1.29</v>
+        <v>-1.46</v>
       </c>
       <c r="E36" t="n">
-        <v>2.81</v>
+        <v>3.58</v>
       </c>
       <c r="F36" t="n">
-        <v>8.140000000000001</v>
+        <v>7.489999999999998</v>
       </c>
       <c r="G36" t="n">
-        <v>7.359999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="H36" t="n">
-        <v>11.63</v>
+        <v>10.68</v>
       </c>
       <c r="I36" t="n">
-        <v>7.139999999999999</v>
+        <v>6.610000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1800000000000002</v>
+        <v>0.74</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>-1.66</v>
       </c>
       <c r="L36" t="n">
-        <v>6.710000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="M36" t="n">
-        <v>6.670000000000002</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>-4.96</v>
+        <v>-4.270000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>23</v>
+        <v>19.22</v>
       </c>
       <c r="P36" t="n">
-        <v>18.53</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2405,46 +2405,46 @@
         <v>81</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>-2.59</v>
+        <v>-3.58</v>
       </c>
       <c r="D37" t="n">
-        <v>3.100000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E37" t="n">
-        <v>2.2</v>
+        <v>3.82</v>
       </c>
       <c r="F37" t="n">
-        <v>12.03</v>
+        <v>10.39</v>
       </c>
       <c r="G37" t="n">
-        <v>10.79</v>
+        <v>11.87</v>
       </c>
       <c r="H37" t="n">
-        <v>8.029999999999998</v>
+        <v>7.279999999999998</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-0.8200000000000001</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>4.57</v>
+        <v>3.460000000000001</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.54</v>
       </c>
       <c r="L37" t="n">
-        <v>6.100000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="M37" t="n">
-        <v>10.56</v>
+        <v>9.750000000000004</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>-1.529999999999999</v>
+        <v>-0.370000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>19.4</v>
+        <v>15.82</v>
       </c>
       <c r="P37" t="n">
-        <v>15.87</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2455,46 +2455,46 @@
         <v>83</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>-1.15</v>
+        <v>-1.96</v>
       </c>
       <c r="D38" t="n">
-        <v>2.43</v>
+        <v>0.6800000000000006</v>
       </c>
       <c r="E38" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12.44</v>
+        <v>7.859999999999999</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>15.6</v>
       </c>
       <c r="G38" t="n">
-        <v>9.040000000000001</v>
+        <v>7.990000000000001</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-10.35</v>
+        <v>-8.530000000000001</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>2.16</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="J38" t="n">
-        <v>0.62</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>0.4800000000000004</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="M38" t="n">
-        <v>10.97</v>
+        <v>12.77</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>14.96</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>-3.279999999999999</v>
+        <v>-4.25</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>1.02</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="P38" t="n">
-        <v>13.55</v>
+        <v>14.63</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>2年-3年</t>
-  </si>
-  <si>
-    <t>519773</t>
-  </si>
-  <si>
-    <t>交银数据产业灵活配置混合</t>
   </si>
   <si>
     <t>001473</t>
@@ -614,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,47 +698,47 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>-6.64</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>-2.04</v>
+      <c r="C3" t="n">
+        <v>-0.2199999999999998</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.07</v>
       </c>
       <c r="F3" t="n">
-        <v>4.099999999999998</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>47.56999999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.870000000000001</v>
+        <v>7.780000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>-2.950000000000003</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7100000000000001</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>-6.84</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.87</v>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>9.57</v>
       </c>
       <c r="M3" t="n">
-        <v>3.460000000000001</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>18.49</v>
+        <v>4.749999999999998</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>56.11</v>
+        <v>36.8</v>
       </c>
       <c r="P3" t="n">
-        <v>23.39</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -755,46 +749,46 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-1.21</v>
+        <v>-1.03</v>
       </c>
       <c r="D4" t="n">
-        <v>1.34</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>4.869999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.879999999999999</v>
+        <v>6.3</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>16.81</v>
       </c>
       <c r="G4" t="n">
-        <v>16.73</v>
+        <v>11.83</v>
       </c>
       <c r="H4" t="n">
-        <v>27.62</v>
+        <v>22.3</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>-2.259999999999998</v>
+        <v>-4.170000000000002</v>
       </c>
       <c r="J4" t="n">
-        <v>1.34</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K4" t="n">
-        <v>1.14</v>
+        <v>2.16</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.240000000000002</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.489999999999998</v>
+        <v>10.8</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.03999999999999915</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>36.16</v>
+        <v>31</v>
       </c>
       <c r="P4" t="n">
-        <v>12.26</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -805,46 +799,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.49</v>
+        <v>-2.89</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>6.57</v>
       </c>
       <c r="E5" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="H5" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>-4.169999999999998</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.29</v>
+        <v>7.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.329999999999998</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>5.579999999999998</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.849999999999998</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>7.82</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>15.51</v>
+        <v>12.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.549999999999997</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.3399999999999999</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>31.89</v>
+        <v>-9.84</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14.28</v>
       </c>
       <c r="P5" t="n">
-        <v>10.35</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -854,47 +848,47 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>-2.59</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>9.540000000000001</v>
+      <c r="C6" t="n">
+        <v>-0.2199999999999998</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-6.67</v>
       </c>
       <c r="E6" t="n">
-        <v>6.359999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F6" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.7300000000000004</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.169999999999998</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.48</v>
+        <v>7.010000000000002</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>31.9</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.03999999999999992</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>11.27</v>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.66</v>
       </c>
       <c r="M6" t="n">
-        <v>9.290000000000003</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>-11.51</v>
-      </c>
-      <c r="O6" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>24</v>
+        <v>6.23</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18.16999999999999</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>42.95999999999999</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>46.56</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -904,47 +898,47 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.2999999999999998</v>
+      <c r="C7" s="1" t="n">
+        <v>-1.93</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-6.47</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>30.72</v>
+        <v>-2.44</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.71</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>32.73999999999999</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2.25</v>
+        <v>39.8</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-0.05000000000000071</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.85</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.540000000000003</v>
+        <v>-1.19</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>21.41</v>
       </c>
       <c r="N7" t="n">
-        <v>18.48</v>
+        <v>7.92</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>46.67</v>
+        <v>48.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>14.61</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -954,47 +948,47 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>-2.4</v>
+      <c r="C8" t="n">
+        <v>-0.79</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.23</v>
+        <v>-4.85</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-2.02</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>-0.2399999999999984</v>
+        <v>14.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.86</v>
       </c>
       <c r="J8" t="n">
-        <v>0.15</v>
+        <v>0.2899999999999998</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>9.140000000000001</v>
+        <v>-3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.48</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>22.69</v>
+        <v>13.24</v>
       </c>
       <c r="N8" t="n">
-        <v>8.149999999999999</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>48.82</v>
+        <v>4.94</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12.38</v>
       </c>
       <c r="P8" t="n">
-        <v>14.28</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1004,97 +998,97 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>-1.5</v>
+      <c r="C9" t="n">
+        <v>-0.3599999999999999</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-4.46</v>
+        <v>-3.46</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>-2</v>
+        <v>-1.19</v>
       </c>
       <c r="F9" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="G9" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>2.809999999999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.15</v>
+        <v>12.73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>0.72</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>-4.66</v>
+        <v>-2.21</v>
       </c>
       <c r="L9" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27.67</v>
+        <v>11.95</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-2.32</v>
+        <v>-4.08</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1999999999999997</v>
+        <v>-6.51</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>12.47</v>
       </c>
       <c r="F10" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.23</v>
+        <v>11.1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>-3</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.109999999999999</v>
+        <v>-5.26</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>16.97</v>
       </c>
       <c r="M10" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="N10" t="n">
         <v>11.4</v>
       </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
+      <c r="O10" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27.52</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1104,47 +1098,47 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>11.29</v>
+      <c r="C11" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.4500000000000002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.99</v>
       </c>
       <c r="F11" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.189999999999998</v>
+        <v>4.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>4.329999999999998</v>
       </c>
       <c r="I11" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>-4.24</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>16.2</v>
+        <v>7.749999999999998</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.49</v>
       </c>
       <c r="M11" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11.3</v>
+        <v>4.039999999999999</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0.3199999999999985</v>
       </c>
       <c r="O11" t="n">
-        <v>15.73</v>
+        <v>13.03</v>
       </c>
       <c r="P11" t="n">
-        <v>28.06</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1154,47 +1148,47 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.1199999999999999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.2199999999999998</v>
+      <c r="C12" s="1" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-2.47</v>
       </c>
       <c r="E12" t="n">
-        <v>2.64</v>
+        <v>0.57</v>
       </c>
       <c r="F12" t="n">
-        <v>4.779999999999998</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>4.109999999999999</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.760000000000002</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0.4199999999999999</v>
+        <v>8.25</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>-1.22</v>
       </c>
       <c r="L12" t="n">
-        <v>7.55</v>
+        <v>5.07</v>
       </c>
       <c r="M12" t="n">
-        <v>4.140000000000001</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>0.1899999999999977</v>
-      </c>
-      <c r="O12" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>22.28</v>
+        <v>7.469999999999999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1205,46 +1199,46 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>-0.6600000000000001</v>
+        <v>-5.359999999999999</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>-5.83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.68</v>
       </c>
       <c r="F13" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>27.93</v>
+        <v>5.310000000000002</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16.38</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.4500000000000002</v>
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>-4.58</v>
       </c>
       <c r="L13" t="n">
-        <v>4.25</v>
+        <v>7.18</v>
       </c>
       <c r="M13" t="n">
-        <v>7.200000000000003</v>
+        <v>4.530000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>15.69</v>
+        <v>4.589999999999998</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1254,47 +1248,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>-4.38</v>
+      <c r="C14" t="n">
+        <v>-0.6299999999999999</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-7.07</v>
+        <v>-0.6099999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.639999999999997</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11.68</v>
+        <v>2.93</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>-7.27</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>-0.5600000000000005</v>
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1304,47 +1298,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8799999999999999</v>
+      <c r="C15" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-4.67</v>
       </c>
       <c r="E15" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
+        <v>13.3</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.7</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3099999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>-3.42</v>
       </c>
       <c r="L15" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
+        <v>6.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>28.36</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1355,46 +1349,46 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>-2.38</v>
+        <v>-1.54</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-2.92</v>
+        <v>-3.51</v>
       </c>
       <c r="E16" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>25.62</v>
+        <v>4.37</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-7.199999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.370000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>20.98</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>13.39</v>
+        <v>15.52</v>
       </c>
       <c r="J16" t="n">
-        <v>0.17</v>
+        <v>-0.46</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-3.12</v>
+        <v>-2.26</v>
       </c>
       <c r="L16" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="M16" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13.38</v>
+        <v>8.870000000000001</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>-5.42</v>
       </c>
       <c r="O16" t="n">
-        <v>29.52</v>
-      </c>
-      <c r="P16" t="n">
-        <v>27.91</v>
+        <v>18.6</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>30.18</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1404,47 +1398,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>-4.04</v>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.95</v>
       </c>
       <c r="E17" t="n">
-        <v>5.34</v>
+        <v>1.55</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-8.860000000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9.190000000000001</v>
+        <v>-5.529999999999998</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-6.97</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>2.449999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>15.71</v>
+        <v>9.549999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>-4.24</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>10.25</v>
+        <v>1.08</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.05</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-9.499999999999998</v>
+        <v>-6.309999999999999</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-4.930000000000001</v>
+        <v>-18.76</v>
       </c>
       <c r="O17" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>30.23</v>
+        <v>11.15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>24.21</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1455,46 +1449,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7599999999999998</v>
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-2.56</v>
       </c>
       <c r="E18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>-4.260000000000002</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>-6.789999999999999</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0.1199999999999974</v>
+        <v>4.359999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.91</v>
       </c>
       <c r="I18" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.5599999999999996</v>
+        <v>17.96</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>-1.31</v>
       </c>
       <c r="L18" t="n">
-        <v>6.359999999999999</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>-4.899999999999999</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>-19.03</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8.659999999999998</v>
-      </c>
-      <c r="P18" t="n">
-        <v>24.98</v>
+        <v>8.859999999999999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.949999999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>33.61</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>32.62</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1504,47 +1498,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.2299999999999995</v>
+      <c r="C19" t="n">
+        <v>0.1400000000000001</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-3.07</v>
       </c>
       <c r="E19" t="n">
-        <v>2.04</v>
+        <v>6.3</v>
       </c>
       <c r="F19" t="n">
-        <v>7.029999999999998</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>24.94</v>
+        <v>7.84</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19.27</v>
       </c>
       <c r="H19" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17.25</v>
+        <v>23.79</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>2.479999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9400000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.4299999999999997</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.95</v>
+        <v>1.22</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>10.8</v>
       </c>
       <c r="M19" t="n">
-        <v>6.390000000000001</v>
+        <v>7.059999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>12.7</v>
+        <v>7.479999999999999</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>31.77</v>
+        <v>32.48999999999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>17.14</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1554,47 +1548,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>-1.819999999999999</v>
+      <c r="C20" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.3399999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>2.83</v>
       </c>
       <c r="F20" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="H20" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>2.420000000000002</v>
+        <v>7.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>53.56999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.52</v>
       </c>
       <c r="J20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>10.79</v>
+        <v>0.3899999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.33</v>
       </c>
       <c r="M20" t="n">
-        <v>5.130000000000003</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.539999999999999</v>
+        <v>6.719999999999999</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>-0.3499999999999996</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>32.15</v>
+        <v>62.27</v>
       </c>
       <c r="P20" t="n">
-        <v>16.94</v>
+        <v>26.18</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1604,47 +1598,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4800000000000004</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10.89</v>
+      <c r="C21" t="n">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-0.9500000000000001</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>37.22</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>54.03999999999999</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.01</v>
+        <v>43.77</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>2.469999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2800000000000002</v>
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>-3.05</v>
       </c>
       <c r="L21" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="M21" t="n">
-        <v>6.430000000000003</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>-1.350000000000001</v>
+        <v>3.55</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>-2.620000000000001</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>25.43</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>62.58</v>
+        <v>52.47</v>
       </c>
       <c r="P21" t="n">
-        <v>26.53</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1655,46 +1649,46 @@
         <v>51</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-1.78</v>
+        <v>-1.74</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>-1.55</v>
+        <v>-0.7400000000000002</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.98</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-1.130000000000003</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>39.17</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>42.09999999999999</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>1.800000000000001</v>
+        <v>-0.5999999999999979</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.849999999999998</v>
       </c>
       <c r="J22" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.36</v>
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5099999999999998</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>9.48</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>26.93</v>
+        <v>-1.379999999999999</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>-0.9400000000000013</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>50.64</v>
+        <v>31.39</v>
       </c>
       <c r="P22" t="n">
-        <v>16.32</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1704,47 +1698,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.27</v>
+      <c r="C23" t="n">
+        <v>-0.6299999999999999</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-5.34</v>
       </c>
       <c r="E23" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>-2.120000000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11.84</v>
+        <v>1.03</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>24.98</v>
       </c>
       <c r="H23" t="n">
-        <v>23.2</v>
+        <v>19.91</v>
       </c>
       <c r="I23" t="n">
-        <v>9.550000000000001</v>
+        <v>10.98</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.069999999999999</v>
+        <v>0.45</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>-4.09</v>
       </c>
       <c r="L23" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>-2.759999999999998</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>31.74</v>
+        <v>5.53</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.859999999999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="O23" t="n">
+        <v>28.61</v>
       </c>
       <c r="P23" t="n">
-        <v>24.07</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1755,46 +1749,46 @@
         <v>55</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-2.02</v>
+        <v>-2.86</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-3.56</v>
+        <v>-4.82</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.389999999999997</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="H24" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.53</v>
+        <v>2.76</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="G24" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-1.78</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-3.76</v>
+        <v>-3.57</v>
       </c>
       <c r="L24" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.75</v>
+        <v>7.26</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>15.38</v>
       </c>
       <c r="N24" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="P24" t="n">
-        <v>25.53</v>
+        <v>7.220000000000001</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1805,46 +1799,46 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-3.83</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>-4.699999999999999</v>
+        <v>-2.98</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1400000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>15.71</v>
+        <v>5.06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.910000000000004</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
+        <v>26.29</v>
+      </c>
+      <c r="H25" t="n">
+        <v>18.6</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>15.07</v>
+        <v>-1.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.130000000000003</v>
       </c>
       <c r="N25" t="n">
-        <v>7.829999999999998</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
+        <v>14.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>27.3</v>
       </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1854,47 +1848,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>-4.17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.25</v>
+      <c r="C26" t="n">
+        <v>-0.6499999999999999</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>-2.41</v>
       </c>
       <c r="E26" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.199999999999996</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>24.97</v>
+        <v>8.16</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="G26" t="n">
+        <v>19.26</v>
       </c>
       <c r="H26" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.05</v>
+        <v>23.46</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.299999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>-1.16</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="M26" t="n">
-        <v>7.559999999999999</v>
+        <v>12.66</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>15.65</v>
       </c>
       <c r="N26" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="O26" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="P26" t="s">
-        <v>27</v>
+        <v>7.470000000000001</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>20.96</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1904,47 +1898,47 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.2799999999999994</v>
+      <c r="C27" t="n">
+        <v>0.1100000000000003</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>-4.99</v>
       </c>
       <c r="E27" t="n">
-        <v>7.08</v>
+        <v>1.11</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>15.88</v>
+        <v>15.16</v>
       </c>
       <c r="G27" t="n">
-        <v>19.69</v>
+        <v>15.84</v>
       </c>
       <c r="H27" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>5.65</v>
+        <v>14.21</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.37</v>
       </c>
       <c r="J27" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.4799999999999995</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>11.99</v>
+        <v>1.19</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.61</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>15.24</v>
+        <v>14.38</v>
       </c>
       <c r="N27" t="n">
-        <v>7.449999999999999</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>33.08</v>
+        <v>4.049999999999999</v>
+      </c>
+      <c r="O27" t="n">
+        <v>22.91</v>
       </c>
       <c r="P27" t="n">
-        <v>20.17</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1954,47 +1948,47 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>-2.37</v>
+      <c r="C28" t="n">
+        <v>-0.8499999999999999</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-3.06</v>
+        <v>-2.01</v>
       </c>
       <c r="E28" t="n">
-        <v>1.14</v>
+        <v>2.22</v>
       </c>
       <c r="F28" t="n">
-        <v>12.44</v>
+        <v>5.27</v>
       </c>
       <c r="G28" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15.52</v>
+        <v>5.07</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>3.699999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>13.36</v>
+        <v>11.82</v>
       </c>
       <c r="J28" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>-3.26</v>
+        <v>-0.76</v>
       </c>
       <c r="L28" t="n">
-        <v>6.05</v>
+        <v>6.72</v>
       </c>
       <c r="M28" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.789999999999999</v>
+        <v>4.489999999999998</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>-6.720000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>24.06</v>
+        <v>12.4</v>
       </c>
       <c r="P28" t="n">
-        <v>27.88</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2005,46 +1999,46 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>-1.41</v>
+        <v>-3.05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.95</v>
       </c>
       <c r="E29" t="n">
-        <v>2.62</v>
+        <v>2.16</v>
       </c>
       <c r="F29" t="n">
-        <v>3.939999999999998</v>
+        <v>8.330000000000002</v>
       </c>
       <c r="G29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>3.98</v>
+        <v>17.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17.01</v>
       </c>
       <c r="I29" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>-1.61</v>
+        <v>6.529999999999999</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>7.53</v>
+        <v>6.66</v>
       </c>
       <c r="M29" t="n">
-        <v>3.300000000000001</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>-6.940000000000001</v>
+        <v>7.550000000000001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.51</v>
       </c>
       <c r="O29" t="n">
-        <v>12.52</v>
+        <v>25.71</v>
       </c>
       <c r="P29" t="n">
-        <v>25.99</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2054,47 +2048,47 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>-2.72</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.9</v>
+      <c r="C30" t="n">
+        <v>0.01000000000000023</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-0.7200000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>8.799999999999997</v>
+        <v>7.34</v>
       </c>
       <c r="G30" t="n">
-        <v>17.07</v>
+        <v>15.57</v>
       </c>
       <c r="H30" t="n">
-        <v>16.37</v>
+        <v>15.94</v>
       </c>
       <c r="I30" t="n">
-        <v>6.74</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.000000000000001</v>
+        <v>1.09</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>-2.96</v>
       </c>
       <c r="L30" t="n">
-        <v>6.81</v>
+        <v>3.78</v>
       </c>
       <c r="M30" t="n">
-        <v>8.16</v>
+        <v>6.559999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>4.829999999999998</v>
+        <v>3.779999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>24.91</v>
+        <v>24.64</v>
       </c>
       <c r="P30" t="n">
-        <v>21.26</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2104,47 +2098,47 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>-1.43</v>
+      <c r="C31" t="n">
+        <v>-0.75</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-3.53</v>
+        <v>-1.27</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.7800000000000002</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.729999999999997</v>
+        <v>-0.5100000000000001</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-2.029999999999998</v>
       </c>
       <c r="G31" t="n">
-        <v>16.51</v>
+        <v>14.17</v>
       </c>
       <c r="H31" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.25</v>
+        <v>11.72</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>-3.73</v>
+        <v>0.3299999999999998</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.02000000000000002</v>
       </c>
       <c r="L31" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.27</v>
+        <v>3.99</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>-2.809999999999999</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>2.380000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="P31" t="n">
-        <v>23.77</v>
+        <v>20.42</v>
+      </c>
+      <c r="P31" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2154,47 +2148,47 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>-2.36</v>
+      <c r="C32" t="n">
+        <v>0.27</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>-1.990000000000002</v>
-      </c>
-      <c r="G32" t="n">
-        <v>15.09</v>
+        <v>-6.91</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.620000000000001</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>25.64</v>
       </c>
       <c r="H32" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>27</v>
+        <v>18.29</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.069999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1900000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>-1.16</v>
+        <v>-5.66</v>
       </c>
       <c r="L32" t="n">
-        <v>4.45</v>
+        <v>5.48</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>-2.629999999999999</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>2.849999999999998</v>
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13.85</v>
       </c>
       <c r="O32" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="P32" t="s">
-        <v>27</v>
+        <v>26.99</v>
+      </c>
+      <c r="P32" t="n">
+        <v>21.73</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2204,47 +2198,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>-6.19</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>-1.290000000000003</v>
+      <c r="C33" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>17.85</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>28.37</v>
+        <v>35</v>
       </c>
       <c r="H33" t="n">
-        <v>19.56</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.530000000000001</v>
+        <v>8.129999999999999</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>3.349999999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>-6.39</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="N33" t="n">
-        <v>16.13</v>
+        <v>-0.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>23.21</v>
       </c>
       <c r="O33" t="n">
-        <v>28.1</v>
+        <v>16.83</v>
       </c>
       <c r="P33" t="n">
-        <v>21.05</v>
+        <v>18.01</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2254,47 +2248,47 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.73</v>
+      <c r="C34" s="1" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>-0.8900000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>8.890000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>36.21</v>
+        <v>13.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.030000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>8.439999999999998</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>3.030000000000001</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>2.08</v>
+        <v>7.43</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.049999999999999</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>-1.56</v>
       </c>
       <c r="K34" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>23.97</v>
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="M34" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>-2.76</v>
       </c>
       <c r="O34" t="n">
-        <v>16.98</v>
+        <v>16.13</v>
       </c>
       <c r="P34" t="n">
-        <v>17.55</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2304,47 +2298,47 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>-3.51</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.51</v>
+      <c r="C35" t="n">
+        <v>-0.6399999999999997</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-1.83</v>
       </c>
       <c r="E35" t="n">
-        <v>1.31</v>
+        <v>3.16</v>
       </c>
       <c r="F35" t="n">
-        <v>12.77</v>
+        <v>8.880000000000003</v>
       </c>
       <c r="G35" t="n">
-        <v>10.35</v>
+        <v>7.33</v>
       </c>
       <c r="H35" t="n">
-        <v>8.039999999999999</v>
+        <v>9.440000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>8.24</v>
+        <v>6.909999999999998</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.9600000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.31</v>
+        <v>0.4400000000000002</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>-0.5800000000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>6.22</v>
+        <v>7.66</v>
       </c>
       <c r="M35" t="n">
-        <v>12.13</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>-1.890000000000001</v>
+        <v>-4.460000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>16.58</v>
+        <v>18.14</v>
       </c>
       <c r="P35" t="n">
-        <v>22.76</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2355,46 +2349,46 @@
         <v>79</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>-1.46</v>
+        <v>-1.91</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.5</v>
       </c>
       <c r="E36" t="n">
-        <v>3.58</v>
+        <v>4.18</v>
       </c>
       <c r="F36" t="n">
-        <v>7.489999999999998</v>
+        <v>11.69</v>
       </c>
       <c r="G36" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.610000000000001</v>
+        <v>11.01</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>5.760000000000002</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>4.379999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>-1.66</v>
+        <v>-0.83</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.75</v>
       </c>
       <c r="L36" t="n">
-        <v>8.49</v>
+        <v>8.68</v>
       </c>
       <c r="M36" t="n">
-        <v>6.850000000000001</v>
+        <v>10.91</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>-4.270000000000001</v>
+        <v>-0.7800000000000011</v>
       </c>
       <c r="O36" t="n">
-        <v>19.22</v>
+        <v>14.46</v>
       </c>
       <c r="P36" t="n">
-        <v>21.13</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2405,96 +2399,46 @@
         <v>81</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>-3.58</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10.39</v>
+        <v>-1.18</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>15.3</v>
       </c>
       <c r="G37" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7.279999999999998</v>
+        <v>6.450000000000001</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-6.69</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>3.460000000000001</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>-1.03</v>
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.1000000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="M37" t="n">
-        <v>9.750000000000004</v>
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>14.52</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>-0.370000000000001</v>
-      </c>
-      <c r="O37" t="n">
-        <v>15.82</v>
+        <v>-5.34</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>2.01</v>
       </c>
       <c r="P37" t="n">
-        <v>17.98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.6800000000000006</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7.859999999999999</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G38" t="n">
-        <v>7.990000000000001</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>-8.530000000000001</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.4800000000000004</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>-4.25</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="P38" t="n">
-        <v>14.63</v>
+        <v>14.46</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -50,18 +50,18 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>040020</t>
+  </si>
+  <si>
+    <t>华安升级主题混合</t>
+  </si>
+  <si>
     <t>001473</t>
   </si>
   <si>
     <t>建信大安全战略精选股票</t>
   </si>
   <si>
-    <t>040020</t>
-  </si>
-  <si>
-    <t>华安升级主题混合</t>
-  </si>
-  <si>
     <t>005267</t>
   </si>
   <si>
@@ -203,16 +203,22 @@
     <t>泓德远见回报混合</t>
   </si>
   <si>
+    <t>001605</t>
+  </si>
+  <si>
+    <t>国富沪港深成长精选股票</t>
+  </si>
+  <si>
+    <t>009076</t>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+  </si>
+  <si>
     <t>519069</t>
   </si>
   <si>
     <t>汇添富价值精选混合A</t>
-  </si>
-  <si>
-    <t>001605</t>
-  </si>
-  <si>
-    <t>国富沪港深成长精选股票</t>
   </si>
   <si>
     <t>519736</t>
@@ -286,12 +292,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="3" tint="0.5"/>
+        <fgColor indexed="2" tint="0.5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="2" tint="0.5"/>
+        <fgColor indexed="3" tint="0.5"/>
       </patternFill>
     </fill>
   </fills>
@@ -608,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,46 +705,46 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2199999999999998</v>
+        <v>-0.6199999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1299999999999999</v>
+        <v>-0.1199999999999997</v>
       </c>
       <c r="E3" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.780000000000001</v>
+        <v>7.06</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>16.54</v>
       </c>
       <c r="G3" t="n">
-        <v>16.54</v>
+        <v>11.64</v>
       </c>
       <c r="H3" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>-2.950000000000003</v>
+        <v>22.46</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>-2.640000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8600000000000001</v>
+        <v>-0.73</v>
       </c>
       <c r="K3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.749999999999998</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>36.8</v>
+        <v>1.23</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>31.51</v>
       </c>
       <c r="P3" t="n">
-        <v>11.71</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -748,47 +754,47 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>-1.03</v>
+      <c r="C4" t="n">
+        <v>0.3700000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9100000000000001</v>
+        <v>-0.3799999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>16.81</v>
+        <v>5.609999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.07</v>
       </c>
       <c r="G4" t="n">
-        <v>11.83</v>
+        <v>16.42</v>
       </c>
       <c r="H4" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>-4.170000000000002</v>
+        <v>29.73</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>-4.09</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="K4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0.03999999999999915</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>31</v>
+        <v>0.9699999999999998</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.449999999999999</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>38.78</v>
       </c>
       <c r="P4" t="n">
-        <v>10.49</v>
+        <v>9.649999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -798,47 +804,47 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>-2.89</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>6.57</v>
+      <c r="C5" s="2" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>6.29</v>
       </c>
       <c r="E5" t="n">
-        <v>7.9</v>
+        <v>7.43</v>
       </c>
       <c r="F5" t="n">
-        <v>9.329999999999998</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>5.579999999999998</v>
+        <v>9.07</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>4.890000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>9.849999999999998</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>12.4</v>
+        <v>10.37</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>13.18</v>
       </c>
       <c r="M5" t="n">
-        <v>8.549999999999997</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>-9.84</v>
+        <v>7.98</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>-8.59</v>
       </c>
       <c r="O5" t="n">
-        <v>14.28</v>
+        <v>13.94</v>
       </c>
       <c r="P5" t="n">
-        <v>24.51</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -849,46 +855,46 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>-6.67</v>
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>-7.68</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="F6" t="n">
-        <v>7.010000000000002</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>34.26</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>31.9</v>
+        <v>7.300000000000001</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>32.02</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>-5.42</v>
+        <v>1.09</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>-6.33</v>
       </c>
       <c r="L6" t="n">
-        <v>4.66</v>
+        <v>5.97</v>
       </c>
       <c r="M6" t="n">
-        <v>6.23</v>
+        <v>6.210000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>18.16999999999999</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>42.95999999999999</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>46.56</v>
+        <v>17.94</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>45.76</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -898,47 +904,47 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>-2.44</v>
+      <c r="C7" s="2" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-2.61</v>
       </c>
       <c r="E7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>22.19</v>
+        <v>4.42</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>22.87</v>
       </c>
       <c r="G7" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>-0.05000000000000071</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>21.41</v>
+        <v>19.5</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>21.78</v>
       </c>
       <c r="N7" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>48.5</v>
+        <v>7.530000000000001</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>48.31</v>
       </c>
       <c r="P7" t="n">
-        <v>14.61</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -949,46 +955,46 @@
         <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>14.02</v>
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.16</v>
       </c>
       <c r="G8" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>3.68</v>
+        <v>17.4</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>3.41</v>
       </c>
       <c r="I8" t="n">
-        <v>12.86</v>
+        <v>12.84</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2899999999999998</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>-3.6</v>
+        <v>0.3400000000000001</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>-4.390000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>13.24</v>
+        <v>4.779999999999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.94</v>
+        <v>5.43</v>
       </c>
       <c r="O8" t="n">
-        <v>12.38</v>
+        <v>12.46</v>
       </c>
       <c r="P8" t="n">
-        <v>27.52</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -999,16 +1005,16 @@
         <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3599999999999999</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>-3.46</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>-1.19</v>
+        <v>1.12</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>-1.27</v>
       </c>
       <c r="F9" t="n">
-        <v>12.73</v>
+        <v>12.15</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -1020,16 +1026,16 @@
         <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>-2.21</v>
+        <v>1.01</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>-2.57</v>
       </c>
       <c r="L9" t="n">
-        <v>3.31</v>
+        <v>4.48</v>
       </c>
       <c r="M9" t="n">
-        <v>11.95</v>
+        <v>11.06</v>
       </c>
       <c r="N9" t="s">
         <v>25</v>
@@ -1048,47 +1054,47 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>-6.51</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>12.47</v>
+      <c r="C10" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>12.43</v>
       </c>
       <c r="F10" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>23.19</v>
+        <v>10.34</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>23.26</v>
       </c>
       <c r="H10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.950000000000003</v>
       </c>
       <c r="I10" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>-5.26</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>16.97</v>
+        <v>13.24</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>-7.24</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>18.18</v>
       </c>
       <c r="M10" t="n">
-        <v>10.32</v>
+        <v>9.25</v>
       </c>
       <c r="N10" t="n">
-        <v>11.4</v>
+        <v>11.29</v>
       </c>
       <c r="O10" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="P10" t="n">
-        <v>27.52</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1099,46 +1105,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.4500000000000002</v>
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E11" t="n">
-        <v>2.99</v>
+        <v>3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>4.82</v>
+        <v>4.380000000000003</v>
       </c>
       <c r="G11" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>4.329999999999998</v>
+        <v>12.44</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>4.290000000000003</v>
       </c>
       <c r="I11" t="n">
-        <v>7.749999999999998</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>1.23</v>
+        <v>0.2699999999999998</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>9.119999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>4.039999999999999</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>0.3199999999999985</v>
+        <v>3.290000000000003</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0.4699999999999989</v>
       </c>
       <c r="O11" t="n">
-        <v>13.03</v>
+        <v>13.34</v>
       </c>
       <c r="P11" t="n">
-        <v>22.41</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1148,20 +1154,20 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>-2.47</v>
+      <c r="C12" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-3.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.57</v>
+        <v>0.6700000000000002</v>
       </c>
       <c r="F12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>26.7</v>
+        <v>7.75</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>27.12</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -1170,19 +1176,19 @@
         <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>-1.22</v>
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>-1.81</v>
       </c>
       <c r="L12" t="n">
-        <v>5.07</v>
+        <v>6.42</v>
       </c>
       <c r="M12" t="n">
-        <v>7.469999999999999</v>
+        <v>6.66</v>
       </c>
       <c r="N12" t="n">
-        <v>14.91</v>
+        <v>15.15</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -1198,20 +1204,20 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>-5.359999999999999</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>-5.83</v>
+      <c r="C13" s="2" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-2.89</v>
       </c>
       <c r="E13" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.310000000000002</v>
+        <v>2.02</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.0400000000000027</v>
       </c>
       <c r="G13" t="n">
-        <v>16.38</v>
+        <v>19.45</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1219,20 +1225,20 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>-4.58</v>
+      <c r="J13" s="2" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>-1.54</v>
       </c>
       <c r="L13" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.530000000000001</v>
+        <v>7.77</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>-1.049999999999997</v>
       </c>
       <c r="N13" t="n">
-        <v>4.589999999999998</v>
+        <v>7.48</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -1249,16 +1255,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6299999999999999</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>-0.6099999999999999</v>
+        <v>0.8599999999999999</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>-2.06</v>
       </c>
       <c r="E14" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>17.69</v>
+        <v>4.880000000000001</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>15.34</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -1270,16 +1276,16 @@
         <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6400000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>16.91</v>
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>-0.7100000000000002</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>14.25</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1299,46 +1305,46 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>-4.67</v>
+        <v>1.07</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-6.05</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>23.14</v>
+        <v>3.86</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>24.25</v>
       </c>
       <c r="H15" t="n">
-        <v>21.55</v>
+        <v>21.43</v>
       </c>
       <c r="I15" t="n">
-        <v>13.7</v>
+        <v>13.61</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7499999999999998</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>-3.42</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6.8</v>
+        <v>0.9599999999999997</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>9.609999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>12.52</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>30.25</v>
+        <v>12.28</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>30.48</v>
       </c>
       <c r="P15" t="n">
-        <v>28.36</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1348,47 +1354,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>-3.51</v>
+      <c r="C16" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-4.25</v>
       </c>
       <c r="E16" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>-7.199999999999999</v>
+        <v>3.38</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-6.19</v>
       </c>
       <c r="G16" t="n">
-        <v>6.370000000000001</v>
+        <v>6.159999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>9.899999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="I16" t="n">
-        <v>15.52</v>
+        <v>15.24</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8.870000000000001</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>-7.98</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>-5.42</v>
+        <v>-0.8600000000000001</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>9.129999999999999</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>-7.279999999999999</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>-5.81</v>
       </c>
       <c r="O16" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>30.18</v>
+        <v>19.67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>28.98</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1398,47 +1404,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
+      <c r="C17" s="2" t="n">
+        <v>-1.47</v>
       </c>
       <c r="D17" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="E17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>-5.529999999999998</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>-6.97</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>2.449999999999999</v>
+        <v>1.34</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-6.62</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>2.440000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>9.549999999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.199999999999999</v>
+        <v>8.970000000000001</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>4.59</v>
       </c>
       <c r="L17" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>-6.309999999999999</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>-18.76</v>
+        <v>7.09</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>-6.109999999999999</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>-18.59</v>
       </c>
       <c r="O17" t="n">
-        <v>11.15</v>
+        <v>11.49</v>
       </c>
       <c r="P17" t="n">
-        <v>24.21</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1449,46 +1455,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>-2.56</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>-3.3</v>
       </c>
       <c r="E18" t="n">
-        <v>4.359999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="F18" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>22.71</v>
+        <v>7.890000000000001</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>22.65</v>
       </c>
       <c r="H18" t="n">
-        <v>24.91</v>
+        <v>24.75</v>
       </c>
       <c r="I18" t="n">
-        <v>17.96</v>
+        <v>18.63</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.859999999999999</v>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>10.01</v>
       </c>
       <c r="M18" t="n">
-        <v>6.949999999999999</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>33.61</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>32.62</v>
+        <v>10.68</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>32.37</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1499,46 +1505,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1400000000000001</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>-3.07</v>
+        <v>1.04</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>-3.34</v>
       </c>
       <c r="E19" t="n">
-        <v>6.3</v>
+        <v>6.18</v>
       </c>
       <c r="F19" t="n">
-        <v>7.84</v>
+        <v>7.720000000000002</v>
       </c>
       <c r="G19" t="n">
-        <v>19.27</v>
+        <v>19.14</v>
       </c>
       <c r="H19" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>2.479999999999999</v>
+        <v>24.43</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>1.260000000000002</v>
       </c>
       <c r="J19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>10.8</v>
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>11.93</v>
       </c>
       <c r="M19" t="n">
-        <v>7.059999999999999</v>
+        <v>6.630000000000003</v>
       </c>
       <c r="N19" t="n">
-        <v>7.479999999999999</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>32.48999999999999</v>
+        <v>7.170000000000002</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>33.48</v>
       </c>
       <c r="P19" t="n">
-        <v>17.14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1549,46 +1555,46 @@
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.3399999999999999</v>
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-0.9299999999999997</v>
       </c>
       <c r="E20" t="n">
-        <v>2.83</v>
+        <v>2.48</v>
       </c>
       <c r="F20" t="n">
-        <v>7.5</v>
+        <v>8.190000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>53.56999999999999</v>
+        <v>10.71</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>54.2</v>
       </c>
       <c r="I20" t="n">
-        <v>11.52</v>
+        <v>11.12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.4799999999999998</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>7.33</v>
+        <v>8.23</v>
       </c>
       <c r="M20" t="n">
-        <v>6.719999999999999</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>62.27</v>
+        <v>7.100000000000001</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>63.25</v>
       </c>
       <c r="P20" t="n">
-        <v>26.18</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1599,46 +1605,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6699999999999999</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>-0.9500000000000001</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>37.22</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>43.77</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>2.469999999999999</v>
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-1.079999999999998</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>4.34</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4099999999999999</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>-3.05</v>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>-3.67</v>
       </c>
       <c r="L21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>-2.620000000000001</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>25.43</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>52.47</v>
+        <v>3.98</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>-2.169999999999998</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>52.1</v>
       </c>
       <c r="P21" t="n">
-        <v>17.13</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1648,47 +1654,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>-0.7400000000000002</v>
+      <c r="C22" t="n">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-1.93</v>
       </c>
       <c r="E22" t="n">
         <v>4.98</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>-0.5999999999999979</v>
+      <c r="F22" s="2" t="n">
+        <v>-0.7399999999999984</v>
       </c>
       <c r="G22" t="n">
-        <v>10.85</v>
+        <v>12.24</v>
       </c>
       <c r="H22" t="n">
-        <v>22.69</v>
+        <v>22.16</v>
       </c>
       <c r="I22" t="n">
-        <v>9.849999999999998</v>
+        <v>10.22</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.6599999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.5099999999999998</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>-1.379999999999999</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>-0.9400000000000013</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>31.39</v>
+        <v>-0.3</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>-1.829999999999998</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0.2699999999999996</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>31.21</v>
       </c>
       <c r="P22" t="n">
-        <v>24.51</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1699,46 +1705,46 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6299999999999999</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>-5.34</v>
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>-6.34</v>
       </c>
       <c r="E23" t="n">
-        <v>1.03</v>
+        <v>0.9700000000000002</v>
       </c>
       <c r="F23" t="n">
-        <v>5.640000000000001</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>24.98</v>
+        <v>5.34</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>24.58</v>
       </c>
       <c r="H23" t="n">
-        <v>19.91</v>
+        <v>20.8</v>
       </c>
       <c r="I23" t="n">
-        <v>10.98</v>
+        <v>11.29</v>
       </c>
       <c r="J23" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>-4.09</v>
+        <v>0.47</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>-4.99</v>
       </c>
       <c r="L23" t="n">
-        <v>5.53</v>
+        <v>6.72</v>
       </c>
       <c r="M23" t="n">
-        <v>4.859999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="N23" t="n">
-        <v>13.19</v>
+        <v>12.61</v>
       </c>
       <c r="O23" t="n">
-        <v>28.61</v>
+        <v>29.85</v>
       </c>
       <c r="P23" t="n">
-        <v>25.64</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1748,20 +1754,20 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>-4.82</v>
+      <c r="C24" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>-5.56</v>
       </c>
       <c r="E24" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="G24" t="n">
-        <v>19.01</v>
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>20.3</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1769,20 +1775,20 @@
       <c r="I24" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="1" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>-3.57</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>15.38</v>
+      <c r="J24" t="n">
+        <v>-0.6200000000000001</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11.96</v>
       </c>
       <c r="N24" t="n">
-        <v>7.220000000000001</v>
+        <v>8.329999999999998</v>
       </c>
       <c r="O24" t="s">
         <v>25</v>
@@ -1798,44 +1804,44 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>-2.98</v>
+      <c r="C25" t="n">
+        <v>-0.4299999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1400000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>5.06</v>
+        <v>5.790000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>9.910000000000004</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>26.29</v>
+        <v>7.07</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>28.01</v>
       </c>
       <c r="H25" t="n">
-        <v>18.6</v>
+        <v>18.85</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <v>-1.9</v>
+      <c r="J25" t="n">
+        <v>-0.54</v>
       </c>
       <c r="K25" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>9.56</v>
+        <v>1.1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>11.54</v>
       </c>
       <c r="M25" t="n">
-        <v>9.130000000000003</v>
+        <v>5.98</v>
       </c>
       <c r="N25" t="n">
-        <v>14.5</v>
+        <v>16.04</v>
       </c>
       <c r="O25" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="P25" t="s">
         <v>25</v>
@@ -1849,46 +1855,46 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6499999999999999</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>-2.41</v>
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>-2.12</v>
       </c>
       <c r="E26" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>16.43</v>
+        <v>7.94</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>15.36</v>
       </c>
       <c r="G26" t="n">
-        <v>19.26</v>
+        <v>19.94</v>
       </c>
       <c r="H26" t="n">
-        <v>23.46</v>
+        <v>23.33</v>
       </c>
       <c r="I26" t="n">
-        <v>6.299999999999999</v>
+        <v>6.73</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>15.65</v>
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>-0.7700000000000002</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>14.27</v>
       </c>
       <c r="N26" t="n">
-        <v>7.470000000000001</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>32.16</v>
+        <v>7.969999999999999</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>32.38</v>
       </c>
       <c r="P26" t="n">
-        <v>20.96</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1899,46 +1905,46 @@
         <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>-4.99</v>
+        <v>1.66</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>-4.98</v>
       </c>
       <c r="E27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>15.16</v>
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>14.91</v>
       </c>
       <c r="G27" t="n">
-        <v>15.84</v>
+        <v>15.7</v>
       </c>
       <c r="H27" t="n">
-        <v>14.21</v>
+        <v>14.97</v>
       </c>
       <c r="I27" t="n">
-        <v>14.37</v>
+        <v>14.77</v>
       </c>
       <c r="J27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>-3.74</v>
+        <v>1.55</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>-3.63</v>
       </c>
       <c r="L27" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>14.38</v>
+        <v>6.25</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>13.82</v>
       </c>
       <c r="N27" t="n">
-        <v>4.049999999999999</v>
+        <v>3.73</v>
       </c>
       <c r="O27" t="n">
-        <v>22.91</v>
+        <v>24.02</v>
       </c>
       <c r="P27" t="n">
-        <v>29.03</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1948,47 +1954,47 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.8499999999999999</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>-2.01</v>
+      <c r="C28" s="2" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5300000000000002</v>
       </c>
       <c r="E28" t="n">
-        <v>2.22</v>
+        <v>2.81</v>
       </c>
       <c r="F28" t="n">
-        <v>5.27</v>
+        <v>7.57</v>
       </c>
       <c r="G28" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>3.699999999999999</v>
+        <v>17.92</v>
+      </c>
+      <c r="H28" t="n">
+        <v>16.05</v>
       </c>
       <c r="I28" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>-0.76</v>
+        <v>6.600000000000001</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.88</v>
       </c>
       <c r="L28" t="n">
-        <v>6.72</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>4.489999999999998</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>-6.720000000000001</v>
+        <v>6.48</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.949999999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>12.4</v>
+        <v>25.1</v>
       </c>
       <c r="P28" t="n">
-        <v>26.48</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1998,47 +2004,47 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.95</v>
+      <c r="C29" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>-4.29</v>
       </c>
       <c r="E29" t="n">
-        <v>2.16</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>8.330000000000002</v>
-      </c>
-      <c r="G29" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.529999999999999</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.66</v>
+        <v>11.42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>9.890000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>7.550000000000001</v>
-      </c>
-      <c r="N29" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="O29" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="P29" t="n">
-        <v>21.19</v>
+        <v>10.33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2049,46 +2055,46 @@
         <v>67</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>-0.7200000000000001</v>
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.41</v>
       </c>
       <c r="F30" t="n">
-        <v>7.34</v>
+        <v>4.760000000000002</v>
       </c>
       <c r="G30" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15.94</v>
+        <v>4.87</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>3.560000000000002</v>
       </c>
       <c r="I30" t="n">
-        <v>8.959999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="J30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>-2.96</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.78</v>
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>9.16</v>
       </c>
       <c r="M30" t="n">
-        <v>6.559999999999999</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.779999999999999</v>
+        <v>3.670000000000002</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>-7.1</v>
       </c>
       <c r="O30" t="n">
-        <v>24.64</v>
+        <v>12.61</v>
       </c>
       <c r="P30" t="n">
-        <v>23.62</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2099,46 +2105,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>-0.5100000000000001</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>-2.029999999999998</v>
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.02</v>
       </c>
       <c r="G31" t="n">
-        <v>14.17</v>
+        <v>16.16</v>
       </c>
       <c r="H31" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="I31" t="s">
-        <v>25</v>
+        <v>15.86</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.32</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3299999999999998</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0.5399999999999998</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>-2.69</v>
       </c>
       <c r="L31" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>-2.809999999999999</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>2.380000000000001</v>
+        <v>4.22</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.190000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="P31" t="s">
-        <v>25</v>
+        <v>24.91</v>
+      </c>
+      <c r="P31" t="n">
+        <v>23.06</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2149,46 +2155,46 @@
         <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>-6.91</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.620000000000001</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>25.64</v>
+        <v>-0.6099999999999999</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>-0.6399999999999999</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.02</v>
       </c>
       <c r="H32" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.069999999999999</v>
+        <v>11.24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
       </c>
       <c r="J32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>-5.66</v>
+        <v>-0.72</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>-0.6400000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0.8399999999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13.85</v>
+        <v>5.109999999999999</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>2.050000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="P32" t="n">
-        <v>21.73</v>
+        <v>20.29</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2198,47 +2204,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9100000000000001</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>35</v>
+      <c r="C33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4300000000000002</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.670000000000002</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>25.56</v>
       </c>
       <c r="H33" t="n">
-        <v>8.129999999999999</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>3.349999999999998</v>
+        <v>18.29</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.100000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>14.97</v>
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>-5.550000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>23.21</v>
+        <v>0.5800000000000018</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13.59</v>
       </c>
       <c r="O33" t="n">
-        <v>16.83</v>
+        <v>27.34</v>
       </c>
       <c r="P33" t="n">
-        <v>18.01</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2248,47 +2254,47 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>-2.64</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>-0.8900000000000001</v>
+      <c r="C34" s="2" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9199999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="G34" t="n">
-        <v>9.030000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>33.76</v>
       </c>
       <c r="H34" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9.049999999999999</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>-1.56</v>
+        <v>9.440000000000001</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>-1.64</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3599999999999999</v>
-      </c>
-      <c r="L34" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="M34" t="n">
-        <v>12.92</v>
+        <v>2.27</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>18.45</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>-2.76</v>
+        <v>21.79</v>
       </c>
       <c r="O34" t="n">
-        <v>16.13</v>
+        <v>18.49</v>
       </c>
       <c r="P34" t="n">
-        <v>23.71</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2298,47 +2304,47 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.6399999999999997</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>-1.83</v>
+      <c r="C35" s="2" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>-1.71</v>
       </c>
       <c r="E35" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F35" t="n">
-        <v>8.880000000000003</v>
+        <v>3.65</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G35" t="n">
-        <v>7.33</v>
+        <v>10.15</v>
       </c>
       <c r="H35" t="n">
-        <v>9.440000000000001</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>6.909999999999998</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4400000000000002</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>-0.5800000000000001</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.66</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.3600000000000001</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>9.399999999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>8.100000000000001</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>-4.460000000000001</v>
+        <v>11.91</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>-1.82</v>
       </c>
       <c r="O35" t="n">
-        <v>18.14</v>
+        <v>16.6</v>
       </c>
       <c r="P35" t="n">
-        <v>21.57</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2348,47 +2354,47 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.5</v>
+      <c r="C36" t="n">
+        <v>0.7400000000000002</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>-2.19</v>
       </c>
       <c r="E36" t="n">
-        <v>4.18</v>
+        <v>3.46</v>
       </c>
       <c r="F36" t="n">
-        <v>11.69</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>5.760000000000002</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>4.379999999999999</v>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.59</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L36" t="n">
-        <v>8.68</v>
+        <v>0.6300000000000001</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>9.210000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>-0.7800000000000011</v>
+        <v>6.870000000000001</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>-4.130000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>14.46</v>
+        <v>17.98</v>
       </c>
       <c r="P36" t="n">
-        <v>19.04</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2398,47 +2404,97 @@
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>15.3</v>
+      <c r="C37" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12.28</v>
       </c>
       <c r="G37" t="n">
-        <v>6.450000000000001</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>-6.69</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="L37" s="2" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>2.01</v>
+        <v>11.6</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>4.359999999999999</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>-0.6200000000000001</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="M37" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>-0.3699999999999992</v>
+      </c>
+      <c r="O37" t="n">
+        <v>13.41</v>
       </c>
       <c r="P37" t="n">
-        <v>14.46</v>
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1599999999999999</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>-6.699999999999999</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.05000000000000027</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="M38" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>-4.609999999999999</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P38" t="n">
+        <v>13.99</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -68,6 +68,12 @@
     <t>嘉实价值精选股票</t>
   </si>
   <si>
+    <t>470098</t>
+  </si>
+  <si>
+    <t>汇添富逆向投资混合</t>
+  </si>
+  <si>
     <t>001508</t>
   </si>
   <si>
@@ -125,42 +131,42 @@
     <t>华宝中证消费龙头指数(LOF)A</t>
   </si>
   <si>
+    <t>001182</t>
+  </si>
+  <si>
+    <t>易方达安心回馈混合</t>
+  </si>
+  <si>
+    <t>000251</t>
+  </si>
+  <si>
+    <t>工银金融地产混合A</t>
+  </si>
+  <si>
+    <t>163415</t>
+  </si>
+  <si>
+    <t>兴全商业模式优选混合</t>
+  </si>
+  <si>
+    <t>163406</t>
+  </si>
+  <si>
+    <t>兴全合润分级混合</t>
+  </si>
+  <si>
+    <t>003889</t>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+  </si>
+  <si>
     <t>001714</t>
   </si>
   <si>
     <t>工银文体产业股票A</t>
   </si>
   <si>
-    <t>001182</t>
-  </si>
-  <si>
-    <t>易方达安心回馈混合</t>
-  </si>
-  <si>
-    <t>000251</t>
-  </si>
-  <si>
-    <t>工银金融地产混合A</t>
-  </si>
-  <si>
-    <t>163415</t>
-  </si>
-  <si>
-    <t>兴全商业模式优选混合</t>
-  </si>
-  <si>
-    <t>163406</t>
-  </si>
-  <si>
-    <t>兴全合润分级混合</t>
-  </si>
-  <si>
-    <t>003889</t>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-  </si>
-  <si>
     <t>001410</t>
   </si>
   <si>
@@ -255,12 +261,6 @@
   </si>
   <si>
     <t>国富中小盘股票</t>
-  </si>
-  <si>
-    <t>470098</t>
-  </si>
-  <si>
-    <t>汇添富逆向投资混合</t>
   </si>
   <si>
     <t>160813</t>
@@ -705,46 +705,46 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6199999999999999</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1199999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>7.06</v>
+        <v>6.64</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>16.54</v>
+        <v>15.68</v>
       </c>
       <c r="G3" t="n">
-        <v>11.64</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>22.46</v>
+        <v>22.12</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-2.640000000000001</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.73</v>
+        <v>-0.3599999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>12.81</v>
+        <v>12.98</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>15.45</v>
+        <v>14.24</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-0.3300000000000001</v>
+        <v>2.010000000000002</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>31.51</v>
+        <v>30.98</v>
       </c>
       <c r="P3" t="n">
-        <v>11.1</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -755,46 +755,46 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3700000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3799999999999999</v>
+        <v>1.32</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-0.55</v>
       </c>
       <c r="E4" t="n">
-        <v>5.609999999999999</v>
+        <v>5.840000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>7.07</v>
+        <v>7.330000000000002</v>
       </c>
       <c r="G4" t="n">
-        <v>16.42</v>
+        <v>15.72</v>
       </c>
       <c r="H4" t="n">
-        <v>29.73</v>
+        <v>29.6</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-4.09</v>
+        <v>-2.010000000000002</v>
       </c>
       <c r="J4" t="n">
-        <v>0.26</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9699999999999998</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>11.36</v>
+        <v>12.18</v>
       </c>
       <c r="M4" t="n">
-        <v>5.98</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>4.449999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>38.78</v>
+        <v>38.45999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>9.649999999999999</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -805,46 +805,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-3.17</v>
+        <v>-2.58</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>6.29</v>
+        <v>4.87</v>
       </c>
       <c r="E5" t="n">
-        <v>7.43</v>
+        <v>6.669999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>4.890000000000001</v>
+        <v>11.48</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.419999999999998</v>
       </c>
       <c r="I5" t="n">
-        <v>10.37</v>
+        <v>7.279999999999999</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>-3.28</v>
+        <v>-3.03</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>7.64</v>
+        <v>5.9</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>13.18</v>
+        <v>13.01</v>
       </c>
       <c r="M5" t="n">
-        <v>7.98</v>
+        <v>10.04</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-8.59</v>
+        <v>-9</v>
       </c>
       <c r="O5" t="n">
-        <v>13.94</v>
+        <v>17.28</v>
       </c>
       <c r="P5" t="n">
-        <v>24.11</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -855,46 +855,46 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1.2</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-7.68</v>
+        <v>-3.02</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2200000000000002</v>
+        <v>5.38</v>
       </c>
       <c r="F6" t="n">
-        <v>7.300000000000001</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>29.91</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>32.02</v>
+        <v>11.93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>3.959999999999997</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>5.65</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>0.23</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-6.33</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.97</v>
+        <v>-1.99</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>11.72</v>
       </c>
       <c r="M6" t="n">
-        <v>6.210000000000001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>45.76</v>
+        <v>10.49</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0.4400000000000013</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>18.61</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -904,47 +904,47 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>-1.13</v>
+      <c r="C7" t="n">
+        <v>1.64</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.61</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.5</v>
+        <v>-4.220000000000001</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.830000000000002</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>28.75</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-0.1499999999999986</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>-1.24</v>
+        <v>37.92</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.19</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>21.78</v>
+        <v>-3.19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.390000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>7.530000000000001</v>
+        <v>17.76</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="P7" t="n">
-        <v>13.59</v>
+        <v>46.78</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>43.4</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -955,46 +955,46 @@
         <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4500000000000002</v>
+        <v>0.9700000000000002</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-5.74</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.16</v>
+        <v>-3.93</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>20.42</v>
       </c>
       <c r="G8" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.84</v>
+        <v>18.68</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>41.45999999999999</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1.440000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.5200000000000002</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-4.390000000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.779999999999999</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11.07</v>
+        <v>-2.9</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>18.98</v>
       </c>
       <c r="N8" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12.46</v>
+        <v>7.690000000000001</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>50.31999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>26.58</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1004,97 +1004,97 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.12</v>
+      <c r="C9" s="1" t="n">
+        <v>2.12</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>-1.27</v>
+        <v>-6.01</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3600000000000003</v>
       </c>
       <c r="F9" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
+        <v>9.550000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-2.57</v>
+        <v>-4.98</v>
       </c>
       <c r="L9" t="n">
-        <v>4.48</v>
+        <v>6.7</v>
       </c>
       <c r="M9" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" t="s">
-        <v>25</v>
+        <v>8.109999999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.150000000000002</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25.71</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" t="n">
-        <v>-0.91</v>
+        <v>1.81</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-8.59</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>12.43</v>
+        <v>-3.65</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-1.28</v>
       </c>
       <c r="F10" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8.950000000000003</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>-1.02</v>
+        <v>11.09</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.36</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-7.24</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>18.18</v>
+        <v>-2.62</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.06</v>
       </c>
       <c r="M10" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="O10" t="n">
-        <v>18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>26.98</v>
+        <v>9.649999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1105,46 +1105,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.37</v>
+        <v>-7.79</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>12.02</v>
       </c>
       <c r="F11" t="n">
-        <v>4.380000000000003</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4.290000000000003</v>
+        <v>9.559999999999999</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.84</v>
       </c>
       <c r="I11" t="n">
-        <v>8.050000000000001</v>
+        <v>13.44</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2699999999999998</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.75</v>
+        <v>0.24</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-6.76</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>9.119999999999999</v>
+        <v>18.36</v>
       </c>
       <c r="M11" t="n">
-        <v>3.290000000000003</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0.4699999999999989</v>
+        <v>8.119999999999997</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.94</v>
       </c>
       <c r="O11" t="n">
-        <v>13.34</v>
+        <v>17.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.79</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1155,46 +1155,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-3.16</v>
+        <v>-0.52</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6700000000000002</v>
+        <v>3.45</v>
       </c>
       <c r="F12" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
+        <v>4.289999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>4.279999999999998</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.02</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.05000000000000004</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.42</v>
+        <v>0.24</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5100000000000001</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>9.790000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="N12" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" t="s">
-        <v>25</v>
+        <v>2.849999999999998</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>1.270000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>19.98</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1204,47 +1204,47 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>-3.91</v>
+      <c r="C13" t="n">
+        <v>1.19</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-2.89</v>
+        <v>-3.05</v>
       </c>
       <c r="E13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0.0400000000000027</v>
-      </c>
-      <c r="G13" t="n">
-        <v>19.45</v>
+        <v>1.149999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>26.5</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>-4.02</v>
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.74</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-1.54</v>
+        <v>-2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>-1.049999999999997</v>
+        <v>7.489999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.379999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>7.48</v>
+        <v>15.51</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1254,47 +1254,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.8599999999999999</v>
+      <c r="C14" s="2" t="n">
+        <v>-3.54</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-2.06</v>
+        <v>-3.47</v>
       </c>
       <c r="E14" t="n">
-        <v>4.880000000000001</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
+        <v>2.42</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>21.24</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7499999999999998</v>
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>-3.99</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-0.7100000000000002</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
+        <v>-2.44</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0.4699999999999989</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.25</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1304,47 +1304,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.07</v>
+      <c r="C15" s="1" t="n">
+        <v>3.01</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-6.05</v>
+        <v>-3.35</v>
       </c>
       <c r="E15" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.9599999999999997</v>
+        <v>6.03</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>2.56</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-4.7</v>
+        <v>-2.32</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>9.609999999999999</v>
+        <v>12.37</v>
       </c>
       <c r="M15" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="P15" t="n">
-        <v>27.35</v>
+        <v>12.77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1355,46 +1355,46 @@
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.75</v>
+        <v>-0.36</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-4.25</v>
+        <v>-3.07</v>
       </c>
       <c r="E16" t="n">
-        <v>3.38</v>
+        <v>1.67</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-6.19</v>
+        <v>-3.99</v>
       </c>
       <c r="G16" t="n">
-        <v>6.159999999999999</v>
+        <v>5.239999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>10.62</v>
+        <v>8.989999999999998</v>
       </c>
       <c r="I16" t="n">
-        <v>15.24</v>
+        <v>16.41</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.8600000000000001</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>9.129999999999999</v>
+        <v>-2.04</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.01</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>-7.279999999999999</v>
+        <v>-5.430000000000001</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-5.81</v>
+        <v>-5.75</v>
       </c>
       <c r="O16" t="n">
-        <v>19.67</v>
+        <v>17.85</v>
       </c>
       <c r="P16" t="n">
-        <v>28.98</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1405,46 +1405,46 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-1.47</v>
+        <v>-2.19</v>
       </c>
       <c r="D17" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.34</v>
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>-0.6500000000000004</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-5.02</v>
+        <v>-3.799999999999999</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-6.62</v>
+        <v>-6.57</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>2.440000000000001</v>
+        <v>0.879999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>8.970000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>-1.58</v>
+        <v>-2.64</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>4.59</v>
+        <v>5.53</v>
       </c>
       <c r="L17" t="n">
-        <v>7.09</v>
+        <v>5.69</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>-6.109999999999999</v>
+        <v>-5.24</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>-18.59</v>
+        <v>-17.56</v>
       </c>
       <c r="O17" t="n">
-        <v>11.49</v>
+        <v>9.739999999999998</v>
       </c>
       <c r="P17" t="n">
-        <v>22.71</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1455,46 +1455,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-3.3</v>
+        <v>-2.59</v>
       </c>
       <c r="E18" t="n">
-        <v>4.26</v>
+        <v>4.47</v>
       </c>
       <c r="F18" t="n">
-        <v>7.890000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>22.65</v>
+        <v>20.78</v>
       </c>
       <c r="H18" t="n">
-        <v>24.75</v>
+        <v>24.38</v>
       </c>
       <c r="I18" t="n">
-        <v>18.63</v>
+        <v>19.7</v>
       </c>
       <c r="J18" t="n">
         <v>0.8899999999999999</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-1.95</v>
+        <v>-1.56</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>10.01</v>
+        <v>10.81</v>
       </c>
       <c r="M18" t="n">
-        <v>6.800000000000001</v>
+        <v>6.059999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>10.68</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>33.8</v>
+        <v>33.23999999999999</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>32.37</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1505,46 +1505,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-3.34</v>
+        <v>-3.2</v>
       </c>
       <c r="E19" t="n">
-        <v>6.18</v>
+        <v>7.72</v>
       </c>
       <c r="F19" t="n">
-        <v>7.720000000000002</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>19.14</v>
+        <v>18.05</v>
       </c>
       <c r="H19" t="n">
-        <v>24.43</v>
+        <v>24.74</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>1.260000000000002</v>
+        <v>2.550000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9299999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-1.99</v>
+        <v>-2.17</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>11.93</v>
+        <v>14.06</v>
       </c>
       <c r="M19" t="n">
-        <v>6.630000000000003</v>
+        <v>4.559999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>7.170000000000002</v>
+        <v>7.060000000000002</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>33.48</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>15</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1554,47 +1554,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.5899999999999999</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>-0.9299999999999997</v>
+      <c r="C20" s="1" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.06999999999999984</v>
       </c>
       <c r="E20" t="n">
-        <v>2.48</v>
+        <v>0.6399999999999997</v>
       </c>
       <c r="F20" t="n">
-        <v>8.190000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="G20" t="n">
-        <v>10.71</v>
+        <v>9.870000000000001</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>54.2</v>
+        <v>55.72999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>11.12</v>
+        <v>12.08</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4799999999999998</v>
+        <v>1.66</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="L20" t="n">
-        <v>8.23</v>
+        <v>6.98</v>
       </c>
       <c r="M20" t="n">
-        <v>7.100000000000001</v>
+        <v>7.039999999999999</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>-1.26</v>
+        <v>-1.119999999999999</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>63.25</v>
+        <v>64.58999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>24.86</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1605,46 +1605,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-5.02</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-1.079999999999998</v>
+        <v>-5.03</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.18</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>37.53</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>4.34</v>
+        <v>22.28</v>
+      </c>
+      <c r="H21" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14.82</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-3.67</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>-2.169999999999998</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>25.56</v>
+        <v>-4</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.739999999999998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11.29</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>52.1</v>
+        <v>31.79</v>
       </c>
       <c r="P21" t="n">
-        <v>18.08</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1655,46 +1655,46 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1899999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.98</v>
+        <v>-5.15</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-0.4199999999999999</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-0.7399999999999984</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="H22" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10.22</v>
+        <v>-1.629999999999999</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.3</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-0.5800000000000001</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>10.73</v>
+        <v>-4.12</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.92</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-1.829999999999998</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0.2699999999999996</v>
+        <v>-3.07</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>21.93</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>31.21</v>
+        <v>59.23999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>23.96</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1705,46 +1705,46 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-6.34</v>
+        <v>-2.97</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9700000000000002</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>24.58</v>
+        <v>7.069999999999999</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.99</v>
       </c>
       <c r="H23" t="n">
-        <v>20.8</v>
+        <v>23.05</v>
       </c>
       <c r="I23" t="n">
-        <v>11.29</v>
+        <v>11.43</v>
       </c>
       <c r="J23" t="n">
-        <v>0.47</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-4.99</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="O23" t="n">
-        <v>29.85</v>
+        <v>-1.94</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>-3.210000000000001</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>31.91</v>
       </c>
       <c r="P23" t="n">
-        <v>25.03</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1755,46 +1755,46 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.51</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-5.56</v>
+        <v>-4.29</v>
       </c>
       <c r="E24" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>13.05</v>
+        <v>1.39</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.07</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
+        <v>22.96</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.89</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.6200000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>9.42</v>
+        <v>-3.26</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.73</v>
       </c>
       <c r="M24" t="n">
-        <v>11.96</v>
+        <v>2.629999999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>8.329999999999998</v>
-      </c>
-      <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" t="s">
-        <v>25</v>
+        <v>11.97</v>
+      </c>
+      <c r="O24" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24.85</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1805,46 +1805,46 @@
         <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4299999999999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>1.44</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>-4.98</v>
       </c>
       <c r="E25" t="n">
-        <v>5.790000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="F25" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>28.01</v>
-      </c>
-      <c r="H25" t="n">
-        <v>18.85</v>
+        <v>11.94</v>
+      </c>
+      <c r="G25" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.1</v>
+        <v>0.99</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>-3.95</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>11.54</v>
+        <v>9.44</v>
       </c>
       <c r="M25" t="n">
-        <v>5.98</v>
+        <v>10.5</v>
       </c>
       <c r="N25" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="O25" t="n">
-        <v>27.9</v>
+        <v>7.990000000000002</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1855,46 +1855,46 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1200000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-2.12</v>
+        <v>-2.14</v>
       </c>
       <c r="E26" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.94</v>
+        <v>5.47</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>26.79</v>
       </c>
       <c r="H26" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.73</v>
+        <v>21.79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-0.7700000000000002</v>
+        <v>-1.11</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>14.27</v>
+        <v>11.81</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.329999999999998</v>
       </c>
       <c r="N26" t="n">
-        <v>7.969999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>32.38</v>
-      </c>
-      <c r="P26" t="n">
-        <v>20.47</v>
+        <v>30.65</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1905,46 +1905,46 @@
         <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-4.98</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5</v>
+        <v>-2.19</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>9.550000000000001</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>14.91</v>
+        <v>13.59</v>
       </c>
       <c r="G27" t="n">
-        <v>15.7</v>
+        <v>18.34</v>
       </c>
       <c r="H27" t="n">
-        <v>14.97</v>
+        <v>24.39</v>
       </c>
       <c r="I27" t="n">
-        <v>14.77</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-3.63</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>13.82</v>
+        <v>-1.16</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="M27" t="n">
+        <v>12.15</v>
       </c>
       <c r="N27" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O27" t="n">
-        <v>24.02</v>
+        <v>7.350000000000001</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>33.25</v>
       </c>
       <c r="P27" t="n">
-        <v>28.51</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1954,47 +1954,47 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5300000000000002</v>
+      <c r="C28" s="1" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-4.720000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7.57</v>
+        <v>1.29</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>13.17</v>
       </c>
       <c r="G28" t="n">
-        <v>17.92</v>
+        <v>13.56</v>
       </c>
       <c r="H28" t="n">
-        <v>16.05</v>
+        <v>18.46</v>
       </c>
       <c r="I28" t="n">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.88</v>
+        <v>14.15</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>2.899999999999999</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>-3.69</v>
       </c>
       <c r="L28" t="n">
-        <v>8.559999999999999</v>
+        <v>7.63</v>
       </c>
       <c r="M28" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="N28" t="n">
-        <v>5.949999999999999</v>
+        <v>11.73</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>2.57</v>
       </c>
       <c r="O28" t="n">
-        <v>25.1</v>
+        <v>27.32</v>
       </c>
       <c r="P28" t="n">
-        <v>20.34</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2004,47 +2004,47 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.23</v>
+      <c r="C29" s="2" t="n">
+        <v>-1.21</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-4.29</v>
+        <v>-1.06</v>
       </c>
       <c r="E29" t="n">
-        <v>4.140000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="F29" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.1199999999999999</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>-2.94</v>
+        <v>7.539999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.02999999999999992</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>9.890000000000001</v>
+        <v>10.37</v>
       </c>
       <c r="M29" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
+        <v>6.099999999999998</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.760000000000002</v>
+      </c>
+      <c r="O29" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="P29" t="n">
+        <v>20.89</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2055,46 +2055,46 @@
         <v>67</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-3.03</v>
+        <v>-4.15</v>
       </c>
       <c r="E30" t="n">
-        <v>3.41</v>
+        <v>4.19</v>
       </c>
       <c r="F30" t="n">
-        <v>4.760000000000002</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.560000000000002</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.45</v>
+        <v>10.78</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0.3099999999999998</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-1.68</v>
+        <v>-3.12</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>9.16</v>
+        <v>10.53</v>
       </c>
       <c r="M30" t="n">
-        <v>3.670000000000002</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="P30" t="n">
-        <v>25.19</v>
+        <v>9.34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2105,46 +2105,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6499999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>-1.53</v>
+        <v>-2.88</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.22</v>
       </c>
       <c r="F31" t="n">
-        <v>7.02</v>
+        <v>4.129999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15.86</v>
+        <v>4.17</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>4.439999999999998</v>
       </c>
       <c r="I31" t="n">
-        <v>9.32</v>
+        <v>11.15</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5399999999999998</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.22</v>
+        <v>-1.85</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>9.56</v>
       </c>
       <c r="M31" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.190000000000001</v>
+        <v>2.689999999999998</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>-6.819999999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>24.91</v>
+        <v>13.3</v>
       </c>
       <c r="P31" t="n">
-        <v>23.06</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2155,46 +2155,46 @@
         <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.6099999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.99</v>
+        <v>-2.21</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.6399999999999999</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-1.09</v>
+        <v>-2.26</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6.48</v>
       </c>
       <c r="G32" t="n">
-        <v>14.02</v>
+        <v>15.46</v>
       </c>
       <c r="H32" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
+        <v>16.44</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.449999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.72</v>
+        <v>1.02</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-0.6400000000000001</v>
+        <v>-1.18</v>
       </c>
       <c r="L32" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>2.050000000000001</v>
+        <v>4.08</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.039999999999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.469999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="P32" t="s">
-        <v>25</v>
+        <v>25.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>22.41</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2205,46 +2205,46 @@
         <v>73</v>
       </c>
       <c r="C33" t="n">
-        <v>1.01</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-6.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4300000000000002</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.670000000000002</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>25.56</v>
+        <v>-1.8</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>0.2300000000000004</v>
+      </c>
+      <c r="G33" t="n">
+        <v>12.39</v>
       </c>
       <c r="H33" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.100000000000001</v>
+        <v>11.37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9000000000000001</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-5.550000000000001</v>
+        <v>-0.77</v>
       </c>
       <c r="L33" t="n">
-        <v>6.18</v>
+        <v>4.33</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.5800000000000018</v>
-      </c>
-      <c r="N33" t="n">
-        <v>13.59</v>
+        <v>-1.210000000000001</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>1.4</v>
       </c>
       <c r="O33" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="P33" t="n">
-        <v>20.84</v>
+        <v>20.23</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2254,47 +2254,47 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>19.54</v>
+      <c r="C34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.210000000000001</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>33.76</v>
+        <v>24.43</v>
       </c>
       <c r="H34" t="n">
-        <v>9.440000000000001</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>21.79</v>
+        <v>17.94</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6900000000000002</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>-0.2300000000000004</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.44</v>
       </c>
       <c r="O34" t="n">
-        <v>18.49</v>
+        <v>26.8</v>
       </c>
       <c r="P34" t="n">
-        <v>17.08</v>
+        <v>21.87</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2305,46 +2305,46 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>-1.71</v>
+        <v>-1.28</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.51</v>
       </c>
       <c r="E35" t="n">
-        <v>3.65</v>
+        <v>7.909999999999999</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="G35" t="n">
-        <v>10.15</v>
+        <v>20.77</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>31.37</v>
       </c>
       <c r="H35" t="n">
-        <v>7.550000000000001</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9.300000000000001</v>
+        <v>9.209999999999997</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>4.99</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>-1.45</v>
+        <v>-1.73</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3600000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>9.399999999999999</v>
-      </c>
-      <c r="M35" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>-1.82</v>
+        <v>14.25</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>20.38</v>
       </c>
       <c r="O35" t="n">
-        <v>16.6</v>
+        <v>18.07</v>
       </c>
       <c r="P35" t="n">
-        <v>23.04</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2355,46 +2355,46 @@
         <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7400000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-2.19</v>
+        <v>-3.38</v>
       </c>
       <c r="E36" t="n">
-        <v>3.46</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>7.960000000000001</v>
+        <v>11.94</v>
       </c>
       <c r="G36" t="n">
-        <v>7.839999999999999</v>
+        <v>10.64</v>
       </c>
       <c r="H36" t="n">
-        <v>8.93</v>
+        <v>6.739999999999998</v>
       </c>
       <c r="I36" t="n">
-        <v>7.59</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-0.8400000000000001</v>
+        <v>-2.35</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>9.210000000000001</v>
+        <v>11.19</v>
       </c>
       <c r="M36" t="n">
-        <v>6.870000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>-4.130000000000001</v>
+        <v>-0.3499999999999996</v>
       </c>
       <c r="O36" t="n">
-        <v>17.98</v>
+        <v>15.6</v>
       </c>
       <c r="P36" t="n">
-        <v>21.33</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2405,46 +2405,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.96</v>
+        <v>1.12</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.97</v>
+        <v>-0.6800000000000002</v>
       </c>
       <c r="E37" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="F37" t="n">
-        <v>12.28</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>4.359999999999999</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>5.640000000000001</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>-0.6200000000000001</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>10.15</v>
+        <v>7.53</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.220000000000002</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6700000000000002</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.44</v>
       </c>
       <c r="M37" t="n">
-        <v>11.19</v>
+        <v>7.169999999999998</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>-0.3699999999999992</v>
+        <v>-3.459999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>13.41</v>
+        <v>17.08</v>
       </c>
       <c r="P37" t="n">
-        <v>19.38</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2455,46 +2455,46 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1599999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.4</v>
+        <v>-1.54</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>13.93</v>
+        <v>11.32</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.09</v>
       </c>
       <c r="G38" t="n">
-        <v>7.36</v>
+        <v>7.659999999999999</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-6.699999999999999</v>
+        <v>-7.890000000000001</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.25</v>
+        <v>0.629999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.05000000000000027</v>
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>-0.51</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>15.27</v>
+        <v>17.66</v>
       </c>
       <c r="M38" t="n">
-        <v>12.84</v>
+        <v>10.65</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>-4.609999999999999</v>
+        <v>-3.33</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>2.35</v>
+        <v>0.9699999999999989</v>
       </c>
       <c r="P38" t="n">
-        <v>13.99</v>
+        <v>13.59</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -50,6 +50,27 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>519066</t>
+  </si>
+  <si>
+    <t>汇添富蓝筹稳健混合</t>
+  </si>
+  <si>
+    <t>005738</t>
+  </si>
+  <si>
+    <t>长城智能产业灵活配置混合</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>005760</t>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+  </si>
+  <si>
     <t>040020</t>
   </si>
   <si>
@@ -98,9 +119,6 @@
     <t>淳厚信睿混合A</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>168002</t>
   </si>
   <si>
@@ -137,34 +155,34 @@
     <t>易方达安心回馈混合</t>
   </si>
   <si>
+    <t>163415</t>
+  </si>
+  <si>
+    <t>兴全商业模式优选混合</t>
+  </si>
+  <si>
+    <t>163406</t>
+  </si>
+  <si>
+    <t>兴全合润分级混合</t>
+  </si>
+  <si>
+    <t>003889</t>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+  </si>
+  <si>
+    <t>001714</t>
+  </si>
+  <si>
+    <t>工银文体产业股票A</t>
+  </si>
+  <si>
     <t>000251</t>
   </si>
   <si>
     <t>工银金融地产混合A</t>
-  </si>
-  <si>
-    <t>163415</t>
-  </si>
-  <si>
-    <t>兴全商业模式优选混合</t>
-  </si>
-  <si>
-    <t>163406</t>
-  </si>
-  <si>
-    <t>兴全合润分级混合</t>
-  </si>
-  <si>
-    <t>003889</t>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-  </si>
-  <si>
-    <t>001714</t>
-  </si>
-  <si>
-    <t>工银文体产业股票A</t>
   </si>
   <si>
     <t>001410</t>
@@ -614,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,47 +722,47 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.09000000000000008</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>15.68</v>
+      <c r="C3" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.460000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>19.37</v>
       </c>
       <c r="H3" t="n">
-        <v>22.12</v>
+        <v>9.989999999999998</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.6799999999999997</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.3599999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>2.010000000000002</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>30.98</v>
+        <v>0.6700000000000017</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.280000000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.820000000000002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18.09</v>
       </c>
       <c r="P3" t="n">
-        <v>13.64</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -754,347 +772,347 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.32</v>
+      <c r="C4" s="1" t="n">
+        <v>2.69</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.840000000000001</v>
+        <v>-3.53</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-2.34</v>
       </c>
       <c r="F4" t="n">
-        <v>7.330000000000002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15.72</v>
+        <v>3.120000000000001</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>36.12</v>
       </c>
       <c r="H4" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>-2.010000000000002</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8699999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4800000000000001</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>12.18</v>
+        <v>10.72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
-        <v>5.890000000000001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>38.45999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10.95</v>
+        <v>3.940000000000001</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>-2.58</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.669999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-1.06</v>
       </c>
       <c r="F5" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1.99</v>
+        <v>5.98</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>26.34</v>
       </c>
       <c r="H5" t="n">
-        <v>8.419999999999998</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.279999999999999</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>13.01</v>
+        <v>21.21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.99</v>
       </c>
       <c r="M5" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>-9</v>
+        <v>6.800000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.79</v>
       </c>
       <c r="O5" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="P5" t="n">
-        <v>20.24</v>
+        <v>29.31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-3.02</v>
+        <v>-0.5099999999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11.93</v>
+        <v>5.06</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15.98</v>
       </c>
       <c r="G6" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>3.959999999999997</v>
+        <v>16.03</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.64</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>5.65</v>
+        <v>-1.219999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>-1.99</v>
+        <v>1.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8000000000000003</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="M6" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0.4400000000000013</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12.82</v>
+        <v>9.109999999999999</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.480000000000002</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>31.74</v>
       </c>
       <c r="P6" t="n">
-        <v>18.61</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>1.64</v>
+        <v>0.87</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-4.220000000000001</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>-2</v>
+        <v>-0.6200000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.06</v>
       </c>
       <c r="F7" t="n">
-        <v>5.830000000000002</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>37.92</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>30.44</v>
+        <v>5.890000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-3.859999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>-3.19</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.34</v>
+        <v>1.47</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>11.11</v>
       </c>
       <c r="M7" t="n">
-        <v>4.390000000000001</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>17.76</v>
+        <v>5.890000000000002</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>46.78</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>43.4</v>
+        <v>36.15000000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9700000000000002</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-3.93</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>20.42</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1800000000000002</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>9.489999999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.93</v>
       </c>
       <c r="G8" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>41.45999999999999</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1.440000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5200000000000002</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>-2.9</v>
+        <v>4.22</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>5.930000000000003</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.13</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.690000000000001</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>50.31999999999999</v>
+        <v>13.54</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>-7.329999999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.03</v>
       </c>
       <c r="P8" t="n">
-        <v>14.4</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2.12</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1699999999999999</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-6.01</v>
+        <v>-3.38</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3600000000000003</v>
+        <v>5.579999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>9.550000000000001</v>
+        <v>12.65</v>
       </c>
       <c r="G9" t="n">
-        <v>16.14</v>
+        <v>10.95</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.75</v>
+        <v>4.540000000000003</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>2.379999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>1.67</v>
+        <v>0.77</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-4.98</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.150000000000002</v>
+        <v>-2.07</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>9.629999999999999</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>-0.5999999999999996</v>
       </c>
       <c r="O9" t="n">
-        <v>13.06</v>
+        <v>12.64</v>
       </c>
       <c r="P9" t="n">
-        <v>25.71</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-3.65</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.4899999999999998</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.28</v>
+        <v>-3.64</v>
       </c>
       <c r="F10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>-2.62</v>
+        <v>2.289999999999999</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>39.09999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8200000000000003</v>
       </c>
       <c r="L10" t="n">
-        <v>5.06</v>
+        <v>0.41</v>
       </c>
       <c r="M10" t="n">
-        <v>9.649999999999999</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
+        <v>3.109999999999999</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>43.77</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1105,46 +1123,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-7.79</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.559999999999999</v>
+        <v>-1.83</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>19.03</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13.44</v>
+        <v>21.11</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.5599999999999987</v>
       </c>
       <c r="J11" t="n">
-        <v>0.24</v>
+        <v>1.49</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-6.76</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8.119999999999997</v>
+        <v>-0.52</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>19.85</v>
       </c>
       <c r="N11" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="O11" t="n">
-        <v>17.7</v>
+        <v>9.56</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>52.35000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>26.4</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1155,46 +1173,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.52</v>
+        <v>-3.82</v>
       </c>
       <c r="E12" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="F12" t="n">
-        <v>4.289999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="G12" t="n">
-        <v>12.26</v>
+        <v>18.18</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>4.279999999999998</v>
+        <v>5.069999999999997</v>
       </c>
       <c r="I12" t="n">
-        <v>7.02</v>
+        <v>9.290000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.5100000000000001</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>9.790000000000001</v>
+        <v>1.98</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.06</v>
       </c>
       <c r="M12" t="n">
-        <v>2.849999999999998</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1.270000000000001</v>
+        <v>6.32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.630000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>13.14</v>
+        <v>13.17</v>
       </c>
       <c r="P12" t="n">
-        <v>19.98</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1205,46 +1223,46 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-3.05</v>
+        <v>-2.11</v>
       </c>
       <c r="E13" t="n">
-        <v>1.149999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>26.5</v>
+        <v>5.809999999999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>0.74</v>
+        <v>1.87</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-2.02</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="L13" t="n">
-        <v>7.489999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>5.379999999999999</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15.51</v>
+        <v>6.629999999999999</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1254,47 +1272,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>-3.54</v>
+      <c r="C14" s="1" t="n">
+        <v>5.21</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-3.47</v>
+        <v>-5.24</v>
       </c>
       <c r="E14" t="n">
-        <v>2.42</v>
+        <v>6.64</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>11.63</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>-3.99</v>
+        <v>23.51</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.040000000000003</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>5.81</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-2.44</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0.4699999999999989</v>
+        <v>-3.93</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12.45</v>
       </c>
       <c r="N14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
+        <v>11.96</v>
+      </c>
+      <c r="O14" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>27.78</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1304,47 +1322,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>-3.35</v>
+      <c r="C15" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.08000000000000007</v>
       </c>
       <c r="E15" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>12.37</v>
+        <v>3.149999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.719999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>4.849999999999998</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.890000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
+        <v>4.539999999999999</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="P15" t="n">
+        <v>22.07</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1355,46 +1373,46 @@
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.36</v>
+        <v>1.28</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-3.07</v>
+        <v>-2.21</v>
       </c>
       <c r="E16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-3.99</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.239999999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8.989999999999998</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16.41</v>
+        <v>2.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.8099999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-2.04</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>-5.430000000000001</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>-5.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="P16" t="n">
-        <v>29.37</v>
+        <v>6.85</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1404,47 +1422,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>-2.19</v>
+      <c r="C17" s="1" t="n">
+        <v>2.14</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>0.46</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.6500000000000004</v>
+        <v>-2.71</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-3.799999999999999</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>-6.57</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0.879999999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-2.64</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>5.53</v>
+        <v>-0.990000000000002</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.77</v>
       </c>
       <c r="L17" t="n">
-        <v>5.69</v>
+        <v>1.34</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>-17.56</v>
-      </c>
-      <c r="O17" t="n">
-        <v>9.739999999999998</v>
-      </c>
-      <c r="P17" t="n">
-        <v>22.5</v>
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.160000000000002</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1455,46 +1473,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>-2.59</v>
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19.7</v>
+        <v>5.499999999999999</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-1.56</v>
+        <v>1.22</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6.059999999999999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>33.23999999999999</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>32.66</v>
+        <v>9.549999999999999</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1505,46 +1523,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+        <v>-3.68</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-3.19</v>
       </c>
       <c r="G19" t="n">
-        <v>18.05</v>
+        <v>7.24</v>
       </c>
       <c r="H19" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2.550000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.06</v>
+        <v>7.470000000000002</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>2.35</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4.559999999999999</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7.060000000000002</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>33.59999999999999</v>
-      </c>
-      <c r="P19" t="n">
-        <v>15.51</v>
+        <v>-2.37</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>-2.369999999999999</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>-4.309999999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>30.58</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1554,47 +1572,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.06999999999999984</v>
+      <c r="C20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-1.16</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6399999999999997</v>
+        <v>4.409999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9.870000000000001</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>55.72999999999999</v>
+        <v>5.449999999999999</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22.72</v>
       </c>
       <c r="I20" t="n">
-        <v>12.08</v>
+        <v>18.79</v>
       </c>
       <c r="J20" t="n">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="K20" t="n">
-        <v>1.1</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>6.98</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>7.039999999999999</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>-1.119999999999999</v>
+        <v>6.27</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11.24</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>64.58999999999999</v>
-      </c>
-      <c r="P20" t="n">
-        <v>25.04</v>
+        <v>30.82</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>32.97</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1605,46 +1623,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-5.03</v>
+        <v>-1.21</v>
       </c>
       <c r="E21" t="n">
-        <v>3.73</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>10.18</v>
+        <v>5.079999999999998</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>22.28</v>
+        <v>20.87</v>
       </c>
       <c r="H21" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14.82</v>
+        <v>24.28</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>-0.4400000000000013</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>-4</v>
+        <v>1.91</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1000000000000001</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>10.07</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>8.739999999999998</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>11.29</v>
+        <v>9.320000000000002</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>31.79</v>
+        <v>32.38</v>
       </c>
       <c r="P21" t="n">
-        <v>27.78</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1655,46 +1673,46 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>-5.15</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-0.4199999999999999</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-1.629999999999999</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>32.92</v>
+        <v>1.78</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.99</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>50.38</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>-4.12</v>
+        <v>55.86</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.21</v>
       </c>
       <c r="L22" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>21.93</v>
+        <v>7.29</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>-0.5599999999999987</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>59.23999999999999</v>
+        <v>63.96000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>17.96</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1704,47 +1722,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.6299999999999999</v>
+      <c r="C23" s="1" t="n">
+        <v>2.08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-2.97</v>
+        <v>-3.39</v>
       </c>
       <c r="E23" t="n">
-        <v>7.069999999999999</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10.99</v>
+        <v>2.58</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>24.28</v>
       </c>
       <c r="H23" t="n">
-        <v>23.05</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.1799999999999999</v>
+        <v>12.24</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>2.68</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>-3.210000000000001</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
+        <v>-2.08</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.73</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>31.91</v>
+        <v>30.1</v>
       </c>
       <c r="P23" t="n">
-        <v>24.39</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1755,46 +1773,46 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>-4.29</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20.57</v>
+        <v>0.1300000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>2.850000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>11.89</v>
+        <v>10.84</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>-3.26</v>
+        <v>0.7300000000000002</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.98</v>
       </c>
       <c r="L24" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.629999999999999</v>
-      </c>
-      <c r="N24" t="n">
-        <v>11.97</v>
+        <v>2.44</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>-20.57</v>
       </c>
       <c r="O24" t="n">
-        <v>29.43</v>
+        <v>10.95</v>
       </c>
       <c r="P24" t="n">
-        <v>24.85</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1805,46 +1823,46 @@
         <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>1.44</v>
+        <v>-0.06000000000000005</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-4.98</v>
+        <v>-4.21</v>
       </c>
       <c r="E25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G25" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-1.039999999999999</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>56.50999999999999</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>4.41</v>
       </c>
       <c r="J25" t="n">
-        <v>0.99</v>
+        <v>0.54</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="M25" t="n">
-        <v>10.5</v>
+        <v>-2.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.409999999999999</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>-0.2199999999999989</v>
       </c>
       <c r="N25" t="n">
-        <v>7.990000000000002</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" t="s">
-        <v>27</v>
+        <v>15.89</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>64.61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>18.59</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1855,46 +1873,46 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-2.14</v>
+        <v>-2.47</v>
       </c>
       <c r="E26" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>26.79</v>
+        <v>8.719999999999999</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-3.859999999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.29</v>
       </c>
       <c r="H26" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.52</v>
+        <v>24.26</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>2.01</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-1.11</v>
+        <v>-1.16</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5.329999999999998</v>
-      </c>
-      <c r="N26" t="n">
-        <v>15.8</v>
+        <v>12.77</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>-3.039999999999999</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>-0.2599999999999998</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>30.65</v>
-      </c>
-      <c r="P26" t="s">
-        <v>27</v>
+        <v>32.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>25.28</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1905,46 +1923,46 @@
         <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>1.85</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2.19</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="G27" t="n">
-        <v>18.34</v>
+        <v>-3.52</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0.120000000000001</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>26.37</v>
       </c>
       <c r="H27" t="n">
-        <v>24.39</v>
+        <v>19.3</v>
       </c>
       <c r="I27" t="n">
-        <v>6.289999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="M27" t="n">
-        <v>12.15</v>
+        <v>-2.21</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0.9400000000000013</v>
       </c>
       <c r="N27" t="n">
-        <v>7.350000000000001</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>33.25</v>
+        <v>14.82</v>
+      </c>
+      <c r="O27" t="n">
+        <v>27.4</v>
       </c>
       <c r="P27" t="n">
-        <v>19.25</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1955,46 +1973,46 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>3.35</v>
+        <v>3.78</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-4.720000000000001</v>
+        <v>-3.25</v>
       </c>
       <c r="E28" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="G28" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14.15</v>
+        <v>13.07</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>2.899999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-3.69</v>
+        <v>-1.94</v>
       </c>
       <c r="L28" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="M28" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O28" t="n">
-        <v>27.32</v>
-      </c>
-      <c r="P28" t="n">
-        <v>27.11</v>
+        <v>5.19</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2004,47 +2022,47 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>-1.21</v>
+      <c r="C29" s="1" t="n">
+        <v>3.21</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.06</v>
+        <v>-1.53</v>
       </c>
       <c r="E29" t="n">
-        <v>4.03</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>7.539999999999999</v>
-      </c>
-      <c r="G29" t="n">
-        <v>16.75</v>
+        <v>6.079999999999998</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>28.35</v>
       </c>
       <c r="H29" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>-1.66</v>
+        <v>19.69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>3.81</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.02999999999999992</v>
+        <v>-0.22</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>10.37</v>
+        <v>10.56</v>
       </c>
       <c r="M29" t="n">
-        <v>6.099999999999998</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>5.760000000000002</v>
+        <v>16.8</v>
       </c>
       <c r="O29" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="P29" t="n">
-        <v>20.89</v>
+        <v>27.79</v>
+      </c>
+      <c r="P29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2054,47 +2072,47 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.7599999999999998</v>
+      <c r="C30" s="1" t="n">
+        <v>3.26</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-4.15</v>
+        <v>-1.93</v>
       </c>
       <c r="E30" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="F30" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.3099999999999998</v>
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="H30" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>3.86</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-3.12</v>
+        <v>-0.6199999999999999</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="M30" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" t="s">
-        <v>27</v>
+        <v>12.41</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>32.73999999999999</v>
+      </c>
+      <c r="P30" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2105,46 +2123,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.88</v>
+        <v>-1.54</v>
       </c>
       <c r="E31" t="n">
-        <v>3.22</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F31" t="n">
-        <v>4.129999999999999</v>
+        <v>11.95</v>
       </c>
       <c r="G31" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>4.439999999999998</v>
+        <v>17.31</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16.41</v>
       </c>
       <c r="I31" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>9.56</v>
+        <v>12.66</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.25</v>
       </c>
       <c r="M31" t="n">
-        <v>2.689999999999998</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>-6.819999999999999</v>
+        <v>12.77</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.76</v>
       </c>
       <c r="O31" t="n">
-        <v>13.3</v>
+        <v>24.51</v>
       </c>
       <c r="P31" t="n">
-        <v>24.11</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2155,46 +2173,46 @@
         <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-2.21</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>-2.26</v>
+        <v>-2.69</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.98</v>
       </c>
       <c r="F32" t="n">
-        <v>6.48</v>
+        <v>5.43</v>
       </c>
       <c r="G32" t="n">
-        <v>15.46</v>
+        <v>16.36</v>
       </c>
       <c r="H32" t="n">
-        <v>16.44</v>
+        <v>18.55</v>
       </c>
       <c r="I32" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.02</v>
+        <v>6.960000000000001</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>2.22</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.08</v>
+        <v>-1.38</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>9.029999999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>5.039999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="N32" t="n">
-        <v>4.469999999999999</v>
+        <v>4.81</v>
       </c>
       <c r="O32" t="n">
-        <v>25.3</v>
+        <v>26.65</v>
       </c>
       <c r="P32" t="n">
-        <v>22.41</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2204,47 +2222,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.3600000000000001</v>
+      <c r="C33" s="1" t="n">
+        <v>2.38</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>0.2300000000000004</v>
-      </c>
-      <c r="G33" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11.37</v>
+        <v>-3.18</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="n">
-        <v>-0.08999999999999986</v>
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>2.98</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-0.77</v>
+        <v>-1.87</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>-1.210000000000001</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O33" t="n">
-        <v>20.23</v>
+        <v>6.8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="N33" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" t="s">
+        <v>15</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2255,46 +2273,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-4.53</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>-0.75</v>
+        <v>-2.37</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.01</v>
       </c>
       <c r="F34" t="n">
-        <v>1.210000000000001</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="H34" t="n">
-        <v>17.94</v>
+        <v>3.98</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6900000000000002</v>
+        <v>9.08</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>2.2</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-3.5</v>
+        <v>-1.06</v>
       </c>
       <c r="L34" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>-0.2300000000000004</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13.44</v>
+        <v>7.06</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>-6.359999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>26.8</v>
+        <v>11.85</v>
       </c>
       <c r="P34" t="n">
-        <v>21.87</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2304,47 +2322,47 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7.909999999999999</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>31.37</v>
+      <c r="C35" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.879999999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16.83</v>
       </c>
       <c r="H35" t="n">
-        <v>9.209999999999997</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>-1.73</v>
+        <v>16.66</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9300000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>20.38</v>
+        <v>-0.06999999999999984</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4.699999999999999</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.279999999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>18.07</v>
+        <v>24.76</v>
       </c>
       <c r="P35" t="n">
-        <v>17.95</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2355,46 +2373,46 @@
         <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.850000000000001</v>
-      </c>
-      <c r="F36" t="n">
-        <v>11.94</v>
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>-1.969999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>10.64</v>
+        <v>11.52</v>
       </c>
       <c r="H36" t="n">
-        <v>6.739999999999998</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.699999999999999</v>
+        <v>13.98</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="M36" t="n">
-        <v>10.5</v>
+        <v>1.53</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>-1.149999999999999</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>-0.3499999999999996</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="O36" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="P36" t="n">
-        <v>22.66</v>
+        <v>22.08</v>
+      </c>
+      <c r="P36" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2405,46 +2423,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>1.12</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6800000000000002</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7.53</v>
+        <v>-1.8</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>-1.420000000000002</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>27.29</v>
       </c>
       <c r="H37" t="n">
-        <v>8.220000000000002</v>
+        <v>14.58</v>
       </c>
       <c r="I37" t="n">
-        <v>8.06</v>
+        <v>7.130000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6700000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="K37" t="n">
-        <v>0.35</v>
+        <v>-0.49</v>
       </c>
       <c r="L37" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="M37" t="n">
-        <v>7.169999999999998</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>-3.459999999999999</v>
+        <v>2.36</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>-0.6000000000000014</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15.74</v>
       </c>
       <c r="O37" t="n">
-        <v>17.08</v>
+        <v>22.68</v>
       </c>
       <c r="P37" t="n">
-        <v>21.02</v>
+        <v>21.31</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2455,46 +2473,196 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="G38" t="n">
-        <v>7.659999999999999</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>-7.890000000000001</v>
+        <v>1.2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12.54</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.629999999999999</v>
+        <v>2.330000000000002</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>-0.51</v>
+        <v>1.8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.54</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="M38" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>-3.33</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>0.9699999999999989</v>
+        <v>10.17</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="O38" t="n">
+        <v>20.64</v>
       </c>
       <c r="P38" t="n">
-        <v>13.59</v>
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.960000000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9200000000000002</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="M39" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="O39" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="P39" t="n">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7.379999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.720000000000002</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>-1.299999999999999</v>
+      </c>
+      <c r="O40" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="P40" t="n">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>-10.97</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>-0.08999999999999986</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2600000000000002</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>-2.869999999999997</v>
+      </c>
+      <c r="P41" t="n">
+        <v>14.09</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>长盛同盛成长优选(LOF)</t>
+  </si>
+  <si>
+    <t>006308</t>
+  </si>
+  <si>
+    <t>汇添富全球消费混合人民币A</t>
+  </si>
+  <si>
+    <t>001668</t>
+  </si>
+  <si>
+    <t>汇添富全球互联混合</t>
   </si>
 </sst>
 </file>
@@ -310,12 +322,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="2" tint="0.5"/>
+        <fgColor indexed="3" tint="0.5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="3" tint="0.5"/>
+        <fgColor indexed="2" tint="0.5"/>
       </patternFill>
     </fill>
   </fills>
@@ -632,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,47 +734,47 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>-3.16</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>-2.16</v>
+      <c r="C3" t="n">
+        <v>-0.8199999999999998</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-3.59</v>
       </c>
       <c r="F3" t="n">
-        <v>4.460000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>19.37</v>
+        <v>3.260000000000002</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>20.45</v>
       </c>
       <c r="H3" t="n">
-        <v>9.989999999999998</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.6700000000000017</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>-1.85</v>
+        <v>8.5</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.240000000000002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>5.280000000000001</v>
+        <v>5.620000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>7.820000000000002</v>
+        <v>8.989999999999998</v>
       </c>
       <c r="O3" t="n">
-        <v>18.09</v>
+        <v>15.7</v>
       </c>
       <c r="P3" t="n">
-        <v>14.85</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -772,44 +784,44 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>-3.53</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>-2.34</v>
+      <c r="C4" t="n">
+        <v>0.1900000000000004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-4.78</v>
       </c>
       <c r="F4" t="n">
-        <v>3.120000000000001</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>36.12</v>
+        <v>1.800000000000001</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>36.73</v>
       </c>
       <c r="H4" t="n">
-        <v>10.72</v>
+        <v>11.05</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.71</v>
+      <c r="J4" t="n">
+        <v>0.9600000000000002</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>-0.5000000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>3.940000000000001</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>24.57</v>
+        <v>4.16</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>25.27</v>
       </c>
       <c r="O4" t="n">
-        <v>18.82</v>
+        <v>18.25</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
@@ -822,44 +834,44 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>2.05</v>
+      <c r="C5" t="n">
+        <v>-0.2699999999999998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-1.06</v>
+        <v>3.25</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-2.08</v>
       </c>
       <c r="F5" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>26.34</v>
+        <v>4.469999999999999</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>27.02</v>
       </c>
       <c r="H5" t="n">
-        <v>21.21</v>
+        <v>21.79</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.36</v>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>2.99</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>6.800000000000001</v>
+        <v>6.829999999999998</v>
       </c>
       <c r="N5" t="n">
-        <v>14.79</v>
+        <v>15.56</v>
       </c>
       <c r="O5" t="n">
-        <v>29.31</v>
+        <v>28.99</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
@@ -873,46 +885,46 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6200000000000001</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-0.5099999999999998</v>
+        <v>-0.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
       </c>
       <c r="E6" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>15.98</v>
+        <v>4.26</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>14.82</v>
       </c>
       <c r="G6" t="n">
-        <v>16.03</v>
+        <v>17.54</v>
       </c>
       <c r="H6" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>-1.219999999999999</v>
+        <v>24.28</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>-0.3399999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1.22</v>
+        <v>0.5199999999999998</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>16.8</v>
+        <v>2.31</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>17.18</v>
       </c>
       <c r="N6" t="n">
-        <v>4.480000000000002</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>31.74</v>
+        <v>6.079999999999998</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>31.48</v>
       </c>
       <c r="P6" t="n">
-        <v>12.96</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -923,46 +935,46 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-0.6200000000000001</v>
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>7.06</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>5.890000000000001</v>
+        <v>5.039999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>17.44</v>
+        <v>15.87</v>
       </c>
       <c r="H7" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-3.859999999999999</v>
+        <v>28.45</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-3.84</v>
       </c>
       <c r="J7" t="n">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>11.11</v>
+        <v>2.46</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>13.07</v>
       </c>
       <c r="M7" t="n">
-        <v>6.710000000000001</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>5.890000000000002</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>36.15000000000001</v>
+        <v>4.41</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>35.65000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>10.32</v>
+        <v>9.669999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -972,47 +984,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1800000000000002</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>9.489999999999998</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.93</v>
+      <c r="C8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>9.690000000000001</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>14.17</v>
       </c>
       <c r="G8" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>5.930000000000003</v>
+        <v>4.23</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5.710000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>2.72</v>
+        <v>6.99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.9</v>
       </c>
       <c r="K8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="M8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>-7.329999999999999</v>
+        <v>0.22</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>-7.23</v>
       </c>
       <c r="O8" t="n">
-        <v>14.03</v>
+        <v>12.91</v>
       </c>
       <c r="P8" t="n">
-        <v>22.57</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1023,46 +1035,46 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-3.38</v>
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-1.87</v>
       </c>
       <c r="E9" t="n">
-        <v>5.579999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.65</v>
+        <v>2.98</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>14.49</v>
       </c>
       <c r="G9" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>4.540000000000003</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>2.379999999999999</v>
+        <v>10.84</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>5.630000000000003</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2.080000000000002</v>
       </c>
       <c r="J9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>9.629999999999999</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>-0.5999999999999996</v>
+        <v>1.35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>-0.620000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>12.64</v>
+        <v>12.83</v>
       </c>
       <c r="P9" t="n">
-        <v>16.56</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1072,47 +1084,47 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>2.65</v>
+      <c r="C10" t="n">
+        <v>0.52</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4899999999999998</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.289999999999999</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>39.09999999999999</v>
+        <v>3.84</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.1700000000000017</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>39.77</v>
       </c>
       <c r="I10" t="n">
-        <v>29.59</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8200000000000003</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.41</v>
+        <v>28.58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>-0.66</v>
       </c>
       <c r="M10" t="n">
-        <v>3.109999999999999</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>43.77</v>
+        <v>2.530000000000001</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>42.09</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1123,46 +1135,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>-1.83</v>
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.36</v>
       </c>
       <c r="E11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>44.25</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.5599999999999987</v>
+        <v>1.52</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45.58</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.8100000000000023</v>
       </c>
       <c r="J11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>-0.52</v>
+        <v>0.7500000000000002</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.01</v>
       </c>
       <c r="L11" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>19.85</v>
+        <v>5.8</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>18.52</v>
       </c>
       <c r="N11" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>52.35000000000001</v>
+        <v>11.8</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>52.78</v>
       </c>
       <c r="P11" t="n">
-        <v>14.74</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1173,46 +1185,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>-3.82</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.01</v>
+        <v>-0.05999999999999961</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-0.98</v>
       </c>
       <c r="F12" t="n">
-        <v>5.5</v>
+        <v>2.09</v>
       </c>
       <c r="G12" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>5.069999999999997</v>
+        <v>19.92</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>4.359999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>9.290000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>-2.51</v>
+        <v>0.7100000000000002</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.72</v>
       </c>
       <c r="L12" t="n">
-        <v>5.06</v>
+        <v>3.3</v>
       </c>
       <c r="M12" t="n">
-        <v>6.32</v>
+        <v>4.449999999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>6.630000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>13.17</v>
+        <v>11.56</v>
       </c>
       <c r="P12" t="n">
-        <v>23.47</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1223,16 +1235,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>-2.11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.25</v>
+        <v>1.15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-1.31</v>
       </c>
       <c r="F13" t="n">
-        <v>5.809999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -1244,16 +1256,16 @@
         <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-0.7999999999999998</v>
+        <v>1.92</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.17</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>2.97</v>
       </c>
       <c r="M13" t="n">
-        <v>6.629999999999999</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="N13" t="s">
         <v>15</v>
@@ -1272,47 +1284,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.64</v>
+      <c r="C14" s="2" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-1.07</v>
       </c>
       <c r="F14" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>23.51</v>
+        <v>11.58</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>25.65</v>
       </c>
       <c r="H14" t="n">
-        <v>8.040000000000003</v>
+        <v>9.850000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>-3.93</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="M14" t="n">
-        <v>12.45</v>
+        <v>13.26</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>13.94</v>
       </c>
       <c r="N14" t="n">
-        <v>11.96</v>
+        <v>14.19</v>
       </c>
       <c r="O14" t="n">
-        <v>16.14</v>
+        <v>17.05</v>
       </c>
       <c r="P14" t="n">
-        <v>27.78</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1323,46 +1335,46 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08000000000000007</v>
+        <v>1.2</v>
       </c>
       <c r="E15" t="n">
-        <v>3.149999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="F15" t="n">
-        <v>3.719999999999999</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4.849999999999998</v>
+        <v>13.02</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>4.68</v>
       </c>
       <c r="I15" t="n">
-        <v>7.890000000000001</v>
+        <v>6.940000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="K15" t="n">
-        <v>1.39</v>
+        <v>2.85</v>
       </c>
       <c r="L15" t="n">
-        <v>7.199999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="M15" t="n">
-        <v>4.539999999999999</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0.8100000000000005</v>
+        <v>5.66</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>1.559999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>12.95</v>
+        <v>11.88</v>
       </c>
       <c r="P15" t="n">
-        <v>22.07</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1373,19 +1385,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-2.21</v>
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.22</v>
       </c>
       <c r="E16" t="n">
-        <v>2.8</v>
+        <v>1.31</v>
       </c>
       <c r="F16" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>27.05</v>
+        <v>2.84</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>27.54</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1394,19 +1406,19 @@
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>-0.8999999999999999</v>
+        <v>1.27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.43</v>
       </c>
       <c r="L16" t="n">
-        <v>6.85</v>
+        <v>5.59</v>
       </c>
       <c r="M16" t="n">
-        <v>4.25</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>15.5</v>
+        <v>16.08</v>
       </c>
       <c r="O16" t="s">
         <v>15</v>
@@ -1423,19 +1435,19 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2.14</v>
+        <v>-1.57</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>-2.71</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-0.990000000000002</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18.71</v>
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>20.43</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1443,20 +1455,20 @@
       <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <v>2.74</v>
+      <c r="J17" t="n">
+        <v>-0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>1.77</v>
+        <v>2.61</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>-0.1700000000000017</v>
+        <v>5.59</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>-4.49</v>
       </c>
       <c r="N17" t="n">
-        <v>7.160000000000002</v>
+        <v>8.969999999999999</v>
       </c>
       <c r="O17" t="s">
         <v>15</v>
@@ -1473,16 +1485,16 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.7100000000000004</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>5.499999999999999</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>13.28</v>
+        <v>5.03</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.85</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -1494,16 +1506,16 @@
         <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>9.549999999999999</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>14.1</v>
+        <v>2.61</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>15.21</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
@@ -1522,47 +1534,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-3.19</v>
+      <c r="C19" s="1" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-2.879999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>7.24</v>
+        <v>6.8</v>
       </c>
       <c r="H19" t="n">
-        <v>7.470000000000002</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>-2.37</v>
+        <v>15.77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>-2.369999999999999</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>-4.309999999999999</v>
+        <v>2.5</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>-0.5199999999999996</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>-4.660000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>30.58</v>
+        <v>14.31</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29.28</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1573,46 +1585,46 @@
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>-1.16</v>
+        <v>-0.6899999999999997</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.09</v>
       </c>
       <c r="E20" t="n">
-        <v>4.409999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="F20" t="n">
-        <v>5.449999999999999</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>22.79</v>
+        <v>5.73</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>21.68</v>
       </c>
       <c r="H20" t="n">
-        <v>22.72</v>
+        <v>25.5</v>
       </c>
       <c r="I20" t="n">
-        <v>18.79</v>
+        <v>18.14</v>
       </c>
       <c r="J20" t="n">
-        <v>1.35</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1499999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="L20" t="n">
-        <v>8.459999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>6.27</v>
+        <v>8.09</v>
       </c>
       <c r="N20" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>32.97</v>
+        <v>10.22</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>31.65</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1623,46 +1635,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>-1.21</v>
+        <v>-0.6999999999999997</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.87</v>
       </c>
       <c r="E21" t="n">
-        <v>5.899999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="F21" t="n">
-        <v>5.079999999999998</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>20.87</v>
+        <v>6.16</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>20.41</v>
       </c>
       <c r="H21" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-0.4400000000000013</v>
+        <v>26.11</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>-0.8599999999999994</v>
       </c>
       <c r="J21" t="n">
-        <v>1.91</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>2.52</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.51</v>
       </c>
       <c r="M21" t="n">
-        <v>5.899999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="N21" t="n">
-        <v>9.320000000000002</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>32.38</v>
+        <v>8.949999999999999</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>33.31</v>
       </c>
       <c r="P21" t="n">
-        <v>13.74</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1673,46 +1685,46 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>1.78</v>
+        <v>0.4300000000000002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>3.24</v>
+        <v>3.87</v>
       </c>
       <c r="F22" t="n">
-        <v>5.93</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>55.86</v>
+        <v>11.14</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>53.15000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>2.38</v>
+        <v>9.66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.21</v>
+        <v>2.95</v>
       </c>
       <c r="L22" t="n">
-        <v>7.29</v>
+        <v>8.15</v>
       </c>
       <c r="M22" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>-0.5599999999999987</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>63.96000000000001</v>
+        <v>10.31</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>-0.3200000000000003</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>60.35000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>24.18</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1722,47 +1734,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>-3.39</v>
+      <c r="C23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.43</v>
       </c>
       <c r="E23" t="n">
-        <v>2.58</v>
+        <v>0.7299999999999995</v>
       </c>
       <c r="F23" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>24.28</v>
+        <v>7.600000000000001</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>24.56</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>23.73</v>
       </c>
       <c r="I23" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>-2.08</v>
+        <v>12</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.22</v>
       </c>
       <c r="L23" t="n">
-        <v>6.63</v>
+        <v>5.01</v>
       </c>
       <c r="M23" t="n">
-        <v>9.75</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>30.1</v>
+        <v>13.1</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>30.93</v>
       </c>
       <c r="P23" t="n">
-        <v>26.42</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1772,47 +1784,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.1300000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>2.850000000000001</v>
+      <c r="C24" s="1" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.460000000000001</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-9.43</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>2.68</v>
       </c>
       <c r="I24" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7300000000000002</v>
+        <v>10.1</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>3.98</v>
+        <v>1.06</v>
       </c>
       <c r="L24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>-20.57</v>
+        <v>3.88</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>-20.89</v>
       </c>
       <c r="O24" t="n">
-        <v>10.95</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>25.02</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1823,46 +1835,46 @@
         <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3599999999999994</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-1.039999999999999</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>56.50999999999999</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>4.41</v>
+        <v>-0.8399999999999999</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-2.760000000000002</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>66.13</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>-2.9</v>
+        <v>-0.07000000000000006</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.02</v>
       </c>
       <c r="L25" t="n">
-        <v>4.409999999999999</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>-0.2199999999999989</v>
+        <v>0.74</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>-0.4000000000000021</v>
       </c>
       <c r="N25" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>64.61</v>
+        <v>13.26</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>73.33</v>
       </c>
       <c r="P25" t="n">
-        <v>18.59</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1873,46 +1885,46 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>-2.47</v>
+        <v>1.82</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8300000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>8.719999999999999</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-3.859999999999999</v>
+        <v>6.54</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-5.77</v>
       </c>
       <c r="G26" t="n">
-        <v>11.29</v>
+        <v>11.86</v>
       </c>
       <c r="H26" t="n">
-        <v>24.26</v>
+        <v>27.71</v>
       </c>
       <c r="I26" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>-3.039999999999999</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>32.36</v>
+        <v>11.56</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>-3.41</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>34.91</v>
       </c>
       <c r="P26" t="n">
-        <v>25.28</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1922,47 +1934,47 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>-3.52</v>
+      <c r="C27" s="1" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>-1.29</v>
       </c>
       <c r="E27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0.120000000000001</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>26.37</v>
+        <v>2.399999999999999</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>25.07</v>
       </c>
       <c r="H27" t="n">
-        <v>19.3</v>
+        <v>22.18</v>
       </c>
       <c r="I27" t="n">
-        <v>10.8</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>-2.21</v>
+        <v>-0.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3599999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>0.9400000000000013</v>
+        <v>6.68</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>-0.7900000000000009</v>
       </c>
       <c r="N27" t="n">
-        <v>14.82</v>
+        <v>13.61</v>
       </c>
       <c r="O27" t="n">
-        <v>27.4</v>
+        <v>29.38</v>
       </c>
       <c r="P27" t="n">
-        <v>24.98</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1972,20 +1984,20 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>-3.25</v>
+      <c r="C28" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>21.98</v>
+        <v>0.7599999999999998</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.239999999999998</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>24.7</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -1993,20 +2005,20 @@
       <c r="I28" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="1" t="n">
-        <v>4.38</v>
+      <c r="J28" s="2" t="n">
+        <v>2.56</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-1.94</v>
+        <v>4.65</v>
       </c>
       <c r="L28" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>13.89</v>
+        <v>5.04</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11.6</v>
       </c>
       <c r="N28" t="n">
-        <v>10.43</v>
+        <v>13.24</v>
       </c>
       <c r="O28" t="s">
         <v>15</v>
@@ -2022,44 +2034,44 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>-1.53</v>
+      <c r="C29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.75</v>
       </c>
       <c r="E29" t="n">
-        <v>6.510000000000001</v>
+        <v>8.989999999999998</v>
       </c>
       <c r="F29" t="n">
-        <v>6.079999999999998</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>28.35</v>
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>28.43</v>
       </c>
       <c r="H29" t="n">
-        <v>19.69</v>
+        <v>19.85</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>10.56</v>
+      <c r="J29" t="n">
+        <v>0.5199999999999998</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>13.27</v>
       </c>
       <c r="M29" t="n">
-        <v>6.899999999999999</v>
+        <v>3.859999999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>16.8</v>
+        <v>16.97</v>
       </c>
       <c r="O29" t="n">
-        <v>27.79</v>
+        <v>27.05</v>
       </c>
       <c r="P29" t="s">
         <v>15</v>
@@ -2072,47 +2084,47 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>-1.93</v>
+      <c r="C30" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.62</v>
       </c>
       <c r="E30" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>20.02</v>
+        <v>5.73</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>21.01</v>
       </c>
       <c r="H30" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>-0.6199999999999999</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>16.3</v>
+        <v>24.95</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>5.010000000000002</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>18.02</v>
       </c>
       <c r="N30" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>32.73999999999999</v>
+        <v>9.550000000000001</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>32.15000000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>20.69</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2123,46 +2135,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-0.6600000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>11.95</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>17.31</v>
+        <v>18.21</v>
       </c>
       <c r="H31" t="n">
-        <v>16.41</v>
+        <v>18.21</v>
       </c>
       <c r="I31" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>2.17</v>
+        <v>11.23</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.41</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.23</v>
+        <v>3.83</v>
       </c>
       <c r="L31" t="n">
-        <v>4.25</v>
+        <v>3.62</v>
       </c>
       <c r="M31" t="n">
-        <v>12.77</v>
+        <v>11.49</v>
       </c>
       <c r="N31" t="n">
-        <v>5.76</v>
+        <v>6.75</v>
       </c>
       <c r="O31" t="n">
-        <v>24.51</v>
+        <v>25.41</v>
       </c>
       <c r="P31" t="n">
-        <v>26.84</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2173,46 +2185,46 @@
         <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>-2.69</v>
+        <v>1.04</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>-1.07</v>
       </c>
       <c r="E32" t="n">
-        <v>4.98</v>
+        <v>4.13</v>
       </c>
       <c r="F32" t="n">
-        <v>5.43</v>
+        <v>4.989999999999998</v>
       </c>
       <c r="G32" t="n">
-        <v>16.36</v>
+        <v>18.77</v>
       </c>
       <c r="H32" t="n">
-        <v>18.55</v>
+        <v>18.89</v>
       </c>
       <c r="I32" t="n">
-        <v>6.960000000000001</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>9.029999999999999</v>
+        <v>6.75</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5799999999999998</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8.41</v>
       </c>
       <c r="M32" t="n">
-        <v>6.25</v>
+        <v>7.349999999999998</v>
       </c>
       <c r="N32" t="n">
-        <v>4.81</v>
+        <v>7.309999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>26.65</v>
+        <v>26.09</v>
       </c>
       <c r="P32" t="n">
-        <v>21.14</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2222,17 +2234,17 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>-3.18</v>
+      <c r="C33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02</v>
       </c>
       <c r="E33" t="n">
-        <v>2.75</v>
+        <v>1.52</v>
       </c>
       <c r="F33" t="n">
-        <v>10.01</v>
+        <v>7.719999999999999</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -2243,17 +2255,17 @@
       <c r="I33" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="1" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>-1.87</v>
+      <c r="J33" s="2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.67</v>
       </c>
       <c r="L33" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="M33" t="n">
-        <v>10.83</v>
+        <v>10.08</v>
       </c>
       <c r="N33" t="s">
         <v>15</v>
@@ -2273,46 +2285,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>-2.37</v>
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.53</v>
       </c>
       <c r="E34" t="n">
-        <v>3.01</v>
+        <v>1.58</v>
       </c>
       <c r="F34" t="n">
-        <v>3.98</v>
+        <v>3.649999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>3.75</v>
+        <v>6.07</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>3.060000000000002</v>
       </c>
       <c r="I34" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>-1.06</v>
+        <v>9.350000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8099999999999998</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.18</v>
       </c>
       <c r="L34" t="n">
-        <v>7.06</v>
+        <v>5.86</v>
       </c>
       <c r="M34" t="n">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>-6.359999999999999</v>
+        <v>6.009999999999998</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>-5.390000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>11.85</v>
+        <v>10.26</v>
       </c>
       <c r="P34" t="n">
-        <v>23.26</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2322,47 +2334,47 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>-1.1</v>
+      <c r="C35" s="1" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1799999999999997</v>
       </c>
       <c r="F35" t="n">
-        <v>3.879999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="G35" t="n">
-        <v>16.83</v>
+        <v>15.28</v>
       </c>
       <c r="H35" t="n">
-        <v>16.66</v>
+        <v>18.89</v>
       </c>
       <c r="I35" t="n">
-        <v>7.84</v>
+        <v>7.690000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9300000000000002</v>
+        <v>-0.75</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.06999999999999984</v>
+        <v>2.37</v>
       </c>
       <c r="L35" t="n">
-        <v>2.95</v>
+        <v>4.46</v>
       </c>
       <c r="M35" t="n">
-        <v>4.699999999999999</v>
+        <v>3.77</v>
       </c>
       <c r="N35" t="n">
-        <v>5.279999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="O35" t="n">
-        <v>24.76</v>
+        <v>26.09</v>
       </c>
       <c r="P35" t="n">
-        <v>22.02</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2372,44 +2384,44 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-1.969999999999999</v>
+      <c r="C36" s="1" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>-3.619999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>11.52</v>
+        <v>10.66</v>
       </c>
       <c r="H36" t="n">
-        <v>13.98</v>
+        <v>16.21</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
-      <c r="J36" t="n">
-        <v>1.53</v>
+      <c r="J36" s="1" t="n">
+        <v>-1.29</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5100000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="L36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>-1.149999999999999</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>-0.02999999999999936</v>
+        <v>4.41</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>-0.8000000000000007</v>
       </c>
       <c r="O36" t="n">
-        <v>22.08</v>
+        <v>23.41</v>
       </c>
       <c r="P36" t="s">
         <v>15</v>
@@ -2423,46 +2435,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1799999999999999</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-1.420000000000002</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>27.29</v>
+        <v>1.56</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>31.68</v>
       </c>
       <c r="H37" t="n">
-        <v>14.58</v>
+        <v>14.45</v>
       </c>
       <c r="I37" t="n">
-        <v>7.130000000000001</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.78</v>
+        <v>7.600000000000001</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>2.33</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.49</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="N37" t="n">
-        <v>15.74</v>
+        <v>2.68</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>20.22</v>
       </c>
       <c r="O37" t="n">
-        <v>22.68</v>
+        <v>21.65</v>
       </c>
       <c r="P37" t="n">
-        <v>21.31</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2473,46 +2485,46 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>1.2</v>
+        <v>-0.21</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>32.54</v>
+        <v>3.76</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>32.65</v>
       </c>
       <c r="H38" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>2.330000000000002</v>
+        <v>15.38</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>2.140000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>1.8</v>
+        <v>0.5599999999999998</v>
       </c>
       <c r="K38" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>20.99</v>
+        <v>2.15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>21.19</v>
       </c>
       <c r="O38" t="n">
-        <v>20.64</v>
+        <v>22.58</v>
       </c>
       <c r="P38" t="n">
-        <v>16.51</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2523,46 +2535,46 @@
         <v>85</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3200000000000001</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>-3.62</v>
+        <v>-0.05999999999999961</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>6.39</v>
+        <v>4.01</v>
       </c>
       <c r="F39" t="n">
-        <v>11.89</v>
+        <v>12.86</v>
       </c>
       <c r="G39" t="n">
-        <v>9.539999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="H39" t="n">
-        <v>6.870000000000001</v>
+        <v>6.810000000000002</v>
       </c>
       <c r="I39" t="n">
-        <v>7.960000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9200000000000002</v>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="M39" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>-2.01</v>
+        <v>0.7100000000000002</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>-2.940000000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>14.97</v>
+        <v>14.01</v>
       </c>
       <c r="P39" t="n">
-        <v>22.14</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2573,46 +2585,46 @@
         <v>87</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8</v>
+        <v>-0.5699999999999998</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.27</v>
+        <v>0.62</v>
       </c>
       <c r="E40" t="n">
-        <v>1.55</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>7.379999999999999</v>
+        <v>8.030000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>10.25</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>6.720000000000002</v>
+        <v>7.050000000000004</v>
       </c>
       <c r="I40" t="n">
-        <v>7.09</v>
+        <v>7.130000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="K40" t="n">
-        <v>1.04</v>
+        <v>2.27</v>
       </c>
       <c r="L40" t="n">
-        <v>5.6</v>
+        <v>5.68</v>
       </c>
       <c r="M40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>-1.299999999999999</v>
+        <v>10.39</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>-1.99</v>
       </c>
       <c r="O40" t="n">
-        <v>14.82</v>
+        <v>14.25</v>
       </c>
       <c r="P40" t="n">
-        <v>21.27</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2622,47 +2634,147 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>-11.26</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>0.4700000000000024</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>-0.1300000000000008</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>-4.059999999999999</v>
+      </c>
+      <c r="P41" t="n">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="D42" t="n">
         <v>4.06</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="F41" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="G41" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>-10.97</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.2600000000000002</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>0.03000000000000114</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>-2.869999999999997</v>
-      </c>
-      <c r="P41" t="n">
-        <v>14.09</v>
+      <c r="E42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.620000000000001</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="O42" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="P42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.3099999999999998</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>-6.890000000000001</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>1.590000000000003</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L43" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>-4.530000000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8.790000000000003</v>
+      </c>
+      <c r="P43" t="n">
+        <v>28.91</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -50,6 +50,18 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>160133</t>
+  </si>
+  <si>
+    <t>南方天元新产业股票(LOF)</t>
+  </si>
+  <si>
+    <t>002148</t>
+  </si>
+  <si>
+    <t>国寿安保稳惠混合</t>
+  </si>
+  <si>
     <t>005738</t>
   </si>
   <si>
@@ -101,12 +113,6 @@
     <t>淳厚信睿混合A</t>
   </si>
   <si>
-    <t>168002</t>
-  </si>
-  <si>
-    <t>国寿安保策略精选混合(LOF)</t>
-  </si>
-  <si>
     <t>673100</t>
   </si>
   <si>
@@ -146,7 +152,7 @@
     <t>163406</t>
   </si>
   <si>
-    <t>兴全合润分级混合</t>
+    <t>兴全合润混合</t>
   </si>
   <si>
     <t>003889</t>
@@ -221,30 +227,24 @@
     <t>工银圆兴混合</t>
   </si>
   <si>
+    <t>519736</t>
+  </si>
+  <si>
+    <t>交银新成长混合</t>
+  </si>
+  <si>
+    <t>005001</t>
+  </si>
+  <si>
+    <t>交银持续成长主题混合</t>
+  </si>
+  <si>
     <t>519069</t>
   </si>
   <si>
     <t>汇添富价值精选混合A</t>
   </si>
   <si>
-    <t>519736</t>
-  </si>
-  <si>
-    <t>交银新成长混合</t>
-  </si>
-  <si>
-    <t>005001</t>
-  </si>
-  <si>
-    <t>交银持续成长主题混合</t>
-  </si>
-  <si>
-    <t>160133</t>
-  </si>
-  <si>
-    <t>南方天元新产业股票(LOF)</t>
-  </si>
-  <si>
     <t>000991</t>
   </si>
   <si>
@@ -254,7 +254,7 @@
     <t>000628</t>
   </si>
   <si>
-    <t>大成高新技术产业股票</t>
+    <t>大成高新技术产业股票A</t>
   </si>
   <si>
     <t>005760</t>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>长盛同盛成长优选(LOF)</t>
+  </si>
+  <si>
+    <t>008314</t>
+  </si>
+  <si>
+    <t>上投摩根慧选成长A</t>
+  </si>
+  <si>
+    <t>004075</t>
+  </si>
+  <si>
+    <t>交银医药创新股票</t>
   </si>
   <si>
     <t>006308</t>
@@ -632,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,146 +735,146 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.29</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-4.95</v>
+        <v>-6.12</v>
       </c>
       <c r="F3" t="n">
-        <v>2.049999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>37.19</v>
+        <v>27.56</v>
       </c>
       <c r="H3" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+        <v>15.17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.240000000000002</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>-0.9299999999999997</v>
       </c>
       <c r="M3" t="n">
-        <v>3.059999999999999</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>24.3</v>
+        <v>1.37</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19.18</v>
       </c>
       <c r="O3" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
+        <v>23.6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19.31</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.63</v>
+        <v>0.6900000000000004</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-3.78</v>
       </c>
       <c r="F4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17.87</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>31.94</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>-4.629999999999999</v>
+        <v>12.55</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>-4.939999999999998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.57</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>9.970000000000001</v>
+        <v>1.69</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>6.93</v>
+        <v>12.13</v>
       </c>
       <c r="N4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>42.72</v>
+        <v>17.64</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>3.490000000000002</v>
       </c>
       <c r="P4" t="n">
-        <v>6.580000000000002</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>-0.8300000000000001</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.5200000000000005</v>
+      <c r="C5" s="2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>36.65</v>
       </c>
       <c r="H5" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.710000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>-12.37</v>
+        <v>6.090000000000003</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>28.27</v>
       </c>
       <c r="O5" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>17.92</v>
+        <v>14.52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -873,46 +885,46 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>-0.6699999999999999</v>
+        <v>0.4400000000000004</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.26</v>
       </c>
       <c r="E6" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>13.77</v>
+        <v>3.59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.779999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.850000000000001</v>
+        <v>17.02</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>32.26</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>-0.3499999999999979</v>
+        <v>-4.279999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>7.630000000000001</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18.63</v>
+        <v>8.780000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.359999999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>40.69</v>
       </c>
       <c r="P6" t="n">
-        <v>10.86</v>
+        <v>7.790000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -922,47 +934,47 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>-6.98</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.3200000000000003</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>36.25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2.03</v>
+      <c r="C7" s="1" t="n">
+        <v>-3.79</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.629999999999999</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.380000000000003</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4.109999999999999</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>-2.79</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>47.03</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>40.19</v>
+        <v>8.529999999999999</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16.18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -972,47 +984,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>2.69</v>
+      <c r="C8" t="n">
+        <v>0.2600000000000007</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1599999999999999</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>-0.7300000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.129999999999999</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>40.63</v>
+        <v>14.72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.44</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>2.650000000000002</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.09</v>
+        <v>-2.77</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.260000000000001</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>5.140000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>4.609999999999999</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>51.41</v>
+        <v>14.3</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="O8" t="n">
+        <v>22.87</v>
       </c>
       <c r="P8" t="n">
-        <v>13.86</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1023,46 +1035,46 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.75</v>
+        <v>0.01000000000000068</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>5.83</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>-3.32</v>
+        <v>-8.02</v>
       </c>
       <c r="F9" t="n">
-        <v>1.679999999999998</v>
+        <v>5.81</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>24.93</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>1.479999999999997</v>
+        <v>35.7</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>36.77</v>
       </c>
       <c r="I9" t="n">
-        <v>8.9</v>
+        <v>29.9</v>
       </c>
       <c r="J9" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.02</v>
+        <v>1.010000000000001</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>-2.83</v>
       </c>
       <c r="M9" t="n">
-        <v>2.689999999999998</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>20.11</v>
+        <v>5.390000000000001</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>41.97</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1073,46 +1085,46 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>4.73</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.089999999999998</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
+        <v>-3.7</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>47.50000000000001</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1.830000000000002</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.24</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>7.869999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.099999999999998</v>
-      </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
+        <v>1.49</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>55.93000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13.9</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1122,47 +1134,47 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.53</v>
+      <c r="C11" s="2" t="n">
+        <v>2.42</v>
       </c>
       <c r="D11" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9699999999999998</v>
+        <v>2.71</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>-5.02</v>
       </c>
       <c r="F11" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>28.67</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.479999999999997</v>
+        <v>6.379999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>3.660000000000004</v>
       </c>
       <c r="I11" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.3</v>
+        <v>9.25</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>3.42</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.619999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="L11" t="n">
-        <v>6.31</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>9.32</v>
+        <v>5.959999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>15.78</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>17.26</v>
+        <v>12.09</v>
       </c>
       <c r="P11" t="n">
-        <v>26.59</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1173,46 +1185,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6699999999999999</v>
+        <v>1.470000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7299999999999995</v>
+        <v>3.94</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-4.47</v>
       </c>
       <c r="F12" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>3.670000000000002</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.420000000000002</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.72</v>
+        <v>6.949999999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>2.470000000000001</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>7.08</v>
       </c>
       <c r="L12" t="n">
-        <v>6.07</v>
+        <v>0.7200000000000006</v>
       </c>
       <c r="M12" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>0.8100000000000023</v>
-      </c>
-      <c r="O12" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="P12" t="n">
-        <v>18.63</v>
+        <v>6.529999999999999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1223,46 +1235,46 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>0.49</v>
+        <v>-0.5299999999999994</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>-0.6100000000000003</v>
+        <v>2.34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6999999999999993</v>
       </c>
       <c r="F13" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
+        <v>6.33</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>4.869999999999997</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>5.470000000000002</v>
       </c>
       <c r="J13" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.06</v>
+        <v>0.4700000000000006</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>5.48</v>
       </c>
       <c r="L13" t="n">
-        <v>4.73</v>
+        <v>5.89</v>
       </c>
       <c r="M13" t="n">
-        <v>4.949999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="N13" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="O13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
+        <v>3.939999999999998</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17.54</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1273,46 +1285,46 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>-2.52</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.339999999999999</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>-4.800000000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.86</v>
+        <v>-0.2399999999999993</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>25.23</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.27</v>
+        <v>0.7600000000000007</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>5.51</v>
       </c>
       <c r="L14" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>-3.790000000000001</v>
+        <v>3.38</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.99</v>
       </c>
       <c r="N14" t="n">
-        <v>3.970000000000002</v>
+        <v>16.85</v>
       </c>
       <c r="O14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1323,46 +1335,46 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.489999999999999</v>
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-7.79</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-6.27</v>
       </c>
       <c r="F15" t="n">
-        <v>12.18</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>4.52</v>
+        <v>17.33</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>-8.369999999999999</v>
+        <v>1.25</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.949999999999999</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1372,47 +1384,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.3199999999999998</v>
+      <c r="C16" s="2" t="n">
+        <v>3.880000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>-4.83</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.129999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.470000000000001</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>13.23</v>
       </c>
       <c r="G16" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.62</v>
+        <v>9.429999999999998</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>4.880000000000001</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>7.19</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5100000000000002</v>
+        <v>7.660000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>2.139999999999999</v>
+        <v>12.81</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="P16" t="n">
-        <v>28.62</v>
+        <v>1.049999999999997</v>
+      </c>
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1423,46 +1435,46 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-1.93</v>
+        <v>-3.73</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.329999999999999</v>
+        <v>1.91</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-6.81</v>
       </c>
       <c r="F17" t="n">
-        <v>6.249999999999998</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24.68</v>
+        <v>5.969999999999999</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>2.719999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>20.53</v>
+        <v>18.08</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>-2.16</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.67</v>
+        <v>-2.73</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>-1.62</v>
       </c>
       <c r="M17" t="n">
-        <v>7.259999999999998</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.490000000000002</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>35.46</v>
+        <v>5.549999999999999</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>-6.380000000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11.15</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>31.74</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1473,46 +1485,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8</v>
+        <v>0.54</v>
       </c>
       <c r="D18" t="n">
-        <v>2.03</v>
+        <v>0.24</v>
       </c>
       <c r="E18" t="n">
-        <v>3.97</v>
+        <v>2.970000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>6.499999999999998</v>
-      </c>
-      <c r="G18" t="n">
-        <v>19.91</v>
+        <v>6.459999999999999</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>20.54</v>
       </c>
       <c r="H18" t="n">
-        <v>25.28</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>-1.919999999999998</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>-1.03</v>
+        <v>26.61000000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.54</v>
       </c>
       <c r="K18" t="n">
-        <v>4.279999999999999</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>9.31</v>
+        <v>3.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.16</v>
       </c>
       <c r="M18" t="n">
-        <v>7.509999999999998</v>
+        <v>6.039999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>7.020000000000003</v>
+        <v>12.16</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9.290000000000003</v>
+        <v>35.04000000000001</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>31.84</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1522,47 +1534,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>-1.36</v>
+      <c r="C19" t="n">
+        <v>0.4100000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="E19" t="n">
-        <v>2.55</v>
+        <v>2.379999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>8.159999999999998</v>
+        <v>8.4</v>
       </c>
       <c r="G19" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>53.04000000000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>-1.59</v>
+        <v>19.84</v>
+      </c>
+      <c r="H19" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.41</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>5.69</v>
+        <v>4.87</v>
       </c>
       <c r="L19" t="n">
-        <v>7.890000000000001</v>
+        <v>7.569999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>9.169999999999998</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>-1.479999999999997</v>
+        <v>7.98</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11.46</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>63.82000000000001</v>
+        <v>37</v>
       </c>
       <c r="P19" t="n">
-        <v>21.3</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1572,47 +1584,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.43</v>
+      <c r="C20" s="1" t="n">
+        <v>-2.48</v>
       </c>
       <c r="D20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>-1.03</v>
+        <v>2.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.15</v>
       </c>
       <c r="F20" t="n">
-        <v>5.970000000000001</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="H20" t="n">
-        <v>18.86</v>
+        <v>8.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>51.50000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.54</v>
+        <v>11.11</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>5.94</v>
       </c>
       <c r="L20" t="n">
-        <v>4.31</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>6.98</v>
+        <v>7.83</v>
       </c>
       <c r="N20" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="O20" t="n">
-        <v>29.64</v>
+        <v>4.68</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>59.93000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>23.24</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1622,47 +1634,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.54</v>
+      <c r="C21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-3.09</v>
       </c>
       <c r="F21" t="n">
-        <v>1.279999999999999</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>-10.77</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>3.25</v>
+        <v>10.21</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21.81</v>
       </c>
       <c r="I21" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.04</v>
+        <v>12.89</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>7.82</v>
       </c>
       <c r="L21" t="n">
-        <v>5.880000000000001</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>2.289999999999999</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>-23.66</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14.03</v>
+        <v>9.789999999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>30.24</v>
       </c>
       <c r="P21" t="n">
-        <v>20.11</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1672,47 +1684,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>-5.98</v>
+      <c r="C22" s="1" t="n">
+        <v>-4.949999999999999</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.93</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-3.860000000000001</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>54.84999999999999</v>
+        <v>-2.77</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0.759999999999998</v>
       </c>
       <c r="I22" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>-0.6399999999999999</v>
+        <v>10.71</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>-0.9700000000000002</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.12</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-2.850000000000001</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>65.63</v>
+        <v>-3.19</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>-16.28</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9.189999999999998</v>
       </c>
       <c r="P22" t="n">
-        <v>18.69</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1722,47 +1734,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.53</v>
+      <c r="C23" s="2" t="n">
+        <v>2.83</v>
       </c>
       <c r="D23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.419999999999999</v>
+        <v>0.46</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-4.56</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-6.120000000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>27.99</v>
+        <v>-0.5200000000000005</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>61.72000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.3</v>
+        <v>6.170000000000002</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>3.83</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>12.76</v>
+        <v>3.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.6299999999999999</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>-5.110000000000001</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>-1.59</v>
+        <v>-0.9400000000000004</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17.28</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>38.77</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>23.07</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1773,46 +1785,46 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>-1.76</v>
+        <v>4.48</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5.62</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04000000000000004</v>
+        <v>5.07</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="H24" t="n">
-        <v>21.12</v>
+        <v>-1.65</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.499999999999998</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30.48</v>
       </c>
       <c r="I24" t="n">
-        <v>10.89</v>
+        <v>10.29</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.4899999999999998</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.380000000000001</v>
+        <v>5.48</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>10.26</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>-0.5800000000000001</v>
-      </c>
-      <c r="N24" t="n">
-        <v>14.27</v>
+        <v>-2.07</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0.1199999999999974</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>31.9</v>
+        <v>38.91</v>
       </c>
       <c r="P24" t="n">
-        <v>22.1</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1822,47 +1834,47 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>3.4</v>
+      <c r="C25" t="n">
+        <v>0.8000000000000007</v>
       </c>
       <c r="D25" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1799999999999997</v>
+        <v>2.9</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-4.25</v>
       </c>
       <c r="F25" t="n">
-        <v>9.860000000000001</v>
+        <v>6.129999999999999</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>3.17</v>
+        <v>20.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.800000000000001</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="L25" t="n">
-        <v>5.52</v>
+        <v>0.9400000000000004</v>
       </c>
       <c r="M25" t="n">
-        <v>10.87</v>
+        <v>5.709999999999999</v>
       </c>
       <c r="N25" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="O25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" t="s">
-        <v>13</v>
+        <v>12.02</v>
+      </c>
+      <c r="O25" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>22.63</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1873,46 +1885,46 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>9.049999999999997</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>-0.7300000000000004</v>
+        <v>1.800000000000001</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.6</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30.55</v>
-      </c>
-      <c r="H26" t="n">
-        <v>20.65</v>
+        <v>26.69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.61</v>
+        <v>17</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>2.800000000000001</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>0.2799999999999994</v>
+        <v>13.95</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="M26" t="n">
+        <v>12.18</v>
       </c>
       <c r="N26" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>31.43</v>
+        <v>18.31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>17</v>
       </c>
       <c r="P26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1923,46 +1935,46 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.23</v>
+        <v>3.040000000000001</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>4.76</v>
+        <v>5.07</v>
       </c>
       <c r="E27" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>13.5</v>
+        <v>7.419999999999998</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.52</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>25.31</v>
+        <v>35.45</v>
       </c>
       <c r="H27" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>5.700000000000003</v>
+        <v>18.13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>3</v>
+        <v>4.040000000000001</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>7.01</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="N27" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>37.02</v>
-      </c>
-      <c r="P27" t="n">
-        <v>16.91</v>
+        <v>12.61</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="O27" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="P27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1973,46 +1985,46 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>-3.71</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9.35</v>
+        <v>3.720000000000001</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>17.04</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>22.17</v>
+        <v>22.73</v>
       </c>
       <c r="H28" t="n">
-        <v>17.52</v>
+        <v>27.18</v>
       </c>
       <c r="I28" t="n">
-        <v>11.06</v>
+        <v>6.93</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>2.5</v>
+        <v>4.720000000000001</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>5.47</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M28" t="n">
-        <v>10.36</v>
+        <v>6.69</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>16.62</v>
       </c>
       <c r="N28" t="n">
-        <v>9.280000000000001</v>
-      </c>
-      <c r="O28" t="n">
-        <v>28.3</v>
+        <v>14.35</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>35.61</v>
       </c>
       <c r="P28" t="n">
-        <v>22.27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2023,46 +2035,46 @@
         <v>65</v>
       </c>
       <c r="C29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.3600000000000001</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.659999999999998</v>
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>16.27</v>
       </c>
       <c r="G29" t="n">
-        <v>19.45</v>
+        <v>17.91</v>
       </c>
       <c r="H29" t="n">
-        <v>17.96</v>
+        <v>16.23</v>
       </c>
       <c r="I29" t="n">
-        <v>6.75</v>
+        <v>12.26</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4.669999999999998</v>
+        <v>1.12</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>15.85</v>
       </c>
       <c r="N29" t="n">
-        <v>6.560000000000002</v>
+        <v>9.529999999999998</v>
       </c>
       <c r="O29" t="n">
-        <v>28.74</v>
+        <v>24.66</v>
       </c>
       <c r="P29" t="n">
-        <v>17.96</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2073,46 +2085,46 @@
         <v>67</v>
       </c>
       <c r="C30" t="n">
-        <v>1.95</v>
+        <v>0.6100000000000003</v>
       </c>
       <c r="D30" t="n">
-        <v>1.33</v>
+        <v>3.41</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6000000000000005</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="F30" t="n">
-        <v>6.200000000000001</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
+        <v>5.390000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>4.859999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.58</v>
+        <v>1.61</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>6.550000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>5.940000000000001</v>
+        <v>5.79</v>
       </c>
       <c r="M30" t="n">
-        <v>7.210000000000001</v>
-      </c>
-      <c r="N30" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" t="s">
-        <v>13</v>
-      </c>
-      <c r="P30" t="s">
-        <v>13</v>
+        <v>4.970000000000001</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="P30" t="n">
+        <v>16.93</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2123,46 +2135,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.050000000000001</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-2.029999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5.370000000000001</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>3.560000000000002</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.84</v>
+        <v>9.619999999999999</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>2.050000000000001</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>8.75</v>
       </c>
       <c r="L31" t="n">
-        <v>6.34</v>
+        <v>3.160000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>-7.519999999999998</v>
-      </c>
-      <c r="O31" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="P31" t="n">
-        <v>19.53</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2173,46 +2185,46 @@
         <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>1.26</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="D32" t="n">
-        <v>0.66</v>
+        <v>4.01</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-3.63</v>
+        <v>-5.78</v>
       </c>
       <c r="F32" t="n">
-        <v>4.049999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="G32" t="n">
-        <v>16.48</v>
+        <v>13.88</v>
       </c>
       <c r="H32" t="n">
-        <v>20.76</v>
+        <v>20.52</v>
       </c>
       <c r="I32" t="n">
-        <v>6.98</v>
+        <v>7.510000000000002</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>-0.5899999999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>5.059999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="N32" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>31.54</v>
+        <v>5.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>28.95</v>
       </c>
       <c r="P32" t="n">
-        <v>18.19</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2223,46 +2235,46 @@
         <v>73</v>
       </c>
       <c r="C33" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>-0.8600000000000001</v>
+        <v>-0.8099999999999996</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5900000000000001</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-3.46</v>
+        <v>-3.850000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>1.059999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="G33" t="n">
-        <v>10.73</v>
+        <v>9.56</v>
       </c>
       <c r="H33" t="n">
-        <v>16.37</v>
+        <v>13.92</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.1900000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>1.39</v>
+        <v>3.73</v>
       </c>
       <c r="L33" t="n">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
       <c r="M33" t="n">
-        <v>2.069999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>-2.159999999999998</v>
+        <v>1.18</v>
       </c>
       <c r="O33" t="n">
-        <v>27.15</v>
+        <v>22.35</v>
       </c>
       <c r="P33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2273,46 +2285,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="D34" t="n">
-        <v>0.91</v>
+        <v>3.1</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-4.03</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>-4.470000000000001</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>34.14</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13.62</v>
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.289999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.779999999999999</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>3.57</v>
       </c>
       <c r="I34" t="n">
-        <v>6.43</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3899999999999999</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.16</v>
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>6.24</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>-3.460000000000001</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>21.25</v>
+        <v>4.36</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.869999999999999</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>-2.600000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>24.4</v>
+        <v>12</v>
       </c>
       <c r="P34" t="n">
-        <v>17.64</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2323,46 +2335,46 @@
         <v>77</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.8200000000000001</v>
+        <v>-3.92</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-1.19</v>
       </c>
       <c r="E35" t="n">
-        <v>1.89</v>
+        <v>1.879999999999999</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>23.98999999999999</v>
+        <v>26.07</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>35.5</v>
+        <v>26.17</v>
       </c>
       <c r="H35" t="n">
-        <v>12.2</v>
+        <v>19.1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>2.02</v>
+        <v>1.539999999999999</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>-2.17</v>
+        <v>-2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>3.07</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>7.23</v>
+        <v>7.069999999999999</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>22.61</v>
+        <v>25.65</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17.79</v>
       </c>
       <c r="O35" t="n">
-        <v>22.98</v>
+        <v>27.53</v>
       </c>
       <c r="P35" t="n">
-        <v>13.23</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2373,46 +2385,46 @@
         <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3500000000000001</v>
+        <v>-0.1499999999999995</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.46</v>
+        <v>0.39</v>
       </c>
       <c r="E36" t="n">
-        <v>4.21</v>
+        <v>1.68</v>
       </c>
       <c r="F36" t="n">
-        <v>12.17</v>
+        <v>12.41</v>
       </c>
       <c r="G36" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7.329999999999998</v>
+        <v>9.119999999999999</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>5.550000000000004</v>
       </c>
       <c r="I36" t="n">
-        <v>7.57</v>
+        <v>7.010000000000002</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.5800000000000001</v>
+        <v>0.8500000000000005</v>
       </c>
       <c r="K36" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>13.18</v>
+        <v>3.53</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="M36" t="n">
+        <v>11.99</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>-5.809999999999999</v>
+        <v>0.7399999999999984</v>
       </c>
       <c r="O36" t="n">
-        <v>18.11</v>
+        <v>13.98</v>
       </c>
       <c r="P36" t="n">
-        <v>18.78</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2423,46 +2435,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>0.98</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D37" t="n">
-        <v>2.98</v>
+        <v>3.24</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>-3.19</v>
+        <v>-3.78</v>
       </c>
       <c r="F37" t="n">
-        <v>4.249999999999998</v>
+        <v>7.44</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>29.07</v>
+        <v>26.88</v>
       </c>
       <c r="H37" t="n">
-        <v>20.76</v>
+        <v>19.51</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J37" t="n">
-        <v>0.75</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>5.23</v>
+        <v>6.38</v>
       </c>
       <c r="L37" t="n">
-        <v>2.15</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
-        <v>5.259999999999998</v>
+        <v>7.02</v>
       </c>
       <c r="N37" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>31.54</v>
+        <v>18.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>27.94</v>
       </c>
       <c r="P37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2473,46 +2485,46 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6700000000000002</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.93</v>
+        <v>-0.2299999999999995</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>-0.73</v>
       </c>
       <c r="E38" t="n">
-        <v>1.39</v>
+        <v>0.9700000000000006</v>
       </c>
       <c r="F38" t="n">
-        <v>7.339999999999998</v>
+        <v>9.25</v>
       </c>
       <c r="G38" t="n">
-        <v>9.780000000000001</v>
+        <v>9.179999999999998</v>
       </c>
       <c r="H38" t="n">
-        <v>8.009999999999998</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>7.190000000000001</v>
+        <v>6.830000000000002</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.9000000000000001</v>
+        <v>0.7700000000000005</v>
       </c>
       <c r="K38" t="n">
-        <v>3.18</v>
+        <v>2.41</v>
       </c>
       <c r="L38" t="n">
-        <v>6.73</v>
+        <v>6.160000000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>8.349999999999998</v>
+        <v>8.83</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>-3.109999999999998</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="O38" t="n">
-        <v>18.79</v>
+        <v>16.97</v>
       </c>
       <c r="P38" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2523,46 +2535,46 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.48</v>
+        <v>2.950000000000001</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>7.39</v>
       </c>
       <c r="E39" t="n">
-        <v>6.759999999999999</v>
-      </c>
-      <c r="F39" t="n">
-        <v>12.77</v>
+        <v>2.720000000000001</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>18.61</v>
       </c>
       <c r="G39" t="n">
-        <v>15.65</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-15.79</v>
+        <v>-12.25</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2.68</v>
+        <v>3.950000000000001</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>12.1</v>
+        <v>10.53</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.910000000000001</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>13.78</v>
+        <v>18.19</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>2.760000000000002</v>
+        <v>0.6499999999999986</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-5.009999999999998</v>
+        <v>-3.82</v>
       </c>
       <c r="P39" t="n">
-        <v>13.28</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2572,47 +2584,47 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="n">
-        <v>-0.5700000000000001</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.46</v>
+      <c r="C40" s="2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-3.140000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>3.639999999999999</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>36.92</v>
-      </c>
-      <c r="H40" t="n">
-        <v>11.55</v>
+        <v>8.24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.029999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>8.74</v>
       </c>
       <c r="L40" t="n">
-        <v>6.800000000000001</v>
+        <v>2.05</v>
       </c>
       <c r="M40" t="n">
-        <v>4.649999999999999</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="O40" t="n">
-        <v>22.33</v>
+        <v>7.82</v>
+      </c>
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" t="s">
+        <v>17</v>
       </c>
       <c r="P40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2622,47 +2634,147 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.97</v>
+      <c r="C41" s="1" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>8.390000000000001</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>-3.370000000000001</v>
+        <v>-8.91</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.65</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>4.520000000000003</v>
+        <v>53.78</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>34.96</v>
       </c>
       <c r="I41" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9300000000000002</v>
+        <v>12.94</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>-1.91</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>-2.360000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>15.3</v>
+        <v>11.53</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>43.39</v>
       </c>
       <c r="P41" t="n">
-        <v>26.07</v>
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="O42" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="P42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-1.149999999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.640000000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="P43" t="n">
+        <v>27.79</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>汇添富逆向投资混合</t>
-  </si>
-  <si>
-    <t>001508</t>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合A</t>
   </si>
   <si>
     <t>001694</t>
@@ -644,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,43 +729,43 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5800000000000001</v>
+        <v>-0.7300000000000004</v>
       </c>
       <c r="D3" t="n">
         <v>1.91</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-6.12</v>
+        <v>-6.11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.79</v>
+        <v>5.47</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>27.56</v>
+        <v>23.41</v>
       </c>
       <c r="H3" t="n">
-        <v>15.17</v>
+        <v>15.86</v>
       </c>
       <c r="I3" t="n">
-        <v>7.240000000000002</v>
+        <v>7.23</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>5.05</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>-0.9299999999999997</v>
       </c>
       <c r="M3" t="n">
-        <v>1.37</v>
+        <v>3.64</v>
       </c>
       <c r="N3" t="n">
-        <v>19.18</v>
+        <v>17.9</v>
       </c>
       <c r="O3" t="n">
-        <v>23.6</v>
+        <v>22.44</v>
       </c>
       <c r="P3" t="n">
         <v>19.31</v>
@@ -784,44 +778,44 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.6900000000000004</v>
+      <c r="C4" s="1" t="n">
+        <v>-3.58</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8.4</v>
+        <v>10.24</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>-3.78</v>
       </c>
-      <c r="F4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>26.02</v>
+      <c r="F4" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.94</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>-4.939999999999998</v>
+        <v>-2.07</v>
       </c>
       <c r="I4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.69</v>
+        <v>15.56</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>-1.75</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>11.54</v>
+        <v>13.69</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12.13</v>
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>13.96</v>
       </c>
       <c r="N4" t="n">
-        <v>17.64</v>
+        <v>14.43</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>3.490000000000002</v>
+        <v>4.509999999999998</v>
       </c>
       <c r="P4" t="n">
         <v>27.64</v>
@@ -834,44 +828,44 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>3.01</v>
+      <c r="C5" t="n">
+        <v>1.21</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5.86</v>
+        <v>7.050000000000001</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-8.33</v>
+        <v>-8.32</v>
       </c>
       <c r="F5" t="n">
-        <v>6.73</v>
+        <v>10.61</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>36.65</v>
+        <v>31.35</v>
       </c>
       <c r="H5" t="n">
-        <v>6.090000000000003</v>
+        <v>7.689999999999998</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>4.01</v>
+        <v>3.04</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>-3.14</v>
       </c>
       <c r="M5" t="n">
-        <v>6.31</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>28.27</v>
+        <v>25.84</v>
       </c>
       <c r="O5" t="n">
-        <v>14.52</v>
+        <v>14.27</v>
       </c>
       <c r="P5" t="s">
         <v>17</v>
@@ -885,43 +879,43 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4400000000000004</v>
+        <v>-0.3500000000000005</v>
       </c>
       <c r="D6" t="n">
-        <v>2.26</v>
+        <v>2.91</v>
       </c>
       <c r="E6" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="F6" t="n">
-        <v>7.779999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="G6" t="n">
-        <v>17.02</v>
+        <v>15.53</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>32.26</v>
+        <v>32.04000000000001</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>-4.279999999999998</v>
+        <v>-4.289999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>5.4</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="L6" t="n">
         <v>8.780000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>7.359999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="N6" t="n">
-        <v>8.640000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>40.69</v>
+        <v>38.62</v>
       </c>
       <c r="P6" t="n">
         <v>7.790000000000003</v>
@@ -935,43 +929,43 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>-3.79</v>
+        <v>-3.29</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="E7" t="n">
-        <v>8.629999999999999</v>
+        <v>8.639999999999999</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>16.01</v>
+        <v>16.79</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.1699999999999999</v>
+        <v>-0.6199999999999992</v>
       </c>
       <c r="H7" t="n">
-        <v>7.380000000000003</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>4.109999999999999</v>
+        <v>4.099999999999998</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>-2.79</v>
+        <v>-1.46</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>8.529999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>13.82</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>15.59</v>
+        <v>14.96</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>-8.210000000000001</v>
+        <v>-6.129999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>15.81</v>
+        <v>12.87</v>
       </c>
       <c r="P7" t="n">
         <v>16.18</v>
@@ -985,46 +979,46 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2600000000000007</v>
+        <v>-0.25</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="n">
-        <v>0.129999999999999</v>
+        <v>0.1500000000000004</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>14.72</v>
+        <v>16.15</v>
       </c>
       <c r="G8" t="n">
-        <v>6.9</v>
+        <v>4.090000000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>14.44</v>
+        <v>15.54</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>-2.77</v>
+        <v>-2.789999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>1.260000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>5.140000000000001</v>
+        <v>5.32</v>
       </c>
       <c r="L8" t="n">
-        <v>5.319999999999999</v>
+        <v>5.330000000000001</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>14.3</v>
+        <v>14.32</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>-1.48</v>
+        <v>-1.419999999999998</v>
       </c>
       <c r="O8" t="n">
-        <v>22.87</v>
+        <v>22.12</v>
       </c>
       <c r="P8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.290000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1035,46 +1029,46 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01000000000000068</v>
+        <v>1.45</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5.83</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>-8.02</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>35.7</v>
+        <v>-3.69</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.42</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>36.77</v>
-      </c>
-      <c r="I9" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.010000000000001</v>
+        <v>49.09</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>3.28</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5.390000000000001</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>27.32</v>
+        <v>8.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.91</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>41.97</v>
+        <v>55.67</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13.9</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1084,47 +1078,47 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>4.73</v>
+      <c r="C10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.44</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>47.50000000000001</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1.830000000000002</v>
+        <v>-5.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.709999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>4.649999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.239999999999998</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>3.24</v>
+        <v>2.88</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>7.869999999999999</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>17.77</v>
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.88</v>
       </c>
       <c r="N10" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>55.93000000000001</v>
+        <v>9.390000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>11.23</v>
       </c>
       <c r="P10" t="n">
-        <v>13.9</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1134,47 +1128,47 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.71</v>
+      <c r="C11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>5.48</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-5.02</v>
+        <v>-4.46</v>
       </c>
       <c r="F11" t="n">
-        <v>6.379999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>3.660000000000004</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.25</v>
+        <v>10.43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>5.85</v>
+        <v>8.93</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.7200000000000006</v>
       </c>
       <c r="M11" t="n">
-        <v>5.959999999999999</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="P11" t="n">
-        <v>21.32</v>
+        <v>8.600000000000001</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1185,46 +1179,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1.470000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="D12" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>-4.47</v>
+        <v>2.45</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7199999999999989</v>
       </c>
       <c r="F12" t="n">
-        <v>6.949999999999999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2.470000000000001</v>
+        <v>6.79</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>5.159999999999997</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>5.460000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.02</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>7.08</v>
+        <v>5.9</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7200000000000006</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>6.529999999999999</v>
-      </c>
-      <c r="N12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" t="s">
-        <v>17</v>
+        <v>4.96</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.359999999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11.73999999999999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17.54</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1234,47 +1228,47 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.5299999999999994</v>
+      <c r="C13" s="1" t="n">
+        <v>-1.3</v>
       </c>
       <c r="D13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.6999999999999993</v>
+        <v>2.46</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-1.790000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>4.869999999999997</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>5.470000000000002</v>
+        <v>7.65</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4700000000000006</v>
+        <v>0.5300000000000002</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>5.48</v>
+        <v>5.91</v>
       </c>
       <c r="L13" t="n">
-        <v>5.89</v>
+        <v>3.39</v>
       </c>
       <c r="M13" t="n">
-        <v>5.91</v>
+        <v>5.82</v>
       </c>
       <c r="N13" t="n">
-        <v>3.939999999999998</v>
-      </c>
-      <c r="O13" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>17.54</v>
+        <v>16.55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1285,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.37</v>
+        <v>-0.9699999999999998</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-5.35</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-1.81</v>
+        <v>-6.260000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>25.23</v>
+        <v>6.73</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10.72</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1306,19 +1300,19 @@
         <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7600000000000007</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.38</v>
+        <v>0.8600000000000003</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>-1.08</v>
       </c>
       <c r="M14" t="n">
-        <v>4.99</v>
+        <v>4.9</v>
       </c>
       <c r="N14" t="n">
-        <v>16.85</v>
+        <v>5.210000000000001</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
@@ -1334,20 +1328,20 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>-7.79</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>-6.27</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.04</v>
+      <c r="C15" s="2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.469999999999999</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>14.52</v>
       </c>
       <c r="G15" t="n">
-        <v>17.33</v>
+        <v>7.35</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -1355,20 +1349,20 @@
       <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>-4.65</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>0.6200000000000001</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8.949999999999999</v>
+      <c r="J15" s="2" t="n">
+        <v>4.890000000000001</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.649999999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>1.84</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
@@ -1384,47 +1378,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>3.880000000000001</v>
+      <c r="C16" s="1" t="n">
+        <v>-3.35</v>
       </c>
       <c r="D16" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.470000000000001</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.429999999999998</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>4.880000000000001</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7.660000000000001</v>
+        <v>0.92</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-6.800000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>3.670000000000002</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>-1.62</v>
       </c>
       <c r="M16" t="n">
-        <v>12.81</v>
+        <v>7.61</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>1.049999999999997</v>
-      </c>
-      <c r="O16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" t="s">
-        <v>17</v>
+        <v>-8.19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>30.15</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1434,47 +1428,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>-3.73</v>
+      <c r="C17" t="n">
+        <v>0.1699999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>-6.81</v>
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.99</v>
       </c>
       <c r="F17" t="n">
-        <v>5.969999999999999</v>
-      </c>
-      <c r="G17" s="1" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>2.719999999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>-1.62</v>
+      <c r="K17" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.170000000000002</v>
       </c>
       <c r="M17" t="n">
-        <v>5.549999999999999</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>-6.380000000000001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>11.15</v>
+        <v>7.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>33.52</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>30.15</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1485,46 +1479,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>0.54</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E18" t="n">
-        <v>2.970000000000001</v>
+        <v>2.389999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>6.459999999999999</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>20.54</v>
+        <v>11.53</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.07</v>
       </c>
       <c r="H18" t="n">
-        <v>26.61000000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19.77</v>
+        <v>29.23999999999999</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>-1.740000000000002</v>
       </c>
       <c r="J18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.38</v>
+        <v>1.78</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>4.859999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>8.16</v>
+        <v>7.569999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>6.039999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>12.16</v>
+        <v>10.56</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>35.04000000000001</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>31.84</v>
+        <v>35.81999999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10.34</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1534,47 +1528,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.4100000000000001</v>
+      <c r="C19" s="1" t="n">
+        <v>-2.19</v>
       </c>
       <c r="D19" t="n">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="E19" t="n">
-        <v>2.379999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="F19" t="n">
-        <v>8.4</v>
+        <v>9.489999999999998</v>
       </c>
       <c r="G19" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="H19" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>-1.73</v>
+        <v>11.91</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.41</v>
+        <v>-0.3599999999999999</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>4.87</v>
+        <v>6.05</v>
       </c>
       <c r="L19" t="n">
-        <v>7.569999999999999</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>7.98</v>
+        <v>7.659999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>11.46</v>
+        <v>6.400000000000002</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>37</v>
+        <v>57.83</v>
       </c>
       <c r="P19" t="n">
-        <v>10.34</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1584,47 +1578,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.15</v>
+      <c r="C20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-3.08</v>
       </c>
       <c r="F20" t="n">
-        <v>8.25</v>
+        <v>12.56</v>
       </c>
       <c r="G20" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>51.50000000000001</v>
+        <v>19.35</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.54</v>
       </c>
       <c r="I20" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>-1.48</v>
+        <v>12.88</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>2.37</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>5.94</v>
+        <v>8.49</v>
       </c>
       <c r="L20" t="n">
-        <v>7.340000000000001</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>7.83</v>
+        <v>10.73</v>
       </c>
       <c r="N20" t="n">
-        <v>4.68</v>
+        <v>13.84</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>59.93000000000001</v>
+        <v>30.12</v>
       </c>
       <c r="P20" t="n">
-        <v>23.18</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1634,47 +1628,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="H21" t="n">
-        <v>21.81</v>
+      <c r="C21" s="1" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-4.87</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.6899999999999977</v>
       </c>
       <c r="I21" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>7.82</v>
+        <v>10.7</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>-1.42</v>
       </c>
       <c r="L21" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="M21" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="N21" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>30.24</v>
+        <v>7.11</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>-5.87</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7.269999999999996</v>
       </c>
       <c r="P21" t="n">
-        <v>24.96</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1684,47 +1678,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>-4.949999999999999</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>-4.11</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.93</v>
+      <c r="C22" t="n">
+        <v>-0.3200000000000003</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-4.56</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-2.77</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>-7.9</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0.759999999999998</v>
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>65.27</v>
       </c>
       <c r="I22" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>-0.9700000000000002</v>
+        <v>6.16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>4.75</v>
       </c>
       <c r="L22" t="n">
-        <v>7.12</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-3.19</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>-16.28</v>
-      </c>
-      <c r="O22" t="n">
-        <v>9.189999999999998</v>
+        <v>-0.9099999999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>71.84999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>22.78</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1734,47 +1728,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>-4.56</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>-0.5200000000000005</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>25.66</v>
+      <c r="C23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.33</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>61.72000000000001</v>
+        <v>31.13</v>
       </c>
       <c r="I23" t="n">
-        <v>6.170000000000002</v>
+        <v>10.28</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.6299999999999999</v>
+        <v>3.71</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>10.27</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>-0.9400000000000004</v>
-      </c>
-      <c r="N23" t="n">
-        <v>17.28</v>
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>-1.18</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>70.15000000000001</v>
+        <v>37.70999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>18.24</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1784,47 +1778,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>-1.65</v>
+      <c r="C24" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.979999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>8.499999999999998</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30.48</v>
+        <v>14.49</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23.14</v>
       </c>
       <c r="I24" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>5.48</v>
+        <v>10.55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.75</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>0.1199999999999974</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>38.91</v>
+        <v>6.29</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9400000000000004</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.149999999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="O24" t="n">
+        <v>29.72</v>
       </c>
       <c r="P24" t="n">
-        <v>22.36</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1835,46 +1829,46 @@
         <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.9</v>
+        <v>0.2299999999999995</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>12.45</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-4.25</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6.129999999999999</v>
+        <v>-5.57</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>16.41</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.800000000000001</v>
+        <v>22.66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>2.06</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.9400000000000004</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5.709999999999999</v>
+        <v>15.9</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>-0.3899999999999997</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>14.58</v>
       </c>
       <c r="N25" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="O25" t="n">
-        <v>29.24</v>
-      </c>
-      <c r="P25" t="n">
-        <v>22.63</v>
+        <v>17.15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1884,44 +1878,44 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.800000000000001</v>
+      <c r="C26" s="2" t="n">
+        <v>2.03</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>-5.59</v>
+        <v>6.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.429999999999998</v>
       </c>
       <c r="F26" t="n">
-        <v>12.6</v>
+        <v>5.71</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
+        <v>33.56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15.81</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>2.800000000000001</v>
+        <v>3.86</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>-0.3999999999999995</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>12.61</v>
       </c>
       <c r="M26" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="N26" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="O26" t="s">
-        <v>17</v>
+        <v>3.88</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="O26" t="n">
+        <v>22.39</v>
       </c>
       <c r="P26" t="s">
         <v>17</v>
@@ -1935,46 +1929,46 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.040000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5.07</v>
+        <v>8.77</v>
       </c>
       <c r="E27" t="n">
-        <v>7.419999999999998</v>
-      </c>
-      <c r="F27" t="n">
         <v>1.52</v>
       </c>
+      <c r="F27" s="2" t="n">
+        <v>18.99</v>
+      </c>
       <c r="G27" s="2" t="n">
-        <v>35.45</v>
+        <v>20.15</v>
       </c>
       <c r="H27" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
+        <v>27.84</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.91</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>4.040000000000001</v>
+        <v>4.49</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>27.07</v>
-      </c>
-      <c r="O27" t="n">
-        <v>26.56</v>
-      </c>
-      <c r="P27" t="s">
-        <v>17</v>
+        <v>12.22</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="P27" t="n">
+        <v>18.99</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1984,47 +1978,47 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>3.720000000000001</v>
+      <c r="C28" s="1" t="n">
+        <v>-2.61</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.5</v>
+        <v>5.53</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-5.630000000000001</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>22.73</v>
+        <v>19.01</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.6</v>
       </c>
       <c r="H28" t="n">
-        <v>27.18</v>
+        <v>17.77</v>
       </c>
       <c r="I28" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>4.720000000000001</v>
+        <v>12.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.7800000000000002</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.69</v>
+        <v>8.98</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>-0.4500000000000002</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>16.62</v>
+        <v>17.18</v>
       </c>
       <c r="N28" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>35.61</v>
+        <v>8.09</v>
+      </c>
+      <c r="O28" t="n">
+        <v>24.35</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2035,46 +2029,46 @@
         <v>65</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>-5.65</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>16.27</v>
+        <v>0.5300000000000002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6099999999999994</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.75</v>
       </c>
       <c r="G29" t="n">
-        <v>17.91</v>
+        <v>15.05</v>
       </c>
       <c r="H29" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.12</v>
+        <v>22.25</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>4.849999999999998</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>2.36</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>15.85</v>
+        <v>7.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.92</v>
       </c>
       <c r="N29" t="n">
-        <v>9.529999999999998</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>24.66</v>
+        <v>28.83</v>
       </c>
       <c r="P29" t="n">
-        <v>24.33</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2085,46 +2079,46 @@
         <v>67</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6100000000000003</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5999999999999996</v>
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-2.030000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>5.390000000000001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="H30" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>4.859999999999999</v>
+        <v>12.15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
       </c>
       <c r="J30" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>6.550000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="L30" t="n">
-        <v>5.79</v>
+        <v>3.149999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>4.970000000000001</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="P30" t="n">
-        <v>16.93</v>
+        <v>10.32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2135,46 +2129,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>1.050000000000001</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>5.61</v>
+        <v>1.109999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.98</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-2.029999999999999</v>
+        <v>-5.77</v>
       </c>
       <c r="F31" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" t="s">
-        <v>17</v>
+        <v>10.11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.489999999999998</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>2.050000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.160000000000001</v>
+        <v>7.43</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>-0.5899999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" t="s">
-        <v>17</v>
+        <v>8.280000000000001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="P31" t="n">
+        <v>19.57</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2184,47 +2178,47 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.6500000000000004</v>
+      <c r="C32" s="1" t="n">
+        <v>-2.01</v>
       </c>
       <c r="D32" t="n">
-        <v>4.01</v>
+        <v>0.43</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-5.78</v>
+        <v>-3.840000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>8.07</v>
+        <v>2.71</v>
       </c>
       <c r="G32" t="n">
-        <v>13.88</v>
+        <v>7.31</v>
       </c>
       <c r="H32" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.510000000000002</v>
+        <v>16.06</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>-0.5899999999999999</v>
-      </c>
-      <c r="M32" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.5</v>
+        <v>-0.1800000000000002</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1.800000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="P32" t="n">
-        <v>19.58</v>
+        <v>22.64</v>
+      </c>
+      <c r="P32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2235,46 +2229,46 @@
         <v>73</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.8099999999999996</v>
+        <v>-0.6100000000000003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5900000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-3.850000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="F33" t="n">
-        <v>1.92</v>
+        <v>6.350000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="H33" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
+        <v>4.610000000000001</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>3.549999999999997</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.949999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1900000000000004</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.73</v>
+        <v>1.22</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>6.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.34</v>
+        <v>4.37</v>
       </c>
       <c r="M33" t="n">
-        <v>1.5</v>
+        <v>4.52</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>1.18</v>
+        <v>-0.8999999999999986</v>
       </c>
       <c r="O33" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="P33" t="s">
-        <v>17</v>
+        <v>10.13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20.03</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2284,47 +2278,47 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>-0.8300000000000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5.289999999999999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.779999999999999</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.960000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>6.24</v>
+      <c r="C34" s="1" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>1.529999999999998</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.47</v>
       </c>
       <c r="L34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4.869999999999999</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>-2.600000000000001</v>
+        <v>7.06</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15.81</v>
       </c>
       <c r="O34" t="n">
-        <v>12</v>
+        <v>28.8</v>
       </c>
       <c r="P34" t="n">
-        <v>20.03</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2335,46 +2329,46 @@
         <v>77</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>-1.19</v>
+        <v>-1.63</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.61</v>
       </c>
       <c r="E35" t="n">
-        <v>1.879999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>26.17</v>
-      </c>
-      <c r="H35" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>1.539999999999999</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>-2.92</v>
+        <v>15.04</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>5.729999999999997</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2000000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>1.95</v>
+        <v>4.06</v>
       </c>
       <c r="L35" t="n">
-        <v>7.069999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="N35" t="n">
-        <v>17.79</v>
+        <v>13.21</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0.4299999999999997</v>
       </c>
       <c r="O35" t="n">
-        <v>27.53</v>
+        <v>12.31</v>
       </c>
       <c r="P35" t="n">
-        <v>13.61</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2385,46 +2379,46 @@
         <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1499999999999995</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.68</v>
+        <v>3.33</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>-3.78</v>
       </c>
       <c r="F36" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>5.550000000000004</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.010000000000002</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.8500000000000005</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.53</v>
+        <v>11.19</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>23.01000000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>6.779999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>6.87</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0.7399999999999984</v>
+        <v>9.359999999999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17.5</v>
       </c>
       <c r="O36" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="P36" t="n">
-        <v>19.08</v>
+        <v>26.18</v>
+      </c>
+      <c r="P36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2435,46 +2429,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>-3.78</v>
+        <v>-0.4699999999999998</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9699999999999989</v>
       </c>
       <c r="F37" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>26.88</v>
+        <v>10.98</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.229999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
+        <v>8.530000000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.82</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>6.38</v>
+        <v>1.36</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.32</v>
       </c>
       <c r="L37" t="n">
-        <v>1.41</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="N37" t="n">
-        <v>18.5</v>
+        <v>9.149999999999999</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>1.719999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>27.94</v>
-      </c>
-      <c r="P37" t="s">
-        <v>17</v>
+        <v>15.11</v>
+      </c>
+      <c r="P37" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2485,46 +2479,46 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>-0.73</v>
+        <v>1.13</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>7.99</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9700000000000006</v>
-      </c>
-      <c r="F38" t="n">
-        <v>9.25</v>
+        <v>2.73</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>19.98</v>
       </c>
       <c r="G38" t="n">
-        <v>9.179999999999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.830000000000002</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7700000000000005</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.41</v>
+        <v>5.06</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1.719999999999999</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>11.44</v>
       </c>
       <c r="L38" t="n">
-        <v>6.160000000000001</v>
-      </c>
-      <c r="M38" t="n">
-        <v>8.83</v>
+        <v>7.910000000000001</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>18.15</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="O38" t="n">
-        <v>16.97</v>
+        <v>-0.4499999999999993</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>-3.440000000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>18.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2534,47 +2528,47 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>2.950000000000001</v>
+      <c r="C39" t="n">
+        <v>0.4699999999999998</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2.720000000000001</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="G39" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>-12.25</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>1.73</v>
+        <v>7.010000000000001</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.719999999999999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>3.950000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>10.53</v>
+        <v>10.46</v>
       </c>
       <c r="L39" t="n">
-        <v>7.910000000000001</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>0.6499999999999986</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>-3.82</v>
-      </c>
-      <c r="P39" t="n">
-        <v>13.8</v>
+        <v>2.06</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2584,47 +2578,47 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>2.27</v>
+      <c r="C40" s="1" t="n">
+        <v>-2.75</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5.6</v>
+        <v>8.82</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-3.140000000000001</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>3.27</v>
+        <v>9.979999999999999</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>34.48999999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.9199999999999999</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.05</v>
+        <v>12.27</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>-3.71</v>
       </c>
       <c r="M40" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" t="s">
-        <v>17</v>
+        <v>8.149999999999999</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>41.06999999999999</v>
+      </c>
+      <c r="P40" t="n">
+        <v>25.01</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2634,47 +2628,47 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>-8.91</v>
+      <c r="C41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.26</v>
       </c>
       <c r="F41" t="n">
-        <v>3.65</v>
+        <v>10.21</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>53.78</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>34.96</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>-3.72</v>
+        <v>34.14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.670000000000002</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.44</v>
       </c>
       <c r="M41" t="n">
-        <v>3.23</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="P41" t="n">
-        <v>25.01</v>
+        <v>28.63</v>
+      </c>
+      <c r="O41" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="P41" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2684,97 +2678,47 @@
       <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.4199999999999999</v>
+      <c r="C42" s="1" t="n">
+        <v>-2.2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-3.02</v>
       </c>
       <c r="F42" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
+        <v>8.739999999999998</v>
+      </c>
+      <c r="G42" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-0.6099999999999994</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.02</v>
       </c>
       <c r="J42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.1</v>
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>5.33</v>
       </c>
       <c r="L42" t="n">
-        <v>6.45</v>
+        <v>2.16</v>
       </c>
       <c r="M42" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="O42" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="P42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>-2.74</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>-1.149999999999999</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2.640000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="O43" t="n">
-        <v>7.280000000000001</v>
-      </c>
-      <c r="P43" t="n">
-        <v>27.79</v>
+        <v>6.909999999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>5.969999999999999</v>
+      </c>
+      <c r="P42" t="n">
+        <v>27.1</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -50,16 +50,22 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>002148</t>
+  </si>
+  <si>
+    <t>国寿安保稳惠混合</t>
+  </si>
+  <si>
     <t>160133</t>
   </si>
   <si>
     <t>南方天元新产业股票(LOF)</t>
   </si>
   <si>
-    <t>002148</t>
-  </si>
-  <si>
-    <t>国寿安保稳惠混合</t>
+    <t>004263</t>
+  </si>
+  <si>
+    <t>华安沪港深机会灵活配置混合</t>
   </si>
   <si>
     <t>005738</t>
@@ -161,6 +167,12 @@
     <t>工银文体产业股票A</t>
   </si>
   <si>
+    <t>002846</t>
+  </si>
+  <si>
+    <t>泓德泓华混合</t>
+  </si>
+  <si>
     <t>000251</t>
   </si>
   <si>
@@ -197,12 +209,6 @@
     <t>易方达蓝筹精选混合</t>
   </si>
   <si>
-    <t>002846</t>
-  </si>
-  <si>
-    <t>泓德泓华混合</t>
-  </si>
-  <si>
     <t>001500</t>
   </si>
   <si>
@@ -215,18 +221,18 @@
     <t>国富沪港深成长精选股票</t>
   </si>
   <si>
+    <t>519736</t>
+  </si>
+  <si>
+    <t>交银新成长混合</t>
+  </si>
+  <si>
     <t>009076</t>
   </si>
   <si>
     <t>工银圆兴混合</t>
   </si>
   <si>
-    <t>519736</t>
-  </si>
-  <si>
-    <t>交银新成长混合</t>
-  </si>
-  <si>
     <t>005001</t>
   </si>
   <si>
@@ -237,12 +243,6 @@
   </si>
   <si>
     <t>汇添富价值精选混合A</t>
-  </si>
-  <si>
-    <t>000991</t>
-  </si>
-  <si>
-    <t>工银战略转型股票</t>
   </si>
   <si>
     <t>000628</t>
@@ -728,47 +728,47 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.7300000000000004</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.91</v>
+      <c r="C3" s="1" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>8.81</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-6.11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.47</v>
+        <v>-2.339999999999999</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>13.96</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15.86</v>
+        <v>21.73</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-2.980000000000004</v>
       </c>
       <c r="I3" t="n">
-        <v>7.23</v>
+        <v>16.42</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>-0.1500000000000004</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>5.359999999999999</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>-0.9299999999999997</v>
+        <v>12.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.53</v>
       </c>
       <c r="M3" t="n">
-        <v>3.64</v>
+        <v>12.94</v>
       </c>
       <c r="N3" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>22.44</v>
+        <v>15.83</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>4.529999999999998</v>
       </c>
       <c r="P3" t="n">
-        <v>19.31</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -779,46 +779,46 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-3.58</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>10.24</v>
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.22</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-3.78</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>-2.07</v>
+        <v>-5.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.44</v>
       </c>
       <c r="I4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>-1.75</v>
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.66</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>13.96</v>
+        <v>5.359999999999999</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>-0.5600000000000005</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.4</v>
       </c>
       <c r="N4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>4.509999999999998</v>
+        <v>19.38</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22.95</v>
       </c>
       <c r="P4" t="n">
-        <v>27.64</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -828,97 +828,97 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.21</v>
+      <c r="C5" s="2" t="n">
+        <v>3.380000000000001</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>7.050000000000001</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>-8.32</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.870000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>31.35</v>
+        <v>5.899999999999999</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.8000000000000007</v>
       </c>
       <c r="H5" t="n">
-        <v>7.689999999999998</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
+        <v>14.70999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.04</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>3.04</v>
+        <v>6.44</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>-3.14</v>
+        <v>12.44</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.74</v>
       </c>
       <c r="M5" t="n">
-        <v>8.780000000000001</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>25.84</v>
+        <v>4.88</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>-5.100000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
+        <v>22.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25.46</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="n">
-        <v>-0.3500000000000005</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.6</v>
+        <v>1.19</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-7.079999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="G6" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>32.04000000000001</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>-4.289999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.48</v>
+        <v>8.91</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>4.25</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>6.359999999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8.780000000000001</v>
+        <v>10.37</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>-2.21</v>
       </c>
       <c r="M6" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>38.62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7.790000000000003</v>
+        <v>7.890000000000001</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -928,47 +928,47 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5.41</v>
+      <c r="C7" t="n">
+        <v>-0.9100000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.79</v>
       </c>
       <c r="E7" t="n">
-        <v>8.639999999999999</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>-0.6199999999999992</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.289999999999999</v>
+        <v>4.67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>32.36999999999999</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>4.099999999999998</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>-1.46</v>
+        <v>-4.309999999999999</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>2.149999999999999</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>8.859999999999999</v>
+        <v>5.93</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>-6.129999999999999</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12.87</v>
+        <v>9.539999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>39.88</v>
       </c>
       <c r="P7" t="n">
-        <v>16.18</v>
+        <v>7.110000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -978,47 +978,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.87</v>
+      <c r="C8" s="1" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5.619999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1500000000000004</v>
+        <v>8.170000000000002</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.090000000000002</v>
+        <v>16.18</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-0.8399999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>15.54</v>
+        <v>6.479999999999997</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>-2.789999999999999</v>
+        <v>4.530000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.330000000000001</v>
+        <v>9.76</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>13.04</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>14.32</v>
+        <v>15.16</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>-1.419999999999998</v>
+        <v>-6.740000000000002</v>
       </c>
       <c r="O8" t="n">
-        <v>22.12</v>
+        <v>13.99</v>
       </c>
       <c r="P8" t="n">
-        <v>9.290000000000003</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1029,46 +1029,46 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>-3.69</v>
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.040000000000001</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>20.94</v>
+        <v>15.67</v>
       </c>
       <c r="G9" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>49.09</v>
+        <v>4.510000000000002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.43</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>1.82</v>
+        <v>-2.289999999999999</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>3.28</v>
+        <v>2.14</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>8.75</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>5.91</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>55.67</v>
+        <v>14.65</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>-1.390000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>21.94</v>
       </c>
       <c r="P9" t="n">
-        <v>13.9</v>
+        <v>9.130000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1079,46 +1079,46 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.44</v>
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>4.82</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-5.02</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.709999999999999</v>
+        <v>-2.6</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>19.72</v>
       </c>
       <c r="G10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>4.649999999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.239999999999998</v>
+        <v>19.56</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>46.31999999999999</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>3.050000000000001</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>2.88</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>6.890000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.88</v>
+        <v>2.27</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>18.7</v>
       </c>
       <c r="N10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="O10" t="n">
-        <v>11.23</v>
+        <v>13.66</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>53.83</v>
       </c>
       <c r="P10" t="n">
-        <v>21.32</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1129,46 +1129,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>5.48</v>
+        <v>1.890000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.65</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-4.46</v>
+        <v>-3.879999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
+        <v>6.569999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>3.689999999999998</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.640000000000001</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>3.3</v>
+        <v>4.95</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>8.93</v>
+        <v>6.79</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7200000000000006</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="M11" t="n">
-        <v>8.600000000000001</v>
-      </c>
-      <c r="N11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" t="s">
-        <v>17</v>
+        <v>5.55</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="O11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>21.06</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1179,46 +1179,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7199999999999989</v>
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-4.259999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>5.159999999999997</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>5.460000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.02</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>2.89</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>5.9</v>
+        <v>9.74</v>
       </c>
       <c r="L12" t="n">
-        <v>5.899999999999999</v>
+        <v>0.6100000000000003</v>
       </c>
       <c r="M12" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.359999999999999</v>
-      </c>
-      <c r="O12" t="n">
-        <v>11.73999999999999</v>
-      </c>
-      <c r="P12" t="n">
-        <v>17.54</v>
+        <v>8.869999999999999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1228,47 +1228,47 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>-1.3</v>
+      <c r="C13" t="n">
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>-1.790000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.08</v>
       </c>
       <c r="F13" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5300000000000002</v>
+        <v>6.67</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5.589999999999996</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>5.539999999999999</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>2.76</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>5.91</v>
+        <v>6.14</v>
       </c>
       <c r="L13" t="n">
-        <v>3.39</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>5.82</v>
+        <v>5.65</v>
       </c>
       <c r="N13" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" t="s">
-        <v>17</v>
+        <v>5.59</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>16.96</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1278,47 +1278,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.9699999999999998</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>-5.35</v>
+      <c r="C14" s="1" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.39</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-6.260000000000001</v>
+        <v>-0.8099999999999987</v>
       </c>
       <c r="F14" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10.72</v>
+        <v>6.39</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>22.76</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8600000000000003</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>-1.08</v>
+        <v>0.9499999999999997</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.06</v>
       </c>
       <c r="M14" t="n">
-        <v>4.9</v>
+        <v>5.37</v>
       </c>
       <c r="N14" t="n">
-        <v>5.210000000000001</v>
+        <v>16.86</v>
       </c>
       <c r="O14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1328,47 +1328,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.469999999999999</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>14.52</v>
+      <c r="C15" s="1" t="n">
+        <v>-5.75</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-5.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.15</v>
       </c>
       <c r="G15" t="n">
-        <v>7.35</v>
+        <v>13.51</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>4.890000000000001</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.649999999999999</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>-0.4400000000000004</v>
       </c>
       <c r="M15" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>1.84</v>
+        <v>4.13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.609999999999999</v>
       </c>
       <c r="O15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1378,47 +1378,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>-3.35</v>
+      <c r="C16" s="2" t="n">
+        <v>3.16</v>
       </c>
       <c r="D16" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>-6.800000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>3.670000000000002</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>-1.62</v>
+        <v>3.84</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.94</v>
       </c>
       <c r="M16" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>-8.19</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>30.15</v>
+        <v>12.52</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.149999999999999</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1428,47 +1428,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.99</v>
+      <c r="C17" s="1" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-5.809999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>26.94</v>
+        <v>10.05</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>2.709999999999994</v>
       </c>
       <c r="I17" t="n">
-        <v>19.76</v>
+        <v>18.59</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="K17" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.170000000000002</v>
+        <v>3.09</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>-0.9399999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>33.52</v>
+        <v>9.029999999999999</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>-8.990000000000002</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10.22</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>31.84</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1479,46 +1479,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.41</v>
+        <v>-0.2699999999999996</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-0.73</v>
       </c>
       <c r="E18" t="n">
-        <v>2.389999999999999</v>
+        <v>3.59</v>
       </c>
       <c r="F18" t="n">
-        <v>11.53</v>
+        <v>7.819999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>16.07</v>
+        <v>18.71</v>
       </c>
       <c r="H18" t="n">
-        <v>29.23999999999999</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>-1.740000000000002</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>4.859999999999999</v>
+        <v>26.02</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.41</v>
       </c>
       <c r="L18" t="n">
-        <v>7.569999999999999</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="N18" t="n">
-        <v>10.56</v>
+        <v>12.81</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>35.81999999999999</v>
-      </c>
-      <c r="P18" t="n">
-        <v>10.34</v>
+        <v>33.53</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>32.2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1528,47 +1528,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>-2.19</v>
+      <c r="C19" t="n">
+        <v>0.1900000000000004</v>
       </c>
       <c r="D19" t="n">
-        <v>2.6</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="E19" t="n">
-        <v>2.16</v>
+        <v>2.99</v>
       </c>
       <c r="F19" t="n">
-        <v>9.489999999999998</v>
+        <v>10.95</v>
       </c>
       <c r="G19" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-0.3599999999999999</v>
+        <v>16.01</v>
+      </c>
+      <c r="H19" t="n">
+        <v>28.73999999999999</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>-1.149999999999999</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>3.25</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>6.05</v>
+        <v>4.909999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>7.340000000000001</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>7.659999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="N19" t="n">
-        <v>6.400000000000002</v>
+        <v>10.11</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>57.83</v>
+        <v>36.25</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1578,47 +1578,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>-3.08</v>
+      <c r="C20" s="1" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.25</v>
       </c>
       <c r="F20" t="n">
-        <v>12.56</v>
+        <v>8.65</v>
       </c>
       <c r="G20" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="H20" t="n">
-        <v>23.54</v>
+        <v>12.64</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>52.59999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2.37</v>
+        <v>10.71</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.04000000000000004</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>8.49</v>
+        <v>5.88</v>
       </c>
       <c r="L20" t="n">
-        <v>2.100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>10.73</v>
+        <v>7.63</v>
       </c>
       <c r="N20" t="n">
-        <v>13.84</v>
+        <v>6.739999999999998</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>30.12</v>
+        <v>60.11</v>
       </c>
       <c r="P20" t="n">
-        <v>24.96</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1628,47 +1628,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>-4.87</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>-6.74</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0.6899999999999977</v>
+      <c r="C21" t="n">
+        <v>0.4700000000000006</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-2.299999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21.48</v>
       </c>
       <c r="I21" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>-1.42</v>
+        <v>14.14</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>7.819999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>-5.87</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>-12.25</v>
+        <v>2.57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.25</v>
       </c>
       <c r="O21" t="n">
-        <v>7.269999999999996</v>
+        <v>28.99</v>
       </c>
       <c r="P21" t="n">
-        <v>22.78</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1678,47 +1678,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.3200000000000003</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>-4.56</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0.9199999999999999</v>
+      <c r="C22" s="2" t="n">
+        <v>2.970000000000001</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>7.470000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>17.24</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>65.27</v>
+        <v>21.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.33</v>
       </c>
       <c r="I22" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.51</v>
+        <v>7.420000000000002</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>6.03</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>4.75</v>
+        <v>11.61</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6200000000000001</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>-0.9099999999999999</v>
+        <v>7.94</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>16.22</v>
       </c>
       <c r="N22" t="n">
-        <v>17.17</v>
+        <v>15.8</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>71.84999999999999</v>
+        <v>34.84</v>
       </c>
       <c r="P22" t="n">
-        <v>18.24</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1728,47 +1728,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>7.19</v>
+      <c r="C23" s="1" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-3.83</v>
       </c>
       <c r="E23" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>31.13</v>
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-8.129999999999999</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1.789999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>10.27</v>
+        <v>9.94</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.8500000000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.83</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.03000000000000003</v>
+        <v>-3.62</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>37.70999999999999</v>
+        <v>-14.03</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>22.36</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1778,47 +1778,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.08000000000000007</v>
+      <c r="C24" s="1" t="n">
+        <v>-1.51</v>
       </c>
       <c r="D24" t="n">
-        <v>2.84</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-4.24</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9.979999999999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23.14</v>
+        <v>-3.369999999999999</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-0.8299999999999998</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>61.70999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>10.55</v>
+        <v>7.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>6.29</v>
+        <v>1.55</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.02</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9400000000000004</v>
-      </c>
-      <c r="M24" t="n">
-        <v>8.149999999999999</v>
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>-1.85</v>
       </c>
       <c r="N24" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="O24" t="n">
-        <v>29.72</v>
+        <v>19.06</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>69.22</v>
       </c>
       <c r="P24" t="n">
-        <v>22.63</v>
+        <v>19.17</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1828,47 +1828,47 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.2299999999999995</v>
+      <c r="C25" s="2" t="n">
+        <v>2.41</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>-5.57</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
+        <v>6.369999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.25</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>2.06</v>
+        <v>5.47</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>-0.3899999999999997</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="N25" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="O25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" t="s">
-        <v>17</v>
+        <v>10.51</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>1.579999999999998</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>35.29000000000001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>23.67</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1878,47 +1878,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7.429999999999998</v>
+      <c r="C26" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-3.459999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>33.56</v>
+        <v>7.59</v>
+      </c>
+      <c r="G26" t="n">
+        <v>17.06</v>
       </c>
       <c r="H26" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
+        <v>20.93</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.98</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>3.86</v>
+        <v>2.31</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>12.61</v>
+        <v>6.029999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>28.05</v>
+        <v>6.57</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11.16</v>
       </c>
       <c r="O26" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="P26" t="s">
-        <v>17</v>
+        <v>28.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1928,47 +1928,47 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>2.66</v>
+      <c r="C27" t="n">
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.52</v>
+        <v>11.82</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-4.739999999999999</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>18.99</v>
+        <v>15.9</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27.84</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.91</v>
+        <v>21.53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>4.49</v>
+        <v>2.76</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>12.22</v>
+        <v>15.96</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>17.16</v>
+        <v>14.88</v>
       </c>
       <c r="N27" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>34.42</v>
-      </c>
-      <c r="P27" t="n">
-        <v>18.99</v>
+        <v>15.63</v>
+      </c>
+      <c r="O27" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1978,47 +1978,47 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>-2.61</v>
+      <c r="C28" t="n">
+        <v>0.6200000000000001</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>-5.630000000000001</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="G28" t="n">
-        <v>13.6</v>
+        <v>5.93</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.530000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>33.68</v>
       </c>
       <c r="H28" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-0.7800000000000002</v>
+        <v>16.66999999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>3.68</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>-0.4500000000000002</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8.09</v>
+        <v>10.07</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>27.78</v>
       </c>
       <c r="O28" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="P28" t="n">
-        <v>24.33</v>
+        <v>24.18</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2028,47 +2028,47 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.5300000000000002</v>
+      <c r="C29" s="1" t="n">
+        <v>-2.78</v>
       </c>
       <c r="D29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.6099999999999994</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.75</v>
+        <v>4.13</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>16.87</v>
       </c>
       <c r="G29" t="n">
-        <v>15.05</v>
+        <v>16.06</v>
       </c>
       <c r="H29" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>4.849999999999998</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.36</v>
+        <v>16.29</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2799999999999998</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>7.25</v>
+        <v>8.27</v>
       </c>
       <c r="L29" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5.92</v>
+        <v>0.7299999999999995</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>15.85</v>
       </c>
       <c r="N29" t="n">
-        <v>9.539999999999999</v>
+        <v>10.16</v>
       </c>
       <c r="O29" t="n">
-        <v>28.83</v>
+        <v>23.8</v>
       </c>
       <c r="P29" t="n">
-        <v>16.93</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2079,46 +2079,46 @@
         <v>67</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>-2.030000000000001</v>
+        <v>0.71</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.620000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.66</v>
+        <v>8.41</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>3.77</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>9.66</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>3.149999999999999</v>
+        <v>5.49</v>
       </c>
       <c r="M30" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="N30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" t="s">
-        <v>17</v>
+        <v>7.390000000000001</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.729999999999997</v>
+      </c>
+      <c r="O30" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>17.33</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2129,46 +2129,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>1.109999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="D31" t="n">
-        <v>3.98</v>
+        <v>2.8</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-5.77</v>
+        <v>-4.469999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>10.11</v>
+        <v>8.5</v>
       </c>
       <c r="G31" t="n">
-        <v>11.01</v>
+        <v>12.74</v>
       </c>
       <c r="H31" t="n">
-        <v>21.47</v>
+        <v>21.06</v>
       </c>
       <c r="I31" t="n">
-        <v>7.489999999999998</v>
+        <v>7.82</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>2.94</v>
+        <v>4.14</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>-0.5899999999999999</v>
+        <v>6.94</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.4000000000000004</v>
       </c>
       <c r="M31" t="n">
-        <v>8.280000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>6.84</v>
       </c>
       <c r="O31" t="n">
-        <v>28.05</v>
+        <v>28.57</v>
       </c>
       <c r="P31" t="n">
-        <v>19.57</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2179,46 +2179,46 @@
         <v>71</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.43</v>
+        <v>-1.149999999999999</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5.5</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-3.840000000000001</v>
+        <v>-1.539999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="H32" t="n">
-        <v>16.06</v>
+        <v>11.36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1800000000000002</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.88</v>
+        <v>1.91</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>9.640000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0.8799999999999999</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="O32" t="n">
-        <v>22.64</v>
+        <v>3.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
       </c>
       <c r="P32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2228,47 +2228,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.6100000000000003</v>
+      <c r="C33" s="1" t="n">
+        <v>-3.45</v>
       </c>
       <c r="D33" t="n">
-        <v>3.3</v>
+        <v>-0.29</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-0.8100000000000005</v>
+        <v>-3.539999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>6.350000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="G33" t="n">
-        <v>4.610000000000001</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>3.549999999999997</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.949999999999999</v>
+        <v>8.420000000000002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
       </c>
       <c r="J33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>6.75</v>
+        <v>-0.3900000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4.52</v>
+        <v>1.33</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0.54</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>-0.8999999999999986</v>
+        <v>2.52</v>
       </c>
       <c r="O33" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="P33" t="n">
-        <v>20.03</v>
+        <v>22.28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2278,47 +2278,47 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>-3.35</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>-1.98</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.879999999999999</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="H34" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>1.529999999999998</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.47</v>
+      <c r="C34" t="n">
+        <v>0.4100000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>-0.1899999999999995</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>3.289999999999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.960000000000001</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>6.84</v>
       </c>
       <c r="L34" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.81</v>
+        <v>4.68</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>-0.6300000000000026</v>
       </c>
       <c r="O34" t="n">
-        <v>28.8</v>
+        <v>10.8</v>
       </c>
       <c r="P34" t="n">
-        <v>13.61</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2329,46 +2329,46 @@
         <v>77</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-1.63</v>
+        <v>-3.55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.61</v>
+        <v>-0.4900000000000002</v>
       </c>
       <c r="E35" t="n">
-        <v>1.69</v>
+        <v>3.08</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>15.04</v>
+        <v>14.83</v>
       </c>
       <c r="G35" t="n">
-        <v>5.94</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>5.729999999999997</v>
+        <v>5.829999999999998</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>7.329999999999998</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2000000000000002</v>
+        <v>-0.4900000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>4.06</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>6.87</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>13.21</v>
+        <v>13.81</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>0.4299999999999997</v>
+        <v>-0.3500000000000014</v>
       </c>
       <c r="O35" t="n">
-        <v>12.31</v>
+        <v>13.34</v>
       </c>
       <c r="P35" t="n">
-        <v>19.08</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2379,46 +2379,46 @@
         <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="D36" t="n">
-        <v>3.33</v>
+        <v>2.41</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-3.78</v>
+        <v>-3.159999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>11.19</v>
+        <v>10.32</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>23.01000000000001</v>
+        <v>23.96</v>
       </c>
       <c r="H36" t="n">
-        <v>19.6</v>
+        <v>19.56</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>2.38</v>
+        <v>3.319999999999999</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>6.779999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="M36" t="n">
-        <v>9.359999999999999</v>
+        <v>9.299999999999999</v>
       </c>
       <c r="N36" t="n">
-        <v>17.5</v>
+        <v>18.06</v>
       </c>
       <c r="O36" t="n">
-        <v>26.18</v>
+        <v>27.07</v>
       </c>
       <c r="P36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2428,47 +2428,47 @@
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.4699999999999998</v>
+      <c r="C37" s="1" t="n">
+        <v>-1.84</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-1.13</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9699999999999989</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="F37" t="n">
-        <v>10.98</v>
+        <v>10.37</v>
       </c>
       <c r="G37" t="n">
-        <v>7.229999999999999</v>
+        <v>7.460000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>8.530000000000001</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>6.82</v>
+        <v>6.91</v>
       </c>
       <c r="J37" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="K37" t="n">
-        <v>2.32</v>
+        <v>3.54</v>
       </c>
       <c r="L37" t="n">
-        <v>6.149999999999999</v>
+        <v>5.52</v>
       </c>
       <c r="M37" t="n">
-        <v>9.149999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>1.719999999999999</v>
+        <v>1.559999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>15.11</v>
+        <v>16.41</v>
       </c>
       <c r="P37" t="n">
-        <v>18.9</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2478,47 +2478,47 @@
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.13</v>
+      <c r="C38" s="2" t="n">
+        <v>2.56</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>7.99</v>
+        <v>6.369999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>2.73</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>19.98</v>
+        <v>18.02</v>
       </c>
       <c r="G38" t="n">
-        <v>5.06</v>
+        <v>6.68</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-10.02</v>
+        <v>-10.38</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1.719999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>2.96</v>
+        <v>5.62</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.910000000000001</v>
+        <v>10.51</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>9.220000000000001</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>18.15</v>
+        <v>17</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>-0.4499999999999993</v>
+        <v>0.7799999999999976</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>-3.440000000000001</v>
+        <v>-2.870000000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>13.8</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2529,46 +2529,46 @@
         <v>85</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4699999999999998</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7.010000000000001</v>
+        <v>6.15</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-3.12</v>
+        <v>-1.989999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>9.719999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2.3</v>
+        <v>3.109999999999999</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>10.46</v>
+        <v>10.29</v>
       </c>
       <c r="L39" t="n">
-        <v>2.06</v>
+        <v>2.88</v>
       </c>
       <c r="M39" t="n">
-        <v>7.89</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="N39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2579,46 +2579,46 @@
         <v>87</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-2.75</v>
+        <v>-2.09</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>8.82</v>
+        <v>6.99</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-8.890000000000001</v>
+        <v>-7.789999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>9.979999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>47.15</v>
+        <v>47.61</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>34.48999999999999</v>
+        <v>37.19</v>
       </c>
       <c r="I40" t="n">
-        <v>12.93</v>
+        <v>12.81</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.9199999999999999</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>12.27</v>
+        <v>11.13</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>-3.71</v>
+        <v>-2.92</v>
       </c>
       <c r="M40" t="n">
-        <v>8.149999999999999</v>
+        <v>7.15</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>41.64</v>
+        <v>41.70999999999999</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>41.06999999999999</v>
+        <v>44.7</v>
       </c>
       <c r="P40" t="n">
-        <v>25.01</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2628,47 +2628,47 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.31</v>
+      <c r="C41" s="1" t="n">
+        <v>-1.06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.87</v>
+        <v>0.8099999999999996</v>
       </c>
       <c r="E41" t="n">
-        <v>1.26</v>
+        <v>2.220000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>10.21</v>
+        <v>8.91</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>34.14</v>
+        <v>36.06</v>
       </c>
       <c r="H41" t="n">
-        <v>8.670000000000002</v>
+        <v>9.299999999999997</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.32</v>
+        <v>19</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>4.949999999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>6.44</v>
+        <v>7.09</v>
       </c>
       <c r="M41" t="n">
-        <v>8.379999999999999</v>
+        <v>7.890000000000001</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>28.63</v>
+        <v>30.16</v>
       </c>
       <c r="O41" t="n">
-        <v>15.25</v>
+        <v>16.81</v>
       </c>
       <c r="P41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2679,46 +2679,46 @@
         <v>91</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-2.2</v>
+        <v>-5.45</v>
       </c>
       <c r="D42" t="n">
-        <v>1.88</v>
+        <v>1.09</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-3.02</v>
+        <v>-2.06</v>
       </c>
       <c r="F42" t="n">
-        <v>8.739999999999998</v>
+        <v>6.97</v>
       </c>
       <c r="G42" t="n">
-        <v>15.47</v>
+        <v>17.81</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>-0.6099999999999994</v>
+        <v>-0.05000000000000426</v>
       </c>
       <c r="I42" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="J42" t="n">
-        <v>-0.3700000000000001</v>
+        <v>14.58</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-2.39</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>5.33</v>
+        <v>5.23</v>
       </c>
       <c r="L42" t="n">
-        <v>2.16</v>
+        <v>2.81</v>
       </c>
       <c r="M42" t="n">
-        <v>6.909999999999999</v>
+        <v>5.95</v>
       </c>
       <c r="N42" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="O42" s="1" t="n">
-        <v>5.969999999999999</v>
+        <v>11.91</v>
+      </c>
+      <c r="O42" t="n">
+        <v>7.459999999999997</v>
       </c>
       <c r="P42" t="n">
-        <v>27.1</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -161,6 +161,12 @@
     <t>汇安丰泽混合A</t>
   </si>
   <si>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹精选混合</t>
+  </si>
+  <si>
     <t>001714</t>
   </si>
   <si>
@@ -201,12 +207,6 @@
   </si>
   <si>
     <t>景顺长城绩优成长混合</t>
-  </si>
-  <si>
-    <t>005827</t>
-  </si>
-  <si>
-    <t>易方达蓝筹精选混合</t>
   </si>
   <si>
     <t>001500</t>
@@ -729,46 +729,46 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-3.21</v>
+        <v>-2.88</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8.81</v>
+        <v>8.56</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-2.339999999999999</v>
+        <v>-2.069999999999999</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>21.73</v>
+        <v>15.53</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.53</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-2.980000000000004</v>
+        <v>-1.670000000000002</v>
       </c>
       <c r="I3" t="n">
-        <v>16.42</v>
+        <v>16.96</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1500000000000004</v>
+        <v>-0.4500000000000002</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>12.95</v>
+        <v>12.96</v>
       </c>
       <c r="L3" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12.94</v>
+        <v>2.52</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>15.3</v>
       </c>
       <c r="N3" t="n">
-        <v>15.83</v>
+        <v>11.25</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>4.529999999999998</v>
+        <v>5.959999999999997</v>
       </c>
       <c r="P3" t="n">
-        <v>27.84</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -779,46 +779,46 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-1.399999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22</v>
+        <v>0.5300000000000002</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-5.43</v>
+        <v>-4.71</v>
       </c>
       <c r="F4" t="n">
-        <v>3.42</v>
+        <v>4.23</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>25.28</v>
+        <v>24.12</v>
       </c>
       <c r="H4" t="n">
-        <v>15.44</v>
+        <v>16.22</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="J4" t="n">
-        <v>1.66</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>5.359999999999999</v>
+        <v>4.930000000000001</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>-0.5600000000000005</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>19.38</v>
+        <v>16.84</v>
       </c>
       <c r="O4" t="n">
-        <v>22.95</v>
+        <v>23.85</v>
       </c>
       <c r="P4" t="n">
-        <v>19.42</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -829,46 +829,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3.380000000000001</v>
+        <v>4.08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>8.300000000000001</v>
+        <v>7.18</v>
       </c>
       <c r="E5" t="n">
-        <v>2.870000000000001</v>
+        <v>4.02</v>
       </c>
       <c r="F5" t="n">
-        <v>5.899999999999999</v>
+        <v>4.59</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>14.70999999999999</v>
+        <v>14.19</v>
       </c>
       <c r="I5" t="n">
-        <v>14.04</v>
+        <v>14.03</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>6.44</v>
+        <v>6.51</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>12.44</v>
+        <v>11.58</v>
       </c>
       <c r="L5" t="n">
-        <v>7.74</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>4.88</v>
+        <v>4.36</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>-5.100000000000001</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>22.22</v>
+        <v>21.82</v>
       </c>
       <c r="P5" t="n">
-        <v>25.46</v>
+        <v>25.34</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -879,43 +879,43 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.23</v>
+        <v>5.98</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-7.079999999999999</v>
+        <v>-6.81</v>
       </c>
       <c r="F6" t="n">
-        <v>8.91</v>
+        <v>10.48</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>32.52</v>
+        <v>29.32</v>
       </c>
       <c r="H6" t="n">
-        <v>8.099999999999994</v>
+        <v>9.409999999999997</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>10.37</v>
+        <v>10.38</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>-2.21</v>
+        <v>-2.22</v>
       </c>
       <c r="M6" t="n">
-        <v>7.890000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>26.62</v>
+        <v>22.04</v>
       </c>
       <c r="O6" t="n">
-        <v>15.61</v>
+        <v>17.04</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
@@ -928,47 +928,47 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.9100000000000001</v>
+      <c r="C7" s="1" t="n">
+        <v>-1.75</v>
       </c>
       <c r="D7" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="E7" t="n">
-        <v>4.67</v>
+        <v>4.950000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>17.3</v>
+        <v>15.2</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>32.36999999999999</v>
+        <v>33.02</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>-4.309999999999999</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2.149999999999999</v>
+        <v>-3.850000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6800000000000002</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>9.539999999999999</v>
+        <v>9.540000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>6.78</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>11.4</v>
+        <v>7.919999999999998</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>39.88</v>
+        <v>40.64999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>7.110000000000003</v>
+        <v>7.460000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -978,47 +978,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>5.619999999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.170000000000002</v>
+      <c r="C8" t="n">
+        <v>0.0600000000000005</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.470000000000001</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>9.399999999999999</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>16.18</v>
+        <v>15.97</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>-0.8399999999999999</v>
+        <v>-1.539999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>6.479999999999997</v>
+        <v>7.18</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>4.530000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.33</v>
+        <v>4.300000000000001</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>2.49</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>9.76</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>13.04</v>
+        <v>13.99</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>15.16</v>
+        <v>15.74</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>-6.740000000000002</v>
+        <v>-8.82</v>
       </c>
       <c r="O8" t="n">
-        <v>13.99</v>
+        <v>14.81</v>
       </c>
       <c r="P8" t="n">
-        <v>15.95</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1028,47 +1028,47 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.9199999999999999</v>
+      <c r="C9" s="1" t="n">
+        <v>-1.26</v>
       </c>
       <c r="D9" t="n">
-        <v>1.18</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="E9" t="n">
-        <v>1.040000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>15.67</v>
+        <v>15.76</v>
       </c>
       <c r="G9" t="n">
-        <v>4.510000000000002</v>
+        <v>4.450000000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>14.43</v>
+        <v>13.76</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>-2.289999999999999</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>2.14</v>
+        <v>-1.420000000000002</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.17</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>5.319999999999999</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>5.91</v>
+        <v>5.82</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>14.65</v>
+        <v>15.53</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>-1.390000000000001</v>
+        <v>-2.829999999999998</v>
       </c>
       <c r="O9" t="n">
-        <v>21.94</v>
+        <v>21.39</v>
       </c>
       <c r="P9" t="n">
-        <v>9.130000000000003</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1079,46 +1079,46 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>4.82</v>
+        <v>1.31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.23</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="G10" t="n">
-        <v>19.56</v>
+        <v>18.11</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>21.14</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>46.31999999999999</v>
+        <v>46.65000000000001</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>3.050000000000001</v>
+        <v>3.140000000000001</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>4.859999999999999</v>
+        <v>3.74</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>8.960000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>2.27</v>
+        <v>2.59</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>18.7</v>
+        <v>17.88</v>
       </c>
       <c r="N10" t="n">
-        <v>13.66</v>
+        <v>13.86</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>53.83</v>
+        <v>54.28</v>
       </c>
       <c r="P10" t="n">
-        <v>14.47</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1129,46 +1129,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>1.890000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="D11" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-3.879999999999999</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>6.569999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="n">
-        <v>17.78</v>
+        <v>18.29</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>3.689999999999998</v>
+        <v>4.420000000000002</v>
       </c>
       <c r="I11" t="n">
-        <v>9.640000000000001</v>
+        <v>9.729999999999999</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.79</v>
+        <v>6.880000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="M11" t="n">
-        <v>5.55</v>
+        <v>6.17</v>
       </c>
       <c r="N11" t="n">
-        <v>11.88</v>
+        <v>11.01</v>
       </c>
       <c r="O11" t="n">
-        <v>11.2</v>
+        <v>12.05</v>
       </c>
       <c r="P11" t="n">
-        <v>21.06</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1179,16 +1179,16 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5.6</v>
+        <v>5.35</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-4.259999999999999</v>
+        <v>-3.989999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>9.890000000000001</v>
+        <v>11.46</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -1200,16 +1200,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>2.89</v>
+        <v>2.59</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>9.74</v>
+        <v>9.75</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6100000000000003</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="M12" t="n">
-        <v>8.869999999999999</v>
+        <v>11.23</v>
       </c>
       <c r="N12" t="s">
         <v>19</v>
@@ -1229,46 +1229,46 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2999999999999998</v>
+        <v>-0.6200000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="F13" t="n">
-        <v>6.67</v>
+        <v>6.02</v>
       </c>
       <c r="G13" t="n">
-        <v>11.49</v>
+        <v>12.87</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>5.589999999999996</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>5.539999999999999</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2.76</v>
+        <v>5.089999999999996</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.349999999999998</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.81</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>6.14</v>
+        <v>6.33</v>
       </c>
       <c r="L13" t="n">
-        <v>5.949999999999999</v>
+        <v>5.74</v>
       </c>
       <c r="M13" t="n">
-        <v>5.65</v>
+        <v>5.79</v>
       </c>
       <c r="N13" t="n">
         <v>5.59</v>
       </c>
       <c r="O13" t="n">
-        <v>13.1</v>
+        <v>12.72</v>
       </c>
       <c r="P13" t="n">
-        <v>16.96</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-2.11</v>
+        <v>-2.22</v>
       </c>
       <c r="D14" t="n">
-        <v>1.39</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.8099999999999987</v>
+        <v>-0.3599999999999994</v>
       </c>
       <c r="F14" t="n">
-        <v>6.39</v>
+        <v>5.8</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>22.76</v>
+        <v>23.88</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -1300,19 +1300,19 @@
         <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.21</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>5.529999999999999</v>
+        <v>5.37</v>
       </c>
       <c r="L14" t="n">
-        <v>4.06</v>
+        <v>4.23</v>
       </c>
       <c r="M14" t="n">
-        <v>5.37</v>
+        <v>5.57</v>
       </c>
       <c r="N14" t="n">
-        <v>16.86</v>
+        <v>16.6</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -1329,19 +1329,19 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-5.75</v>
+        <v>-6.18</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-5.01</v>
+        <v>-4.89</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-5.31</v>
+        <v>-6.02</v>
       </c>
       <c r="F15" t="n">
-        <v>5.15</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>13.51</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
@@ -1350,19 +1350,19 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>-0.87</v>
+        <v>-3.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.49</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-0.4400000000000004</v>
+        <v>-1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.609999999999999</v>
+        <v>8.15</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>-0.4299999999999997</v>
       </c>
       <c r="O15" t="s">
         <v>19</v>
@@ -1378,20 +1378,20 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>3.16</v>
+      <c r="C16" t="n">
+        <v>1.38</v>
       </c>
       <c r="D16" t="n">
-        <v>3.84</v>
+        <v>3.7</v>
       </c>
       <c r="E16" t="n">
-        <v>4.07</v>
+        <v>4.24</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>13.54</v>
+        <v>14.58</v>
       </c>
       <c r="G16" t="n">
-        <v>9.050000000000001</v>
+        <v>6.390000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
@@ -1400,19 +1400,19 @@
         <v>19</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>6.22</v>
+        <v>3.81</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>7.98</v>
+        <v>8.1</v>
       </c>
       <c r="L16" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="M16" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.149999999999999</v>
+        <v>8.83</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>-0.8900000000000006</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
@@ -1429,28 +1429,28 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-3.1</v>
+        <v>-2.51</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-1.05</v>
+        <v>-1.31</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>-5.809999999999999</v>
+        <v>-5.529999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>10.05</v>
+        <v>10.76</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-3.09</v>
+        <v>-5.029999999999999</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>2.709999999999994</v>
+        <v>3.769999999999996</v>
       </c>
       <c r="I17" t="n">
-        <v>18.59</v>
+        <v>19.11</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.04000000000000004</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="K17" t="n">
         <v>3.09</v>
@@ -1459,16 +1459,16 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>9.029999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-8.990000000000002</v>
+        <v>-12.31</v>
       </c>
       <c r="O17" t="n">
-        <v>10.22</v>
+        <v>11.4</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>30.01</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1479,46 +1479,46 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2699999999999996</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>-0.73</v>
+        <v>-0.8599999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>3.59</v>
+        <v>3.73</v>
       </c>
       <c r="F18" t="n">
-        <v>7.819999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="G18" t="n">
-        <v>18.71</v>
+        <v>19.48</v>
       </c>
       <c r="H18" t="n">
-        <v>26.02</v>
+        <v>25.74</v>
       </c>
       <c r="I18" t="n">
-        <v>20.78</v>
+        <v>21.79</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="K18" t="n">
-        <v>3.41</v>
+        <v>3.54</v>
       </c>
       <c r="L18" t="n">
-        <v>8.459999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="M18" t="n">
-        <v>6.8</v>
+        <v>7.460000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>12.81</v>
+        <v>12.2</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>33.53</v>
+        <v>33.37</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>32.2</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1529,46 +1529,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1900000000000004</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7699999999999996</v>
+        <v>0.4400000000000004</v>
       </c>
       <c r="E19" t="n">
-        <v>2.99</v>
+        <v>3.35</v>
       </c>
       <c r="F19" t="n">
-        <v>10.95</v>
+        <v>11.09</v>
       </c>
       <c r="G19" t="n">
-        <v>16.01</v>
+        <v>15.73</v>
       </c>
       <c r="H19" t="n">
-        <v>28.73999999999999</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>-1.149999999999999</v>
+        <v>-0.5600000000000023</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>4.909999999999999</v>
+        <v>4.840000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>7.859999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="M19" t="n">
-        <v>9.93</v>
+        <v>10.86</v>
       </c>
       <c r="N19" t="n">
-        <v>10.11</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>36.25</v>
+        <v>36.63</v>
       </c>
       <c r="P19" t="n">
-        <v>10.27</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1579,46 +1579,46 @@
         <v>47</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>-3.02</v>
+        <v>-3.24</v>
       </c>
       <c r="D20" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="E20" t="n">
-        <v>3.25</v>
+        <v>3.66</v>
       </c>
       <c r="F20" t="n">
-        <v>8.65</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>12.64</v>
+        <v>10.98</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>52.59999999999999</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>10.71</v>
+        <v>11.18</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04000000000000004</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="L20" t="n">
-        <v>8.119999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="M20" t="n">
-        <v>7.63</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>6.739999999999998</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>60.11</v>
+        <v>60.53</v>
       </c>
       <c r="P20" t="n">
-        <v>22.13</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1629,46 +1629,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4700000000000006</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>-2.299999999999999</v>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.370000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>10.94</v>
+        <v>5.54</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>21.15</v>
+        <v>33.2</v>
       </c>
       <c r="H21" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14.14</v>
+        <v>16.56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>3.53</v>
+        <v>2.74</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>7.819999999999999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.57</v>
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>12.96</v>
       </c>
       <c r="M21" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15.25</v>
+        <v>5.31</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>25.92</v>
       </c>
       <c r="O21" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="P21" t="n">
-        <v>25.56</v>
+        <v>24.19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1678,47 +1678,47 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>2.970000000000001</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>7.470000000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>21.7</v>
+      <c r="C22" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-2.029999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17.95</v>
       </c>
       <c r="H22" t="n">
-        <v>27.33</v>
+        <v>22.79</v>
       </c>
       <c r="I22" t="n">
-        <v>7.420000000000002</v>
+        <v>14.68</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>6.03</v>
+        <v>3.23</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>11.61</v>
+        <v>7.83</v>
       </c>
       <c r="L22" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>16.22</v>
+        <v>2.56</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12.28</v>
       </c>
       <c r="N22" t="n">
-        <v>15.8</v>
+        <v>10.67</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>34.84</v>
+        <v>30.42</v>
       </c>
       <c r="P22" t="n">
-        <v>18.84</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1728,47 +1728,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>-3.91</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>-3.83</v>
+      <c r="C23" s="2" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>6.74</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9600000000000009</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>-8.129999999999999</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>1.789999999999999</v>
+        <v>3.81</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="H23" t="n">
+        <v>27.06999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-0.8500000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.31</v>
+        <v>8.059999999999999</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>11.14</v>
       </c>
       <c r="L23" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>-3.62</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>-14.03</v>
-      </c>
-      <c r="O23" t="n">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="N23" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>34.69999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>21.36</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1779,46 +1779,46 @@
         <v>55</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>-3.369999999999999</v>
+        <v>-3.58</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.23</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>-0.8299999999999998</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>61.70999999999999</v>
+        <v>-1.03</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-11.33</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3.100000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.55</v>
+        <v>10.48</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-1.15</v>
       </c>
       <c r="K24" t="n">
-        <v>4.02</v>
+        <v>0.32</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>5.82</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="N24" t="n">
-        <v>19.06</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>69.22</v>
+        <v>-1.26</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10.73</v>
       </c>
       <c r="P24" t="n">
-        <v>19.17</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1828,47 +1828,47 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>6.369999999999999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.56</v>
+      <c r="C25" s="1" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>-0.9500000000000002</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-2.51</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="H25" t="n">
-        <v>27.78</v>
+        <v>-1.58</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>58.62</v>
       </c>
       <c r="I25" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>10.43</v>
+        <v>7.739999999999998</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.08</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>1.579999999999998</v>
+        <v>-1.81</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>20.23</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>35.29000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="P25" t="n">
-        <v>23.67</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1878,47 +1878,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>-3.459999999999999</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.59</v>
+      <c r="C26" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>5.390000000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.609999999999999</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-1.18</v>
       </c>
       <c r="G26" t="n">
-        <v>17.06</v>
+        <v>8.030000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>20.93</v>
+        <v>27.54000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>11.98</v>
+        <v>12.02</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>2.31</v>
+        <v>4.95</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>6.029999999999999</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M26" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="O26" t="n">
-        <v>28.44</v>
+        <v>9.790000000000001</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>35.17</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1929,46 +1929,46 @@
         <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>11.82</v>
+        <v>-0.4199999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.64</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-4.739999999999999</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
+        <v>-3.19</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="G27" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H27" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.52</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>2.76</v>
+        <v>2.01</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>15.96</v>
+        <v>6.04</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>14.88</v>
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.93</v>
       </c>
       <c r="N27" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="O27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" t="s">
-        <v>19</v>
+        <v>6.580000000000002</v>
+      </c>
+      <c r="O27" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="P27" t="n">
+        <v>23.83</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1979,43 +1979,43 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.530000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>33.68</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16.66999999999999</v>
+        <v>11.57</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="G28" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>3.68</v>
+        <v>2.46</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="O28" t="n">
-        <v>24.18</v>
+        <v>15.97</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="O28" t="s">
+        <v>19</v>
       </c>
       <c r="P28" t="s">
         <v>19</v>
@@ -2029,46 +2029,46 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-2.78</v>
+        <v>-2.63</v>
       </c>
       <c r="D29" t="n">
-        <v>4.13</v>
+        <v>3.15</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-4.14</v>
+        <v>-3.16</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>16.87</v>
+        <v>16.24</v>
       </c>
       <c r="G29" t="n">
-        <v>16.06</v>
+        <v>15.93</v>
       </c>
       <c r="H29" t="n">
-        <v>16.29</v>
+        <v>16.98</v>
       </c>
       <c r="I29" t="n">
-        <v>13.01</v>
+        <v>13.77</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2799999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>8.27</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7299999999999995</v>
+        <v>1.43</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>15.85</v>
+        <v>16.01</v>
       </c>
       <c r="N29" t="n">
-        <v>10.16</v>
+        <v>8.650000000000002</v>
       </c>
       <c r="O29" t="n">
-        <v>23.8</v>
+        <v>24.61</v>
       </c>
       <c r="P29" t="n">
-        <v>24.43</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2079,46 +2079,46 @@
         <v>67</v>
       </c>
       <c r="C30" t="n">
-        <v>0.71</v>
+        <v>1.88</v>
       </c>
       <c r="D30" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.620000000000001</v>
+        <v>0.8499999999999996</v>
       </c>
       <c r="F30" t="n">
-        <v>8.41</v>
+        <v>7.97</v>
       </c>
       <c r="G30" t="n">
-        <v>14.63</v>
+        <v>15.01</v>
       </c>
       <c r="H30" t="n">
-        <v>19.69</v>
+        <v>19.66</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>5.91</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>3.77</v>
+        <v>4.31</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>7.449999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="L30" t="n">
-        <v>5.49</v>
+        <v>5.44</v>
       </c>
       <c r="M30" t="n">
-        <v>7.390000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="N30" t="n">
-        <v>8.729999999999997</v>
+        <v>7.73</v>
       </c>
       <c r="O30" t="n">
-        <v>27.2</v>
+        <v>27.29</v>
       </c>
       <c r="P30" t="n">
-        <v>17.33</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2129,46 +2129,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="D31" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-4.469999999999999</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>8.5</v>
+        <v>10.07</v>
       </c>
       <c r="G31" t="n">
-        <v>12.74</v>
+        <v>9.540000000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>21.06</v>
+        <v>22.37</v>
       </c>
       <c r="I31" t="n">
-        <v>7.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>4.14</v>
+        <v>3.84</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="M31" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.84</v>
+        <v>9.84</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>2.260000000000002</v>
       </c>
       <c r="O31" t="n">
-        <v>28.57</v>
+        <v>30</v>
       </c>
       <c r="P31" t="n">
-        <v>19.24</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2178,17 +2178,17 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>-1.149999999999999</v>
+      <c r="C32" t="n">
+        <v>-0.8199999999999994</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-1.539999999999999</v>
+        <v>-1.27</v>
       </c>
       <c r="F32" t="n">
-        <v>11.36</v>
+        <v>12.93</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2200,16 +2200,16 @@
         <v>19</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>9.640000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="L32" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="M32" t="n">
-        <v>10.34</v>
+        <v>12.7</v>
       </c>
       <c r="N32" t="s">
         <v>19</v>
@@ -2229,43 +2229,43 @@
         <v>73</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>-3.45</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.29</v>
+        <v>-3.569999999999999</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-1.04</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-3.539999999999999</v>
+        <v>-2.76</v>
       </c>
       <c r="F33" t="n">
-        <v>1.56</v>
+        <v>2.18</v>
       </c>
       <c r="G33" t="n">
-        <v>8.420000000000002</v>
+        <v>7.260000000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>14.77</v>
+        <v>15.65</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
       </c>
-      <c r="J33" t="n">
-        <v>-0.3900000000000001</v>
+      <c r="J33" s="1" t="n">
+        <v>-1.14</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.36</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0.54</v>
+        <v>1.83</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.95</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>2.52</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="O33" t="n">
-        <v>22.28</v>
+        <v>23.28</v>
       </c>
       <c r="P33" t="s">
         <v>19</v>
@@ -2279,46 +2279,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="D34" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.1899999999999995</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="F34" t="n">
-        <v>5.97</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>5.27</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>3.289999999999999</v>
+        <v>3.18</v>
       </c>
       <c r="I34" t="n">
-        <v>7.960000000000001</v>
+        <v>8.419999999999998</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>3.47</v>
+        <v>2.46</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>6.84</v>
+        <v>7.03</v>
       </c>
       <c r="L34" t="n">
-        <v>4.68</v>
+        <v>4.49</v>
       </c>
       <c r="M34" t="n">
-        <v>4.95</v>
+        <v>6.41</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>-0.6300000000000026</v>
+        <v>-2.890000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="P34" t="n">
-        <v>19.38</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2329,46 +2329,46 @@
         <v>77</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-3.55</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-0.4900000000000002</v>
+        <v>-3.85</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-0.7799999999999998</v>
       </c>
       <c r="E35" t="n">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>14.83</v>
+        <v>14.99</v>
       </c>
       <c r="G35" t="n">
-        <v>5.550000000000001</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>5.829999999999998</v>
+        <v>4.470000000000002</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.630000000000003</v>
       </c>
       <c r="I35" t="n">
-        <v>7.329999999999998</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-0.4900000000000002</v>
+        <v>7.460000000000001</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>-1.42</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="L35" t="n">
-        <v>7.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>13.81</v>
+        <v>14.76</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>-0.3500000000000014</v>
+        <v>-2.809999999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>13.34</v>
+        <v>14.26</v>
       </c>
       <c r="P35" t="n">
-        <v>18.75</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2379,43 +2379,43 @@
         <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2599999999999998</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="D36" t="n">
-        <v>2.41</v>
+        <v>2.16</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-3.159999999999999</v>
+        <v>-2.88</v>
       </c>
       <c r="F36" t="n">
-        <v>10.32</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>23.96</v>
+        <v>24.87</v>
       </c>
       <c r="H36" t="n">
-        <v>19.56</v>
+        <v>20.33</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>3.319999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>6.55</v>
+        <v>6.56</v>
       </c>
       <c r="L36" t="n">
         <v>1.71</v>
       </c>
       <c r="M36" t="n">
-        <v>9.299999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>18.06</v>
+        <v>17.59</v>
       </c>
       <c r="O36" t="n">
-        <v>27.07</v>
+        <v>27.96</v>
       </c>
       <c r="P36" t="s">
         <v>19</v>
@@ -2429,46 +2429,46 @@
         <v>81</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-1.59</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.3900000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6500000000000004</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>10.37</v>
+        <v>10.76</v>
       </c>
       <c r="G37" t="n">
-        <v>7.460000000000001</v>
+        <v>6.650000000000002</v>
       </c>
       <c r="H37" t="n">
-        <v>8.899999999999999</v>
+        <v>9.269999999999996</v>
       </c>
       <c r="I37" t="n">
-        <v>6.91</v>
+        <v>7.41</v>
       </c>
       <c r="J37" t="n">
-        <v>1.22</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>3.54</v>
+        <v>4.01</v>
       </c>
       <c r="L37" t="n">
-        <v>5.52</v>
+        <v>5.01</v>
       </c>
       <c r="M37" t="n">
-        <v>9.35</v>
+        <v>10.53</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>1.559999999999999</v>
+        <v>-0.629999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>16.41</v>
+        <v>16.9</v>
       </c>
       <c r="P37" t="n">
-        <v>18.33</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2478,47 +2478,47 @@
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>2.56</v>
+      <c r="C38" t="n">
+        <v>1.760000000000001</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6.369999999999999</v>
+        <v>5.48</v>
       </c>
       <c r="E38" t="n">
-        <v>4.350000000000001</v>
+        <v>5.290000000000001</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>18.02</v>
+        <v>17.24</v>
       </c>
       <c r="G38" t="n">
-        <v>6.68</v>
+        <v>8.490000000000002</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-10.38</v>
+        <v>-11.08</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>2.09</v>
+        <v>2.460000000000001</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>5.62</v>
+        <v>4.19</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>10.51</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>9.220000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>17</v>
+        <v>17.01</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>0.7799999999999976</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>-2.870000000000001</v>
+        <v>-3.450000000000003</v>
       </c>
       <c r="P38" t="n">
-        <v>13.51</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2529,16 +2529,16 @@
         <v>85</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6.15</v>
+        <v>5.9</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-1.989999999999999</v>
+        <v>-1.72</v>
       </c>
       <c r="F39" t="n">
-        <v>9.58</v>
+        <v>11.15</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2550,16 +2550,16 @@
         <v>19</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>3.109999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>10.29</v>
+        <v>10.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M39" t="n">
-        <v>8.559999999999999</v>
+        <v>10.92</v>
       </c>
       <c r="N39" t="s">
         <v>19</v>
@@ -2579,46 +2579,46 @@
         <v>87</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-2.09</v>
+        <v>-2.76</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6.99</v>
+        <v>6.19</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-7.789999999999999</v>
+        <v>-7.01</v>
       </c>
       <c r="F40" t="n">
-        <v>8.17</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>47.61</v>
+        <v>44.98999999999999</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>37.19</v>
+        <v>38.79000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>12.81</v>
+        <v>12.56</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9699999999999998</v>
+        <v>-0.3300000000000001</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>11.13</v>
+        <v>10.59</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>-2.92</v>
+        <v>-2.42</v>
       </c>
       <c r="M40" t="n">
-        <v>7.15</v>
+        <v>9.32</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>41.70999999999999</v>
+        <v>37.70999999999999</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>44.7</v>
+        <v>46.42</v>
       </c>
       <c r="P40" t="n">
-        <v>24.23</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2628,44 +2628,44 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>-1.06</v>
+      <c r="C41" t="n">
+        <v>-0.1799999999999997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8099999999999996</v>
+        <v>1.78</v>
       </c>
       <c r="E41" t="n">
-        <v>2.220000000000001</v>
+        <v>2.27</v>
       </c>
       <c r="F41" t="n">
-        <v>8.91</v>
+        <v>10.36</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>36.06</v>
+        <v>32.03</v>
       </c>
       <c r="H41" t="n">
-        <v>9.299999999999997</v>
+        <v>11.5</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="J41" t="n">
-        <v>2</v>
+      <c r="J41" s="2" t="n">
+        <v>2.25</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>4.949999999999999</v>
+        <v>6.180000000000001</v>
       </c>
       <c r="L41" t="n">
-        <v>7.09</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>7.890000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>30.16</v>
+        <v>24.75</v>
       </c>
       <c r="O41" t="n">
-        <v>16.81</v>
+        <v>19.13</v>
       </c>
       <c r="P41" t="s">
         <v>19</v>
@@ -2679,46 +2679,46 @@
         <v>91</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-5.45</v>
+        <v>-3.91</v>
       </c>
       <c r="D42" t="n">
-        <v>1.09</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-2.06</v>
+        <v>-1.449999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>6.97</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>17.81</v>
+        <v>12.79</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>-0.05000000000000426</v>
+        <v>0.3399999999999963</v>
       </c>
       <c r="I42" t="n">
-        <v>14.58</v>
+        <v>16.41</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>-2.39</v>
+        <v>-1.48</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>5.23</v>
+        <v>5.12</v>
       </c>
       <c r="L42" t="n">
-        <v>2.81</v>
+        <v>3.140000000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>5.95</v>
+        <v>8.98</v>
       </c>
       <c r="N42" t="n">
-        <v>11.91</v>
+        <v>5.510000000000002</v>
       </c>
       <c r="O42" t="n">
-        <v>7.459999999999997</v>
+        <v>7.969999999999995</v>
       </c>
       <c r="P42" t="n">
-        <v>26</v>
+        <v>27.72</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -62,6 +62,15 @@
     <t>南方天元新产业股票(LOF)</t>
   </si>
   <si>
+    <t>005001</t>
+  </si>
+  <si>
+    <t>交银持续成长主题混合</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>004263</t>
   </si>
   <si>
@@ -74,9 +83,6 @@
     <t>长城智能产业灵活配置混合</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>001473</t>
   </si>
   <si>
@@ -233,10 +239,10 @@
     <t>工银圆兴混合</t>
   </si>
   <si>
-    <t>005001</t>
-  </si>
-  <si>
-    <t>交银持续成长主题混合</t>
+    <t>001043</t>
+  </si>
+  <si>
+    <t>工银美丽城镇股票</t>
   </si>
   <si>
     <t>519069</t>
@@ -291,6 +297,12 @@
   </si>
   <si>
     <t>汇添富全球互联混合</t>
+  </si>
+  <si>
+    <t>004877</t>
+  </si>
+  <si>
+    <t>汇添富全球医疗混合人民币</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,46 +741,46 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-2.88</v>
+        <v>-7.88</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8.56</v>
+        <v>7.880000000000001</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-2.069999999999999</v>
+        <v>-1.98</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18.53</v>
+        <v>13.26</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>25.34</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-1.670000000000002</v>
+        <v>-0.3399999999999963</v>
       </c>
       <c r="I3" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.4500000000000002</v>
+        <v>16.83</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-4.17</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>12.96</v>
+        <v>10.91</v>
       </c>
       <c r="L3" t="n">
-        <v>2.52</v>
+        <v>3.79</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>15.3</v>
+        <v>14.94</v>
       </c>
       <c r="N3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>5.959999999999997</v>
+        <v>14.73</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.650000000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>28.27</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -779,46 +791,46 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-1.44</v>
+        <v>-1.65</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5300000000000002</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-4.71</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.23</v>
+        <v>-5.27</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.97</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>24.12</v>
+        <v>28.69</v>
       </c>
       <c r="H4" t="n">
-        <v>16.22</v>
+        <v>17.76</v>
       </c>
       <c r="I4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9900000000000002</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>4.930000000000001</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>-0.1200000000000001</v>
+        <v>8.5</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4999999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2.65</v>
       </c>
       <c r="N4" t="n">
-        <v>16.84</v>
+        <v>18.08</v>
       </c>
       <c r="O4" t="n">
-        <v>23.85</v>
+        <v>24.75</v>
       </c>
       <c r="P4" t="n">
-        <v>19.33</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -828,97 +840,97 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.02</v>
+      <c r="C5" s="1" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-3.44</v>
       </c>
       <c r="F5" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2.580000000000002</v>
+        <v>1.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.77</v>
       </c>
       <c r="H5" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>11.58</v>
+        <v>19.28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.18</v>
       </c>
       <c r="L5" t="n">
-        <v>8.609999999999999</v>
+        <v>2.33</v>
       </c>
       <c r="M5" t="n">
-        <v>4.36</v>
+        <v>3.35</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>-4.699999999999999</v>
+        <v>-2.84</v>
       </c>
       <c r="O5" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="P5" t="n">
-        <v>25.34</v>
+        <v>26.27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>-6.81</v>
+        <v>11.63</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.31</v>
       </c>
       <c r="F6" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>29.32</v>
+        <v>6.66</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.93</v>
       </c>
       <c r="H6" t="n">
-        <v>9.409999999999997</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
+        <v>14.16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.7</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>3.95</v>
+        <v>5.07</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>-2.22</v>
+        <v>14.66</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.08</v>
       </c>
       <c r="M6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>22.04</v>
+        <v>8.34</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>-8.68</v>
       </c>
       <c r="O6" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="P6" t="s">
-        <v>19</v>
+        <v>21.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -929,46 +941,46 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.950000000000001</v>
+        <v>-4.899999999999999</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>-5.53</v>
       </c>
       <c r="F7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>-3.850000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6800000000000002</v>
+        <v>6.77</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>37.02</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>-1.19</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>9.540000000000001</v>
+        <v>9.549999999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2399999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.919999999999998</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>40.64999999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.460000000000001</v>
+        <v>8.449999999999999</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -978,47 +990,47 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0600000000000005</v>
+      <c r="C8" s="1" t="n">
+        <v>-2.14</v>
       </c>
       <c r="D8" t="n">
-        <v>4.470000000000001</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>9.399999999999999</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>-1.539999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.18</v>
+        <v>1.18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.389999999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>33.57</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>4.300000000000001</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>8.870000000000001</v>
+        <v>-3.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.209999999999999</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>-8.82</v>
-      </c>
-      <c r="O8" t="n">
-        <v>14.81</v>
+        <v>11.37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.640000000000004</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>40.56</v>
       </c>
       <c r="P8" t="n">
-        <v>15.61</v>
+        <v>7.039999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1028,47 +1040,47 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>-1.26</v>
+      <c r="C9" s="2" t="n">
+        <v>3.91</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9900000000000002</v>
+        <v>2.26</v>
       </c>
       <c r="E9" t="n">
-        <v>1.23</v>
+        <v>7.510000000000001</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.450000000000003</v>
+        <v>18.25</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H9" t="n">
-        <v>13.76</v>
+        <v>6.340000000000003</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>-1.420000000000002</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.17</v>
+        <v>5.629999999999999</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>7.62</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>5.390000000000001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.82</v>
+        <v>5.289999999999999</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>13.28</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>15.53</v>
+        <v>19.93</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>-2.829999999999998</v>
+        <v>-12.61</v>
       </c>
       <c r="O9" t="n">
-        <v>21.39</v>
+        <v>13.33</v>
       </c>
       <c r="P9" t="n">
-        <v>9.890000000000001</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1078,47 +1090,47 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.31</v>
+      <c r="C10" s="1" t="n">
+        <v>-1.82</v>
       </c>
       <c r="D10" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>-2</v>
+        <v>1.710000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.22</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>18.11</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>46.65000000000001</v>
+        <v>14.22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.71</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>3.140000000000001</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>3.74</v>
+        <v>-0.7100000000000009</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.89</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>8.630000000000001</v>
+        <v>4.74</v>
       </c>
       <c r="L10" t="n">
-        <v>2.59</v>
+        <v>6.989999999999999</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>54.28</v>
+        <v>15.9</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="O10" t="n">
+        <v>21.7</v>
       </c>
       <c r="P10" t="n">
-        <v>14.45</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1129,46 +1141,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.48</v>
+        <v>-0.5799999999999996</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>5.540000000000001</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>4.420000000000002</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.729999999999999</v>
+        <v>-3.9</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>3.09</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>2.18</v>
+        <v>3.13</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.880000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8900000000000006</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6.17</v>
+        <v>1.87</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>19.17</v>
       </c>
       <c r="N11" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.05</v>
+        <v>14.69</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>55.69</v>
       </c>
       <c r="P11" t="n">
-        <v>21.04</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1178,47 +1190,47 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>5.35</v>
+      <c r="C12" s="1" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.880000000000001</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-3.989999999999999</v>
+        <v>-2</v>
       </c>
       <c r="F12" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2.59</v>
+        <v>2.15</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.130000000000003</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.29</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>9.75</v>
+        <v>5.91</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6000000000000005</v>
+        <v>3.77</v>
       </c>
       <c r="M12" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" t="s">
-        <v>19</v>
+        <v>3.83</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20.29</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1228,47 +1240,47 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.6200000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.15</v>
+      <c r="C13" s="1" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-4.39</v>
       </c>
       <c r="F13" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>5.089999999999996</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.349999999999998</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.81</v>
+        <v>7.44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>2.6</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>6.33</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>5.74</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="O13" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="P13" t="n">
-        <v>17.66</v>
+        <v>9.120000000000001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1278,47 +1290,47 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>-2.22</v>
+      <c r="C14" t="n">
+        <v>-0.08999999999999986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9699999999999998</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>-0.3599999999999994</v>
+        <v>1.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.46</v>
       </c>
       <c r="F14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5.490000000000002</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.140000000000001</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.279999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>4.23</v>
+        <v>7.23</v>
       </c>
       <c r="M14" t="n">
-        <v>5.57</v>
+        <v>7.09</v>
       </c>
       <c r="N14" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
+        <v>3.039999999999999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="P14" t="n">
+        <v>18.02</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1329,46 +1341,46 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-6.18</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>-4.89</v>
+        <v>-2.32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.16</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-6.02</v>
+        <v>-0.9199999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>8.379999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.850000000000001</v>
+        <v>3.9</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>27.46</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>-3.75</v>
+        <v>17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.39</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>-1.43</v>
+        <v>4.19</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.85</v>
       </c>
       <c r="M15" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>-0.4299999999999997</v>
+        <v>5.58</v>
+      </c>
+      <c r="N15" t="n">
+        <v>16.85</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1378,47 +1390,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>14.58</v>
+      <c r="C16" s="1" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-9.58</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-0.2400000000000002</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.74</v>
       </c>
       <c r="G16" t="n">
-        <v>6.390000000000001</v>
+        <v>16.09</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>8.1</v>
+        <v>2.6</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>-6.550000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>-0.8900000000000006</v>
+        <v>5.529999999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.48</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1428,47 +1440,47 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>-5.529999999999999</v>
+      <c r="C17" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.98</v>
       </c>
       <c r="F17" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>-5.029999999999999</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>3.769999999999996</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10.53</v>
+        <v>11.37</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.440000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>13.05</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-12.31</v>
-      </c>
-      <c r="O17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>30.42</v>
+        <v>-1.169999999999998</v>
+      </c>
+      <c r="O17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1478,47 +1490,47 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.3000000000000007</v>
+      <c r="C18" s="1" t="n">
+        <v>-1.9</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>-0.8599999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.73</v>
+        <v>-3.6</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>-3.15</v>
       </c>
       <c r="F18" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="G18" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25.74</v>
+        <v>10.58</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-4.609999999999999</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>3.780000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.54</v>
+        <v>20.21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>-0.5700000000000003</v>
       </c>
       <c r="L18" t="n">
-        <v>8.32</v>
+        <v>2.62</v>
       </c>
       <c r="M18" t="n">
-        <v>7.460000000000001</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>33.37</v>
+        <v>12.26</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>-15.22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10.77</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>33.1</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1529,46 +1541,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4400000000000004</v>
+        <v>0.9400000000000004</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-0.9499999999999993</v>
       </c>
       <c r="E19" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15.73</v>
+        <v>6.62</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>20.97</v>
       </c>
       <c r="H19" t="n">
-        <v>29</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>-0.5600000000000023</v>
+        <v>26.77999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21.25</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>4.840000000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.94</v>
+        <v>4.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>9.140000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>10.86</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>8.449999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>36.63</v>
-      </c>
-      <c r="P19" t="n">
-        <v>10.75</v>
+        <v>33.77</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>32.13</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1578,47 +1590,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>-3.24</v>
+      <c r="C20" t="n">
+        <v>1.66</v>
       </c>
       <c r="D20" t="n">
-        <v>1.35</v>
+        <v>-0.3699999999999992</v>
       </c>
       <c r="E20" t="n">
-        <v>3.66</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>9.699999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="G20" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>52.90000000000001</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>5.75</v>
+        <v>17.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>-0.2699999999999996</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.66</v>
       </c>
       <c r="L20" t="n">
-        <v>8.25</v>
+        <v>8.77</v>
       </c>
       <c r="M20" t="n">
-        <v>9.470000000000001</v>
+        <v>11.82</v>
       </c>
       <c r="N20" t="n">
-        <v>3.699999999999999</v>
+        <v>6.790000000000003</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>60.53</v>
+        <v>35.34</v>
       </c>
       <c r="P20" t="n">
-        <v>22.49</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1628,47 +1640,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.3100000000000005</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>5.15</v>
+      <c r="C21" s="1" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-0.5699999999999994</v>
       </c>
       <c r="E21" t="n">
-        <v>8.370000000000001</v>
+        <v>4.69</v>
       </c>
       <c r="F21" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
+        <v>7.21</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.47</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>9.550000000000001</v>
+        <v>2.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.46</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>12.96</v>
+        <v>10.46</v>
       </c>
       <c r="M21" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="O21" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="P21" t="s">
-        <v>19</v>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1.580000000000002</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="P21" t="n">
+        <v>21.35</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1679,46 +1691,46 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8000000000000007</v>
+        <v>-0.8799999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>-2.029999999999999</v>
+        <v>2.780000000000001</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>11.25</v>
       </c>
       <c r="F22" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="G22" t="n">
-        <v>17.95</v>
+        <v>3.45</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>34.13</v>
       </c>
       <c r="H22" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14.68</v>
+        <v>17.32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>3.23</v>
+        <v>2.83</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.56</v>
+        <v>5.81</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>17.02</v>
       </c>
       <c r="M22" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>30.42</v>
-      </c>
-      <c r="P22" t="n">
-        <v>25.99</v>
+        <v>5.13</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="O22" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="P22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1728,47 +1740,47 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>16.9</v>
+      <c r="C23" t="n">
+        <v>-0.7199999999999998</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.58</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>21.93</v>
+        <v>24.92</v>
       </c>
       <c r="H23" t="n">
-        <v>27.06999999999999</v>
+        <v>23.77</v>
       </c>
       <c r="I23" t="n">
-        <v>8.059999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>4.53</v>
+        <v>2.99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>11.14</v>
+        <v>6.98</v>
       </c>
       <c r="L23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>16.67</v>
+        <v>4.16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.26</v>
       </c>
       <c r="N23" t="n">
-        <v>14.65</v>
+        <v>14.31</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>34.69999999999999</v>
+        <v>30.76</v>
       </c>
       <c r="P23" t="n">
-        <v>19.37</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1778,47 +1790,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>-3.58</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>-4.08</v>
+      <c r="C24" t="n">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>7.43</v>
       </c>
       <c r="E24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>-11.33</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>3.100000000000001</v>
+        <v>3.680000000000001</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="H24" t="n">
+        <v>28.73</v>
       </c>
       <c r="I24" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>-18.61</v>
-      </c>
-      <c r="O24" t="n">
-        <v>10.73</v>
+        <v>8.420000000000002</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>9.450000000000001</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>35.72</v>
       </c>
       <c r="P24" t="n">
-        <v>21.79</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1828,47 +1840,47 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>-1.01</v>
+      <c r="C25" t="n">
+        <v>-0.3599999999999999</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-0.9500000000000002</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>-2.51</v>
+        <v>-6.1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.03</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>58.62</v>
+        <v>-1.56</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-9.280000000000001</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0.4500000000000028</v>
       </c>
       <c r="I25" t="n">
-        <v>7.739999999999998</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
+        <v>9.52</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>-3.07</v>
       </c>
       <c r="L25" t="n">
-        <v>2.08</v>
+        <v>7.8</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>66.25</v>
+        <v>0.1199999999999997</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>-19.89</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.440000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>19.05</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1878,47 +1890,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>5.390000000000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.609999999999999</v>
+      <c r="C26" s="1" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.870000000000001</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-5.859999999999999</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="G26" t="n">
-        <v>8.030000000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>27.54000000000001</v>
+        <v>-1.35</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>61.75000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>4.95</v>
+        <v>9.190000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.06</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>9.790000000000001</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>11.2</v>
+        <v>5.9</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>-0.09000000000000008</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>0.75</v>
+        <v>0.3299999999999998</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17.31</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>35.17</v>
+        <v>68.74000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>23.33</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1929,46 +1941,46 @@
         <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4199999999999999</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>-3.19</v>
-      </c>
-      <c r="F27" t="n">
-        <v>9.16</v>
+        <v>1.05</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-2.53</v>
       </c>
       <c r="G27" t="n">
-        <v>13.86</v>
+        <v>10.52</v>
       </c>
       <c r="H27" t="n">
-        <v>22.24</v>
+        <v>29.46</v>
       </c>
       <c r="I27" t="n">
-        <v>12.52</v>
+        <v>12.8</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>2.01</v>
+        <v>4.76</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6.580000000000002</v>
-      </c>
-      <c r="O27" t="n">
-        <v>29.87</v>
+        <v>11.1</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>-0.8500000000000001</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>-0.08999999999999986</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>36.45</v>
       </c>
       <c r="P27" t="n">
-        <v>23.83</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1979,46 +1991,46 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>11.57</v>
+        <v>0.6100000000000003</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.15</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-4.47</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>17.47</v>
+        <v>-3.05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.06</v>
       </c>
       <c r="G28" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
+        <v>19.47</v>
+      </c>
+      <c r="H28" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.73</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>2.46</v>
+        <v>4.32</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>15.97</v>
+        <v>5.18</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>17.24</v>
+        <v>2.72</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.74</v>
       </c>
       <c r="N28" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="O28" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" t="s">
-        <v>19</v>
+        <v>8.860000000000003</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23.61</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2029,46 +2041,46 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-2.63</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.15</v>
+        <v>-2.22</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>8.75</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-3.16</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="G29" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="H29" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13.77</v>
+        <v>13.19</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.2000000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>7.550000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>4.97</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>16.01</v>
+        <v>14.87</v>
       </c>
       <c r="N29" t="n">
-        <v>8.650000000000002</v>
-      </c>
-      <c r="O29" t="n">
-        <v>24.61</v>
-      </c>
-      <c r="P29" t="n">
-        <v>25.08</v>
+        <v>12.6</v>
+      </c>
+      <c r="O29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2078,47 +2090,47 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.88</v>
+      <c r="C30" s="1" t="n">
+        <v>-2.63</v>
       </c>
       <c r="D30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.8499999999999996</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.97</v>
+        <v>3.48</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>13.48</v>
       </c>
       <c r="G30" t="n">
-        <v>15.01</v>
+        <v>19.35</v>
       </c>
       <c r="H30" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>5.640000000000001</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>4.31</v>
+        <v>17.64</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.08</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>7.5</v>
+        <v>6.51</v>
       </c>
       <c r="L30" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M30" t="n">
-        <v>7.74</v>
+        <v>2.1</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>15.16</v>
       </c>
       <c r="N30" t="n">
-        <v>7.73</v>
+        <v>8.739999999999998</v>
       </c>
       <c r="O30" t="n">
-        <v>27.29</v>
+        <v>24.63</v>
       </c>
       <c r="P30" t="n">
-        <v>16.95</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2129,46 +2141,46 @@
         <v>69</v>
       </c>
       <c r="C31" t="n">
-        <v>1.41</v>
+        <v>0.5900000000000003</v>
       </c>
       <c r="D31" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>-4.199999999999999</v>
+        <v>3.52</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3600000000000003</v>
       </c>
       <c r="F31" t="n">
-        <v>10.07</v>
+        <v>10.64</v>
       </c>
       <c r="G31" t="n">
-        <v>9.540000000000003</v>
+        <v>13.77</v>
       </c>
       <c r="H31" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8.359999999999999</v>
+        <v>21.43</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>5.740000000000002</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>3.84</v>
+        <v>4.3</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>6.95</v>
+        <v>6.549999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3900000000000006</v>
+        <v>6.13</v>
       </c>
       <c r="M31" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>2.260000000000002</v>
+        <v>12.32</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.16</v>
       </c>
       <c r="O31" t="n">
-        <v>30</v>
+        <v>28.42</v>
       </c>
       <c r="P31" t="n">
-        <v>19.67</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2179,46 +2191,46 @@
         <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.8199999999999994</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>5.25</v>
+        <v>1.76</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.720000000000001</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-1.27</v>
+        <v>-3.69</v>
       </c>
       <c r="F32" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.61</v>
+        <v>6.83</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.830000000000002</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>5.47</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>9.65</v>
+        <v>5.75</v>
       </c>
       <c r="L32" t="n">
-        <v>3.32</v>
+        <v>2.08</v>
       </c>
       <c r="M32" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="N32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" t="s">
-        <v>19</v>
+        <v>8.51</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="P32" t="n">
+        <v>18.71</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2228,47 +2240,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>-3.569999999999999</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>-1.04</v>
+      <c r="C33" t="n">
+        <v>-0.2399999999999998</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>5.01</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-2.76</v>
+        <v>-0.1100000000000003</v>
       </c>
       <c r="F33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G33" t="n">
-        <v>7.260000000000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>15.65</v>
+        <v>8.67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.36</v>
+        <v>17</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>8.039999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>1.83</v>
+        <v>5.659999999999999</v>
       </c>
       <c r="M33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="O33" t="n">
-        <v>23.28</v>
+        <v>10.35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" t="s">
+        <v>17</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2279,46 +2291,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03000000000000025</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>2.35</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.000000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>6.640000000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.390000000000001</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8.419999999999998</v>
+        <v>8.949999999999999</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>5.34</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>2.46</v>
+        <v>4.02</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.49</v>
+        <v>5.379999999999999</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>9.770000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>-2.890000000000001</v>
+        <v>10.63</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.02</v>
       </c>
       <c r="O34" t="n">
-        <v>10.81</v>
+        <v>20.95</v>
       </c>
       <c r="P34" t="n">
-        <v>19.73</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2328,47 +2340,47 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>-0.7799999999999998</v>
+      <c r="C35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7200000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>14.99</v>
+        <v>1.76</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.76</v>
       </c>
       <c r="G35" t="n">
-        <v>4.470000000000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6.630000000000003</v>
+        <v>4.199999999999999</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>3.210000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>7.460000000000001</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>-1.42</v>
+        <v>8.650000000000002</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>5.48</v>
       </c>
       <c r="K35" t="n">
-        <v>3.62</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>14.76</v>
+        <v>7.529999999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7.44</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>-2.809999999999999</v>
+        <v>-6.41</v>
       </c>
       <c r="O35" t="n">
-        <v>14.26</v>
+        <v>10.2</v>
       </c>
       <c r="P35" t="n">
-        <v>18.77</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2378,47 +2390,47 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.3200000000000003</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9.370000000000001</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>24.87</v>
+      <c r="C36" s="1" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-1.569999999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.219999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M36" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>17.59</v>
+        <v>6.800000000000004</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.01999999999999996</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>-5.390000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="P36" t="s">
-        <v>19</v>
+        <v>13.79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>19.88</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2428,47 +2440,47 @@
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>-1.59</v>
+      <c r="C37" t="n">
+        <v>0.2800000000000002</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3900000000000001</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.8499999999999996</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-1.57</v>
       </c>
       <c r="F37" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.650000000000002</v>
+        <v>6.58</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>27.47</v>
       </c>
       <c r="H37" t="n">
-        <v>9.269999999999996</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.8399999999999999</v>
+        <v>23.35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>3.99</v>
       </c>
       <c r="K37" t="n">
-        <v>4.01</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>5.01</v>
+        <v>4.2</v>
       </c>
       <c r="M37" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>-0.629999999999999</v>
-      </c>
-      <c r="O37" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P37" t="n">
-        <v>18.72</v>
+        <v>8.26</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="P37" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2479,46 +2491,46 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>1.760000000000001</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>5.48</v>
+        <v>0.01000000000000023</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>-0.7599999999999998</v>
       </c>
       <c r="E38" t="n">
-        <v>5.290000000000001</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>17.24</v>
+        <v>1.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.58</v>
       </c>
       <c r="G38" t="n">
-        <v>8.490000000000002</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>-11.08</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>2.460000000000001</v>
+        <v>7.050000000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.350000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.210000000000001</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>17.01</v>
+        <v>3.72</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="M38" t="n">
+        <v>11.26</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>1.210000000000001</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>-3.450000000000003</v>
+        <v>-3.559999999999999</v>
+      </c>
+      <c r="O38" t="n">
+        <v>16.34</v>
       </c>
       <c r="P38" t="n">
-        <v>13.77</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2528,47 +2540,47 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.3799999999999999</v>
+      <c r="C39" s="1" t="n">
+        <v>-1.07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="F39" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>19</v>
+        <v>5.800000000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.010000000000001</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-11.53</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>2.75</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M39" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="N39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" t="s">
-        <v>19</v>
-      </c>
-      <c r="P39" t="s">
-        <v>19</v>
+        <v>8.83</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>2.350000000000001</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>-4.539999999999999</v>
+      </c>
+      <c r="P39" t="n">
+        <v>13.63</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2578,47 +2590,47 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>-2.76</v>
+      <c r="C40" t="n">
+        <v>-0.71</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6.19</v>
+        <v>5.190000000000001</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-7.01</v>
+        <v>-1.59</v>
       </c>
       <c r="F40" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>44.98999999999999</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>38.79000000000001</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-0.3300000000000001</v>
+        <v>7.82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>-2.42</v>
+        <v>8.220000000000001</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.18</v>
       </c>
       <c r="M40" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>37.70999999999999</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>46.42</v>
-      </c>
-      <c r="P40" t="n">
-        <v>23.87</v>
+        <v>9.5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2629,46 +2641,46 @@
         <v>89</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0.1300000000000003</v>
       </c>
       <c r="D41" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.27</v>
+        <v>2.52</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-5.4</v>
       </c>
       <c r="F41" t="n">
-        <v>10.36</v>
+        <v>3.73</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I41" t="s">
-        <v>19</v>
+        <v>50.20999999999999</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13.03</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>2.25</v>
+        <v>3.84</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>6.180000000000001</v>
+        <v>5.549999999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>6.859999999999999</v>
+        <v>0.3699999999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>10.13</v>
+        <v>5.41</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="O41" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="P41" t="s">
-        <v>19</v>
+        <v>39.59999999999999</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>52.47</v>
+      </c>
+      <c r="P41" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2678,47 +2690,147 @@
       <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>-3.91</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.7199999999999998</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>-1.449999999999999</v>
+      <c r="C42" s="2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7.489999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="G42" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>0.3399999999999963</v>
-      </c>
-      <c r="I42" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>37.56</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6499999999999995</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="P42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-0.240000000000002</v>
+      </c>
+      <c r="I43" t="n">
         <v>16.41</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.140000000000001</v>
-      </c>
-      <c r="M42" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.510000000000002</v>
-      </c>
-      <c r="O42" t="n">
-        <v>7.969999999999995</v>
-      </c>
-      <c r="P42" t="n">
-        <v>27.72</v>
+      <c r="J43" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>-0.9400000000000004</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.949999999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.320000000000004</v>
+      </c>
+      <c r="O43" t="n">
+        <v>6.749999999999996</v>
+      </c>
+      <c r="P43" t="n">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0900000000000003</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>-2.989999999999999</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>-2.420000000000002</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="N44" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>4.569999999999997</v>
+      </c>
+      <c r="P44" t="n">
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -68,21 +68,27 @@
     <t>交银持续成长主题混合</t>
   </si>
   <si>
+    <t>519224</t>
+  </si>
+  <si>
+    <t>海富通欣荣混合A</t>
+  </si>
+  <si>
+    <t>004263</t>
+  </si>
+  <si>
+    <t>华安沪港深机会灵活配置混合</t>
+  </si>
+  <si>
+    <t>005738</t>
+  </si>
+  <si>
+    <t>长城智能产业灵活配置混合</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
-    <t>004263</t>
-  </si>
-  <si>
-    <t>华安沪港深机会灵活配置混合</t>
-  </si>
-  <si>
-    <t>005738</t>
-  </si>
-  <si>
-    <t>长城智能产业灵活配置混合</t>
-  </si>
-  <si>
     <t>001473</t>
   </si>
   <si>
@@ -128,7 +134,7 @@
     <t>000006</t>
   </si>
   <si>
-    <t>西部利得量化成长混合</t>
+    <t>西部利得量化成长混合A</t>
   </si>
   <si>
     <t>006327</t>
@@ -161,28 +167,28 @@
     <t>兴全合润混合</t>
   </si>
   <si>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹精选混合</t>
+  </si>
+  <si>
+    <t>001714</t>
+  </si>
+  <si>
+    <t>工银文体产业股票A</t>
+  </si>
+  <si>
+    <t>002846</t>
+  </si>
+  <si>
+    <t>泓德泓华混合</t>
+  </si>
+  <si>
     <t>003889</t>
   </si>
   <si>
     <t>汇安丰泽混合A</t>
-  </si>
-  <si>
-    <t>005827</t>
-  </si>
-  <si>
-    <t>易方达蓝筹精选混合</t>
-  </si>
-  <si>
-    <t>001714</t>
-  </si>
-  <si>
-    <t>工银文体产业股票A</t>
-  </si>
-  <si>
-    <t>002846</t>
-  </si>
-  <si>
-    <t>泓德泓华混合</t>
   </si>
   <si>
     <t>000251</t>
@@ -328,12 +334,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="3" tint="0.5"/>
+        <fgColor indexed="2" tint="0.5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="2" tint="0.5"/>
+        <fgColor indexed="3" tint="0.5"/>
       </patternFill>
     </fill>
   </fills>
@@ -650,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,46 +747,46 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-7.88</v>
+        <v>2.05</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7.880000000000001</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>-1.98</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>-0.3399999999999963</v>
+        <v>-4.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>4.200000000000003</v>
       </c>
       <c r="I3" t="n">
-        <v>16.83</v>
+        <v>16.4</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>-4.17</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>14.94</v>
+        <v>2.46</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>9.620000000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12.68</v>
       </c>
       <c r="N3" t="n">
-        <v>14.73</v>
+        <v>13.66</v>
       </c>
       <c r="O3" t="n">
-        <v>6.650000000000002</v>
+        <v>7.830000000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>27.71</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -790,47 +796,47 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.450000000000001</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>-5.27</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>28.69</v>
+      <c r="C4" s="2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>28.25</v>
       </c>
       <c r="H4" t="n">
-        <v>17.76</v>
+        <v>22.16</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2.06</v>
+        <v>8.749999999999998</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.8300000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4.48</v>
+        <v>4.15</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>18.08</v>
+        <v>19.78</v>
       </c>
       <c r="O4" t="n">
-        <v>24.75</v>
+        <v>25.79</v>
       </c>
       <c r="P4" t="n">
-        <v>19.38</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -840,197 +846,197 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>-3.12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>-3.44</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.67</v>
+      <c r="C5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>-2.100000000000001</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>7.77</v>
+        <v>7.610000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5900000000000001</v>
+        <v>22.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>2.09</v>
       </c>
       <c r="K5" t="n">
-        <v>3.18</v>
+        <v>3.97</v>
       </c>
       <c r="L5" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>-2.84</v>
+        <v>1.3</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>-0.8599999999999994</v>
       </c>
       <c r="O5" t="n">
-        <v>26.27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
+        <v>25.93</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>32.21</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.31</v>
+        <v>0.1800000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.549999999999999</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-0.9700000000000006</v>
       </c>
       <c r="F6" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>1.93</v>
+        <v>3.44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.889999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>14.16</v>
+        <v>10.92</v>
       </c>
       <c r="I6" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>14.66</v>
+        <v>7.359999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>7.619999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>7.08</v>
+        <v>4.47</v>
       </c>
       <c r="M6" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>-8.68</v>
+        <v>5.760000000000001</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>1.419999999999998</v>
       </c>
       <c r="O6" t="n">
-        <v>21.15</v>
+        <v>14.55</v>
       </c>
       <c r="P6" t="n">
-        <v>26.58</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>-4.899999999999999</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>-5.53</v>
+      <c r="C7" t="n">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.139999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>6.77</v>
+        <v>2.48</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>37.02</v>
+        <v>1.869999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>9.549999999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2399999999999999</v>
+        <v>15.83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>10.58</v>
       </c>
       <c r="M7" t="n">
-        <v>8.449999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>26.41</v>
+        <v>-6.600000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>17</v>
+        <v>19.46</v>
+      </c>
+      <c r="P7" t="n">
+        <v>28.54</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>-2.14</v>
+      <c r="C8" s="2" t="n">
+        <v>-1.91</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.389999999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>33.57</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.209999999999999</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>11.37</v>
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.640000000000004</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7.039999999999999</v>
+        <v>3.2</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="O8" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1040,47 +1046,47 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.26</v>
+      <c r="C9" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>-1.62</v>
       </c>
       <c r="E9" t="n">
-        <v>7.510000000000001</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.340000000000003</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>5.629999999999999</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>5.289999999999999</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>-12.61</v>
-      </c>
-      <c r="O9" t="n">
-        <v>13.33</v>
+        <v>5.68</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>34.75000000000001</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>-3.330000000000002</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>38.38000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>16.51</v>
+        <v>6.149999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1090,47 +1096,47 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.710000000000001</v>
+      <c r="C10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>5.24</v>
       </c>
       <c r="E10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>14.22</v>
+        <v>7.51</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>13.24</v>
       </c>
       <c r="G10" t="n">
-        <v>6.699999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>-0.7100000000000009</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.989999999999999</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>-3.91</v>
+        <v>4.790000000000001</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>5.990000000000002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>-3.68</v>
       </c>
       <c r="O10" t="n">
-        <v>21.7</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>10.17</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1141,46 +1147,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5799999999999996</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5.540000000000001</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>8.57</v>
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.3099999999999987</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>5.24</v>
       </c>
       <c r="L11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>19.17</v>
+        <v>7.21</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.949999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>55.69</v>
+        <v>6.800000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.75</v>
       </c>
       <c r="P11" t="n">
-        <v>13.97</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1190,47 +1196,47 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.880000000000001</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>-2</v>
+      <c r="C12" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-1.100000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7.130000000000003</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.41</v>
+        <v>12.91</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>4.349999999999998</v>
       </c>
       <c r="J12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>5.91</v>
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>11.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.83</v>
+        <v>4.34</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>15.23</v>
       </c>
       <c r="N12" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="O12" t="n">
-        <v>14.12</v>
+        <v>12.88</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>60.40000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>20.29</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1240,47 +1246,47 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>-4.39</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
+      <c r="C13" s="2" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.46</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>8.609999999999999</v>
+        <v>-2.02</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>6.42</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>3.13</v>
       </c>
       <c r="M13" t="n">
-        <v>9.120000000000001</v>
-      </c>
-      <c r="N13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" t="s">
-        <v>17</v>
+        <v>1.23</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="O13" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19.94</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1291,46 +1297,46 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0.1300000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.46</v>
+        <v>3.15</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>-2</v>
       </c>
       <c r="F14" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>5.490000000000002</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.140000000000001</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.279999999999999</v>
+        <v>5.19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>9.220000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>7.23</v>
+        <v>3.44</v>
       </c>
       <c r="M14" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.039999999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="P14" t="n">
-        <v>18.02</v>
+        <v>7.510000000000001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1340,47 +1346,47 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>-2.32</v>
+      <c r="C15" t="n">
+        <v>0.6500000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>-0.9199999999999999</v>
+        <v>0.5700000000000003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.89</v>
       </c>
       <c r="F15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
+        <v>4.19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.469999999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.899999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.19</v>
+        <v>1.06</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>6.640000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>4.85</v>
+        <v>7.33</v>
       </c>
       <c r="M15" t="n">
-        <v>5.58</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="O15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" t="s">
-        <v>17</v>
+        <v>5.289999999999999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>18.38</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1390,47 +1396,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>-9.58</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>-0.2400000000000002</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16.09</v>
+      <c r="C16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-0.4200000000000008</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.159999999999999</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>25.47</v>
       </c>
       <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="N16" t="n">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>-6.550000000000001</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.529999999999999</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.48</v>
-      </c>
       <c r="O16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1441,46 +1447,46 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11.37</v>
+        <v>-6.210000000000001</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>-6.36</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.2000000000000002</v>
       </c>
       <c r="G17" t="n">
-        <v>9.440000000000001</v>
+        <v>14.56</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>8.359999999999999</v>
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.1400000000000001</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>-1.169999999999998</v>
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.09</v>
       </c>
       <c r="O17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1490,47 +1496,47 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>-1.9</v>
+      <c r="C18" s="2" t="n">
+        <v>-3.81</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>-3.15</v>
+        <v>4.66</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.19</v>
       </c>
       <c r="F18" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>-4.609999999999999</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>3.780000000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.81</v>
+        <v>6.819999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>-3.4</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-0.5700000000000003</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.62</v>
+        <v>10.73</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>10.63</v>
       </c>
       <c r="M18" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>-15.22</v>
-      </c>
-      <c r="O18" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>31.09</v>
+        <v>9.140000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.899999999999999</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1541,46 +1547,46 @@
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9400000000000004</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>-0.9499999999999993</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.37</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>-4.260000000000001</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-1.77</v>
       </c>
       <c r="F19" t="n">
-        <v>6.62</v>
+        <v>5.089999999999999</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>20.97</v>
+        <v>-2.41</v>
       </c>
       <c r="H19" t="n">
-        <v>26.77999999999999</v>
+        <v>6.840000000000003</v>
       </c>
       <c r="I19" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>4.65</v>
+        <v>21.73</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4099999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>9.140000000000001</v>
+        <v>1.81</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.67</v>
       </c>
       <c r="M19" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>32.13</v>
+        <v>7.409999999999999</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>31.21</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1591,46 +1597,46 @@
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>1.66</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3699999999999992</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4.27</v>
       </c>
       <c r="F20" t="n">
-        <v>10.14</v>
+        <v>4.06</v>
       </c>
       <c r="G20" t="n">
-        <v>17.4</v>
+        <v>19.05</v>
       </c>
       <c r="H20" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>-0.2699999999999996</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8.77</v>
+        <v>28.58</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>9.710000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>11.82</v>
+        <v>6.38</v>
       </c>
       <c r="N20" t="n">
-        <v>6.790000000000003</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10.61</v>
+        <v>10.58</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>32.20999999999999</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>35.47</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1640,47 +1646,47 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>-0.5699999999999994</v>
+      <c r="C21" t="n">
+        <v>-0.5399999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.129999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>4.69</v>
+        <v>3.369999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>7.21</v>
+        <v>7.02</v>
       </c>
       <c r="G21" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>10.46</v>
+        <v>17.27</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>1.509999999999998</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.809999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>1.580000000000002</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>62.09</v>
+        <v>9.34</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>33.23999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>21.35</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1691,46 +1697,46 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8799999999999999</v>
+        <v>-0.61</v>
       </c>
       <c r="D22" t="n">
-        <v>2.780000000000001</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>11.25</v>
+        <v>2.129999999999999</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>10.77</v>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>34.13</v>
+        <v>2.98</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>30.5</v>
       </c>
       <c r="H22" t="n">
-        <v>17.32</v>
+        <v>18.26</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>17.02</v>
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>16.21</v>
       </c>
       <c r="M22" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>23.52</v>
+        <v>5.3</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>22.03</v>
       </c>
       <c r="O22" t="n">
-        <v>24.31</v>
+        <v>21.89</v>
       </c>
       <c r="P22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1741,46 +1747,46 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7199999999999998</v>
+        <v>-0.71</v>
       </c>
       <c r="D23" t="n">
-        <v>3.950000000000001</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>-1.61</v>
+        <v>1.66</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.77</v>
       </c>
       <c r="F23" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>24.92</v>
+        <v>5.53</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>23.42</v>
       </c>
       <c r="H23" t="n">
-        <v>23.77</v>
+        <v>27.72</v>
       </c>
       <c r="I23" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>6.98</v>
+        <v>13.95</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>7.73</v>
       </c>
       <c r="L23" t="n">
-        <v>4.16</v>
+        <v>7.21</v>
       </c>
       <c r="M23" t="n">
-        <v>10.26</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>30.76</v>
+        <v>14.95</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>31.35</v>
       </c>
       <c r="P23" t="n">
-        <v>24.67</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1790,47 +1796,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>7.43</v>
+      <c r="C24" s="2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.48</v>
       </c>
       <c r="E24" t="n">
-        <v>3.680000000000001</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>24.89</v>
+        <v>6.08</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>28.14</v>
       </c>
       <c r="H24" t="n">
-        <v>28.73</v>
+        <v>27.89</v>
       </c>
       <c r="I24" t="n">
-        <v>8.420000000000002</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>9.450000000000001</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>17.53</v>
+        <v>-1.74</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>14.98</v>
       </c>
       <c r="N24" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>35.72</v>
+        <v>19.67</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>31.52</v>
       </c>
       <c r="P24" t="n">
-        <v>19.3</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1841,46 +1847,46 @@
         <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3599999999999999</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>-6.1</v>
+        <v>1.09</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>-2.550000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>-9.280000000000001</v>
+        <v>3.889999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.829999999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14.46</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.4500000000000028</v>
+        <v>51.66</v>
       </c>
       <c r="I25" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="L25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>-19.89</v>
-      </c>
-      <c r="O25" t="n">
-        <v>7.440000000000001</v>
+        <v>13.63</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>9.329999999999998</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.149999999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.989999999999998</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>55.29000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>20.4</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1891,46 +1897,46 @@
         <v>59</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>-3.65</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.870000000000001</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>-5.859999999999999</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>-1.35</v>
+        <v>4.140000000000001</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>-2.510000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.6</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>27.92</v>
+        <v>-8.09</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>61.75000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="I26" t="n">
-        <v>9.190000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>-0.09000000000000008</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>0.3299999999999998</v>
-      </c>
-      <c r="N26" t="n">
-        <v>17.31</v>
+        <v>6.359999999999999</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>4.550000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>-16.56</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>68.74000000000001</v>
+        <v>2.129999999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>20.07</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1941,46 +1947,46 @@
         <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>-2.53</v>
+        <v>1.67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1600000000000001</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>-4.050000000000001</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>-0.9100000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="H27" t="n">
-        <v>29.46</v>
+        <v>16.78</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>74.13</v>
       </c>
       <c r="I27" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>-0.8500000000000001</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>36.45</v>
+        <v>12.87</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>77.76000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>23.68</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1991,46 +1997,46 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6100000000000003</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.06</v>
+        <v>1.26</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-3.43</v>
       </c>
       <c r="G28" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="H28" t="n">
-        <v>24.62</v>
+        <v>9.840000000000002</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>32.68</v>
       </c>
       <c r="I28" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="M28" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8.860000000000003</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>31.61</v>
+        <v>12.99</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>1.370000000000001</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>36.31</v>
       </c>
       <c r="P28" t="n">
-        <v>23.61</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2040,47 +2046,47 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
+      <c r="C29" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-4.050000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>21.23999999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.91</v>
       </c>
       <c r="J29" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>11.78</v>
+        <v>0.51</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>10.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>14.87</v>
+        <v>1.39</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.92</v>
       </c>
       <c r="N29" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="O29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" t="s">
-        <v>17</v>
+        <v>12.77</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="P29" t="n">
+        <v>25.39</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2090,47 +2096,47 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>-2.63</v>
+      <c r="C30" s="2" t="n">
+        <v>-1.8</v>
       </c>
       <c r="D30" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>-3.67</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="G30" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="H30" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>6.51</v>
+        <v>4.33</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>10.4</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>15.16</v>
+        <v>8.24</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10.97</v>
       </c>
       <c r="N30" t="n">
-        <v>8.739999999999998</v>
-      </c>
-      <c r="O30" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="P30" t="n">
-        <v>25.93</v>
+        <v>17.42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2140,47 +2146,47 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.5900000000000003</v>
+      <c r="C31" s="2" t="n">
+        <v>-1.84</v>
       </c>
       <c r="D31" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.3600000000000003</v>
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>-1.17</v>
       </c>
       <c r="F31" t="n">
-        <v>10.64</v>
+        <v>9.579999999999998</v>
       </c>
       <c r="G31" t="n">
-        <v>13.77</v>
+        <v>18.2</v>
       </c>
       <c r="H31" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>5.740000000000002</v>
+        <v>19.55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>19.04</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>6.549999999999999</v>
+        <v>-1.43</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>6.050000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>6.13</v>
+        <v>4.27</v>
       </c>
       <c r="M31" t="n">
-        <v>12.32</v>
+        <v>11.9</v>
       </c>
       <c r="N31" t="n">
-        <v>3.16</v>
+        <v>9.73</v>
       </c>
       <c r="O31" t="n">
-        <v>28.42</v>
+        <v>23.18</v>
       </c>
       <c r="P31" t="n">
-        <v>16.62</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2190,47 +2196,47 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.76</v>
+      <c r="C32" s="1" t="n">
+        <v>2.39</v>
       </c>
       <c r="D32" t="n">
-        <v>2.720000000000001</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>-3.69</v>
+        <v>3.06</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.789999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>6.83</v>
+        <v>5.06</v>
       </c>
       <c r="G32" t="n">
-        <v>14.11</v>
+        <v>15.27</v>
       </c>
       <c r="H32" t="n">
-        <v>23.43</v>
+        <v>23.57</v>
       </c>
       <c r="I32" t="n">
-        <v>7.830000000000002</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.08</v>
+        <v>6.419999999999998</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>9.23</v>
       </c>
       <c r="M32" t="n">
-        <v>8.51</v>
+        <v>7.38</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>30.42</v>
+        <v>6.800000000000001</v>
+      </c>
+      <c r="O32" t="n">
+        <v>27.2</v>
       </c>
       <c r="P32" t="n">
-        <v>18.71</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2241,46 +2247,46 @@
         <v>73</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2399999999999998</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>-3.03</v>
       </c>
       <c r="F33" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>8.039999999999999</v>
+        <v>2.61</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="H33" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>11.79</v>
       </c>
       <c r="L33" t="n">
-        <v>5.659999999999999</v>
+        <v>2.41</v>
       </c>
       <c r="M33" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="N33" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" t="s">
-        <v>17</v>
+        <v>4.930000000000001</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.079999999999998</v>
+      </c>
+      <c r="O33" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20.05</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2291,46 +2297,46 @@
         <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="D34" t="n">
-        <v>2.35</v>
+        <v>3.119999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>4.000000000000001</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>5.379999999999999</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>9.770000000000001</v>
+        <v>6.05</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.640000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="O34" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="P34" t="n">
-        <v>16.22</v>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="N34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2341,46 +2347,46 @@
         <v>77</v>
       </c>
       <c r="C35" t="n">
-        <v>1.77</v>
+        <v>0.1800000000000002</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7200000000000006</v>
+        <v>1.43</v>
       </c>
       <c r="E35" t="n">
-        <v>1.76</v>
+        <v>4.129999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>3.210000000000001</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8.650000000000002</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.529999999999999</v>
+        <v>7.249999999999999</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>5.809999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>9.57</v>
       </c>
       <c r="M35" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>-6.41</v>
+        <v>9.57</v>
+      </c>
+      <c r="N35" t="n">
+        <v>16.68</v>
       </c>
       <c r="O35" t="n">
-        <v>10.2</v>
+        <v>19.04</v>
       </c>
       <c r="P35" t="n">
-        <v>19.53</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2390,47 +2396,47 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>-3.73</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>-1.569999999999999</v>
+      <c r="C36" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.56</v>
       </c>
       <c r="E36" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>14.13</v>
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.2</v>
       </c>
       <c r="G36" t="n">
-        <v>5.219999999999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6.800000000000004</v>
+        <v>6.74</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>4.030000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>8.479999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01999999999999996</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>-5.390000000000001</v>
+        <v>-0.51</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>-1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>13.79</v>
+        <v>7.66</v>
       </c>
       <c r="P36" t="n">
-        <v>19.88</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2441,46 +2447,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2800000000000002</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.8499999999999996</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>-1.57</v>
+        <v>1.69</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.06</v>
       </c>
       <c r="F37" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>27.47</v>
+        <v>9.190000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10.25</v>
       </c>
       <c r="H37" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>3.99</v>
+        <v>7.219999999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>2.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.879999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="M37" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="N37" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="P37" t="s">
-        <v>17</v>
+        <v>11.51</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>1.780000000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="P37" t="n">
+        <v>20.32</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2491,46 +2497,46 @@
         <v>83</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>-0.7599999999999998</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.459999999999999</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>-1.27</v>
       </c>
       <c r="F38" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="G38" t="n">
-        <v>7.050000000000001</v>
+        <v>2.64</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>27.97</v>
       </c>
       <c r="H38" t="n">
-        <v>9.350000000000001</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.27</v>
+        <v>27.98</v>
+      </c>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>7.529999999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>7.47</v>
+        <v>4.17</v>
       </c>
       <c r="M38" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>-3.559999999999999</v>
-      </c>
-      <c r="O38" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="P38" t="n">
-        <v>19.09</v>
+        <v>4.96</v>
+      </c>
+      <c r="N38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="P38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2540,47 +2546,47 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="E39" t="n">
-        <v>5.010000000000001</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>16.95</v>
+      <c r="C39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.1500000000000004</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>-0.9100000000000006</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.28</v>
       </c>
       <c r="G39" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>-11.53</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>2.350000000000001</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>-4.539999999999999</v>
+        <v>13.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.919999999999998</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.529999999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.600000000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.780000000000001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12.31</v>
       </c>
       <c r="P39" t="n">
-        <v>13.63</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2590,47 +2596,47 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>5.190000000000001</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="F40" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="M40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" t="s">
-        <v>17</v>
+      <c r="C40" s="2" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.449999999999999</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="G40" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>-8.229999999999997</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>1.209999999999997</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.989999999999998</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>-4.599999999999998</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10.69</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2640,47 +2646,47 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.1300000000000003</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>-5.4</v>
+      <c r="C41" s="2" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>4.539999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2399999999999993</v>
       </c>
       <c r="F41" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>50.20999999999999</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>5.549999999999999</v>
+        <v>7.069999999999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>10.61</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3699999999999999</v>
+        <v>5.68</v>
       </c>
       <c r="M41" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>39.59999999999999</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>52.47</v>
-      </c>
-      <c r="P41" t="n">
-        <v>23.91</v>
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2691,46 +2697,46 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>-2.38</v>
-      </c>
-      <c r="E42" t="n">
-        <v>7.489999999999999</v>
+        <v>-2.14</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>-0.7100000000000009</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>-3.910000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>37.56</v>
-      </c>
-      <c r="H42" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
+        <v>1.64</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.85</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.6499999999999995</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>13.26</v>
+        <v>-1.73</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>5.359999999999999</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.53</v>
       </c>
       <c r="M42" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="O42" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="P42" t="s">
-        <v>17</v>
+        <v>3.96</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>39.54</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>53.15000000000001</v>
+      </c>
+      <c r="P42" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2740,47 +2746,47 @@
       <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>-3.97</v>
+      <c r="C43" s="2" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.699999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>4.3</v>
+        <v>2.77</v>
       </c>
       <c r="F43" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="G43" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>-0.240000000000002</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16.41</v>
+        <v>1.529999999999999</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>3.5</v>
+        <v>-3.73</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>-0.9400000000000004</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>10.07</v>
+        <v>9.77</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.210000000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>5.949999999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>7.320000000000004</v>
+        <v>3.85</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>29.62</v>
       </c>
       <c r="O43" t="n">
-        <v>6.749999999999996</v>
-      </c>
-      <c r="P43" t="n">
-        <v>27.29</v>
+        <v>24.8</v>
+      </c>
+      <c r="P43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2790,47 +2796,97 @@
       <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.0900000000000003</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>-2.989999999999999</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>-3.71</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>-2.420000000000002</v>
+      <c r="C44" s="2" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G44" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>5.289999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>14.82</v>
+        <v>16.56</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.04000000000000004</v>
+        <v>-2.13</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>4.92</v>
       </c>
       <c r="L44" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>-2.03</v>
+        <v>4.25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.510000000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>4.569999999999997</v>
+        <v>10.07</v>
+      </c>
+      <c r="O44" t="n">
+        <v>8.919999999999998</v>
       </c>
       <c r="P44" t="n">
-        <v>25.7</v>
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.1300000000000008</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>-5.630000000000001</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>-6.279999999999999</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="P45" t="n">
+        <v>24.82</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -56,6 +56,21 @@
     <t>国寿安保稳惠混合</t>
   </si>
   <si>
+    <t>163411</t>
+  </si>
+  <si>
+    <t>兴全精选混合</t>
+  </si>
+  <si>
+    <t>005875</t>
+  </si>
+  <si>
+    <t>易方达中盘成长混合</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>160133</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>长城智能产业灵活配置混合</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>001473</t>
   </si>
   <si>
@@ -197,82 +209,88 @@
     <t>工银金融地产混合A</t>
   </si>
   <si>
+    <t>001938</t>
+  </si>
+  <si>
+    <t>中欧时代先锋股票A</t>
+  </si>
+  <si>
+    <t>519772</t>
+  </si>
+  <si>
+    <t>交银新生活力灵活配置混合</t>
+  </si>
+  <si>
+    <t>007412</t>
+  </si>
+  <si>
+    <t>景顺长城绩优成长混合</t>
+  </si>
+  <si>
+    <t>001500</t>
+  </si>
+  <si>
+    <t>泓德远见回报混合</t>
+  </si>
+  <si>
+    <t>001605</t>
+  </si>
+  <si>
+    <t>国富沪港深成长精选股票</t>
+  </si>
+  <si>
+    <t>519736</t>
+  </si>
+  <si>
+    <t>交银新成长混合</t>
+  </si>
+  <si>
+    <t>009076</t>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+  </si>
+  <si>
+    <t>001043</t>
+  </si>
+  <si>
+    <t>工银美丽城镇股票</t>
+  </si>
+  <si>
+    <t>519069</t>
+  </si>
+  <si>
+    <t>汇添富价值精选混合A</t>
+  </si>
+  <si>
+    <t>000628</t>
+  </si>
+  <si>
+    <t>大成高新技术产业股票A</t>
+  </si>
+  <si>
+    <t>005760</t>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+  </si>
+  <si>
+    <t>450009</t>
+  </si>
+  <si>
+    <t>国富中小盘股票</t>
+  </si>
+  <si>
     <t>001410</t>
   </si>
   <si>
     <t>信达澳银新能源产业股票</t>
   </si>
   <si>
-    <t>001938</t>
-  </si>
-  <si>
-    <t>中欧时代先锋股票A</t>
-  </si>
-  <si>
-    <t>519772</t>
-  </si>
-  <si>
-    <t>交银新生活力灵活配置混合</t>
-  </si>
-  <si>
-    <t>007412</t>
-  </si>
-  <si>
-    <t>景顺长城绩优成长混合</t>
-  </si>
-  <si>
-    <t>001500</t>
-  </si>
-  <si>
-    <t>泓德远见回报混合</t>
-  </si>
-  <si>
-    <t>001605</t>
-  </si>
-  <si>
-    <t>国富沪港深成长精选股票</t>
-  </si>
-  <si>
-    <t>519736</t>
-  </si>
-  <si>
-    <t>交银新成长混合</t>
-  </si>
-  <si>
-    <t>009076</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-  </si>
-  <si>
-    <t>001043</t>
-  </si>
-  <si>
-    <t>工银美丽城镇股票</t>
-  </si>
-  <si>
-    <t>519069</t>
-  </si>
-  <si>
-    <t>汇添富价值精选混合A</t>
-  </si>
-  <si>
-    <t>000628</t>
-  </si>
-  <si>
-    <t>大成高新技术产业股票A</t>
-  </si>
-  <si>
-    <t>005760</t>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-  </si>
-  <si>
-    <t>450009</t>
-  </si>
-  <si>
-    <t>国富中小盘股票</t>
+    <t>005354</t>
+  </si>
+  <si>
+    <t>富国沪港深行业精选混合A</t>
   </si>
   <si>
     <t>160813</t>
@@ -656,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,46 +765,46 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.18</v>
+        <v>-7.170000000000001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>9.260000000000002</v>
       </c>
       <c r="F3" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>22.13</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>4.200000000000003</v>
+        <v>9.07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.859999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>16.4</v>
+        <v>16.75</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
-        <v>1.87</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>9.620000000000001</v>
+        <v>12.75</v>
       </c>
       <c r="M3" t="n">
-        <v>12.68</v>
+        <v>12.85</v>
       </c>
       <c r="N3" t="n">
-        <v>13.66</v>
+        <v>9.59</v>
       </c>
       <c r="O3" t="n">
-        <v>7.830000000000002</v>
+        <v>10.69</v>
       </c>
       <c r="P3" t="n">
-        <v>25.88</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -796,47 +814,47 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>-1.92</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>-4.08</v>
+      <c r="C4" s="1" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.2599999999999998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.69</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22.16</v>
+        <v>-1.26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>33.9</v>
       </c>
       <c r="I4" t="n">
-        <v>8.749999999999998</v>
+        <v>10.3</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8300000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.87</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>7.330000000000001</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>11.18</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>2.52</v>
       </c>
       <c r="N4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25.79</v>
+        <v>7.710000000000001</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>35.73</v>
       </c>
       <c r="P4" t="n">
-        <v>18.23</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -846,197 +864,197 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-3.53</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-1.02</v>
+      <c r="C5" s="1" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.180000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.69</v>
       </c>
       <c r="G5" t="n">
-        <v>7.610000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.91</v>
+        <v>18.31</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>32.66999999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>10.67</v>
       </c>
       <c r="M5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>-0.8599999999999994</v>
-      </c>
-      <c r="O5" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>32.21</v>
+        <v>8.470000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>34.49999999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1800000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.549999999999999</v>
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>-3.850000000000001</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9700000000000006</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.889999999999999</v>
+        <v>-3.61</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-0.1499999999999999</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>27.9</v>
       </c>
       <c r="H6" t="n">
-        <v>10.92</v>
+        <v>21.62</v>
       </c>
       <c r="I6" t="n">
-        <v>7.359999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>7.619999999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.47</v>
+        <v>-0.6500000000000004</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>-0.1199999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>5.760000000000001</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>1.419999999999998</v>
+        <v>3.63</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>20.35</v>
       </c>
       <c r="O6" t="n">
-        <v>14.55</v>
+        <v>23.45</v>
       </c>
       <c r="P6" t="n">
-        <v>16.84</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.139999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1.869999999999999</v>
+        <v>1.25</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-0.9900000000000002</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.300000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>15.83</v>
+        <v>22.52</v>
       </c>
       <c r="I7" t="n">
-        <v>19.06</v>
+        <v>23.48</v>
       </c>
       <c r="J7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>10.58</v>
+        <v>-0.01000000000000023</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.850000000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>-6.600000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="O7" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="P7" t="n">
-        <v>28.54</v>
+        <v>24.35</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>32.54000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>-1.91</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.34</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.8799999999999999</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>38.31</v>
+        <v>-0.2400000000000002</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.420000000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-1.5</v>
+        <v>10.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.07999999999999963</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>6.99</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>29.84</v>
+        <v>7</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>1.870000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
+        <v>12.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>17.04</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1047,46 +1065,46 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-1.62</v>
+        <v>1.33</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>8.829999999999998</v>
       </c>
       <c r="E9" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.54</v>
+        <v>7.55</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.3100000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>34.75000000000001</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-3.330000000000002</v>
+        <v>4.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.34</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.45</v>
+        <v>0.06999999999999984</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>16.42</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>11.12</v>
+        <v>11.04</v>
       </c>
       <c r="M9" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>38.38000000000001</v>
+        <v>4.09</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>-2.710000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15.23</v>
       </c>
       <c r="P9" t="n">
-        <v>6.149999999999999</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1097,46 +1115,46 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.790000000000001</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>5.990000000000002</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>-3.68</v>
+        <v>1.77</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5099999999999998</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>28.8</v>
       </c>
       <c r="O10" t="n">
-        <v>9.620000000000001</v>
-      </c>
-      <c r="P10" t="n">
-        <v>15.82</v>
+        <v>21.56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1147,46 +1165,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.8300000000000001</v>
+        <v>-2.760000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1.77</v>
+        <v>6.06</v>
       </c>
       <c r="F11" t="n">
-        <v>6.63</v>
+        <v>6.58</v>
       </c>
       <c r="G11" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14.12</v>
+        <v>18.09</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>34.86000000000001</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3099999999999987</v>
+        <v>-2.649999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.78</v>
+        <v>-0.7400000000000002</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.21</v>
+        <v>4.83</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>9.550000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>8.949999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="N11" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>17.75</v>
+        <v>10.54</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>36.69</v>
       </c>
       <c r="P11" t="n">
-        <v>9.789999999999999</v>
+        <v>6.410000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1197,46 +1215,46 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-1.100000000000001</v>
+        <v>5.609999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.350000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>56.77</v>
+        <v>11.74</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>4.050000000000004</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>4.349999999999998</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.9299999999999999</v>
+        <v>5.800000000000001</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>-1.77</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.34</v>
+        <v>13.2</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>10.84</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="N12" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>60.40000000000001</v>
+        <v>15.52</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>1.109999999999999</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>5.880000000000003</v>
       </c>
       <c r="P12" t="n">
-        <v>13.83</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1246,47 +1264,47 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>-2.43</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3499999999999996</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>23.61</v>
+      <c r="C13" s="1" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-2.930000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.819999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16.56</v>
       </c>
       <c r="H13" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>-2.02</v>
+        <v>14.39</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>1.170000000000002</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.96</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>6.42</v>
+        <v>4.66</v>
       </c>
       <c r="L13" t="n">
-        <v>3.13</v>
+        <v>6.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.23</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>15.14</v>
+        <v>9.010000000000002</v>
       </c>
       <c r="O13" t="n">
-        <v>14.82</v>
+        <v>16.22</v>
       </c>
       <c r="P13" t="n">
-        <v>19.94</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1297,46 +1315,46 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>-2</v>
+        <v>3.869999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.16</v>
       </c>
       <c r="F14" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
+        <v>10.44</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>4.449999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.54</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>9.220000000000001</v>
+        <v>11.46</v>
       </c>
       <c r="L14" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7.510000000000001</v>
-      </c>
-      <c r="N14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" t="s">
-        <v>23</v>
+        <v>4.65</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13.51</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1347,46 +1365,46 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6500000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5700000000000003</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.19</v>
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-3.050000000000001</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>13.76</v>
+        <v>19.21</v>
       </c>
       <c r="H15" t="n">
-        <v>6.469999999999999</v>
+        <v>15.74</v>
       </c>
       <c r="I15" t="n">
-        <v>8.899999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>-0.6800000000000002</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>6.640000000000001</v>
+        <v>4.54</v>
       </c>
       <c r="L15" t="n">
-        <v>7.33</v>
+        <v>2.74</v>
       </c>
       <c r="M15" t="n">
-        <v>6.510000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="N15" t="n">
-        <v>5.289999999999999</v>
+        <v>11.66</v>
       </c>
       <c r="O15" t="n">
-        <v>10.1</v>
+        <v>17.57</v>
       </c>
       <c r="P15" t="n">
-        <v>18.38</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1396,47 +1414,47 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.98</v>
+      <c r="C16" s="1" t="n">
+        <v>3.32</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>-0.4200000000000008</v>
+        <v>-0.8400000000000007</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.359999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>2.159999999999999</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>25.47</v>
+        <v>1.64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.25</v>
+        <v>2.06</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>6.75</v>
       </c>
       <c r="L16" t="n">
-        <v>5.02</v>
+        <v>5.85</v>
       </c>
       <c r="M16" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="N16" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="N16" t="s">
         <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1447,46 +1465,46 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6900000000000002</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>-6.210000000000001</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>-6.36</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.2000000000000002</v>
+        <v>1.45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3899999999999988</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.48</v>
       </c>
       <c r="G17" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
+        <v>12.97</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.010000000000002</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>-0.9199999999999999</v>
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>2.52</v>
+        <v>8.26</v>
       </c>
       <c r="N17" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="O17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" t="s">
-        <v>23</v>
+        <v>5.419999999999998</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9.649999999999999</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18.07</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1496,47 +1514,47 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>4.66</v>
+      <c r="C18" s="1" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>-2.300000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6.819999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15.37</v>
+        <v>1.96</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.3900000000000001</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>25.7</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-3.4</v>
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>2.51</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>10.63</v>
+        <v>5.29</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.45</v>
       </c>
       <c r="M18" t="n">
-        <v>9.140000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="N18" t="n">
-        <v>6.899999999999999</v>
+        <v>18.15</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1546,47 +1564,47 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
+      <c r="C19" s="1" t="n">
+        <v>9.779999999999999</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-4.260000000000001</v>
+        <v>-8.75</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.77</v>
+        <v>-6.19</v>
       </c>
       <c r="F19" t="n">
-        <v>5.089999999999999</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.840000000000003</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4099999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.67</v>
+        <v>6.139999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.580000000000002</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>-12.31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>-2.7</v>
       </c>
       <c r="M19" t="n">
-        <v>7.409999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="O19" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>31.21</v>
+        <v>1.030000000000001</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="P19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1596,47 +1614,47 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.6499999999999999</v>
+      <c r="C20" s="2" t="n">
+        <v>-1.54</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7699999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="E20" t="n">
-        <v>4.27</v>
+        <v>4.31</v>
       </c>
       <c r="F20" t="n">
-        <v>4.06</v>
+        <v>8.51</v>
       </c>
       <c r="G20" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="H20" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-0.24</v>
+        <v>17.38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>-2.8</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>9.710000000000001</v>
+        <v>9.69</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>6.38</v>
+        <v>12.29</v>
       </c>
       <c r="N20" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>32.20999999999999</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>35.47</v>
+        <v>9.830000000000002</v>
+      </c>
+      <c r="O20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1647,46 +1665,46 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5399999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.129999999999999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.369999999999999</v>
+        <v>-0.1499999999999999</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>-4.180000000000001</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>-1.47</v>
       </c>
       <c r="F21" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G21" t="n">
-        <v>17.27</v>
+        <v>5.859999999999999</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-6.07</v>
       </c>
       <c r="H21" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1.509999999999998</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>9.870000000000005</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.41</v>
       </c>
       <c r="L21" t="n">
-        <v>8.809999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="M21" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>33.23999999999999</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10.99</v>
+        <v>9.640000000000001</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>-13.62</v>
+      </c>
+      <c r="O21" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>31.07</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1697,46 +1715,46 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.129999999999999</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>10.77</v>
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-0.5600000000000005</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.569999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>30.5</v>
+        <v>3.49</v>
+      </c>
+      <c r="G22" t="n">
+        <v>19.55</v>
       </c>
       <c r="H22" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
+        <v>29.29</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27.27</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.2000000000000001</v>
+        <v>-0.5100000000000002</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>16.21</v>
+        <v>7.03</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.059999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="O22" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="P22" t="s">
-        <v>23</v>
+        <v>7.27</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>36.33000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1747,46 +1765,46 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.71</v>
+        <v>1.17</v>
       </c>
       <c r="D23" t="n">
-        <v>1.66</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="E23" t="n">
-        <v>1.77</v>
+        <v>3.89</v>
       </c>
       <c r="F23" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="H23" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13.95</v>
+        <v>7.07</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>2.490000000000002</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.3</v>
+        <v>-0.0900000000000003</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="L23" t="n">
-        <v>7.21</v>
+        <v>7.38</v>
       </c>
       <c r="M23" t="n">
-        <v>7.850000000000001</v>
+        <v>10.85</v>
       </c>
       <c r="N23" t="n">
-        <v>14.95</v>
+        <v>8.779999999999998</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>31.35</v>
+        <v>32.28</v>
       </c>
       <c r="P23" t="n">
-        <v>23.43</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1796,47 +1814,47 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>-2.15</v>
+      <c r="C24" s="1" t="n">
+        <v>2.66</v>
       </c>
       <c r="D24" t="n">
-        <v>4.48</v>
+        <v>1.889999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>6.08</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>12.66</v>
+        <v>4.82</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>28.14</v>
+        <v>32.58</v>
       </c>
       <c r="H24" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.879999999999999</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>-1.74</v>
+        <v>17.03</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.399999999999999</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>10.55</v>
+        <v>9.479999999999999</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="N24" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>31.52</v>
-      </c>
-      <c r="P24" t="n">
-        <v>19.36</v>
+        <v>12.36</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="O24" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="P24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1846,47 +1864,47 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.09</v>
+      <c r="C25" s="1" t="n">
+        <v>2.36</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-2.550000000000001</v>
+        <v>-0.8200000000000003</v>
       </c>
       <c r="E25" t="n">
-        <v>3.889999999999999</v>
+        <v>2.39</v>
       </c>
       <c r="F25" t="n">
-        <v>5.829999999999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>51.66</v>
+        <v>6.32</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27.84</v>
       </c>
       <c r="I25" t="n">
-        <v>13.63</v>
+        <v>14.77</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>9.329999999999998</v>
+        <v>1.1</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.88</v>
       </c>
       <c r="M25" t="n">
-        <v>8.149999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="N25" t="n">
-        <v>5.989999999999998</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>55.29000000000001</v>
+        <v>15.76</v>
+      </c>
+      <c r="O25" t="n">
+        <v>29.67</v>
       </c>
       <c r="P25" t="n">
-        <v>23.11</v>
+        <v>23.83000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1896,47 +1914,47 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>4.140000000000001</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>-4.69</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>-2.510000000000001</v>
+      <c r="C26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>9.289999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>-8.09</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>-1.5</v>
+        <v>11.59</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="H26" t="n">
+        <v>28.01</v>
       </c>
       <c r="I26" t="n">
-        <v>6.359999999999999</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>4.550000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>-16.56</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>2.129999999999999</v>
+        <v>9.950000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>7.590000000000001</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="O26" t="n">
+        <v>29.84</v>
       </c>
       <c r="P26" t="n">
-        <v>15.84</v>
+        <v>19.01000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1946,47 +1964,47 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>-4.050000000000001</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>-0.9100000000000001</v>
+      <c r="C27" s="1" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>-2.580000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.58</v>
       </c>
       <c r="G27" t="n">
-        <v>16.78</v>
+        <v>15.4</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>74.13</v>
+        <v>49.29</v>
       </c>
       <c r="I27" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>2.08</v>
+        <v>14.74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9299999999999997</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>5.91</v>
+        <v>5.01</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>7.52</v>
       </c>
       <c r="M27" t="n">
-        <v>1.41</v>
+        <v>9.360000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>8.309999999999999</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>77.76000000000001</v>
+        <v>51.12</v>
       </c>
       <c r="P27" t="n">
-        <v>22.35</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1997,46 +2015,46 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9.840000000000002</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>32.68</v>
+        <v>1.66</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>-1.369999999999997</v>
       </c>
       <c r="I28" t="n">
-        <v>12.99</v>
+        <v>6.02</v>
       </c>
       <c r="J28" t="n">
-        <v>1.67</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>-1.11</v>
+        <v>5.11</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>-0.9099999999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.7</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.370000000000001</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>36.31</v>
+        <v>-15.94</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.4600000000000009</v>
       </c>
       <c r="P28" t="n">
-        <v>22.47</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2046,47 +2064,47 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.1000000000000001</v>
+      <c r="C29" s="1" t="n">
+        <v>3.39</v>
       </c>
       <c r="D29" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>-4.050000000000001</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>21.23999999999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>29.6</v>
+        <v>4.17</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.350000000000001</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>32.52</v>
       </c>
       <c r="I29" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.51</v>
+        <v>14.59</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>2.13</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.39</v>
+        <v>11.76</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>13.58</v>
       </c>
       <c r="M29" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="N29" t="n">
-        <v>12.77</v>
+        <v>2.46</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>-0.1999999999999993</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>33.23</v>
+        <v>34.35</v>
       </c>
       <c r="P29" t="n">
-        <v>25.39</v>
+        <v>23.65000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2096,47 +2114,47 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>-1.8</v>
+      <c r="C30" s="1" t="n">
+        <v>2.3</v>
       </c>
       <c r="D30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>-2.46</v>
       </c>
       <c r="F30" t="n">
-        <v>8.649999999999999</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>-1.39</v>
+        <v>2.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="I30" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.04</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>10.4</v>
+        <v>10.03</v>
       </c>
       <c r="L30" t="n">
-        <v>8.24</v>
+        <v>1.03</v>
       </c>
       <c r="M30" t="n">
-        <v>10.97</v>
+        <v>6.2</v>
       </c>
       <c r="N30" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>23</v>
+        <v>11.25</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="P30" t="n">
+        <v>26.15</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2146,47 +2164,47 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>-1.84</v>
+      <c r="C31" s="1" t="n">
+        <v>2.19</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>-1.17</v>
+        <v>1.58</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.489999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>9.579999999999998</v>
-      </c>
-      <c r="G31" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>-1.43</v>
+        <v>8.19</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9299999999999997</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>6.050000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="L31" t="n">
-        <v>4.27</v>
+        <v>7.98</v>
       </c>
       <c r="M31" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="O31" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="P31" t="n">
-        <v>28.52</v>
+        <v>11.97</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2196,47 +2214,47 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.06</v>
+      <c r="C32" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>-3.52</v>
       </c>
       <c r="E32" t="n">
-        <v>3.789999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="F32" t="n">
-        <v>5.06</v>
+        <v>6.75</v>
       </c>
       <c r="G32" t="n">
-        <v>15.27</v>
+        <v>18.04</v>
       </c>
       <c r="H32" t="n">
-        <v>23.57</v>
+        <v>20.82</v>
       </c>
       <c r="I32" t="n">
-        <v>6.419999999999998</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>9.23</v>
+        <v>18.93</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.7800000000000002</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.79</v>
       </c>
       <c r="M32" t="n">
-        <v>7.38</v>
+        <v>10.53</v>
       </c>
       <c r="N32" t="n">
-        <v>6.800000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="O32" t="n">
-        <v>27.2</v>
+        <v>22.65</v>
       </c>
       <c r="P32" t="n">
-        <v>15.9</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2246,47 +2264,47 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.3700000000000001</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>5.719999999999999</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>-3.03</v>
+      <c r="C33" s="1" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.11</v>
       </c>
       <c r="F33" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="G33" t="n">
-        <v>16.55</v>
+        <v>1.38</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>21.04</v>
       </c>
       <c r="H33" t="n">
-        <v>22.12</v>
+        <v>21.99</v>
       </c>
       <c r="I33" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.78</v>
+        <v>6.25</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>2.83</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>11.79</v>
+        <v>10.47</v>
       </c>
       <c r="L33" t="n">
-        <v>2.41</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="M33" t="n">
-        <v>4.930000000000001</v>
+        <v>5.16</v>
       </c>
       <c r="N33" t="n">
-        <v>8.079999999999998</v>
+        <v>13.49</v>
       </c>
       <c r="O33" t="n">
-        <v>25.75</v>
+        <v>23.82</v>
       </c>
       <c r="P33" t="n">
-        <v>20.05</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2296,47 +2314,47 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.04000000000000004</v>
+      <c r="C34" s="1" t="n">
+        <v>3.44</v>
       </c>
       <c r="D34" t="n">
-        <v>3.119999999999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3.199999999999999</v>
+        <v>4.01</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-1.11</v>
       </c>
       <c r="F34" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.45</v>
+        <v>1.72</v>
+      </c>
+      <c r="G34" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>2.18</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>9.19</v>
+        <v>11.6</v>
       </c>
       <c r="L34" t="n">
-        <v>8.640000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="M34" t="n">
-        <v>8.370000000000001</v>
-      </c>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" t="s">
-        <v>23</v>
+        <v>5.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.959999999999997</v>
+      </c>
+      <c r="O34" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="P34" t="n">
+        <v>20.85</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2346,47 +2364,47 @@
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.1800000000000002</v>
+      <c r="C35" s="1" t="n">
+        <v>3.27</v>
       </c>
       <c r="D35" t="n">
-        <v>1.43</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>4.129999999999999</v>
+        <v>3.14</v>
       </c>
       <c r="F35" t="n">
-        <v>7.249999999999999</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="H35" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>5.809999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5900000000000001</v>
+        <v>6.629999999999999</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>2.01</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>9.57</v>
+        <v>8.889999999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.63</v>
       </c>
       <c r="M35" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="N35" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="O35" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15.29</v>
+        <v>10.41</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2396,47 +2414,47 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.9199999999999999</v>
+      <c r="C36" s="1" t="n">
+        <v>2.17</v>
       </c>
       <c r="D36" t="n">
-        <v>2.56</v>
+        <v>0.25</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>4.86</v>
       </c>
       <c r="F36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>4.030000000000001</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8.479999999999999</v>
+        <v>7.41</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="H36" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>5.710000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.51</v>
+        <v>0.9099999999999997</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>8.630000000000001</v>
+        <v>7.840000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>5.94</v>
+        <v>8.350000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>-1.73</v>
+        <v>11.19</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16.84</v>
       </c>
       <c r="O36" t="n">
-        <v>7.66</v>
+        <v>19.13</v>
       </c>
       <c r="P36" t="n">
-        <v>17.96</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2447,46 +2465,46 @@
         <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>-5.4</v>
+        <v>1.15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.399999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>3.06</v>
+        <v>0.3399999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>9.190000000000001</v>
+        <v>4.15</v>
       </c>
       <c r="G37" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7.219999999999999</v>
+        <v>7.050000000000001</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>3.640000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.6699999999999999</v>
+        <v>9.110000000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.1100000000000003</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>8.989999999999998</v>
       </c>
       <c r="L37" t="n">
-        <v>8.5</v>
+        <v>3.83</v>
       </c>
       <c r="M37" t="n">
-        <v>11.51</v>
+        <v>7.93</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.780000000000001</v>
-      </c>
-      <c r="O37" t="n">
-        <v>10.85</v>
+        <v>-0.5</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>5.469999999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>20.32</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2496,47 +2514,47 @@
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.459999999999999</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>-1.27</v>
+      <c r="C38" s="1" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.930000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>27.97</v>
-      </c>
-      <c r="H38" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="I38" t="s">
-        <v>23</v>
+        <v>8.4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.67</v>
       </c>
       <c r="J38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>7.529999999999999</v>
+        <v>1.45</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.53</v>
       </c>
       <c r="L38" t="n">
-        <v>4.17</v>
+        <v>6.420000000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>4.96</v>
+        <v>12.18</v>
       </c>
       <c r="N38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="P38" t="s">
-        <v>23</v>
+        <v>5.649999999999999</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.329999999999998</v>
+      </c>
+      <c r="P38" t="n">
+        <v>20.73</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2546,47 +2564,47 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="n">
-        <v>1.89</v>
+      <c r="C39" s="1" t="n">
+        <v>2.74</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>-0.9100000000000006</v>
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.79</v>
       </c>
       <c r="F39" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="G39" t="n">
-        <v>13.25</v>
+        <v>1.42</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>30.29</v>
       </c>
       <c r="H39" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9.919999999999998</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>2.3</v>
+        <v>27.04</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.48</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>5.92</v>
+        <v>7.62</v>
       </c>
       <c r="L39" t="n">
-        <v>4.529999999999999</v>
+        <v>4.28</v>
       </c>
       <c r="M39" t="n">
-        <v>8.600000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.780000000000001</v>
+        <v>5.2</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>22.74</v>
       </c>
       <c r="O39" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="P39" t="n">
-        <v>19.4</v>
+        <v>28.87</v>
+      </c>
+      <c r="P39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2596,47 +2614,47 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.969999999999999</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7.449999999999999</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>13.08</v>
+      <c r="C40" s="1" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>-0.5300000000000002</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>-0.8200000000000003</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7.219999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>-8.229999999999997</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>1.209999999999997</v>
+        <v>12.98</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7.590000000000003</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.61</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.89</v>
+        <v>1.08</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>15.4</v>
+        <v>7.06</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M40" t="n">
+        <v>11</v>
       </c>
       <c r="N40" t="n">
-        <v>6.989999999999998</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>-4.599999999999998</v>
+        <v>5.43</v>
+      </c>
+      <c r="O40" t="n">
+        <v>9.420000000000002</v>
       </c>
       <c r="P40" t="n">
-        <v>10.69</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2646,47 +2664,47 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>4.539999999999999</v>
+      <c r="C41" t="n">
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>-1.460000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2399999999999993</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7.069999999999999</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-0.78</v>
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>77.34</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>-1.44</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>10.61</v>
+        <v>6.13</v>
       </c>
       <c r="L41" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="M41" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="N41" t="s">
-        <v>23</v>
-      </c>
-      <c r="O41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P41" t="s">
-        <v>23</v>
+        <v>3.57</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>79.16999999999999</v>
+      </c>
+      <c r="P41" t="n">
+        <v>23.24</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2696,47 +2714,47 @@
       <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>-2.14</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>-0.7100000000000009</v>
+      <c r="C42" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.109999999999999</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-3.910000000000001</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>48.01</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>49.52</v>
+        <v>-0.5600000000000005</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>-0.4700000000000002</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>-9.77</v>
       </c>
       <c r="I42" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>-1.73</v>
+        <v>12.31</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>2.84</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>5.359999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>1.53</v>
+        <v>2.93</v>
       </c>
       <c r="M42" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>39.54</v>
-      </c>
-      <c r="O42" s="1" t="n">
-        <v>53.15000000000001</v>
+        <v>3.31</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.989999999999998</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>-7.940000000000001</v>
       </c>
       <c r="P42" t="n">
-        <v>25.33</v>
+        <v>21.37</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2746,47 +2764,47 @@
       <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>-4.14</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.699999999999999</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2.77</v>
+      <c r="C43" s="1" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>-1.390000000000001</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>11.57</v>
       </c>
       <c r="F43" t="n">
-        <v>1.529999999999999</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="H43" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>-3.73</v>
+        <v>9.32</v>
+      </c>
+      <c r="G43" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>-7.199999999999999</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>1.740000000000002</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.75</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="L43" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>29.62</v>
-      </c>
-      <c r="O43" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="P43" t="s">
-        <v>23</v>
+        <v>6.2</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.040000000000003</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>-5.370000000000001</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10.8</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2796,47 +2814,47 @@
       <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>-2.54</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>-1.19</v>
+      <c r="C44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.49</v>
       </c>
       <c r="F44" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G44" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>5.289999999999999</v>
-      </c>
-      <c r="I44" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>-2.13</v>
+        <v>4.859999999999999</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4499999999999997</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>4.92</v>
+        <v>9.989999999999998</v>
       </c>
       <c r="L44" t="n">
-        <v>4.25</v>
+        <v>5.98</v>
       </c>
       <c r="M44" t="n">
-        <v>5.510000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="O44" t="n">
-        <v>8.919999999999998</v>
-      </c>
-      <c r="P44" t="n">
-        <v>26.04</v>
+        <v>8.640000000000001</v>
+      </c>
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2846,47 +2864,197 @@
       <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-0.1300000000000008</v>
+      <c r="C45" s="1" t="n">
+        <v>4.550000000000001</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>-4.11</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-5.630000000000001</v>
+        <v>-1.41</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-8.6</v>
+        <v>-0.3500000000000001</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>2.600000000000001</v>
+        <v>45.79</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>53.88</v>
       </c>
       <c r="I45" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="J45" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>-6.279999999999999</v>
+        <v>17.25</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.43</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="O45" t="n">
-        <v>6.23</v>
+        <v>38.23999999999999</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>55.71</v>
       </c>
       <c r="P45" t="n">
-        <v>24.82</v>
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.639999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>9.229999999999999</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="O46" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>-3.540000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.289999999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7.009999999999998</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.969999999999999</v>
+      </c>
+      <c r="O47" t="n">
+        <v>8.839999999999996</v>
+      </c>
+      <c r="P47" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>-1.870000000000001</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="G48" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>2.859999999999999</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>4.689999999999998</v>
+      </c>
+      <c r="P48" t="n">
+        <v>26.4</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -53,76 +53,115 @@
     <t>2年-3年</t>
   </si>
   <si>
-    <t>001217</t>
-  </si>
-  <si>
-    <t>易方达新收益混合C</t>
+    <t>008276</t>
+  </si>
+  <si>
+    <t>财通资管价值发现混合</t>
+  </si>
+  <si>
+    <t>85.32</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>007803</t>
+  </si>
+  <si>
+    <t>兴全合泰混合C</t>
+  </si>
+  <si>
+    <t>70.27</t>
+  </si>
+  <si>
+    <t>163409</t>
+  </si>
+  <si>
+    <t>兴全绿色投资混合(LOF)</t>
+  </si>
+  <si>
+    <t>31.99</t>
+  </si>
+  <si>
+    <t>001644</t>
+  </si>
+  <si>
+    <t>汇丰晋信智造先锋股票C</t>
+  </si>
+  <si>
+    <t>167.92</t>
+  </si>
+  <si>
+    <t>011437</t>
+  </si>
+  <si>
+    <t>中泰开阳价值优选混合C</t>
+  </si>
+  <si>
+    <t>29.15</t>
+  </si>
+  <si>
+    <t>169104</t>
+  </si>
+  <si>
+    <t>东方红睿满沪港深混合(LOF)</t>
+  </si>
+  <si>
+    <t>289.88</t>
+  </si>
+  <si>
+    <t>004605</t>
+  </si>
+  <si>
+    <t>富国新活力灵活配置混合C</t>
+  </si>
+  <si>
+    <t>53.51</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>西部利得量化成长混合A</t>
+  </si>
+  <si>
+    <t>47.31</t>
+  </si>
+  <si>
+    <t>163406</t>
+  </si>
+  <si>
+    <t>兴全合润混合(LOF)</t>
+  </si>
+  <si>
+    <t>664.23</t>
+  </si>
+  <si>
+    <t>009076</t>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+  </si>
+  <si>
+    <t>385.58</t>
+  </si>
+  <si>
+    <t>001043</t>
+  </si>
+  <si>
+    <t>工银美丽城镇股票A</t>
+  </si>
+  <si>
+    <t>171.92</t>
+  </si>
+  <si>
+    <t>001182</t>
+  </si>
+  <si>
+    <t>易方达安心回馈混合</t>
   </si>
   <si>
     <t>1448.94</t>
-  </si>
-  <si>
-    <t>004605</t>
-  </si>
-  <si>
-    <t>富国新活力灵活配置混合C</t>
-  </si>
-  <si>
-    <t>53.51</t>
-  </si>
-  <si>
-    <t>011437</t>
-  </si>
-  <si>
-    <t>中泰开阳价值优选混合C</t>
-  </si>
-  <si>
-    <t>29.15</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>西部利得量化成长混合A</t>
-  </si>
-  <si>
-    <t>47.31</t>
-  </si>
-  <si>
-    <t>163406</t>
-  </si>
-  <si>
-    <t>兴全合润混合(LOF)</t>
-  </si>
-  <si>
-    <t>664.23</t>
-  </si>
-  <si>
-    <t>009076</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-  </si>
-  <si>
-    <t>385.58</t>
-  </si>
-  <si>
-    <t>001043</t>
-  </si>
-  <si>
-    <t>工银美丽城镇股票A</t>
-  </si>
-  <si>
-    <t>171.92</t>
-  </si>
-  <si>
-    <t>001182</t>
-  </si>
-  <si>
-    <t>易方达安心回馈混合</t>
   </si>
   <si>
     <t>163415</t>
@@ -256,12 +295,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="3" tint="0.5"/>
+        <fgColor indexed="2" tint="0.5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="2" tint="0.5"/>
+        <fgColor indexed="3" tint="0.5"/>
       </patternFill>
     </fill>
   </fills>
@@ -578,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,152 +716,152 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.880000000000001</v>
+        <v>1.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>13.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>9.279999999999999</v>
+        <v>4.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>16.39</v>
       </c>
       <c r="N3" t="n">
-        <v>1.37</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>22.48</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>31.01</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1.359999999999999</v>
+        <v>-1.68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.77</v>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5.45</v>
       </c>
       <c r="F4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.53</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.2800000000000011</v>
       </c>
       <c r="H4" t="n">
-        <v>18.11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8.219999999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.75</v>
+        <v>15.12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.8500000000000014</v>
       </c>
       <c r="O4" t="n">
-        <v>9.149999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>-4.980000000000004</v>
+        <v>4.57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>-0.4199999999999999</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>-1.8</v>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.01</v>
       </c>
       <c r="F5" t="n">
-        <v>7.050000000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
+        <v>3.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.959999999999999</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.029999999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>-6.59</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>-9.82</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -832,50 +871,50 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.56</v>
+      <c r="D6" s="1" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>11.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.979999999999997</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>46.78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>10.96</v>
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>93.86</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>14.46</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>1.970000000000001</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>-1.980000000000004</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>44.90000000000001</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
+        <v>27.76</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>-18.35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,46 +928,46 @@
         <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>-0.6699999999999999</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>2.74</v>
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.920000000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.67</v>
       </c>
       <c r="L7" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.649999999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>-5.540000000000003</v>
+        <v>8.450000000000001</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -941,47 +980,47 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
-        <v>1.33</v>
+      <c r="D8" s="2" t="n">
+        <v>-1.03</v>
       </c>
       <c r="E8" t="n">
-        <v>2.99</v>
+        <v>4.13</v>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="H8" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>5.640000000000001</v>
+        <v>3.34</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.8500000000000005</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>-8.879999999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>6.43</v>
       </c>
       <c r="M8" t="n">
-        <v>6.28</v>
+        <v>5.869999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>1.420000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>8.649999999999999</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
+        <v>16.69</v>
+      </c>
+      <c r="P8" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>-22.68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -991,739 +1030,1110 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.6299999999999999</v>
+      <c r="D9" s="1" t="n">
+        <v>3.08</v>
       </c>
       <c r="E9" t="n">
-        <v>1.64</v>
+        <v>0.3000000000000003</v>
       </c>
       <c r="F9" t="n">
-        <v>7.48</v>
+        <v>4.72</v>
       </c>
       <c r="G9" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>20.48999999999999</v>
+        <v>5.350000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.07</v>
       </c>
       <c r="I9" t="n">
-        <v>29.49</v>
+        <v>19.77</v>
       </c>
       <c r="J9" t="n">
-        <v>6.080000000000002</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.78</v>
+        <v>15.03</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>5.45</v>
       </c>
       <c r="L9" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>10.88</v>
+        <v>2.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.25</v>
       </c>
       <c r="N9" t="n">
-        <v>3.96</v>
+        <v>5.920000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>11.52999999999999</v>
+        <v>5.52</v>
       </c>
       <c r="P9" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>-9.720000000000002</v>
+        <v>19.79</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>-3.010000000000002</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>-3.259999999999998</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>2.9</v>
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.920000000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.67</v>
       </c>
       <c r="L10" t="n">
-        <v>4.18</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>-11.97</v>
-      </c>
-      <c r="P10" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>-19.06</v>
+        <v>8.450000000000001</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>-1.64</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3000000000000003</v>
       </c>
       <c r="F11" t="n">
-        <v>1.34</v>
+        <v>4.72</v>
       </c>
       <c r="G11" t="n">
-        <v>2.27</v>
+        <v>5.350000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>39.86</v>
+        <v>16.07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.77</v>
       </c>
       <c r="J11" t="n">
-        <v>6.280000000000001</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>2.97</v>
+        <v>15.03</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>5.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>4.74</v>
+        <v>7.25</v>
       </c>
       <c r="N11" t="n">
-        <v>1.49</v>
+        <v>5.920000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>3.140000000000001</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>37.98</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>-9.520000000000003</v>
+        <v>5.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4100000000000001</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>-2.57</v>
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-0.8599999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21.86</v>
+        <v>5.920000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7399999999999998</v>
+        <v>1.67</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08000000000000007</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3.849999999999994</v>
-      </c>
-      <c r="P12" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6.059999999999995</v>
+        <v>8.450000000000001</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-2.51</v>
+        <v>3.28</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-2.35</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>2.42</v>
+        <v>5.250000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>37.7</v>
+        <v>7.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.319999999999999</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>53.55</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>-1.36</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.3000000000000003</v>
+        <v>5.65</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>11.58</v>
       </c>
       <c r="M13" t="n">
-        <v>5.82</v>
+        <v>7.780000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O13" t="n">
-        <v>11.98999999999999</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>35.82000000000001</v>
+        <v>7.590000000000001</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>-7.23</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>53.57</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9700000000000002</v>
+        <v>-0.91</v>
       </c>
       <c r="E14" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>-0.9699999999999998</v>
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.08000000000000007</v>
       </c>
       <c r="G14" t="n">
-        <v>7.02</v>
+        <v>4.41</v>
       </c>
       <c r="H14" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>42.85</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>-8.299999999999999</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>5.87</v>
+        <v>17.69</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.19</v>
       </c>
       <c r="M14" t="n">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="N14" t="n">
-        <v>6.24</v>
+        <v>4.98</v>
       </c>
       <c r="O14" t="n">
-        <v>3.309999999999995</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>40.97</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>-24.1</v>
+        <v>7.140000000000004</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>-4.34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8700000000000001</v>
+        <v>-0.29</v>
       </c>
       <c r="E15" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
       <c r="F15" t="n">
-        <v>1.410000000000001</v>
+        <v>3.09</v>
       </c>
       <c r="G15" t="n">
-        <v>8.18</v>
+        <v>3.680000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>53.87</v>
+        <v>15.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>4.91</v>
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>6.569999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>4.81</v>
+        <v>5.619999999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>-0.9600000000000009</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>51.99000000000001</v>
+        <v>4.250000000000001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.46</v>
       </c>
       <c r="G16" t="n">
-        <v>7.35</v>
+        <v>5.210000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.76</v>
+        <v>18.22</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.420000000000002</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>5.09</v>
       </c>
       <c r="M16" t="n">
-        <v>2.71</v>
+        <v>8.99</v>
       </c>
       <c r="N16" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>-0.5600000000000023</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>-14.62</v>
+        <v>5.780000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.669999999999998</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>-7.379999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.940000000000001</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>-4.06</v>
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.850000000000001</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>46.72</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>0.7900000000000027</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>7.859999999999999</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>-4.84</v>
+        <v>2.610000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.690000000000001</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>5.149999999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.420000000000001</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>44.84</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>-15.01</v>
+        <v>-7.939999999999998</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.710000000000001</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>-13.13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>3.08</v>
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.61</v>
       </c>
       <c r="E18" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>-1.69</v>
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.920000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>35.04</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>4.859999999999999</v>
+        <v>11.51</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>42.73999999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.549999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7.469999999999999</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>-10.98</v>
+        <v>2.51</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.490000000000001</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>-6.760000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>-1.18</v>
+        <v>-1.79</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.53</v>
       </c>
       <c r="G19" t="n">
-        <v>12.95</v>
+        <v>11.23</v>
       </c>
       <c r="H19" t="n">
-        <v>10.76</v>
+        <v>12.28</v>
       </c>
       <c r="I19" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>3.21</v>
+        <v>29.44</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5800000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>1.83</v>
+        <v>-0.1100000000000003</v>
       </c>
       <c r="M19" t="n">
-        <v>2.22</v>
+        <v>5.06</v>
       </c>
       <c r="N19" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>1.799999999999997</v>
+        <v>11.8</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>-14.1</v>
+        <v>29.46</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9.77</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3.59</v>
+        <v>-3.68</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>8.710000000000001</v>
+        <v>-1.64</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8900000000000001</v>
+        <v>3.07</v>
       </c>
       <c r="G20" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="I20" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>-9.979999999999999</v>
+        <v>2.16</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>11.36</v>
+        <v>-1.31</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.6599999999999993</v>
       </c>
       <c r="M20" t="n">
-        <v>4.29</v>
+        <v>5.6</v>
       </c>
       <c r="N20" t="n">
-        <v>4.77</v>
+        <v>2.73</v>
       </c>
       <c r="O20" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P20" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>-25.78</v>
+        <v>10.85</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>-1.24</v>
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.78</v>
       </c>
       <c r="E21" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>-0.1800000000000002</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>2.600000000000001</v>
+        <v>3.46</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.640000000000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>41.92999999999999</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>-7.87</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>7.09</v>
+        <v>1.59</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>5.76</v>
       </c>
       <c r="M21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>-0.9600000000000004</v>
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.210000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="P21" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>-13.2</v>
+        <v>5.990000000000002</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>-21.67</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.229999999999999</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>-0.6099999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2600000000000007</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.420000000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.910000000000002</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>1.220000000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.990000000000001</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>-2.639999999999997</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>-12.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-4.309999999999999</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>1.550000000000001</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>-3.739999999999998</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>-12.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="H22" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>-5.749999999999998</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="O22" t="n">
-        <v>4.739999999999995</v>
-      </c>
-      <c r="P22" s="2" t="n">
-        <v>34.21000000000001</v>
-      </c>
-      <c r="Q22" s="1" t="n">
-        <v>-21.55</v>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>-0.3899999999999988</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>5.100000000000001</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.359999999999999</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0.1800000000000015</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>3.140000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2800000000000002</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="P26" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>-10.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.120000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.690000000000001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8.640000000000004</v>
+      </c>
+      <c r="P27" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>-23.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-0.7699999999999996</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0.5300000000000011</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="H29" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-0.5399999999999991</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.180000000000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5.740000000000002</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>38.33000000000001</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>-14.34</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -53,16 +53,43 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>007192</t>
+  </si>
+  <si>
+    <t>恒越研究精选混合C</t>
+  </si>
+  <si>
+    <t>107.69</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>166019</t>
+  </si>
+  <si>
+    <t>中欧价值智选混合A</t>
+  </si>
+  <si>
+    <t>109.87</t>
+  </si>
+  <si>
+    <t>001217</t>
+  </si>
+  <si>
+    <t>易方达新收益混合C</t>
+  </si>
+  <si>
+    <t>1713.85</t>
+  </si>
+  <si>
     <t>008276</t>
   </si>
   <si>
-    <t>财通资管价值发现混合</t>
-  </si>
-  <si>
-    <t>85.32</t>
-  </si>
-  <si>
-    <t>--</t>
+    <t>财通资管价值发现混合A</t>
+  </si>
+  <si>
+    <t>101.93</t>
   </si>
   <si>
     <t>007803</t>
@@ -71,7 +98,7 @@
     <t>兴全合泰混合C</t>
   </si>
   <si>
-    <t>70.27</t>
+    <t>106.31</t>
   </si>
   <si>
     <t>163409</t>
@@ -80,7 +107,7 @@
     <t>兴全绿色投资混合(LOF)</t>
   </si>
   <si>
-    <t>31.99</t>
+    <t>58.15</t>
   </si>
   <si>
     <t>001644</t>
@@ -89,7 +116,7 @@
     <t>汇丰晋信智造先锋股票C</t>
   </si>
   <si>
-    <t>167.92</t>
+    <t>216.18</t>
   </si>
   <si>
     <t>011437</t>
@@ -98,7 +125,7 @@
     <t>中泰开阳价值优选混合C</t>
   </si>
   <si>
-    <t>29.15</t>
+    <t>49.78</t>
   </si>
   <si>
     <t>169104</t>
@@ -107,7 +134,7 @@
     <t>东方红睿满沪港深混合(LOF)</t>
   </si>
   <si>
-    <t>289.88</t>
+    <t>335.09</t>
   </si>
   <si>
     <t>004605</t>
@@ -116,7 +143,7 @@
     <t>富国新活力灵活配置混合C</t>
   </si>
   <si>
-    <t>53.51</t>
+    <t>72.37</t>
   </si>
   <si>
     <t>000006</t>
@@ -125,7 +152,7 @@
     <t>西部利得量化成长混合A</t>
   </si>
   <si>
-    <t>47.31</t>
+    <t>54.91</t>
   </si>
   <si>
     <t>163406</t>
@@ -134,7 +161,7 @@
     <t>兴全合润混合(LOF)</t>
   </si>
   <si>
-    <t>664.23</t>
+    <t>739.20</t>
   </si>
   <si>
     <t>009076</t>
@@ -143,7 +170,7 @@
     <t>工银圆兴混合</t>
   </si>
   <si>
-    <t>385.58</t>
+    <t>481.96</t>
   </si>
   <si>
     <t>001043</t>
@@ -152,7 +179,7 @@
     <t>工银美丽城镇股票A</t>
   </si>
   <si>
-    <t>171.92</t>
+    <t>161.23</t>
   </si>
   <si>
     <t>001182</t>
@@ -161,16 +188,13 @@
     <t>易方达安心回馈混合</t>
   </si>
   <si>
-    <t>1448.94</t>
-  </si>
-  <si>
     <t>163415</t>
   </si>
   <si>
     <t>兴全商业模式优选混合</t>
   </si>
   <si>
-    <t>209.09</t>
+    <t>196.76</t>
   </si>
   <si>
     <t>003889</t>
@@ -179,16 +203,7 @@
     <t>汇安丰泽混合A</t>
   </si>
   <si>
-    <t>39.55</t>
-  </si>
-  <si>
-    <t>005827</t>
-  </si>
-  <si>
-    <t>易方达蓝筹精选混合</t>
-  </si>
-  <si>
-    <t>1331.09</t>
+    <t>40.77</t>
   </si>
   <si>
     <t>001605</t>
@@ -197,7 +212,7 @@
     <t>国富沪港深成长精选股票</t>
   </si>
   <si>
-    <t>202.75</t>
+    <t>200.31</t>
   </si>
   <si>
     <t>005760</t>
@@ -206,7 +221,7 @@
     <t>富国周期优势混合A</t>
   </si>
   <si>
-    <t>167.58</t>
+    <t>177.43</t>
   </si>
   <si>
     <t>519736</t>
@@ -215,7 +230,7 @@
     <t>交银新成长混合</t>
   </si>
   <si>
-    <t>331.53</t>
+    <t>347.50</t>
   </si>
   <si>
     <t>002846</t>
@@ -224,7 +239,7 @@
     <t>泓德泓华混合</t>
   </si>
   <si>
-    <t>292.72</t>
+    <t>289.56</t>
   </si>
   <si>
     <t>001938</t>
@@ -233,16 +248,7 @@
     <t>中欧时代先锋股票A</t>
   </si>
   <si>
-    <t>486.88</t>
-  </si>
-  <si>
-    <t>450009</t>
-  </si>
-  <si>
-    <t>国富中小盘股票</t>
-  </si>
-  <si>
-    <t>199.74</t>
+    <t>606.64</t>
   </si>
   <si>
     <t>470098</t>
@@ -251,7 +257,13 @@
     <t>汇添富逆向投资混合</t>
   </si>
   <si>
-    <t>31.26</t>
+    <t>44.55</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
+    <t>富国价值优势混合</t>
   </si>
   <si>
     <t>004263</t>
@@ -260,7 +272,7 @@
     <t>华安沪港深机会灵活配置混合</t>
   </si>
   <si>
-    <t>68.42</t>
+    <t>67.43</t>
   </si>
   <si>
     <t>001473</t>
@@ -269,7 +281,7 @@
     <t>建信大安全战略精选股票</t>
   </si>
   <si>
-    <t>62.34</t>
+    <t>60.33</t>
   </si>
 </sst>
 </file>
@@ -617,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,47 +724,47 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.05</v>
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>11.9</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>13.86</v>
+        <v>19.72</v>
       </c>
       <c r="G3" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+        <v>2.37</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>39.56999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.94</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>3.77</v>
+      <c r="K3" s="2" t="n">
+        <v>-1.27</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>5.35</v>
+        <v>16.25</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>16.39</v>
+        <v>21.59</v>
       </c>
       <c r="N3" t="n">
-        <v>5.550000000000001</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
+        <v>3.62</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11.58</v>
       </c>
       <c r="Q3" t="s">
         <v>15</v>
@@ -765,50 +777,50 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>5.45</v>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.33</v>
       </c>
       <c r="F4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.2800000000000011</v>
+        <v>3.04</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>21.13</v>
       </c>
       <c r="H4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>6.81</v>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.09999999999999999</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0.8500000000000014</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
+        <v>5.68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>-16.24</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -818,50 +830,50 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.93</v>
+        <v>2.45</v>
       </c>
       <c r="E5" t="n">
-        <v>3.01</v>
+        <v>1.29</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>8.149999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.959999999999999</v>
+        <v>1.32</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>34.18000000000001</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>34.61</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>5.300000000000001</v>
+        <v>39.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.84</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.029999999999999</v>
+        <v>5.640000000000001</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>10.02</v>
       </c>
       <c r="N5" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>-6.59</v>
+        <v>2.57</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>25.72</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>34.63</v>
+        <v>38.09</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>-9.82</v>
+        <v>4.969999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -874,47 +886,47 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>7.65</v>
+      <c r="D6" t="n">
+        <v>0.68</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>5.640000000000001</v>
+        <v>6.97</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>11.93</v>
+        <v>12.65</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>93.86</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>-4.55</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>10.02</v>
+        <v>3.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06999999999999999</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>7.94</v>
+        <v>11.32</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>14.46</v>
+        <v>14.52</v>
       </c>
       <c r="N6" t="n">
-        <v>1.970000000000001</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>27.76</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>93.88</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>-18.35</v>
+        <v>4.82</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>-0.4400000000000013</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -924,23 +936,23 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>-0.8599999999999999</v>
+      <c r="D7" s="2" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>8.430000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>5.920000000000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>8.94</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.609999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.53</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -948,20 +960,20 @@
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8.450000000000001</v>
-      </c>
-      <c r="N7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
+      <c r="K7" s="2" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.859999999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.069999999999997</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -977,50 +989,50 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.13</v>
+      <c r="D8" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5.78</v>
       </c>
       <c r="F8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.8500000000000005</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>27.24</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21.39</v>
+        <v>2.55</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.190000000000001</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>36.70999999999999</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>-8.879999999999999</v>
+        <v>5.410000000000002</v>
       </c>
       <c r="K8" t="n">
-        <v>1.34</v>
+        <v>-0.5599999999999999</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>6.43</v>
+        <v>10.13</v>
       </c>
       <c r="M8" t="n">
-        <v>5.869999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="N8" t="n">
-        <v>1.420000000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="P8" t="n">
-        <v>21.41</v>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>35.34999999999999</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>-22.68</v>
+        <v>-8.829999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1030,70 +1042,70 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.72</v>
+      <c r="D9" s="2" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>12.92</v>
       </c>
       <c r="G9" t="n">
-        <v>5.350000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="I9" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.25</v>
+        <v>2.93</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>89.88</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>-3.199999999999999</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>14.79</v>
       </c>
       <c r="N9" t="n">
-        <v>5.920000000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>19.79</v>
+        <v>4.18</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>88.52</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1.23</v>
+        <v>-17.44</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8599999999999999</v>
+        <v>-0.5499999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5.920000000000001</v>
+        <v>4.71</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1108,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>1.67</v>
+        <v>-0.73</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>8.450000000000001</v>
+        <v>6.58</v>
       </c>
       <c r="N10" t="s">
         <v>15</v>
@@ -1131,108 +1143,108 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>3.08</v>
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.48</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3000000000000003</v>
+        <v>-0.47</v>
       </c>
       <c r="F11" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.350000000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.07</v>
+        <v>5.32</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>30.77</v>
       </c>
       <c r="I11" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>5.45</v>
+        <v>21.93</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>-10.52</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-1.09</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>3.88</v>
       </c>
       <c r="M11" t="n">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="N11" t="n">
-        <v>5.920000000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5.52</v>
+        <v>1.41</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>22.31</v>
       </c>
       <c r="P11" t="n">
-        <v>19.79</v>
+        <v>20.57</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1.23</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-0.8599999999999999</v>
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>5.42</v>
       </c>
       <c r="F12" t="n">
-        <v>5.920000000000001</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
+        <v>4.41</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.14</v>
       </c>
       <c r="K12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.44</v>
+        <v>-0.42</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>9.77</v>
       </c>
       <c r="M12" t="n">
-        <v>8.450000000000001</v>
-      </c>
-      <c r="N12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>15</v>
+        <v>6.28</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.830000000000002</v>
+      </c>
+      <c r="P12" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0.9000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1245,44 +1257,44 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>9.279999999999999</v>
+      <c r="D13" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-0.5499999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>5.250000000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.319999999999999</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>53.55</v>
+        <v>4.71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="1" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>11.58</v>
+      <c r="K13" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.8</v>
       </c>
       <c r="M13" t="n">
-        <v>7.780000000000001</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.590000000000001</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>-7.23</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>53.57</v>
+        <v>6.58</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>15</v>
       </c>
       <c r="Q13" t="s">
         <v>15</v>
@@ -1290,81 +1302,81 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.19</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>5.42</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08000000000000007</v>
+        <v>4.41</v>
       </c>
       <c r="G14" t="n">
-        <v>4.41</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>17.69</v>
+        <v>17.29</v>
       </c>
       <c r="I14" t="n">
-        <v>29.92</v>
+        <v>24.05</v>
       </c>
       <c r="J14" t="n">
-        <v>9.460000000000001</v>
+        <v>15.14</v>
       </c>
       <c r="K14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.19</v>
+        <v>-0.42</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>9.77</v>
       </c>
       <c r="M14" t="n">
-        <v>2.61</v>
+        <v>6.28</v>
       </c>
       <c r="N14" t="n">
-        <v>4.98</v>
+        <v>3.41</v>
       </c>
       <c r="O14" t="n">
-        <v>7.140000000000004</v>
+        <v>8.830000000000002</v>
       </c>
       <c r="P14" t="n">
-        <v>29.94</v>
+        <v>22.69</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>-4.34</v>
+        <v>0.9000000000000021</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.27</v>
+        <v>-0.12</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-0.5499999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.680000000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15.05</v>
+        <v>4.71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1372,20 +1384,20 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="1" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>6.569999999999999</v>
+      <c r="K15" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>5.619999999999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.250000000000001</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4.5</v>
+        <v>6.58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
       </c>
       <c r="P15" t="s">
         <v>15</v>
@@ -1401,50 +1413,50 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.46</v>
+        <v>-0.5900000000000001</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>9.42</v>
       </c>
       <c r="G16" t="n">
-        <v>5.210000000000001</v>
+        <v>2.85</v>
       </c>
       <c r="H16" t="n">
-        <v>18.22</v>
+        <v>5.16</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>33.13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.420000000000002</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>2.21</v>
+        <v>57.70999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>-1.2</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8.99</v>
+        <v>14.02</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>11.29</v>
       </c>
       <c r="N16" t="n">
-        <v>5.780000000000001</v>
-      </c>
-      <c r="O16" t="n">
-        <v>7.669999999999998</v>
+        <v>4.1</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>-3.300000000000001</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>-7.379999999999999</v>
+        <v>56.34999999999999</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1458,46 +1470,46 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>0.89</v>
+        <v>-0.4299999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>2.85</v>
+        <v>1.23</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1.81</v>
+        <v>-0.6300000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>5.850000000000001</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2.610000000000001</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.690000000000001</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>3.26</v>
+        <v>3.76</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>33.48999999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.570000000000002</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>-1.04</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>5.149999999999999</v>
+        <v>5.58</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7200000000000002</v>
+        <v>1.24</v>
       </c>
       <c r="N17" t="n">
-        <v>6.420000000000001</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>-7.939999999999998</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7.710000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.139999999999997</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>32.13</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>-13.13</v>
+        <v>-5.669999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1507,50 +1519,50 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.61</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-0.01999999999999957</v>
+        <v>2.38</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.49</v>
       </c>
       <c r="G18" t="n">
-        <v>3.920000000000001</v>
+        <v>3.29</v>
       </c>
       <c r="H18" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>42.73999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.039999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.549999999999999</v>
+        <v>19.61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>6.73</v>
       </c>
       <c r="M18" t="n">
-        <v>2.51</v>
+        <v>4.36</v>
       </c>
       <c r="N18" t="n">
-        <v>4.490000000000001</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0.9600000000000009</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>42.76</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>-6.760000000000002</v>
+        <v>4.54</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1560,50 +1572,50 @@
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>-2.41</v>
+      <c r="D19" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.37</v>
       </c>
       <c r="F19" t="n">
-        <v>2.53</v>
+        <v>6.989999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>11.23</v>
+        <v>3.87</v>
       </c>
       <c r="H19" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="I19" t="n">
-        <v>29.44</v>
+        <v>18.59</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>35.75</v>
       </c>
       <c r="J19" t="n">
-        <v>23.57</v>
+        <v>6.610000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-0.1100000000000003</v>
+        <v>-0.25</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>5.72</v>
       </c>
       <c r="M19" t="n">
-        <v>5.06</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P19" t="n">
-        <v>29.46</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>9.77</v>
+        <v>5.119999999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>-7.629999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,526 +1626,632 @@
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>-1.64</v>
+        <v>21</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8800000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>3.07</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>36.13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.6599999999999993</v>
+        <v>4.66</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>5.23</v>
       </c>
       <c r="M20" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="O20" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>36.15</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>15</v>
+        <v>5.91</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>-6.960000000000001</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.720000000000002</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>-13.54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" t="n">
-        <v>-0.78</v>
+        <v>-0.77</v>
       </c>
       <c r="E21" t="n">
-        <v>3.46</v>
+        <v>1.16</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.5</v>
+        <v>-1.08</v>
       </c>
       <c r="G21" t="n">
-        <v>6.640000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="H21" t="n">
-        <v>16.54</v>
+        <v>10.78</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>41.92999999999999</v>
+        <v>43.88</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>-7.87</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.59</v>
+        <v>5.660000000000002</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>-1.38</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>5.76</v>
+        <v>5.51</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>7.210000000000001</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5.990000000000002</v>
+        <v>4.529999999999999</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>2.32</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>41.95</v>
+        <v>42.52</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>-21.67</v>
+        <v>-8.579999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.84</v>
+      <c r="D22" s="2" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-2.4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>9.34</v>
+        <v>9.26</v>
       </c>
       <c r="H22" t="n">
-        <v>9.229999999999999</v>
+        <v>13.06</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>5.14</v>
+        <v>34.29000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.95</v>
       </c>
       <c r="M22" t="n">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="N22" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>-1.32</v>
+        <v>10.51</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.599999999999998</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>56.77</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>15</v>
+        <v>32.93000000000001</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7.289999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>-0.6099999999999999</v>
+      <c r="D23" s="2" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3700000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2600000000000007</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.420000000000001</v>
+        <v>1.86</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0.71</v>
       </c>
       <c r="H23" t="n">
-        <v>7.910000000000002</v>
+        <v>19.27</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>35.89</v>
+        <v>46.61999999999999</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1.220000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.69</v>
+        <v>-8.91</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>4.72</v>
       </c>
       <c r="M23" t="n">
-        <v>2.79</v>
+        <v>3.73</v>
       </c>
       <c r="N23" t="n">
-        <v>7.990000000000001</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>-2.639999999999997</v>
+        <v>1.96</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10.81</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>35.91</v>
+        <v>45.25999999999999</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-12.58</v>
+        <v>-23.15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
       <c r="D24" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>0.65</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.18</v>
       </c>
       <c r="F24" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>-4.309999999999999</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>34.97</v>
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.059999999999999</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>1.550000000000001</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>3.25</v>
+        <v>62.92</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.03999999999999999</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>-3.739999999999998</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>24.42</v>
+        <v>6.529999999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0.5999999999999979</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>51.29</v>
+        <v>61.56</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-12.25</v>
+        <v>-2.859999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>-0.3899999999999988</v>
+      <c r="D25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>13.9</v>
+        <v>10.25</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>38.42</v>
+        <v>36.58</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>5.100000000000001</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>7.31</v>
+        <v>-0.1899999999999995</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.32</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>7.66</v>
+        <v>4.66</v>
       </c>
       <c r="M25" t="n">
-        <v>5.359999999999999</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0.1800000000000015</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3.350000000000001</v>
+        <v>0.05999999999999994</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>1.789999999999999</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>38.44</v>
+        <v>35.22</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>-8.699999999999999</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
       <c r="D26" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="H26" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13.41</v>
+        <v>1.44</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>55.00999999999999</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>3.140000000000001</v>
+        <v>0.9800000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.05</v>
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>10.28</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2800000000000002</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>0.5600000000000023</v>
-      </c>
-      <c r="P26" t="n">
-        <v>13.43</v>
+        <v>8.15</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O26" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>53.64999999999999</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>-10.66</v>
+        <v>-13.26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>4.11</v>
+      <c r="D27" s="2" t="n">
+        <v>-2.01</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>11.1</v>
+        <v>10.48</v>
       </c>
       <c r="F27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7.120000000000001</v>
+        <v>3.06</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>-0.6500000000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19.12</v>
+        <v>18.17</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>37.97</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>-9.98</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>6.48</v>
+        <v>1.98</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>-2.62</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>13.4</v>
+        <v>14.83</v>
       </c>
       <c r="M27" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.690000000000001</v>
+        <v>4.930000000000001</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0.5999999999999996</v>
       </c>
       <c r="O27" t="n">
-        <v>8.640000000000004</v>
-      </c>
-      <c r="P27" t="n">
-        <v>19.14</v>
+        <v>9.709999999999997</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>36.61</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-23.78</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D28" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-0.7699999999999996</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>-0.03999999999999915</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="I28" t="n">
-        <v>20.32</v>
+        <v>-0.27</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>8.450000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.080000000000002</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>33.88</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.17</v>
+        <v>-12.17</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>12.8</v>
       </c>
       <c r="M28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0.5300000000000011</v>
-      </c>
-      <c r="O28" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="P28" t="n">
-        <v>20.34</v>
+        <v>8.17</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.620000000000001</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>32.52</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>-12</v>
+        <v>-26.41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>75.34</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-9.489999999999998</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.199999999999999</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.330000000000002</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>73.98</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>-23.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="H29" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>-0.5399999999999991</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="N29" t="n">
-        <v>5.180000000000001</v>
-      </c>
-      <c r="O29" t="n">
-        <v>5.740000000000002</v>
-      </c>
-      <c r="P29" s="1" t="n">
-        <v>38.33000000000001</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>-14.34</v>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>-0.9800000000000004</v>
+      </c>
+      <c r="O30" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="P30" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>-12.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>40.67999999999999</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.370000000000001</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>39.31999999999999</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>-14.35</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -119,6 +119,15 @@
     <t>216.18</t>
   </si>
   <si>
+    <t>169104</t>
+  </si>
+  <si>
+    <t>东方红睿满沪港深混合(LOF)</t>
+  </si>
+  <si>
+    <t>335.09</t>
+  </si>
+  <si>
     <t>011437</t>
   </si>
   <si>
@@ -126,15 +135,6 @@
   </si>
   <si>
     <t>49.78</t>
-  </si>
-  <si>
-    <t>169104</t>
-  </si>
-  <si>
-    <t>东方红睿满沪港深混合(LOF)</t>
-  </si>
-  <si>
-    <t>335.09</t>
   </si>
   <si>
     <t>004605</t>
@@ -629,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,50 +1095,50 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-0.5499999999999999</v>
+        <v>-0.48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.47</v>
       </c>
       <c r="F10" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.73</v>
+        <v>5.32</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>-10.52</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>-1.09</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="M10" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="N10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>15</v>
+        <v>7.19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="P10" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>-24.76</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1148,50 +1148,50 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.47</v>
+        <v>-0.12</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>-0.5499999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>30.77</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>-10.52</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>-1.09</v>
+        <v>4.71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.73</v>
       </c>
       <c r="L11" t="n">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="M11" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="P11" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>-24.76</v>
+        <v>6.58</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1249,13 +1249,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>-0.12</v>
@@ -1302,158 +1302,158 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>0.19</v>
+        <v>-0.5900000000000001</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.41</v>
+        <v>9.67</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>9.42</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.85</v>
       </c>
       <c r="H14" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="I14" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="J14" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.42</v>
+        <v>5.16</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>57.70999999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>-1.2</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.28</v>
+        <v>14.02</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>11.29</v>
       </c>
       <c r="N14" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8.830000000000002</v>
-      </c>
-      <c r="P14" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>0.9000000000000021</v>
+        <v>4.1</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>-3.300000000000001</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>56.34999999999999</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-0.5499999999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.8</v>
+        <v>-0.4299999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-0.6300000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>33.48999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.570000000000002</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>5.58</v>
       </c>
       <c r="M15" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="N15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>15</v>
+        <v>1.24</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.139999999999997</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>-5.669999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5900000000000001</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>9.42</v>
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.49</v>
       </c>
       <c r="G16" t="n">
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
       <c r="H16" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>57.70999999999999</v>
+        <v>19.61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-1.2</v>
+        <v>-1.55</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>11.29</v>
+        <v>6.73</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.36</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>-3.300000000000001</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>56.34999999999999</v>
+        <v>4.54</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
       </c>
       <c r="Q16" t="s">
         <v>15</v>
@@ -1461,796 +1461,690 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4299999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="E17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-0.6300000000000001</v>
+        <v>1.37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.989999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>3.76</v>
+        <v>3.87</v>
       </c>
       <c r="H17" t="n">
-        <v>15.6</v>
+        <v>18.59</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>33.48999999999999</v>
+        <v>35.75</v>
       </c>
       <c r="J17" t="n">
-        <v>8.570000000000002</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>-1.04</v>
+        <v>6.610000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.25</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>5.58</v>
+        <v>5.72</v>
       </c>
       <c r="M17" t="n">
-        <v>1.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>5.01</v>
+        <v>5.119999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>7.139999999999997</v>
+        <v>10.13</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>32.13</v>
+        <v>34.39</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>-5.669999999999998</v>
+        <v>-7.629999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="E18" t="n">
-        <v>2.38</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>2.49</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19.61</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-1.55</v>
+        <v>4.66</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.24</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>6.73</v>
+        <v>5.23</v>
       </c>
       <c r="M18" t="n">
-        <v>4.36</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="O18" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="P18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>15</v>
+        <v>5.91</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>-6.960000000000001</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.720000000000002</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>-13.54</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
-        <v>0.36</v>
+        <v>-0.77</v>
       </c>
       <c r="E19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6.989999999999999</v>
+        <v>1.16</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-1.08</v>
       </c>
       <c r="G19" t="n">
-        <v>3.87</v>
+        <v>3.28</v>
       </c>
       <c r="H19" t="n">
-        <v>18.59</v>
+        <v>10.78</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.610000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.25</v>
+        <v>43.88</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>5.660000000000002</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.38</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>5.72</v>
+        <v>5.51</v>
       </c>
       <c r="M19" t="n">
-        <v>8.859999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>5.119999999999999</v>
-      </c>
-      <c r="O19" t="n">
-        <v>10.13</v>
+        <v>4.529999999999999</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>2.32</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>34.39</v>
+        <v>42.52</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-7.629999999999999</v>
+        <v>-8.579999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8800000000000001</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>-2.4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>5.23</v>
+        <v>9.26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>34.29000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.95</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="N20" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>-6.960000000000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9.720000000000002</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>-13.54</v>
+        <v>10.51</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.599999999999998</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>32.93000000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.289999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.77</v>
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>-1.72</v>
       </c>
       <c r="E21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.28</v>
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0.71</v>
       </c>
       <c r="H21" t="n">
-        <v>10.78</v>
+        <v>19.27</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>43.88</v>
+        <v>46.61999999999999</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>5.660000000000002</v>
+        <v>-8.91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-1.38</v>
+        <v>-2.33</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>5.51</v>
+        <v>4.72</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7899999999999999</v>
+        <v>3.73</v>
       </c>
       <c r="N21" t="n">
-        <v>4.529999999999999</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.81</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>42.52</v>
+        <v>45.25999999999999</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>-8.579999999999998</v>
+        <v>-23.15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-2.4</v>
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.18</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01000000000000001</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>9.26</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
-        <v>13.06</v>
+        <v>9.059999999999999</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>34.29000000000001</v>
+        <v>62.92</v>
       </c>
       <c r="J22" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.95</v>
+        <v>11.38</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>6.529999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>1.88</v>
+        <v>3.87</v>
       </c>
       <c r="N22" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="O22" t="n">
-        <v>4.599999999999998</v>
+        <v>6.55</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0.5999999999999979</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>32.93000000000001</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.289999999999999</v>
+        <v>61.56</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>-2.859999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>-1.72</v>
+        <v>71</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.29</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3700000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0.71</v>
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
-        <v>19.27</v>
+        <v>10.25</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>46.61999999999999</v>
+        <v>36.58</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>-8.91</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>-2.33</v>
+        <v>-0.1899999999999995</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.32</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>4.72</v>
+        <v>4.66</v>
       </c>
       <c r="M23" t="n">
-        <v>3.73</v>
+        <v>0.05999999999999994</v>
       </c>
       <c r="N23" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O23" t="n">
-        <v>10.81</v>
+        <v>5.75</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>1.789999999999999</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>45.25999999999999</v>
+        <v>35.22</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-23.15</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.18</v>
+        <v>1.44</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>5.93</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>6.28</v>
       </c>
       <c r="G24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9.059999999999999</v>
+        <v>1.32</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>27.13</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="J24" t="n">
-        <v>11.38</v>
+        <v>55.00999999999999</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.9800000000000004</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>6.529999999999999</v>
+        <v>10.28</v>
       </c>
       <c r="M24" t="n">
-        <v>3.87</v>
+        <v>8.15</v>
       </c>
       <c r="N24" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>0.5999999999999979</v>
+        <v>2.57</v>
+      </c>
+      <c r="O24" t="n">
+        <v>18.67</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>61.56</v>
+        <v>53.64999999999999</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-2.859999999999999</v>
+        <v>-13.26</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4.5</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>-0.6500000000000004</v>
       </c>
       <c r="H25" t="n">
-        <v>10.25</v>
+        <v>18.17</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>36.58</v>
+        <v>37.97</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.32</v>
+        <v>1.98</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>-2.62</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>4.66</v>
+        <v>14.83</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05999999999999994</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>1.789999999999999</v>
+        <v>4.930000000000001</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.709999999999997</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>35.22</v>
+        <v>36.61</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>-14.43</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D26" t="n">
-        <v>1.44</v>
+        <v>-0.27</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>5.93</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="G26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>27.13</v>
+        <v>5.83</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.080000000000002</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>55.00999999999999</v>
+        <v>33.88</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.9800000000000004</v>
+        <v>-12.17</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8300000000000001</v>
+        <v>-0.88</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>10.28</v>
+        <v>12.8</v>
       </c>
       <c r="M26" t="n">
-        <v>8.15</v>
+        <v>8.17</v>
       </c>
       <c r="N26" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.67</v>
+        <v>7.08</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>0.620000000000001</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>53.64999999999999</v>
+        <v>32.52</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>-13.26</v>
+        <v>-26.41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>-2.01</v>
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.45</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>10.48</v>
+        <v>6.02</v>
       </c>
       <c r="F27" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>-0.6500000000000004</v>
+        <v>7.399999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.95</v>
       </c>
       <c r="H27" t="n">
-        <v>18.17</v>
+        <v>14.79</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>37.97</v>
+        <v>75.34</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1.98</v>
+        <v>-9.489999999999998</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-2.62</v>
+        <v>-1.06</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4.930000000000001</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0.5999999999999996</v>
+        <v>10.37</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.199999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>9.709999999999997</v>
+        <v>6.330000000000002</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>36.61</v>
+        <v>73.98</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-12.26</v>
+        <v>-23.73</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>8.450000000000001</v>
+        <v>85</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.48</v>
       </c>
       <c r="F28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9.080000000000002</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>33.88</v>
+        <v>1.64</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20.43</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>-12.17</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-0.88</v>
+        <v>1.91</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>-2.17</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>12.8</v>
+        <v>4.83</v>
       </c>
       <c r="M28" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>0.620000000000001</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>32.52</v>
+        <v>3.51</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>-0.9800000000000004</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="P28" t="n">
+        <v>19.07</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>-26.41</v>
+        <v>-12.33</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>6.02</v>
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-1.41</v>
       </c>
       <c r="F29" t="n">
-        <v>7.399999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="G29" t="n">
-        <v>3.95</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>14.79</v>
+        <v>13.83</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>75.34</v>
+        <v>40.67999999999999</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>-9.489999999999998</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>9.27</v>
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.41</v>
       </c>
       <c r="N29" t="n">
-        <v>5.199999999999999</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>6.330000000000002</v>
+        <v>5.370000000000001</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>73.98</v>
+        <v>39.31999999999999</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>-23.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>-0.9800000000000004</v>
-      </c>
-      <c r="O30" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="P30" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>-12.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6.529999999999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>40.67999999999999</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>-0.1099999999999994</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="N31" t="n">
-        <v>7.779999999999999</v>
-      </c>
-      <c r="O31" t="n">
-        <v>5.370000000000001</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>39.31999999999999</v>
-      </c>
-      <c r="Q31" s="2" t="n">
         <v>-14.35</v>
       </c>
     </row>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -53,6 +53,18 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>009369</t>
+  </si>
+  <si>
+    <t>浦银安盛价值精选混合C</t>
+  </si>
+  <si>
+    <t>23.68</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>009258</t>
   </si>
   <si>
@@ -62,9 +74,6 @@
     <t>6.92</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>007803</t>
   </si>
   <si>
@@ -80,7 +89,7 @@
     <t>汇丰晋信智造先锋股票A</t>
   </si>
   <si>
-    <t>216.18</t>
+    <t>212.82</t>
   </si>
   <si>
     <t>011437</t>
@@ -128,13 +137,22 @@
     <t>161.23</t>
   </si>
   <si>
-    <t>001182</t>
-  </si>
-  <si>
-    <t>易方达安心回馈混合</t>
-  </si>
-  <si>
-    <t>1713.85</t>
+    <t>003962</t>
+  </si>
+  <si>
+    <t>易方达瑞程灵活配置混合C</t>
+  </si>
+  <si>
+    <t>642.22</t>
+  </si>
+  <si>
+    <t>470098</t>
+  </si>
+  <si>
+    <t>汇添富逆向投资混合</t>
+  </si>
+  <si>
+    <t>44.55</t>
   </si>
   <si>
     <t>001605</t>
@@ -146,15 +164,6 @@
     <t>200.31</t>
   </si>
   <si>
-    <t>470098</t>
-  </si>
-  <si>
-    <t>汇添富逆向投资混合</t>
-  </si>
-  <si>
-    <t>44.55</t>
-  </si>
-  <si>
     <t>002846</t>
   </si>
   <si>
@@ -173,13 +182,22 @@
     <t>177.43</t>
   </si>
   <si>
-    <t>003962</t>
-  </si>
-  <si>
-    <t>易方达瑞程灵活配置混合C</t>
-  </si>
-  <si>
-    <t>642.22</t>
+    <t>001938</t>
+  </si>
+  <si>
+    <t>中欧时代先锋股票A</t>
+  </si>
+  <si>
+    <t>606.64</t>
+  </si>
+  <si>
+    <t>007192</t>
+  </si>
+  <si>
+    <t>恒越研究精选混合C</t>
+  </si>
+  <si>
+    <t>107.69</t>
   </si>
   <si>
     <t>008276</t>
@@ -191,15 +209,6 @@
     <t>101.93</t>
   </si>
   <si>
-    <t>001938</t>
-  </si>
-  <si>
-    <t>中欧时代先锋股票A</t>
-  </si>
-  <si>
-    <t>606.64</t>
-  </si>
-  <si>
     <t>519736</t>
   </si>
   <si>
@@ -209,15 +218,6 @@
     <t>347.50</t>
   </si>
   <si>
-    <t>007192</t>
-  </si>
-  <si>
-    <t>恒越研究精选混合C</t>
-  </si>
-  <si>
-    <t>107.69</t>
-  </si>
-  <si>
     <t>002340</t>
   </si>
   <si>
@@ -227,6 +227,15 @@
     <t>72.37</t>
   </si>
   <si>
+    <t>008245</t>
+  </si>
+  <si>
+    <t>圆信永丰致优混合A</t>
+  </si>
+  <si>
+    <t>132.36</t>
+  </si>
+  <si>
     <t>163409</t>
   </si>
   <si>
@@ -272,13 +281,13 @@
     <t>109.87</t>
   </si>
   <si>
-    <t>004263</t>
-  </si>
-  <si>
-    <t>华安沪港深机会灵活配置混合</t>
-  </si>
-  <si>
-    <t>67.43</t>
+    <t>040011</t>
+  </si>
+  <si>
+    <t>华安核心优选混合</t>
+  </si>
+  <si>
+    <t>64.18</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,20 +733,20 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>4</v>
+      <c r="D3" t="n">
+        <v>0.06999999999999984</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>16.18</v>
+        <v>11.39</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.210000000000001</v>
+        <v>18.78</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-1.369999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>9.5</v>
+        <v>12.84</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -745,20 +754,20 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>5.01</v>
+      <c r="K3" t="n">
+        <v>-0.3800000000000001</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>20.03</v>
+        <v>14.9</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>14.15</v>
+        <v>24.27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.850000000000001</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>-2.420000000000002</v>
+        <v>0.5300000000000011</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
@@ -774,23 +783,23 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
+      <c r="D4" s="2" t="n">
+        <v>-1.18</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>7.99</v>
+        <v>12.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>11.85</v>
+        <v>21.94</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5.48</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>11.58</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -798,20 +807,20 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.28</v>
+      <c r="K4" s="2" t="n">
+        <v>-1.63</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>11.84</v>
+        <v>16.01</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>16.09</v>
+        <v>27.43</v>
       </c>
       <c r="N4" t="n">
-        <v>8.940000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>-4.420000000000002</v>
+        <v>-0.7299999999999969</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
@@ -831,46 +840,46 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>12.82</v>
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.49</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>17.16</v>
+        <v>16.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.01</v>
       </c>
       <c r="H5" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>92.91</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2.539999999999999</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2.55</v>
+        <v>4.27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>-1.01</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>16.67</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5.039999999999996</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>90.22</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>-11.82</v>
+        <v>21.52</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>-8.039999999999996</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -880,50 +889,50 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2500000000000004</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>20.67</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.27</v>
+        <v>16.71</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>85.21000000000001</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>26.16</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>15</v>
+        <v>20.93</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.550000000000004</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>84.53</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>-7.629999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -936,44 +945,44 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>8.629999999999999</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>-0.7299999999999986</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>54.93000000000001</v>
+      <c r="D7" s="1" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>19.49</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>-12.65</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>52.24</v>
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
       </c>
       <c r="Q7" t="s">
         <v>15</v>
@@ -986,47 +995,47 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.83</v>
+        <v>-1.1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>17.24</v>
       </c>
       <c r="G8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
+        <v>4.8</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>-0.240000000000002</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>58.33000000000001</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
-        <v>-0.1300000000000001</v>
+      <c r="K8" s="2" t="n">
+        <v>-1.55</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8.07</v>
+        <v>9.85</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>22.73</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3.629999999999999</v>
-      </c>
-      <c r="P8" t="s">
-        <v>15</v>
+        <v>9.02</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>-12.55</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>57.65000000000001</v>
       </c>
       <c r="Q8" t="s">
         <v>15</v>
@@ -1043,46 +1052,46 @@
         <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.78</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.4</v>
+        <v>-0.74</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.2100000000000004</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.359999999999999</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.6300000000000008</v>
       </c>
       <c r="H9" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.23</v>
+        <v>15.31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L9" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.18</v>
+        <v>3.299999999999999</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>10.85</v>
       </c>
       <c r="N9" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0.9599999999999973</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>34.26</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0.6600000000000001</v>
+        <v>4.850000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1092,50 +1101,50 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.32</v>
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-2.77</v>
       </c>
       <c r="G10" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>20.11</v>
+        <v>4.49</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.63</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>36.69</v>
+        <v>36.98</v>
       </c>
       <c r="J10" t="n">
-        <v>11.18</v>
+        <v>16.13</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>7.24</v>
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.609999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>7.56</v>
+        <v>2.72</v>
       </c>
       <c r="N10" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.190000000000001</v>
+        <v>8.710000000000001</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>-0.6799999999999997</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>33.99999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>-3.18</v>
+        <v>2.850000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1145,50 +1154,50 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>4.69</v>
+      <c r="D11" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.76</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>-1.799999999999999</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>5.090000000000003</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>4.809999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.45</v>
+        <v>4.84</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-1.67</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
+        <v>5.449999999999999</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>9.629999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>-13.72</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>2.399999999999999</v>
+        <v>9.06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.920000000000002</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>32.56</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>-9.550000000000001</v>
+        <v>-0.509999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1198,50 +1207,50 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.08999999999999986</v>
+      <c r="D12" s="1" t="n">
+        <v>2.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3500000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0.7199999999999998</v>
+        <v>2.910000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.65</v>
       </c>
       <c r="H12" t="n">
-        <v>14.04</v>
+        <v>14.76</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45.61</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-1.130000000000001</v>
+        <v>60.91999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20.84</v>
       </c>
       <c r="K12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.199999999999999</v>
+        <v>1.8</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>7.18</v>
       </c>
       <c r="M12" t="n">
-        <v>6.68</v>
+        <v>8.4</v>
       </c>
       <c r="N12" t="n">
-        <v>5.66</v>
+        <v>10.87</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2.119999999999997</v>
+        <v>2.450000000000003</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>42.91999999999999</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>-15.49</v>
+        <v>60.23999999999999</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.560000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1254,47 +1263,47 @@
       <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="n">
-        <v>1.24</v>
+      <c r="D13" s="2" t="n">
+        <v>-1.37</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>8.190000000000001</v>
+        <v>5.26</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>9.52</v>
+        <v>14.13</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>5.35</v>
       </c>
       <c r="H13" t="n">
-        <v>10.15</v>
+        <v>10.65</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>33.73</v>
+        <v>34.35999999999999</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>-9.31</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>2.25</v>
+        <v>-9.050000000000001</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>-1.82</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>12.04</v>
+        <v>8.77</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>13.76</v>
+        <v>19.62</v>
       </c>
       <c r="N13" t="n">
-        <v>12.44</v>
+        <v>9.57</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>-1.77</v>
+        <v>-1.659999999999997</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>31.04</v>
+        <v>33.67999999999999</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>-23.67</v>
+        <v>-22.33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,46 +1317,46 @@
         <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1200000000000001</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="E14" t="n">
-        <v>1.7</v>
+        <v>0.6899999999999997</v>
       </c>
       <c r="F14" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>29.04</v>
+        <v>0.79</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.369999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.69</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12.73</v>
+        <v>40.99999999999999</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>1.529999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>13.03</v>
+        <v>-0.49</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.279999999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="O14" t="n">
-        <v>17.12</v>
+        <v>5.59</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>1.380000000000003</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>47.10999999999999</v>
+        <v>40.31999999999999</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>-1.629999999999999</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1360,47 +1369,47 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2.870000000000001</v>
+      <c r="D15" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2200000000000002</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>30.89</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>69.39</v>
+        <v>44.56</v>
       </c>
       <c r="J15" t="n">
-        <v>10.28</v>
+        <v>18.33</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.6400000000000001</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6.300000000000001</v>
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>16.63</v>
       </c>
       <c r="N15" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>-9.050000000000001</v>
+        <v>2.960000000000001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18.58000000000001</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>66.69999999999999</v>
+        <v>43.88</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>-4.079999999999998</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1410,50 +1419,50 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>3.76</v>
+      <c r="D16" s="2" t="n">
+        <v>-2.36</v>
       </c>
       <c r="E16" t="n">
-        <v>3.12</v>
+        <v>3.649999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>7.470000000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16.57</v>
+        <v>6.45</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>2.809999999999999</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>60.14</v>
+        <v>60.71</v>
       </c>
       <c r="J16" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>4.77</v>
+        <v>16.65</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>-2.81</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>6.97</v>
+        <v>7.159999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>4.54</v>
+        <v>7.79</v>
       </c>
       <c r="N16" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4.650000000000002</v>
+        <v>10.67</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>-9.499999999999996</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>57.45</v>
+        <v>60.03</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.789999999999999</v>
+        <v>3.370000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1463,50 +1472,50 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>7.73</v>
+      <c r="D17" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.25</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>4.13</v>
+        <v>10.77</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-1.640000000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.86</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>11.58</v>
+        <v>7.76</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>18.13</v>
+        <v>16.26</v>
       </c>
       <c r="N17" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>-13.82</v>
-      </c>
-      <c r="P17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>15</v>
+        <v>2.58</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.940000000000005</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>-4.289999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1516,50 +1525,50 @@
       <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3100000000000001</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>39.27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.210000000000001</v>
+        <v>10.03</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>1.32</v>
+        <v>-0.5</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>12.15</v>
+        <v>13.54</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>10.35</v>
+        <v>28.58</v>
       </c>
       <c r="N18" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0.7799999999999976</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>36.57999999999999</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>-5.149999999999999</v>
+        <v>10.16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="P18" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1572,47 +1581,47 @@
       <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.8799999999999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>41.03</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>5.010000000000002</v>
+      <c r="D19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>-3.600000000000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.3800000000000001</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2.24</v>
+        <v>11.28</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>22.7</v>
       </c>
       <c r="N19" t="n">
-        <v>5.82</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>-0.4600000000000009</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>38.34</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>-9.349999999999998</v>
+        <v>-15.91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1625,47 +1634,47 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.27</v>
+      <c r="D20" t="n">
+        <v>-0.8500000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12.73999999999999</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>38.81</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.779999999999999</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>-1.3</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>24.6</v>
+        <v>4.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.27</v>
       </c>
       <c r="N20" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="P20" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>15</v>
+        <v>3.82</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>-6.5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1679,46 +1688,46 @@
         <v>69</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.9500000000000002</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6.15</v>
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>9.32</v>
       </c>
       <c r="G21" t="n">
-        <v>5.26</v>
+        <v>4.07</v>
       </c>
       <c r="H21" t="n">
-        <v>12.49</v>
+        <v>13.62</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>70.59</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>1.880000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.05999999999999983</v>
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>-1.05</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>8.83</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>10.39</v>
+        <v>14.81</v>
       </c>
       <c r="N21" t="n">
-        <v>10.2</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0.5700000000000003</v>
+        <v>1.310000000000002</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>67.90000000000001</v>
+        <v>68.56</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>-12.48</v>
+        <v>-12.78</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1728,50 +1737,50 @@
       <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1800000000000002</v>
+        <v>-0.8300000000000001</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>5.42</v>
+        <v>6.48</v>
       </c>
       <c r="F22" t="n">
-        <v>5.06</v>
+        <v>3.77</v>
       </c>
       <c r="G22" t="n">
-        <v>8.93</v>
+        <v>6.03</v>
       </c>
       <c r="H22" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>36.24000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.600000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.8299999999999998</v>
+        <v>13.62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>-1.28</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>9.27</v>
+        <v>9.989999999999998</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>13.87</v>
+        <v>9.26</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.25</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>-7.760000000000002</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>-4.759999999999998</v>
+        <v>1.310000000000002</v>
+      </c>
+      <c r="P22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,46 +1794,46 @@
         <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>-8.25</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.99</v>
+        <v>-0.9900000000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.109999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.540000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.209999999999997</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>35.13999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>-1.44</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>9.279999999999999</v>
+        <v>7.619999999999999</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>13.96</v>
+        <v>12.03</v>
       </c>
       <c r="N23" t="n">
-        <v>4.710000000000001</v>
-      </c>
-      <c r="O23" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="P23" t="n">
-        <v>18.52999999999999</v>
+        <v>12.7</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>-8.099999999999998</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>34.45999999999999</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-22.61</v>
+        <v>-0.8499999999999979</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1838,46 +1847,46 @@
         <v>78</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>15.03</v>
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.56</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>-21.08</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>54.51000000000001</v>
+        <v>12.85</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22.64</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1.09</v>
+        <v>-7.140000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>1.05</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>18.88</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>-33</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>51.82</v>
+        <v>18.34</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.200000000000001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>21.96</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-13.27</v>
+        <v>-20.42</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1887,50 +1896,50 @@
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>10.09</v>
+        <v>11.39</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.300000000000001</v>
+        <v>17.48</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>-25.56</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>56.23</v>
+        <v>59.33000000000001</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>2.630000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>13.94</v>
+        <v>14.9</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="N25" t="n">
-        <v>11.64</v>
+        <v>22.97</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>27.43</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>-8.620000000000001</v>
+        <v>-37.87</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>53.54</v>
+        <v>58.65000000000001</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>-11.73</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,46 +1953,46 @@
         <v>84</v>
       </c>
       <c r="D26" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="H26" t="n">
-        <v>14.73</v>
+        <v>0.74</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0.01999999999999957</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>37.88</v>
+        <v>61.22000000000001</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>4.280000000000001</v>
+        <v>3.41</v>
       </c>
       <c r="K26" t="n">
-        <v>1.78</v>
+        <v>0.29</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="M26" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>21.75</v>
+        <v>8.98</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2.809999999999999</v>
+        <v>-12.29</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>35.18999999999999</v>
+        <v>60.54000000000001</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>-10.08</v>
+        <v>-9.869999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1993,50 +2002,103 @@
       <c r="B27" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>87</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>-1.609999999999999</v>
+        <v>1.14</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>4.91</v>
       </c>
       <c r="F27" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0.9699999999999998</v>
+        <v>0.3600000000000003</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="H27" t="n">
-        <v>9.030000000000001</v>
+        <v>11.83</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>30.91</v>
+        <v>42.08000000000001</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>-2.44</v>
+        <v>4.48</v>
       </c>
       <c r="K27" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.24</v>
+        <v>0.6900000000000002</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>8.42</v>
       </c>
       <c r="M27" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>23.22</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>-2.890000000000001</v>
-      </c>
-      <c r="P27" t="n">
-        <v>28.22</v>
+        <v>-0.4799999999999969</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>41.40000000000001</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-16.8</v>
+        <v>-8.799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.140000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H28" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7.180000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>5.119999999999999</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.330000000000005</v>
+      </c>
+      <c r="P28" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>-6.099999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -53,25 +53,76 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>000547</t>
+  </si>
+  <si>
+    <t>建信健康民生混合</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>001532</t>
+  </si>
+  <si>
+    <t>华安文体健康混合A</t>
+  </si>
+  <si>
+    <t>42.02</t>
+  </si>
+  <si>
+    <t>550015</t>
+  </si>
+  <si>
+    <t>信诚至远A</t>
+  </si>
+  <si>
+    <t>116.73</t>
+  </si>
+  <si>
+    <t>002258</t>
+  </si>
+  <si>
+    <t>大成国企改革灵活配置混合</t>
+  </si>
+  <si>
+    <t>115.99</t>
+  </si>
+  <si>
+    <t>519126</t>
+  </si>
+  <si>
+    <t>浦银安盛新经济结构混合A</t>
+  </si>
+  <si>
+    <t>23.68</t>
+  </si>
+  <si>
+    <t>009708</t>
+  </si>
+  <si>
+    <t>工银新兴制造混合C</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>009369</t>
   </si>
   <si>
     <t>浦银安盛价值精选混合C</t>
   </si>
   <si>
-    <t>23.68</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>009258</t>
   </si>
   <si>
     <t>西部利得景瑞灵活配置混合C</t>
   </si>
   <si>
-    <t>6.92</t>
+    <t>24.01</t>
   </si>
   <si>
     <t>007803</t>
@@ -89,7 +140,7 @@
     <t>汇丰晋信智造先锋股票A</t>
   </si>
   <si>
-    <t>212.82</t>
+    <t>216.18</t>
   </si>
   <si>
     <t>011437</t>
@@ -101,13 +152,31 @@
     <t>52.19</t>
   </si>
   <si>
+    <t>009243</t>
+  </si>
+  <si>
+    <t>中加核心智造混合C</t>
+  </si>
+  <si>
+    <t>22.75</t>
+  </si>
+  <si>
     <t>000006</t>
   </si>
   <si>
     <t>西部利得量化成长混合A</t>
   </si>
   <si>
-    <t>54.91</t>
+    <t>54.02</t>
+  </si>
+  <si>
+    <t>003962</t>
+  </si>
+  <si>
+    <t>易方达瑞程灵活配置混合C</t>
+  </si>
+  <si>
+    <t>642.22</t>
   </si>
   <si>
     <t>009076</t>
@@ -119,15 +188,6 @@
     <t>481.96</t>
   </si>
   <si>
-    <t>163406</t>
-  </si>
-  <si>
-    <t>兴全合润混合(LOF)</t>
-  </si>
-  <si>
-    <t>739.20</t>
-  </si>
-  <si>
     <t>001043</t>
   </si>
   <si>
@@ -137,13 +197,49 @@
     <t>161.23</t>
   </si>
   <si>
-    <t>003962</t>
-  </si>
-  <si>
-    <t>易方达瑞程灵活配置混合C</t>
-  </si>
-  <si>
-    <t>642.22</t>
+    <t>006039</t>
+  </si>
+  <si>
+    <t>国富估值优势混合</t>
+  </si>
+  <si>
+    <t>200.31</t>
+  </si>
+  <si>
+    <t>002846</t>
+  </si>
+  <si>
+    <t>泓德泓华混合</t>
+  </si>
+  <si>
+    <t>310.02</t>
+  </si>
+  <si>
+    <t>005760</t>
+  </si>
+  <si>
+    <t>富国周期优势混合A</t>
+  </si>
+  <si>
+    <t>177.43</t>
+  </si>
+  <si>
+    <t>007192</t>
+  </si>
+  <si>
+    <t>恒越研究精选混合C</t>
+  </si>
+  <si>
+    <t>107.69</t>
+  </si>
+  <si>
+    <t>519702</t>
+  </si>
+  <si>
+    <t>交银趋势混合A</t>
+  </si>
+  <si>
+    <t>38.75</t>
   </si>
   <si>
     <t>470098</t>
@@ -155,33 +251,6 @@
     <t>44.55</t>
   </si>
   <si>
-    <t>001605</t>
-  </si>
-  <si>
-    <t>国富沪港深成长精选股票</t>
-  </si>
-  <si>
-    <t>200.31</t>
-  </si>
-  <si>
-    <t>002846</t>
-  </si>
-  <si>
-    <t>泓德泓华混合</t>
-  </si>
-  <si>
-    <t>289.56</t>
-  </si>
-  <si>
-    <t>005760</t>
-  </si>
-  <si>
-    <t>富国周期优势混合A</t>
-  </si>
-  <si>
-    <t>177.43</t>
-  </si>
-  <si>
     <t>001938</t>
   </si>
   <si>
@@ -191,15 +260,6 @@
     <t>606.64</t>
   </si>
   <si>
-    <t>007192</t>
-  </si>
-  <si>
-    <t>恒越研究精选混合C</t>
-  </si>
-  <si>
-    <t>107.69</t>
-  </si>
-  <si>
     <t>008276</t>
   </si>
   <si>
@@ -209,15 +269,6 @@
     <t>101.93</t>
   </si>
   <si>
-    <t>519736</t>
-  </si>
-  <si>
-    <t>交银新成长混合</t>
-  </si>
-  <si>
-    <t>347.50</t>
-  </si>
-  <si>
     <t>002340</t>
   </si>
   <si>
@@ -233,7 +284,7 @@
     <t>圆信永丰致优混合A</t>
   </si>
   <si>
-    <t>132.36</t>
+    <t>185.56</t>
   </si>
   <si>
     <t>163409</t>
@@ -252,15 +303,6 @@
   </si>
   <si>
     <t>55.88</t>
-  </si>
-  <si>
-    <t>519702</t>
-  </si>
-  <si>
-    <t>交银趋势混合</t>
-  </si>
-  <si>
-    <t>38.75</t>
   </si>
   <si>
     <t>519704</t>
@@ -635,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,312 +775,312 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.06999999999999984</v>
+      <c r="D3" s="1" t="n">
+        <v>3.51</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>11.39</v>
+        <v>5.81</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-1.369999999999999</v>
+        <v>23.13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.72</v>
       </c>
       <c r="H3" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.3800000000000001</v>
+        <v>10.57</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>3.89</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>14.9</v>
+        <v>7.74</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>24.27</v>
+        <v>31.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.850000000000001</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0.5300000000000011</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
+        <v>12.02</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.209999999999997</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>4.709999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>-1.18</v>
+      <c r="D4" s="1" t="n">
+        <v>3.56</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>12.5</v>
+        <v>4.779999999999999</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.48</v>
+        <v>26.32</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>22.27</v>
       </c>
       <c r="H4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>-1.63</v>
+        <v>8.770000000000001</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>46.34999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>3.94</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>16.01</v>
+        <v>6.71</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.699999999999999</v>
+        <v>34.27</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>26.57</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>-0.7299999999999969</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
+        <v>1.41</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>-2.930000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.3099999999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>3.49</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>16.03</v>
+        <v>21.09</v>
       </c>
       <c r="G5" t="n">
-        <v>4.01</v>
+        <v>5.72</v>
       </c>
       <c r="H5" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>7</v>
+        <v>12.26</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>62.66</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>-7.210000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6899999999999997</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.09</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>21.52</v>
+        <v>29.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>-8.039999999999996</v>
-      </c>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>15</v>
+        <v>10.02</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.899999999999999</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>-20.81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.71</v>
+      <c r="D6" s="1" t="n">
+        <v>7.130000000000001</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>8.66</v>
+        <v>13.19</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>21.86</v>
+        <v>30.02</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.460000000000001</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>85.21000000000001</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.26</v>
+        <v>35.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.789999999999999</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>7.51</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>12.17</v>
+        <v>15.12</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>26.16</v>
+        <v>37.97</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.550000000000004</v>
+        <v>16.66</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>-2.9</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>84.53</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>-7.629999999999999</v>
+        <v>-6.810000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="1" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>15</v>
+        <v>6.84</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>56.25999999999999</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1.169999999999998</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>7.220000000000001</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.359999999999999</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>52.51</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>-12.43</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>6.34</v>
+      <c r="D8" t="n">
+        <v>0.3699999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.73</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>17.24</v>
+        <v>18.4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>-0.240000000000002</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>58.33000000000001</v>
+        <v>3.77</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>9.85</v>
+        <v>30</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.66</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>22.73</v>
+        <v>26.35</v>
       </c>
       <c r="N8" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>-12.55</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>57.65000000000001</v>
+        <v>8.07</v>
+      </c>
+      <c r="O8" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1048,1057 +1090,1322 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.74</v>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6.44</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2100000000000004</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.359999999999999</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.6300000000000008</v>
+        <v>3.19</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>15.31</v>
+        <v>6.01</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.299999999999999</v>
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>5.12</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>10.85</v>
+        <v>34.61</v>
       </c>
       <c r="N9" t="n">
-        <v>4.850000000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
+        <v>12.3</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>-1.350000000000001</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" t="n">
-        <v>-0.3700000000000001</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-2.77</v>
+        <v>1.21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>30.38</v>
       </c>
       <c r="G10" t="n">
-        <v>4.49</v>
+        <v>11.93</v>
       </c>
       <c r="H10" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>36.98</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16.13</v>
+        <v>7.430000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.8200000000000001</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.609999999999999</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.710000000000001</v>
+        <v>1.59</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>16.23</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-0.6799999999999997</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>2.850000000000001</v>
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>-1.22</v>
+      <c r="D11" t="n">
+        <v>-0.1500000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.140000000000001</v>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15.66</v>
       </c>
       <c r="G11" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>5.449999999999999</v>
+        <v>7.409999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2299999999999998</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.79</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>9.629999999999999</v>
+        <v>23.61</v>
       </c>
       <c r="N11" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="O11" t="n">
-        <v>7.920000000000002</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>32.56</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>-0.509999999999998</v>
+        <v>11.71</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0.9199999999999982</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D12" s="1" t="n">
-        <v>2.25</v>
+        <v>2.53</v>
       </c>
       <c r="E12" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.910000000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="H12" t="n">
-        <v>14.76</v>
+        <v>1.98</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>39.06</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>60.91999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="M12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>2.450000000000003</v>
+        <v>71.33999999999999</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>31.7</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>60.23999999999999</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.560000000000002</v>
+        <v>67.59</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>-10.28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>34.35999999999999</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>-9.050000000000001</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-1.82</v>
+      <c r="D13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8899999999999999</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>-1.659999999999997</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>33.67999999999999</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>-22.33</v>
+        <v>6.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.169999999999998</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.04000000000000004</v>
+      <c r="D14" s="1" t="n">
+        <v>6.02</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6899999999999997</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.79</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>10.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.369999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>40.99999999999999</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1.529999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.49</v>
+        <v>13.89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>6.4</v>
       </c>
       <c r="L14" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.279999999999999</v>
+        <v>2.93</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>18.27</v>
       </c>
       <c r="N14" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>1.380000000000003</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>40.31999999999999</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>-11.75</v>
+        <v>6.52</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.529999999999998</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" t="n">
-        <v>0.4399999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2200000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>30.89</v>
+        <v>20.91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>-0.5700000000000003</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44.56</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.01000000000000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.29</v>
+        <v>52.08</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>4.62</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.960000000000001</v>
-      </c>
-      <c r="O15" t="n">
-        <v>18.58000000000001</v>
+        <v>28.86</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>-7.930000000000001</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>43.88</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>5.050000000000001</v>
+        <v>48.33000000000001</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.649999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.3</v>
+      <c r="D16" s="1" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>9.119999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2.809999999999999</v>
+        <v>1.73</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.95</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>60.71</v>
+        <v>61.64</v>
       </c>
       <c r="J16" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>-2.81</v>
+        <v>27.78</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>4.19</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>7.159999999999999</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7.79</v>
+        <v>6.640000000000001</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>17.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>-9.499999999999996</v>
+        <v>6.03</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.59</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>60.03</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>3.370000000000001</v>
+        <v>57.89000000000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14.18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" t="n">
-        <v>-0.41</v>
+        <v>-0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>-1.640000000000001</v>
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.67</v>
       </c>
       <c r="H17" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>34.45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8.99</v>
+        <v>7.470000000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>7.76</v>
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.82</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>16.26</v>
+        <v>11.7</v>
       </c>
       <c r="N17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5.940000000000005</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>-4.289999999999999</v>
+        <v>10.97</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.05000000000000004</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>23.09</v>
+      <c r="D18" s="2" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.129999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>13.54</v>
+        <v>11.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.22</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10.16</v>
+        <v>13.08</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>15.6</v>
       </c>
       <c r="O18" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="P18" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>15</v>
+        <v>4.18</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>31.64000000000001</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0.3399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>7.77</v>
+      <c r="D19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.08</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>-3.600000000000001</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.5999999999999999</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>11.28</v>
+        <v>9.73</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.01</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>22.7</v>
+        <v>17.68</v>
       </c>
       <c r="N19" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>-15.91</v>
-      </c>
-      <c r="P19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>15</v>
+        <v>4.41</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>30.92000000000001</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>-7.440000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" t="n">
-        <v>-0.8500000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="G20" s="2" t="n">
+        <v>-0.7800000000000002</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.949999999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.489999999999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>49.63</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="K20" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="H20" t="n">
-        <v>12.73999999999999</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.779999999999999</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.27</v>
+      <c r="L20" s="2" t="n">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>14.9</v>
       </c>
       <c r="N20" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>0.4299999999999997</v>
+        <v>8.789999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11.4</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>38.13</v>
+        <v>45.88</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>-6.5</v>
+        <v>4.419999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>9.32</v>
+      <c r="D21" s="2" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.529999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>4.07</v>
+        <v>6.22</v>
       </c>
       <c r="H21" t="n">
-        <v>13.62</v>
+        <v>4.779999999999999</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>69.24000000000001</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.5</v>
+        <v>49.69</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20.4</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>5.319999999999999</v>
+        <v>-1.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.08</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>14.81</v>
+        <v>15.48</v>
       </c>
       <c r="N21" t="n">
-        <v>8.290000000000001</v>
+        <v>10.52</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1.310000000000002</v>
+        <v>-2.580000000000002</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>68.56</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>-12.78</v>
+        <v>45.94</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.8300000000000001</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.03</v>
+      <c r="D22" s="1" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>23.3</v>
       </c>
       <c r="H22" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
+        <v>13.46</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>37.73999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>9.989999999999998</v>
+        <v>30</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>1.310000000000002</v>
-      </c>
-      <c r="P22" t="s">
-        <v>15</v>
+        <v>33.25</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.099999999999998</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>33.99</v>
       </c>
       <c r="Q22" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.9900000000000001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.109999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6.540000000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.209999999999997</v>
+      <c r="D23" s="1" t="n">
+        <v>5.140000000000001</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>9.950000000000001</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>-13.32</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>35.13999999999999</v>
+        <v>48.31999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>-1.44</v>
+        <v>10.47</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>5.52</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>7.619999999999999</v>
+        <v>11.88</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12.7</v>
+        <v>34.38</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>22.97</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>-8.099999999999998</v>
+        <v>-20.68</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>34.45999999999999</v>
+        <v>44.57</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-0.8499999999999979</v>
+        <v>-3.130000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" t="n">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>-3.47</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="I24" t="n">
-        <v>22.64</v>
+        <v>19.68</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>35.56999999999999</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>-7.140000000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-0.05000000000000004</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>6.069999999999999</v>
+        <v>-7.92</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>-1.54</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>18.34</v>
+        <v>27.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.200000000000001</v>
-      </c>
-      <c r="O24" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>21.96</v>
+        <v>8.81</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>31.82</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-20.42</v>
+        <v>-21.52</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D25" t="n">
-        <v>0.9499999999999997</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>11.39</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.32</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>-25.56</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>59.33000000000001</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.65</v>
+        <v>13.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.63</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4999999999999998</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>14.9</v>
+        <v>1.28</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.25</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>-37.87</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>58.65000000000001</v>
+        <v>21.65</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.149999999999999</v>
+      </c>
+      <c r="P25" t="n">
+        <v>19.39</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>-10.63</v>
+        <v>-0.9700000000000024</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>5.47</v>
+      <c r="D26" s="2" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.859999999999999</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6.78</v>
+        <v>16.65</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>14.16</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>61.22000000000001</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.29</v>
+        <v>-3.17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>-2.28</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>8.98</v>
+        <v>4.79</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11</v>
+        <v>24.6</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>18.46</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>-12.29</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>60.54000000000001</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>-9.869999999999999</v>
+        <v>-10.53</v>
+      </c>
+      <c r="P26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
       <c r="D27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>4.91</v>
+        <v>0.22</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.75</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3600000000000003</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>19</v>
+        <v>7.319999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.94</v>
       </c>
       <c r="H27" t="n">
-        <v>11.83</v>
+        <v>12.03</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>42.08000000000001</v>
+        <v>61.94</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>4.48</v>
+        <v>4.57</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6900000000000002</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5.85</v>
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>15.27</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>-0.4799999999999969</v>
+        <v>13.24</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.669999999999998</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>41.40000000000001</v>
+        <v>58.19</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-8.799999999999999</v>
+        <v>-9.030000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="P28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
-      <c r="D28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7.140000000000001</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.180000000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>5.119999999999999</v>
-      </c>
-      <c r="M28" s="1" t="n">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.450000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P29" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>4.139999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H30" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="O30" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>-18.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>4.699999999999999</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>5.129999999999999</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>-0.8500000000000014</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>47.97000000000001</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>-8.470000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="G32" t="n">
         <v>12.63</v>
       </c>
-      <c r="N28" t="n">
-        <v>9</v>
-      </c>
-      <c r="O28" t="n">
-        <v>4.330000000000005</v>
-      </c>
-      <c r="P28" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="Q28" s="2" t="n">
-        <v>-6.099999999999998</v>
+      <c r="H32" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.719999999999999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>-5.880000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.489999999999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>5.890000000000001</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8.559999999999999</v>
+      </c>
+      <c r="P33" t="n">
+        <v>18.86000000000001</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>-2.330000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -53,6 +53,18 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>011252</t>
+  </si>
+  <si>
+    <t>华安聚嘉精选混合C</t>
+  </si>
+  <si>
+    <t>113.82</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>000547</t>
   </si>
   <si>
@@ -77,7 +89,7 @@
     <t>信诚至远A</t>
   </si>
   <si>
-    <t>116.73</t>
+    <t>117.44</t>
   </si>
   <si>
     <t>002258</t>
@@ -107,9 +119,6 @@
     <t>7.82</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>009369</t>
   </si>
   <si>
@@ -122,7 +131,7 @@
     <t>西部利得景瑞灵活配置混合C</t>
   </si>
   <si>
-    <t>24.01</t>
+    <t>49.10</t>
   </si>
   <si>
     <t>007803</t>
@@ -158,7 +167,7 @@
     <t>中加核心智造混合C</t>
   </si>
   <si>
-    <t>22.75</t>
+    <t>28.08</t>
   </si>
   <si>
     <t>000006</t>
@@ -179,15 +188,6 @@
     <t>642.22</t>
   </si>
   <si>
-    <t>009076</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-  </si>
-  <si>
-    <t>481.96</t>
-  </si>
-  <si>
     <t>001043</t>
   </si>
   <si>
@@ -215,15 +215,6 @@
     <t>310.02</t>
   </si>
   <si>
-    <t>005760</t>
-  </si>
-  <si>
-    <t>富国周期优势混合A</t>
-  </si>
-  <si>
-    <t>177.43</t>
-  </si>
-  <si>
     <t>007192</t>
   </si>
   <si>
@@ -320,7 +311,7 @@
     <t>中欧价值智选混合A</t>
   </si>
   <si>
-    <t>109.87</t>
+    <t>162.96</t>
   </si>
   <si>
     <t>040011</t>
@@ -677,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,315 +763,315 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3.51</v>
+        <v>2.98</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>5.81</v>
+        <v>13.76</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18.31</v>
+        <v>33.14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>3.89</v>
+        <v>3.3</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>7.74</v>
+        <v>16.56</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>31.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.209999999999997</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>4.709999999999997</v>
+        <v>39.8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>3.56</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-1.44</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4.779999999999999</v>
+        <v>6.54</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>22.27</v>
+        <v>20.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.48</v>
       </c>
       <c r="H4" t="n">
-        <v>8.770000000000001</v>
+        <v>16.11</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>46.34999999999999</v>
+        <v>30.25</v>
       </c>
       <c r="J4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>3.94</v>
+        <v>15.14</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>-1.12</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>6.71</v>
+        <v>9.34</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>34.27</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>42.6</v>
+        <v>26.88</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="P4" t="n">
+        <v>22.25</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>-2.930000000000003</v>
+        <v>3.640000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.3099999999999998</v>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2.11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1599999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.72</v>
+        <v>26.72</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>17.96</v>
       </c>
       <c r="H5" t="n">
-        <v>12.26</v>
+        <v>19.1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>62.66</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>-7.210000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6899999999999997</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.09</v>
+        <v>36.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>6.43</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.02</v>
+        <v>33.38</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>21.97</v>
       </c>
       <c r="O5" t="n">
-        <v>4.899999999999999</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>58.91</v>
+        <v>13.83</v>
+      </c>
+      <c r="P5" t="n">
+        <v>28.32</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>-20.81</v>
+        <v>0.1300000000000026</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>7.130000000000001</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>13.19</v>
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.1599999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.14</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>30.02</v>
+        <v>15.95</v>
       </c>
       <c r="G6" t="n">
-        <v>12.36</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>4.460000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>35.95</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.789999999999999</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>15.12</v>
+        <v>63.05</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>-14.34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.66</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>37.97</v>
+        <v>22.61</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>-2.9</v>
+        <v>13.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.329999999999998</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>32.20000000000001</v>
+        <v>55.05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>-6.810000000000002</v>
+        <v>-25.84</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="1" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.64</v>
+        <v>4.69</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>10.59</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>23.91</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.52</v>
+        <v>34.40000000000001</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>14.94</v>
       </c>
       <c r="H7" t="n">
-        <v>11.72</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>56.25999999999999</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1.169999999999998</v>
+        <v>4.559999999999999</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>7.220000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>5.57</v>
+        <v>13.39</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>31.86</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12.82</v>
+        <v>41.06</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>18.95</v>
       </c>
       <c r="O7" t="n">
-        <v>4.359999999999999</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>52.51</v>
+        <v>4.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>28</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>-12.43</v>
+        <v>-6.940000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3699999999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.73</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5.26</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>18.4</v>
+        <v>22.89</v>
       </c>
       <c r="G8" t="n">
-        <v>3.77</v>
+        <v>11.67</v>
       </c>
       <c r="H8" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.7499999999999998</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.66</v>
+        <v>13.16</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45.41999999999999</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>4.379999999999999</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>3.649999999999999</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>8.059999999999999</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.07</v>
+        <v>29.55</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>15.68</v>
       </c>
       <c r="O8" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>30</v>
+        <v>7.890000000000001</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>37.41999999999999</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>-7.120000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1091,102 +1082,102 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>6.44</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>-1.31</v>
       </c>
       <c r="E9" t="n">
-        <v>3.19</v>
+        <v>1.07</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>26.66</v>
+        <v>14.38</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>3.18</v>
       </c>
       <c r="H9" t="n">
-        <v>6.01</v>
+        <v>18.15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>5.12</v>
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.87</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>34.61</v>
+        <v>21.04</v>
       </c>
       <c r="N9" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>-1.350000000000001</v>
+        <v>7.19</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12.88</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.37</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>4.7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>30.38</v>
+        <v>24.56</v>
       </c>
       <c r="G10" t="n">
-        <v>11.93</v>
+        <v>12.57</v>
       </c>
       <c r="H10" t="n">
-        <v>7.430000000000001</v>
+        <v>3.229999999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.59</v>
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>3.76</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>5.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>38.33</v>
+        <v>31.22</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>16.23</v>
+        <v>16.58</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.07000000000000028</v>
+        <v>-2.040000000000001</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1196,50 +1187,50 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8600000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.409999999999999</v>
+        <v>26.15</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>14.14</v>
       </c>
       <c r="H11" t="n">
-        <v>8.279999999999999</v>
+        <v>5.579999999999998</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2299999999999998</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.79</v>
+        <v>1.42</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>4.71</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11.71</v>
+        <v>32.81</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>18.15</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1252,47 +1243,47 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.98</v>
+      <c r="D12" s="2" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-3.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>39.06</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>71.33999999999999</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.91</v>
+        <v>14.84</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.559999999999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>-0.7000000000000002</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>34.19</v>
+        <v>21.5</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>-10.28</v>
+        <v>14.85</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0.2899999999999991</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1302,50 +1293,50 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.51</v>
+      <c r="D13" s="1" t="n">
+        <v>2.9</v>
       </c>
       <c r="E13" t="n">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2199999999999989</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>22.28</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>8.169999999999998</v>
+        <v>21.17</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>35.79000000000001</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>56.45</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>2.960000000000001</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>28.94</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>30</v>
+        <v>25.18</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>-8.539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1358,47 +1349,47 @@
       <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>10.32</v>
+      <c r="D14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5100000000000002</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13.89</v>
+        <v>8.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>18.27</v>
+        <v>15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5299999999999999</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.17</v>
       </c>
       <c r="N14" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6.529999999999998</v>
+        <v>12.51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1411,47 +1402,47 @@
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.69</v>
+      <c r="D15" s="2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4.56</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>-0.5700000000000003</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>52.08</v>
+        <v>11.43</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>2.14</v>
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>-1.83</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>4.62</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>-7.930000000000001</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>48.33000000000001</v>
+        <v>18.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8.759999999999998</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1461,50 +1452,50 @@
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>4.71</v>
+      <c r="D16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.47</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>9.119999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11.95</v>
+        <v>12.63</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>1.279999999999999</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>61.64</v>
-      </c>
-      <c r="J16" t="n">
-        <v>27.78</v>
+        <v>40.58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>6.640000000000001</v>
+        <v>2.31</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.27</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4.59</v>
+        <v>26.29</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>-3.99</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>57.89000000000001</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>14.18</v>
+        <v>32.58</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,46 +1509,46 @@
         <v>56</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5</v>
+        <v>1.36</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1100000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.75</v>
+        <v>0.91</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>13.21</v>
       </c>
       <c r="G17" t="n">
-        <v>6.67</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>7.470000000000001</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
+        <v>8.84</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>63.54</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>34.31</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1200000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="L17" t="n">
-        <v>1.82</v>
+        <v>3.71</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>11.7</v>
+        <v>19.87</v>
       </c>
       <c r="N17" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>30</v>
+        <v>5.279999999999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>55.54</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>22.81</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1570,47 +1561,47 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>-2.68</v>
+      <c r="D18" t="n">
+        <v>-0.2699999999999999</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.71</v>
+        <v>-3.04</v>
       </c>
       <c r="F18" t="n">
-        <v>5.129999999999999</v>
+        <v>3.13</v>
       </c>
       <c r="G18" t="n">
-        <v>11.3</v>
+        <v>12.09</v>
       </c>
       <c r="H18" t="n">
-        <v>11.54</v>
+        <v>11.66</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>35.39</v>
+        <v>32.98</v>
       </c>
       <c r="J18" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-2.3</v>
+        <v>13.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05000000000000004</v>
       </c>
       <c r="L18" t="n">
-        <v>0.22</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>13.08</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="O18" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>31.64000000000001</v>
+        <v>6.390000000000001</v>
+      </c>
+      <c r="P18" t="n">
+        <v>24.98</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.3399999999999999</v>
+        <v>2.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1623,47 +1614,47 @@
       <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>4</v>
+      <c r="D19" s="2" t="n">
+        <v>-1.83</v>
       </c>
       <c r="E19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>9.73</v>
+        <v>3.84</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.74</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>20.62</v>
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19.85</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.01</v>
+        <v>36.41</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>6.64</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>17.68</v>
+        <v>15.4</v>
       </c>
       <c r="N19" t="n">
-        <v>4.41</v>
+        <v>4.88</v>
       </c>
       <c r="O19" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>30.92000000000001</v>
+        <v>14.58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>28.41</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-7.440000000000001</v>
+        <v>-9.469999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1673,50 +1664,50 @@
       <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="n">
-        <v>-0.7800000000000002</v>
+      <c r="D20" s="2" t="n">
+        <v>-3.3</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-2.6</v>
+        <v>-2.83</v>
       </c>
       <c r="F20" t="n">
-        <v>6.949999999999999</v>
+        <v>6.430000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4.489999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="H20" t="n">
-        <v>18.76</v>
+        <v>13.43</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>49.63</v>
+        <v>50.68</v>
       </c>
       <c r="J20" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>-0.6699999999999999</v>
+        <v>19.43</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.03000000000000025</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.789999999999999</v>
+        <v>13.09</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>13.58</v>
       </c>
       <c r="O20" t="n">
-        <v>11.4</v>
+        <v>8.16</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>45.88</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>4.419999999999998</v>
+        <v>42.68</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.93</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1729,47 +1720,47 @@
       <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>-1.76</v>
+      <c r="D21" t="n">
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.529999999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6.22</v>
+        <v>-1.15</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>25.48</v>
       </c>
       <c r="H21" t="n">
-        <v>4.779999999999999</v>
+        <v>14.72</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>49.69</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>-1.38</v>
+        <v>30.68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.07999999999999996</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08</v>
+        <v>1.65</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>-2.580000000000002</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>45.94</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6.800000000000001</v>
+        <v>29.53</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1779,50 +1770,50 @@
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-1.83</v>
+      <c r="D22" s="2" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>7.34</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>25.3</v>
+        <v>30.61</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>13.46</v>
+        <v>16.98</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>-8.550000000000001</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>37.73999999999999</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1</v>
+        <v>46.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9.200000000000003</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>10.14</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>33.25</v>
+        <v>37.27</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.099999999999998</v>
+        <v>20.99</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>-13.82</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>33.99</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>30</v>
+        <v>38.6</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>-2.299999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1835,47 +1826,47 @@
       <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>5.140000000000001</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>9.950000000000001</v>
+      <c r="D23" s="2" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.13</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>-13.32</v>
+        <v>14.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.88</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>48.31999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>11.88</v>
+        <v>32.12</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.93</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>34.38</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>-20.68</v>
-      </c>
-      <c r="P23" s="1" t="n">
-        <v>44.57</v>
+        <v>20.7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.609999999999999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>24.12</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-3.130000000000003</v>
+        <v>-16.75</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1885,50 +1876,50 @@
       <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="n">
-        <v>1.65</v>
+      <c r="D24" s="2" t="n">
+        <v>-2.05</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-3.47</v>
+        <v>-2.04</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>19.68</v>
+        <v>11.65</v>
       </c>
       <c r="G24" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="H24" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>35.56999999999999</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>-7.92</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>-1.54</v>
+        <v>16.51</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7599999999999998</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>27.63</v>
+        <v>18.31</v>
       </c>
       <c r="N24" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>31.82</v>
+        <v>8.539999999999999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10.7</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-21.52</v>
+        <v>1.560000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1938,50 +1929,50 @@
       <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.32</v>
+      <c r="D25" s="2" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>-3.36</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="I25" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.25</v>
+        <v>15.11</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>-1.520000000000001</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="O25" t="n">
-        <v>9.149999999999999</v>
-      </c>
-      <c r="P25" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>-0.9700000000000024</v>
+        <v>21.77</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>-6.790000000000001</v>
+      </c>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1991,50 +1982,50 @@
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>-2.66</v>
+      <c r="D26" t="n">
+        <v>-0.74</v>
       </c>
       <c r="E26" t="n">
-        <v>2.859999999999999</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>4.79</v>
+        <v>-0.27</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>56.76</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.53</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>24.6</v>
+        <v>14.25</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>-10.53</v>
-      </c>
-      <c r="P26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>30</v>
+        <v>14.17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>-11.46</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2044,50 +2035,50 @@
       <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7.319999999999999</v>
+        <v>1.37</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>11.46</v>
       </c>
       <c r="G27" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>61.94</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>4.57</v>
+        <v>1.66</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="L27" t="n">
-        <v>3.68</v>
+        <v>4.17</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>13.24</v>
+        <v>18.12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.67</v>
       </c>
       <c r="O27" t="n">
-        <v>4.669999999999998</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <v>58.19</v>
-      </c>
-      <c r="Q27" s="2" t="n">
-        <v>-9.030000000000001</v>
+        <v>14.8</v>
+      </c>
+      <c r="P27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2097,50 +2088,50 @@
       <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D28" t="n">
-        <v>1.05</v>
+        <v>-0.59</v>
       </c>
       <c r="E28" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>-0.38</v>
+        <v>10.03</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.37</v>
       </c>
       <c r="H28" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>30</v>
+        <v>7.789999999999999</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18.12</v>
       </c>
       <c r="K28" t="n">
-        <v>1.43</v>
+        <v>-0.27</v>
       </c>
       <c r="L28" t="n">
-        <v>3.2</v>
+        <v>4.22</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>20.89</v>
+        <v>16.69</v>
       </c>
       <c r="N28" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="O28" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="P28" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>30</v>
+        <v>9.379999999999999</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>6.619999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2154,46 +2145,46 @@
         <v>92</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.03</v>
+        <v>-0.59</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-1.77</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>12.23</v>
+        <v>10.32</v>
       </c>
       <c r="G29" t="n">
-        <v>3.23</v>
+        <v>6.98</v>
       </c>
       <c r="H29" t="n">
-        <v>8.450000000000001</v>
+        <v>16.43</v>
       </c>
       <c r="I29" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>17.74</v>
+        <v>17.19</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-5.550000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1000000000000001</v>
+        <v>-0.27</v>
       </c>
       <c r="L29" t="n">
-        <v>3.96</v>
+        <v>1.03</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>20.18</v>
+        <v>16.98</v>
       </c>
       <c r="N29" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>1.09</v>
+        <v>10.99</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11.16</v>
       </c>
       <c r="P29" t="n">
-        <v>25.44</v>
+        <v>9.189999999999998</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4.139999999999997</v>
+        <v>-17.05</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2203,50 +2194,50 @@
       <c r="B30" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.8800000000000001</v>
+      <c r="D30" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>11.33</v>
+        <v>20.71</v>
       </c>
       <c r="G30" t="n">
-        <v>4.22</v>
+        <v>5.45</v>
       </c>
       <c r="H30" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="I30" t="n">
-        <v>19.21</v>
+        <v>6.870000000000001</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>43.89</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>-5.07</v>
+        <v>3.350000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4299999999999997</v>
+        <v>-0.79</v>
       </c>
       <c r="L30" t="n">
-        <v>2.81</v>
+        <v>1.99</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>19.28</v>
+        <v>27.37</v>
       </c>
       <c r="N30" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="O30" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="P30" t="n">
-        <v>15.46</v>
+        <v>9.460000000000001</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>35.89</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>-18.67</v>
+        <v>-8.149999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2260,46 +2251,46 @@
         <v>98</v>
       </c>
       <c r="D31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>4.699999999999999</v>
+        <v>-0.22</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>-0.7</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>18.77</v>
+        <v>10.05</v>
       </c>
       <c r="G31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>51.72</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>5.129999999999999</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>6.63</v>
+        <v>5.43</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="I31" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.1</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>26.72</v>
+        <v>16.71</v>
       </c>
       <c r="N31" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>-0.8500000000000014</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>47.97000000000001</v>
+        <v>9.44</v>
+      </c>
+      <c r="O31" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="P31" t="n">
+        <v>20.27</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>-8.470000000000002</v>
+        <v>3.539999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2309,103 +2300,50 @@
       <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>9.43</v>
+      <c r="D32" s="2" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6.470000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>12.63</v>
+        <v>10.6</v>
       </c>
       <c r="H32" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>40.59999999999999</v>
+        <v>12.69</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22.41</v>
       </c>
       <c r="J32" t="n">
-        <v>7.719999999999999</v>
+        <v>7.579999999999998</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3799999999999999</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>6.53</v>
+        <v>-0.82</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.52</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>17.38</v>
+        <v>13.13</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>16.93</v>
+        <v>14.61</v>
       </c>
       <c r="O32" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>36.85</v>
+        <v>7.419999999999998</v>
+      </c>
+      <c r="P32" t="n">
+        <v>14.41</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>-5.880000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4.489999999999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="I33" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>5.890000000000001</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="N33" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="O33" t="n">
-        <v>8.559999999999999</v>
-      </c>
-      <c r="P33" t="n">
-        <v>18.86000000000001</v>
-      </c>
-      <c r="Q33" s="2" t="n">
-        <v>-2.330000000000002</v>
+        <v>-3.920000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>易方达沪深300发起式ETF</t>
   </si>
@@ -53,6 +53,15 @@
     <t>2年-3年</t>
   </si>
   <si>
+    <t>450004</t>
+  </si>
+  <si>
+    <t>国富深化价值混合</t>
+  </si>
+  <si>
+    <t>29.89</t>
+  </si>
+  <si>
     <t>011252</t>
   </si>
   <si>
@@ -65,6 +74,15 @@
     <t>--</t>
   </si>
   <si>
+    <t>004475</t>
+  </si>
+  <si>
+    <t>华泰柏瑞富利混合</t>
+  </si>
+  <si>
+    <t>36.12</t>
+  </si>
+  <si>
     <t>000547</t>
   </si>
   <si>
@@ -134,15 +152,6 @@
     <t>49.10</t>
   </si>
   <si>
-    <t>007803</t>
-  </si>
-  <si>
-    <t>兴全合泰混合C</t>
-  </si>
-  <si>
-    <t>106.31</t>
-  </si>
-  <si>
     <t>001643</t>
   </si>
   <si>
@@ -152,13 +161,13 @@
     <t>216.18</t>
   </si>
   <si>
-    <t>011437</t>
-  </si>
-  <si>
-    <t>中泰开阳价值优选混合C</t>
-  </si>
-  <si>
-    <t>52.19</t>
+    <t>010728</t>
+  </si>
+  <si>
+    <t>中泰兴诚价值一年持有混合A</t>
+  </si>
+  <si>
+    <t>19.22</t>
   </si>
   <si>
     <t>009243</t>
@@ -294,24 +303,6 @@
   </si>
   <si>
     <t>55.88</t>
-  </si>
-  <si>
-    <t>519704</t>
-  </si>
-  <si>
-    <t>交银先进制造混合</t>
-  </si>
-  <si>
-    <t>158.73</t>
-  </si>
-  <si>
-    <t>166019</t>
-  </si>
-  <si>
-    <t>中欧价值智选混合A</t>
-  </si>
-  <si>
-    <t>162.96</t>
   </si>
   <si>
     <t>040011</t>
@@ -668,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,103 +754,103 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>13.76</v>
+      <c r="D3" s="2" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-2.63</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>16.56</v>
+        <v>13.83</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45.57000000000001</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>5.890000000000001</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>-6.02</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
+        <v>19.47</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.859999999999999</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>-6.18</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="2" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>6.54</v>
+        <v>-3.32</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>20.22</v>
+        <v>41.28</v>
       </c>
       <c r="G4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15.14</v>
+        <v>9.68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>9.34</v>
+        <v>-4.15</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>-6.39</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>3.640000000000001</v>
+        <v>46.92</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -872,47 +863,47 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.63</v>
+      <c r="D5" s="2" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-1.28</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>17.96</v>
+        <v>29.83</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.73</v>
       </c>
       <c r="H5" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>6.43</v>
+        <v>11.98</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-11.68</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>-6.329999999999998</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>-4.67</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>33.38</v>
+        <v>35.47</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>21.97</v>
+        <v>14.65</v>
       </c>
       <c r="O5" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="P5" t="n">
-        <v>28.32</v>
+        <v>8.210000000000001</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>-16.16</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.1300000000000026</v>
+        <v>-18.4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -922,50 +913,50 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
-        <v>-0.1599999999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.14</v>
+      <c r="D6" s="2" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-2.84</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>15.95</v>
+        <v>18.24</v>
       </c>
       <c r="G6" t="n">
-        <v>9.640000000000001</v>
+        <v>12.68</v>
       </c>
       <c r="H6" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>63.05</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>-14.34</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.66</v>
+        <v>17.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>-6.23</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>22.61</v>
+        <v>23.88</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>13.65</v>
+        <v>20.6</v>
       </c>
       <c r="O6" t="n">
-        <v>7.329999999999998</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>-25.84</v>
+        <v>13.98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10.77</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -975,50 +966,50 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>10.59</v>
+      <c r="D7" s="2" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-2.09</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>34.40000000000001</v>
+        <v>19.41</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.539999999999999</v>
+        <v>26.38</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>20.22</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>4.559999999999999</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>13.39</v>
+        <v>41.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>-5.48</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>41.06</v>
+        <v>25.05</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>18.95</v>
+        <v>34.3</v>
       </c>
       <c r="O7" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>28</v>
+        <v>16.45</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>36.82</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>-6.940000000000001</v>
+        <v>2.940000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1028,50 +1019,50 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.67</v>
+      <c r="D8" s="2" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05999999999999983</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>16.59</v>
       </c>
       <c r="H8" t="n">
-        <v>13.16</v>
+        <v>13.65</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45.41999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>4.379999999999999</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>3.649999999999999</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>8.059999999999999</v>
+        <v>-9.729999999999999</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>-3.33</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>29.55</v>
+        <v>10.3</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>15.68</v>
+        <v>24.51</v>
       </c>
       <c r="O8" t="n">
-        <v>7.890000000000001</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>37.41999999999999</v>
+        <v>61.81</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>-7.120000000000001</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1081,50 +1072,50 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.31</v>
+        <v>-2.39</v>
       </c>
       <c r="E9" t="n">
-        <v>1.07</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.18</v>
+        <v>38.52</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>20.61</v>
       </c>
       <c r="H9" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.87</v>
+        <v>12.98</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>32.04000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.780000000000001</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>-2.42</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.19</v>
+        <v>44.16</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>28.53</v>
       </c>
       <c r="O9" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="P9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>15</v>
+        <v>9.210000000000001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>-3.289999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,155 +1126,155 @@
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>4.7</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-1.15</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>24.56</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12.57</v>
+        <v>20.53</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>19.53</v>
       </c>
       <c r="H10" t="n">
-        <v>3.229999999999999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>7.5</v>
+        <v>14.48</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>-4.54</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>31.22</v>
+        <v>26.17</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>-2.040000000000001</v>
-      </c>
-      <c r="P10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>15</v>
+        <v>27.45</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>-1.75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.1</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-1.22</v>
       </c>
       <c r="E11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>14.14</v>
+        <v>1.72</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.46</v>
       </c>
       <c r="H11" t="n">
-        <v>5.579999999999998</v>
+        <v>18.97</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>4.71</v>
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>-1.67</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>32.81</v>
+        <v>11.29</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0.3099999999999987</v>
+        <v>19.38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15.2</v>
       </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
         <v>41</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="2" t="n">
-        <v>-2.46</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-3.5</v>
+        <v>-2.99</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.3600000000000003</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.84</v>
+        <v>20.48</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>21.97</v>
       </c>
       <c r="H12" t="n">
-        <v>5.559999999999999</v>
+        <v>4.700000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-2.14</v>
+        <v>-3.82</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>-0.7000000000000002</v>
+        <v>-3.75</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>21.5</v>
+        <v>26.12</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>14.85</v>
+        <v>29.89</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.9299999999999997</v>
       </c>
       <c r="P12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1293,50 +1284,50 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>2.9</v>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2</v>
+        <v>2.12</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>22.28</v>
+        <v>14.82</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>35.79000000000001</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>56.45</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2.960000000000001</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.6</v>
+        <v>23.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.959999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>-1.27</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>28.94</v>
+        <v>20.46</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>25.18</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>-8.539999999999999</v>
+        <v>31.77</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.189999999999998</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1346,50 +1337,50 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5100000000000002</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.5299999999999999</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="O14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>15</v>
+      <c r="D14" s="2" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>-5.13</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>67.87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.220000000000002</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>-8.52</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>63.39</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>-3.849999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1402,47 +1393,47 @@
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>4.56</v>
+      <c r="D15" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-5.12</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.03</v>
+        <v>16.73</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>7.359999999999999</v>
+        <v>-1.5</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>-8.51</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>18.09</v>
+        <v>22.37</v>
       </c>
       <c r="N15" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8.759999999999998</v>
+        <v>9.780000000000001</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1455,47 +1446,47 @@
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.47</v>
+      <c r="D16" s="2" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-2.21</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>19.63</v>
+        <v>13.17</v>
       </c>
       <c r="G16" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1.279999999999999</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>40.58</v>
+        <v>1.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.27</v>
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>-5.6</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>-3.99</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>32.58</v>
+        <v>18.81</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1505,50 +1496,50 @@
       <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.91</v>
+      <c r="D17" s="2" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>-4.01</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.27</v>
+        <v>9.859999999999999</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>19.52</v>
       </c>
       <c r="H17" t="n">
-        <v>8.84</v>
+        <v>5.360000000000001</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>63.54</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>34.31</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.71</v>
+        <v>44.68000000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>-7.399999999999999</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.279999999999999</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3.57</v>
+        <v>15.5</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>1.59</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>55.54</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>22.81</v>
+        <v>40.2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1558,50 +1549,50 @@
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="n">
-        <v>-0.2699999999999999</v>
+      <c r="D18" s="2" t="n">
+        <v>-1.73</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-3.04</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.13</v>
+        <v>-7.899999999999999</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>13.58</v>
       </c>
       <c r="G18" t="n">
-        <v>12.09</v>
+        <v>5.65</v>
       </c>
       <c r="H18" t="n">
-        <v>11.66</v>
+        <v>4.360000000000001</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>32.98</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-0.2400000000000002</v>
+        <v>64.55</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>-11.29</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>9.790000000000001</v>
+        <v>19.22</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6.390000000000001</v>
-      </c>
-      <c r="P18" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>2.399999999999999</v>
+        <v>13.57</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>60.06999999999999</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>28.98</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,46 +1606,46 @@
         <v>62</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.8700000000000001</v>
+        <v>-1.87</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-3.81</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.16</v>
       </c>
       <c r="H19" t="n">
-        <v>19.85</v>
+        <v>13.13</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>36.41</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2.030000000000001</v>
+        <v>36.31999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17.95</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.88</v>
+        <v>-2.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>18.08</v>
       </c>
       <c r="O19" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="P19" t="n">
-        <v>28.41</v>
+        <v>9.359999999999999</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>31.84</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-9.469999999999999</v>
+        <v>5.879999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1664,50 +1655,50 @@
       <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-3.3</v>
+        <v>-3.64</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.430000000000001</v>
+        <v>-5.38</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>9.57</v>
+        <v>4.25</v>
       </c>
       <c r="H20" t="n">
-        <v>13.43</v>
+        <v>17.54</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>50.68</v>
+        <v>40.45</v>
       </c>
       <c r="J20" t="n">
-        <v>19.43</v>
+        <v>6.470000000000002</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-0.03000000000000025</v>
+        <v>-4.47</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>-8.77</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>13.58</v>
+        <v>15.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.17</v>
       </c>
       <c r="O20" t="n">
-        <v>8.16</v>
+        <v>13.77</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>42.68</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.93</v>
+        <v>35.97</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>-5.599999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1717,50 +1708,50 @@
       <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>22.87</v>
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-4.85</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>25.48</v>
+        <v>17.04</v>
       </c>
       <c r="H21" t="n">
-        <v>14.72</v>
+        <v>8.85</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>30.68</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
+        <v>59.92</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.8</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.07999999999999996</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>29.53</v>
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.79</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>29.49</v>
+        <v>24.96</v>
       </c>
       <c r="O21" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="P21" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>15</v>
+        <v>5.079999999999998</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1770,50 +1761,50 @@
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>30.61</v>
+        <v>-4.27</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-6.920000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.02</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>-8.550000000000001</v>
+        <v>32.25</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>24.59</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.200000000000003</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>10.14</v>
+        <v>31.12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>-10.31</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>37.27</v>
+        <v>12.66</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>-13.82</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>-2.299999999999997</v>
+        <v>40.17</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="P22" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,46 +1818,46 @@
         <v>74</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.13</v>
+        <v>-2.74</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>-1.93</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10.88</v>
+        <v>26.2</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>-0.3099999999999987</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>32.12</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>-5.25</v>
+        <v>40.63</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.54</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.93</v>
+        <v>-3.57</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>-5.32</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="O23" t="n">
-        <v>5.609999999999999</v>
-      </c>
-      <c r="P23" t="n">
-        <v>24.12</v>
+        <v>31.84</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>36.15</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-16.75</v>
+        <v>-1.529999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1876,50 +1867,50 @@
       <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-2.05</v>
+        <v>-1.94</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-2.04</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4.53</v>
+        <v>-1.88</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>17.53</v>
       </c>
       <c r="H24" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.06</v>
+        <v>9.540000000000001</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>-7.139999999999999</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.7599999999999998</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.539999999999999</v>
+        <v>-2.77</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>-5.27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>25.45</v>
       </c>
       <c r="O24" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="P24" t="n">
-        <v>10.7</v>
+        <v>5.77</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>32.75</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1.560000000000002</v>
+        <v>-19.21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1929,50 +1920,50 @@
       <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-2.39</v>
+        <v>-1.76</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-3.36</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>-1.520000000000001</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
+        <v>-1.88</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20.18</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-2.07</v>
+        <v>-2.59</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>21.77</v>
+        <v>-5.27</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.92</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>24.87</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>-6.790000000000001</v>
-      </c>
-      <c r="P25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>15</v>
+        <v>19.87</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="P25" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8.110000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1982,50 +1973,50 @@
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.74</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.27</v>
+        <v>2.55</v>
       </c>
       <c r="F26" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="G26" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="H26" t="n">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>56.76</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.03999999999999915</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.53</v>
+        <v>5.32</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>1.630000000000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>-0.8400000000000001</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>14.25</v>
+        <v>10.96</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="O26" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>-11.46</v>
+        <v>29.33</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>-2.140000000000001</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2035,50 +2026,50 @@
       <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3300000000000001</v>
+        <v>-0.41</v>
       </c>
       <c r="E27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>11.46</v>
+        <v>0.2599999999999998</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.62</v>
       </c>
       <c r="G27" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.67</v>
+        <v>12.41</v>
+      </c>
+      <c r="H27" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>20.33</v>
       </c>
       <c r="O27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="P27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>15</v>
+        <v>9.279999999999998</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>-2.029999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2088,50 +2079,50 @@
       <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>10.03</v>
+      <c r="D28" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.93</v>
       </c>
       <c r="G28" t="n">
-        <v>5.37</v>
+        <v>3.53</v>
       </c>
       <c r="H28" t="n">
-        <v>7.789999999999999</v>
-      </c>
-      <c r="I28" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="J28" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.22</v>
+        <v>18.63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>-4.39</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>16.69</v>
+        <v>14.57</v>
       </c>
       <c r="N28" t="n">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="P28" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>6.619999999999997</v>
+        <v>11.45</v>
+      </c>
+      <c r="O28" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2145,46 +2136,46 @@
         <v>92</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>10.32</v>
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.03000000000000025</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.99</v>
       </c>
       <c r="G29" t="n">
-        <v>6.98</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>16.43</v>
+        <v>9.430000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>-5.550000000000001</v>
+        <v>29.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>19.66</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.03</v>
+        <v>-0.8299999999999998</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>-3.42</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="N29" t="n">
-        <v>10.99</v>
+        <v>11.63</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>17.22</v>
       </c>
       <c r="O29" t="n">
-        <v>11.16</v>
+        <v>5.66</v>
       </c>
       <c r="P29" t="n">
-        <v>9.189999999999998</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>-17.05</v>
+        <v>24.77</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7.59</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2194,50 +2185,50 @@
       <c r="B30" t="s">
         <v>94</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.45</v>
+        <v>-1.97</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>14.98</v>
       </c>
       <c r="H30" t="n">
-        <v>6.870000000000001</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>43.89</v>
+        <v>34.34</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="P30" s="1" t="n">
-        <v>35.89</v>
+        <v>-8.389999999999999</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5.279999999999998</v>
+      </c>
+      <c r="P30" t="n">
+        <v>29.86</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>-8.149999999999999</v>
+        <v>-20.46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2247,103 +2238,50 @@
       <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>23.29</v>
+        <v>-1.94</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11.91</v>
       </c>
       <c r="I31" t="n">
-        <v>28.27</v>
+        <v>25.25</v>
       </c>
       <c r="J31" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9.44</v>
+        <v>10.93</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>20.94</v>
       </c>
       <c r="O31" t="n">
-        <v>18.02</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="P31" t="n">
-        <v>20.27</v>
+        <v>20.77</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>3.539999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.470000000000001</v>
-      </c>
-      <c r="G32" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.579999999999998</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="O32" t="n">
-        <v>7.419999999999998</v>
-      </c>
-      <c r="P32" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="Q32" s="2" t="n">
-        <v>-3.920000000000002</v>
+        <v>-1.140000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-3.81</v>
+        <v>-2.01</v>
       </c>
       <c r="F3" t="n">
-        <v>7.42</v>
+        <v>5.49</v>
       </c>
       <c r="G3" t="n">
-        <v>3.93</v>
+        <v>5.88</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.3000000000000003</v>
+        <v>0.5799999999999998</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>-5.31</v>
+        <v>-3.77</v>
       </c>
       <c r="M3" t="n">
-        <v>7.49</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-7.49</v>
+        <v>-7.010000000000001</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -635,23 +635,23 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>33.62</t>
+          <t>35.62</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.1899999999999999</v>
+        <v>-0.4399999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.24</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="G4" t="n">
-        <v>5.99</v>
+        <v>6.25</v>
       </c>
       <c r="H4" t="n">
-        <v>4.390000000000001</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -663,20 +663,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.26</v>
+      <c r="K4" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>-0.9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>-5.43</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>2.12</v>
+        <v>-6.640000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.890000000000001</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -705,23 +705,23 @@
           <t>81.54</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>6.899999999999999</v>
+      <c r="D5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.59</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-6.73</v>
+        <v>-3.49</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>25.34</v>
+        <v>26.71</v>
       </c>
       <c r="H5" t="n">
-        <v>7.37</v>
+        <v>5.12</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>48.93000000000001</v>
+        <v>49.55</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>5.399999999999999</v>
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.83</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>-6.660000000000001</v>
+        <v>-3.01</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>13.92</v>
+        <v>13.82</v>
       </c>
       <c r="O5" t="n">
-        <v>5.1</v>
+        <v>4.91</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>38.50000000000001</v>
+        <v>38.52</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -769,46 +769,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.52</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>3.96</v>
+        <v>4.28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>10.84</v>
+        <v>11.56</v>
       </c>
       <c r="H6" t="n">
-        <v>15.96</v>
+        <v>15.51</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>58.56</v>
+        <v>56.77</v>
       </c>
       <c r="J6" t="n">
-        <v>12.01</v>
+        <v>12.81</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-0.5800000000000001</v>
+        <v>-1.33</v>
       </c>
       <c r="O6" t="n">
-        <v>13.69</v>
+        <v>15.3</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>48.13</v>
+        <v>45.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.34</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="7">
@@ -828,46 +828,46 @@
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>3.56</v>
+        <v>3.77</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>10.87</v>
+        <v>6.95</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-6.639999999999999</v>
+        <v>-3.74</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>15.25</v>
+        <v>16.5</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>65.36</v>
+        <v>60.44</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>38.26000000000001</v>
+        <v>42.16</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>2.16</v>
+        <v>3.430000000000001</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>9.370000000000001</v>
+        <v>5.19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>-6.569999999999999</v>
+        <v>-3.26</v>
       </c>
       <c r="N7" t="n">
-        <v>3.83</v>
+        <v>3.609999999999999</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>-0.5</v>
+        <v>1.23</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>54.93</v>
+        <v>49.41</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>50.59</v>
+        <v>55.73999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -887,46 +887,46 @@
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>9.76</v>
+        <v>6.16</v>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>3.33</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>33.79</v>
+        <v>34.53</v>
       </c>
       <c r="H8" t="n">
-        <v>9.41</v>
+        <v>8.09</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>40.15000000000001</v>
+        <v>39.27999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>14.5</v>
+        <v>14.98</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8700000000000001</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>8.26</v>
+        <v>1.78</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>3.81</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>22.37</v>
+        <v>21.64</v>
       </c>
       <c r="O8" t="n">
-        <v>7.140000000000001</v>
+        <v>7.879999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>29.72000000000001</v>
+        <v>28.24999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>26.83000000000001</v>
+        <v>28.56</v>
       </c>
     </row>
     <row r="9">
@@ -945,47 +945,47 @@
           <t>72.42</t>
         </is>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>9.440000000000001</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-5.16</v>
+      <c r="D9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.29</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>18.36</v>
+        <v>19.25</v>
       </c>
       <c r="H9" t="n">
-        <v>5.899999999999999</v>
+        <v>3.73</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>38.48</v>
+        <v>39.13999999999999</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>3.539999999999999</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>-5.09</v>
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.77</v>
       </c>
       <c r="N9" t="n">
-        <v>6.94</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>3.629999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="P9" t="n">
-        <v>28.05</v>
+        <v>28.10999999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.87</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="10">
@@ -1005,19 +1005,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.16</v>
+        <v>0.46</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>6.52</v>
+        <v>4.62</v>
       </c>
       <c r="F10" t="n">
-        <v>0.85</v>
+        <v>2.6</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>22.64</v>
+        <v>17.09</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19.79</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1030,19 +1030,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-0.2400000000000002</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>5.02</v>
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.86</v>
       </c>
       <c r="M10" t="n">
-        <v>0.92</v>
+        <v>3.08</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>20.37</v>
+        <v>4.199999999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19.58</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-1.16</v>
+        <v>3.3</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>-0.9699999999999998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06999999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>4.76</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>15.89</v>
+        <v>15.81</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>41.87</v>
+        <v>41.10999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>14.24</v>
+        <v>14.05</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>-1.09</v>
+        <v>-2.73</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.55</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>-6.66</v>
+        <v>-8.530000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>13.62</v>
+        <v>15.6</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>31.44</v>
+        <v>30.07999999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.57</v>
+        <v>27.63</v>
       </c>
     </row>
     <row r="12">
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-2.28</v>
+        <v>4.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06999999999999999</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>29.72</v>
+        <v>30.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.74</v>
+        <v>3.249999999999999</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1156,19 +1156,19 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-0.3600000000000001</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>-2.21</v>
+        <v>1.03</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.55</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>2.47</v>
+        <v>17.36</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.039999999999999</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1197,47 +1197,47 @@
           <t>307.53</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>5.819999999999999</v>
+      <c r="D13" t="n">
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.03</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-2.26</v>
+        <v>-1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>11.31</v>
+        <v>12.04</v>
       </c>
       <c r="H13" t="n">
-        <v>7.7</v>
+        <v>6.96</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>67.25</v>
+        <v>64.34</v>
       </c>
       <c r="J13" t="n">
-        <v>20.57</v>
+        <v>22.88</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-2.83</v>
+        <v>-1.23</v>
       </c>
       <c r="L13" t="n">
-        <v>4.319999999999999</v>
+        <v>2.27</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>-2.19</v>
+        <v>-0.86</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>-0.1099999999999994</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="O13" t="n">
-        <v>5.43</v>
+        <v>6.75</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>56.82</v>
+        <v>53.31</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>32.90000000000001</v>
+        <v>36.46</v>
       </c>
     </row>
     <row r="14">
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="E14" t="n">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11.85</v>
+        <v>-1.46</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>13.03</v>
       </c>
       <c r="H14" t="n">
-        <v>9.010000000000002</v>
+        <v>6.989999999999999</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1281,20 +1281,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>1.41</v>
+      <c r="K14" s="1" t="n">
+        <v>2.42</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3100000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-0.49</v>
+        <v>-0.9799999999999999</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.1399999999999988</v>
       </c>
       <c r="O14" t="n">
-        <v>6.74</v>
+        <v>6.779999999999999</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1323,47 +1323,47 @@
           <t>48.54</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>-0.4899999999999999</v>
+      <c r="D15" s="2" t="n">
+        <v>-1.06</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>7.91</v>
+        <v>5.78</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-3.46</v>
+        <v>-2.03</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>16.76</v>
+        <v>17.75</v>
       </c>
       <c r="H15" t="n">
-        <v>5.55</v>
+        <v>3.78</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>40.39</v>
+        <v>41.66</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>-9.779999999999999</v>
+        <v>-9.66</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-1.89</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>6.41</v>
+        <v>-1.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.02</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>-3.390000000000001</v>
+        <v>-1.55</v>
       </c>
       <c r="N15" t="n">
-        <v>5.340000000000002</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>3.279999999999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>29.96</v>
+        <v>3.57</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>30.63</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.550000000000001</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="16">
@@ -1382,47 +1382,47 @@
           <t>40.72</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>-0.9199999999999999</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-2.43</v>
+      <c r="D16" s="2" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.31</v>
       </c>
       <c r="G16" t="n">
-        <v>11.37</v>
+        <v>11.96</v>
       </c>
       <c r="H16" t="n">
-        <v>9.66</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>41.04000000000001</v>
+        <v>43.60999999999999</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>2.84</v>
+        <v>1.370000000000001</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>-2.36</v>
+        <v>-1.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.79</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-0.04999999999999893</v>
+        <v>-0.9299999999999997</v>
       </c>
       <c r="O16" t="n">
-        <v>7.390000000000001</v>
+        <v>6.970000000000001</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>30.61000000000001</v>
+        <v>32.57999999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.17</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="17">
@@ -1441,47 +1441,47 @@
           <t>102.16</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.9299999999999999</v>
+      <c r="D17" s="1" t="n">
+        <v>2.13</v>
       </c>
       <c r="E17" t="n">
-        <v>1.29</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-0.8799999999999999</v>
+        <v>-0.47</v>
       </c>
       <c r="G17" t="n">
-        <v>11.75</v>
+        <v>12.78</v>
       </c>
       <c r="H17" t="n">
-        <v>12.24</v>
+        <v>10.74</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>33.72</v>
+        <v>31.87</v>
       </c>
       <c r="J17" t="n">
-        <v>9.440000000000001</v>
+        <v>11.06</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.4700000000000002</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-0.2100000000000001</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>-0.8099999999999998</v>
+        <v>1.79</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01000000000000001</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.3300000000000001</v>
+        <v>-0.1100000000000012</v>
       </c>
       <c r="O17" t="n">
-        <v>9.969999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="P17" t="n">
-        <v>23.29</v>
+        <v>20.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.77</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="18">
@@ -1501,46 +1501,164 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.06999999999999995</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-3.18</v>
+        <v>-0.63</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.67</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>22.36</v>
+        <v>22.1</v>
       </c>
       <c r="H18" t="n">
-        <v>13.71</v>
+        <v>11.87</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>68.71000000000001</v>
+        <v>67.77000000000001</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>-14.08</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>-3.11</v>
+        <v>-12.23</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.9700000000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.15</v>
       </c>
       <c r="N18" t="n">
-        <v>10.94</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>11.44</v>
+        <v>11.66</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>58.28000000000001</v>
+        <v>56.74</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>-1.75</v>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>1.069999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.449999999999996</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>-0.9600000000000009</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>-2.580000000000005</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>050025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>-19.79</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>-7.779999999999999</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>-1.040000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>-30.82</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>5.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.49</v>
+        <v>1.62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-3.42</v>
       </c>
       <c r="G3" t="n">
-        <v>5.88</v>
+        <v>9.17</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.5799999999999998</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>-3.77</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.970000000000001</v>
+        <v>1.66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>-6.32</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-7.010000000000001</v>
+        <v>-1.629999999999999</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -625,33 +625,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>009375</t>
+          <t>008657</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>浦银安盛MSCI中国A股ETF联接C</t>
+          <t>景顺长城科技创新混合</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.4399999999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.25</v>
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-7.03</v>
       </c>
       <c r="H4" t="n">
-        <v>4.100000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-0.78</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.85</v>
+        <v>-3.22</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>10.51</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>-6.640000000000001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.890000000000001</v>
+        <v>-17.83</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.9000000000000004</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -692,973 +692,1150 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-3.49</v>
+        <v>0.77</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.149999999999999</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>26.71</v>
+        <v>13.19</v>
       </c>
       <c r="H5" t="n">
-        <v>5.12</v>
+        <v>9.75</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>45.53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22.47</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6099999999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>-3.01</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.91</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.390000000000001</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>1.42</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>38.52</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>44.65</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>32.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>98.06</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3400000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08</v>
+        <v>-0.4500000000000001</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>11.31</v>
       </c>
       <c r="G6" t="n">
-        <v>11.56</v>
+        <v>7.77</v>
       </c>
       <c r="H6" t="n">
-        <v>15.51</v>
+        <v>18.83</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>56.77</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.81</v>
+        <v>40.98</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.52</v>
+        <v>-0.41</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>-6.95</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-1.33</v>
+        <v>-3.029999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>15.3</v>
+        <v>10.5</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>45.74</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>26.39</v>
+        <v>40.1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>855.42</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>-3.74</v>
+          <t>交银趋势混合A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>108.62</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>13.49</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1.44</v>
+        <v>28.46</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>23.89</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>60.44</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>42.16</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>3.430000000000001</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>-3.26</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.609999999999999</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>1.23</v>
+        <v>32.59</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.989999999999995</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15.56</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>55.73999999999999</v>
+        <v>31.71</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>16.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>交银趋势混合A</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>78.90</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>34.53</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.09</v>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>122.87</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>20.07</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>39.27999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.98</v>
+        <v>54.64</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>32.02</v>
       </c>
       <c r="K8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.4</v>
+        <v>-0.5499999999999999</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>-2.54</v>
       </c>
       <c r="M8" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>21.64</v>
+        <v>7.029999999999999</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>-6.819999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>7.879999999999999</v>
-      </c>
-      <c r="P8" t="n">
-        <v>28.24999999999999</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>28.56</v>
+        <v>11.74</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>53.76</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>41.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>72.42</t>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>855.42</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>19.25</v>
+        <v>-0.3</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.31</v>
       </c>
       <c r="H9" t="n">
-        <v>3.73</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>39.13999999999999</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>2.800000000000001</v>
+        <v>54.25</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>54.11</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.359999999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>28.10999999999999</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>16.38</v>
+        <v>-0.26</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>-6.489999999999999</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>-2.130000000000001</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>63.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>工银新兴制造混合C</t>
+          <t>金鹰产业整合混合</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>28.77</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>17.09</v>
+        <v>-0.8099999999999999</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.62</v>
       </c>
       <c r="H10" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>13.45</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>58.40000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.449999999999996</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1199999999999999</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.86</v>
+        <v>-0.7699999999999999</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>-2.49</v>
       </c>
       <c r="M10" t="n">
-        <v>3.08</v>
+        <v>6.44</v>
       </c>
       <c r="N10" t="n">
-        <v>4.199999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="O10" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>5.120000000000001</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>57.52</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>19.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>001043</t>
+          <t>009375</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>工银美丽城镇股票A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>129.09</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>3.3</v>
+          <t>浦银安盛MSCI中国A股ETF联接C</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.06999999999999995</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9699999999999998</v>
+        <v>-1.1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06999999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>4.359999999999999</v>
+        <v>4.36</v>
       </c>
       <c r="H11" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>41.10999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>2.96</v>
+        <v>6.66</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.02999999999999992</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.55</v>
+        <v>-0.8</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>-1.34</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>-8.530000000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>30.07999999999999</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>27.63</v>
+        <v>-6.44</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合A</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>134.44</t>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>72.42</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.249999999999999</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>1.04</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.61</v>
       </c>
       <c r="K12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>17.36</v>
+        <v>1.08</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>-8.77</v>
       </c>
       <c r="O12" t="n">
-        <v>3.039999999999999</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>11.93</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>21.18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>002846</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>泓德泓华混合</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>307.53</t>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>22.11</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.8899999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-1.34</v>
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.59</v>
       </c>
       <c r="G13" t="n">
-        <v>12.04</v>
+        <v>11.76</v>
       </c>
       <c r="H13" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-1.23</v>
+        <v>16</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.09000000000000008</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>-0.86</v>
+        <v>-0.23</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.69</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>-0.8500000000000014</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="O13" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>36.46</v>
+        <v>7.669999999999998</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>001043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>工银美丽城镇股票A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>184.70</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>13.03</v>
+          <t>129.09</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.640000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>6.989999999999999</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>-0.9799999999999999</v>
+        <v>15.52</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4899999999999998</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0.1399999999999988</v>
+        <v>-9.16</v>
       </c>
       <c r="O14" t="n">
-        <v>6.779999999999999</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>7.190000000000001</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>160813</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>长盛同盛成长优选(LOF)</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>48.54</t>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>134.44</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-2.03</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>17.75</v>
+        <v>-1.38</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.440000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>-9.66</v>
+        <v>18.58</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.859999999999999</v>
+        <v>-1.34</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>-1.359999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>30.63</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>3.92</v>
+        <v>10.25</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>040011</t>
+          <t>002846</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>华安核心优选混合</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.31</v>
+          <t>泓德泓华混合</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>307.53</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-1.86</v>
       </c>
       <c r="F16" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11.96</v>
+        <v>5.529999999999999</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-1.26</v>
       </c>
       <c r="H16" t="n">
-        <v>7.180000000000001</v>
+        <v>13.68</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>43.60999999999999</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1.370000000000001</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.55</v>
+        <v>69.29000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>-1.56</v>
       </c>
       <c r="M16" t="n">
-        <v>0.79</v>
+        <v>2.629999999999999</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-0.9299999999999997</v>
+        <v>-12.06</v>
       </c>
       <c r="O16" t="n">
-        <v>6.970000000000001</v>
+        <v>5.349999999999998</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>32.57999999999999</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>14.95</v>
+        <v>68.41</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>34.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>102.16</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>2.13</v>
+          <t>银华鑫锐灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12.78</v>
+        <v>0.98</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>10.74</v>
+        <v>10.23</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.06</v>
+        <v>46.86</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>-22.62</v>
       </c>
       <c r="K17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>-1.01</v>
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>-0.1100000000000012</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>24.64</v>
+        <v>0.25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.200000000000001</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>-13.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中信保诚至远动力混合A</t>
+          <t>招商丰拓灵活混合A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>250.59</t>
+          <t>250.29</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.63</v>
+        <v>0.61</v>
       </c>
       <c r="E18" t="n">
-        <v>3.04</v>
+        <v>-0.4800000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>22.1</v>
+        <v>4.47</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.390000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>67.77000000000001</v>
+        <v>4.48</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>-7.23</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>-12.23</v>
+        <v>-12.64</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.9700000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>-0.18</v>
       </c>
       <c r="M18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="O18" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>56.74</v>
+        <v>1.57</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>-4.409999999999999</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>-8.109999999999999</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1.35</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>160813</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>长盛同盛成长优选(LOF)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-3.45</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1.069999999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.449999999999996</v>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>54.85000000000001</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>-0.9600000000000009</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.640000000000001</v>
+        <v>-14.63</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.109999999999999</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>-7.91</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0.8599999999999994</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>-2.580000000000005</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>12.62</v>
+        <v>2.25</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>53.97000000000001</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>-5.060000000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.380000000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="J20" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>-3.419999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.489999999999998</v>
+      </c>
+      <c r="P20" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>250.59</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.819999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>-24.22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.919999999999999</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>-0.3299999999999992</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>73.62</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>-14.65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.870000000000001</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>3.899999999999999</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.029999999999999</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8.990000000000002</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>050025</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>博时标普500ETF联接A</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-19.79</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>-7.779999999999999</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>-1.040000000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>-30.82</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>5.800000000000001</v>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.4500000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.139999999999999</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>-20.54</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>-4.680000000000003</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>-3.609999999999999</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0.8099999999999987</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>-21.42</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>4.889999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,20 +564,20 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>26.85</t>
+          <t>55.02</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-3.42</v>
+        <v>1.09</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.35</v>
       </c>
       <c r="G3" t="n">
-        <v>9.17</v>
+        <v>8.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -594,17 +594,17 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.21</v>
+      <c r="K3" s="1" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>7.32</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>-6.32</v>
+        <v>-1.46</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-1.629999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -625,33 +625,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>008657</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>景顺长城科技创新混合</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>84.81</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>-3.52</v>
+        <v>-0.8799999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.81</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-7.03</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.23</v>
+        <v>16.46</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>32.34</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>-3.22</v>
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.73</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>-17.83</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0.9000000000000004</v>
+        <v>14.65</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18.11</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -692,123 +692,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>009375</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>浦银安盛MSCI中国A股ETF联接C</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>37.79</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.149999999999999</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>13.19</v>
+        <v>-0.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1100000000000003</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.47</v>
       </c>
       <c r="H5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>45.53</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22.47</v>
+        <v>8.07</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.390000000000001</v>
+        <v>-1.19</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>-3.95</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>44.65</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>32.04</v>
+        <v>-6.16</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>001508</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>富国新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.4500000000000001</v>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>-1.16</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-7.25</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.77</v>
+        <v>-1.65</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-0.8600000000000001</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.3699999999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>18.83</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>40.98</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>41.97000000000001</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>50.21000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.41</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8.41</v>
+        <v>-2.73</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>-2.67</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-3.029999999999999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>10.5</v>
+        <v>-7.05</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>-5.690000000000001</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>49.76000000000001</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>52.90000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -824,605 +828,601 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>108.62</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.48</v>
+          <t>121.47</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-1.59</v>
       </c>
       <c r="E7" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>13.49</v>
+        <v>3.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.76</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>28.46</v>
+        <v>23.24</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>32.59</v>
+        <v>39.76</v>
+      </c>
+      <c r="I7" t="n">
+        <v>28.47</v>
       </c>
       <c r="J7" t="n">
-        <v>6.989999999999995</v>
+        <v>8.130000000000003</v>
       </c>
       <c r="K7" t="n">
-        <v>1.52</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>10.59</v>
+        <v>2.67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.95</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="O7" t="n">
-        <v>15.56</v>
+        <v>15.82</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>25.53</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>31.71</v>
+        <v>36.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.56</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>122.87</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>-2.84</v>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1071.04</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8899999999999999</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>9.93</v>
+        <v>10.43</v>
       </c>
       <c r="G8" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>20.07</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.93</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>54.64</v>
+        <v>45.05</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>32.02</v>
+        <v>64.32000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.5499999999999999</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>-2.54</v>
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1899999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>7.029999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>-6.819999999999999</v>
-      </c>
-      <c r="O8" t="n">
-        <v>11.74</v>
+        <v>0.8800000000000008</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>-9.300000000000001</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>53.76</v>
+        <v>52.84</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>41.59</v>
+        <v>67.01000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>855.42</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.3</v>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>-1.89</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>19.5</v>
+        <v>-5.140000000000001</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.199999999999999</v>
+        <v>6.25</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>21.49</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>54.11</v>
+        <v>36.13</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>-0.26</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>16.6</v>
+        <v>-6.22</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>-3.42</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>-6.489999999999999</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>-2.130000000000001</v>
+        <v>-1.169999999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.26</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>53.37</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>63.68</v>
+        <v>43.92</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>金鹰产业整合混合</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>28.77</t>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>122.87</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-0.51</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-2.79</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>9.34</v>
+        <v>-1.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.43</v>
       </c>
       <c r="G10" t="n">
-        <v>12.62</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>13.45</v>
+        <v>17.06</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>58.40000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.449999999999996</v>
+        <v>59.01</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>39.16</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7699999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-2.49</v>
+        <v>-2.7</v>
       </c>
       <c r="M10" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5.120000000000001</v>
+        <v>2.62</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>-5.119999999999999</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>2.83</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>57.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>19.02</v>
+        <v>66.8</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>41.84999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>009375</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>浦银安盛MSCI中国A股ETF联接C</t>
+          <t>金鹰产业整合混合</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>28.77</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.06999999999999995</v>
+        <v>-0.7</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.1</v>
+        <v>-2.51</v>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>3.84</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>12.17</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>64.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.66</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02999999999999992</v>
+        <v>1.09</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>-6.44</v>
+        <v>-3.59</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.19</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-2.06</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>72.45</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>20.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>72.42</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-5.15</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>20.26</v>
+        <v>-0.63</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.91</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>30.38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.61</v>
+        <v>38.36000000000001</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>31.39</v>
       </c>
       <c r="K12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="O12" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="P12" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>21.18</v>
+        <v>1.16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>46.15000000000001</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>34.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>工银新兴制造混合C</t>
+          <t>汇添富逆向投资混合</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>22.11</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.05000000000000004</v>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-1.55</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.53</v>
+        <v>-3.65</v>
       </c>
       <c r="F13" t="n">
-        <v>8.59</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="H13" t="n">
-        <v>16</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>5.26</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09000000000000008</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5.69</v>
+        <v>0.2399999999999999</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>-0.06000000000000005</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.9600000000000009</v>
+        <v>-2.16</v>
       </c>
       <c r="O13" t="n">
-        <v>7.669999999999998</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>6.59</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>40.19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>16.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>001043</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>工银美丽城镇股票A</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>129.09</t>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>22.11</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.44</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-2.16</v>
+        <v>-0.6300000000000003</v>
       </c>
       <c r="F14" t="n">
-        <v>3.39</v>
+        <v>4.74</v>
       </c>
       <c r="G14" t="n">
-        <v>1.640000000000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>51.12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.48</v>
+        <v>9.84</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>2.66</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>-1.86</v>
+        <v>-1.71</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4899999999999998</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>-9.16</v>
+        <v>2.93</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.42</v>
       </c>
       <c r="O14" t="n">
-        <v>7.190000000000001</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>23.23</v>
+        <v>6.1</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>001043</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合A</t>
+          <t>工银美丽城镇股票A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>134.44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.440000000000001</v>
+          <t>129.09</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5399999999999998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-0.8999999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>-1.34</v>
+        <v>12.6</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>53.07</v>
+      </c>
+      <c r="J15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.59</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>-0.8400000000000001</v>
+        <v>-0.54</v>
       </c>
       <c r="M15" t="n">
-        <v>7.26</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>-1.359999999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-8.32</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>-1.630000000000001</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>60.86</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>002846</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>泓德泓华混合</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>307.53</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.61</v>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>134.44</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-1.8</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.86</v>
+        <v>-1.26</v>
       </c>
       <c r="F16" t="n">
-        <v>5.529999999999999</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>25.04</v>
+        <v>4.609999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>0.65</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>-1.56</v>
+        <v>-2.34</v>
       </c>
       <c r="M16" t="n">
-        <v>2.629999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-12.06</v>
+        <v>-1.54</v>
       </c>
       <c r="O16" t="n">
-        <v>5.349999999999998</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>34.61</v>
+        <v>10.15</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1438,404 +1438,286 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>36.79</t>
+          <t>82.25</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.98</v>
+        <v>3.3</v>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>15</v>
+        <v>3.92</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11.58</v>
       </c>
       <c r="H17" t="n">
-        <v>10.23</v>
+        <v>13.12</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>46.86</v>
+        <v>47.01</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>-22.62</v>
+        <v>-18.76</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04000000000000004</v>
+        <v>1.19</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>2.22</v>
       </c>
       <c r="M17" t="n">
-        <v>0.25</v>
+        <v>2.11</v>
       </c>
       <c r="N17" t="n">
-        <v>4.200000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1.9</v>
+        <v>-1.11</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>45.98</v>
+        <v>54.8</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>-13.05</v>
+        <v>-16.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>163409</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>招商丰拓灵活混合A</t>
+          <t>兴全绿色投资混合(LOF)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>250.29</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.61</v>
       </c>
-      <c r="E18" t="n">
-        <v>-0.4800000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.390000000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-7.23</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-12.64</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.65</v>
-      </c>
       <c r="L18" t="n">
-        <v>-0.18</v>
+        <v>-0.3400000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>1.57</v>
+        <v>2.07</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>-4.409999999999999</v>
+        <v>-3.49</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>-8.109999999999999</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>-3.07</v>
+        <v>2.819999999999999</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>26.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>160813</t>
+          <t>550015</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>长盛同盛成长优选(LOF)</t>
+          <t>中信保诚至远动力混合A</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>48.54</t>
+          <t>64.78</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.01</v>
+        <v>-1.27</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-0.7</v>
       </c>
       <c r="G19" t="n">
-        <v>2.89</v>
+        <v>5.51</v>
       </c>
       <c r="H19" t="n">
-        <v>10.58</v>
+        <v>18.48</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>54.85000000000001</v>
+        <v>64.52000000000001</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>-14.63</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.8300000000000001</v>
+        <v>-4.389999999999997</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>2.24</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.109999999999999</v>
+        <v>-2.35</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>-2.51</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>-7.91</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>2.25</v>
+        <v>-1.91</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.25</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>53.97000000000001</v>
+        <v>72.31</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-5.060000000000002</v>
+        <v>-1.699999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>040046</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>102.16</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.24</v>
+          <t>华安纳斯达克100指数</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>64.02</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-6.67</v>
       </c>
       <c r="E20" t="n">
-        <v>3.96</v>
+        <v>3.01</v>
       </c>
       <c r="F20" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>7.380000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24.61</v>
-      </c>
-      <c r="J20" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.2</v>
+        <v>16.74</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.9500000000000028</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>-4.88</v>
       </c>
       <c r="L20" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>-3.419999999999999</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8.489999999999998</v>
+        <v>1.93</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.050000000000001</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>2.51</v>
       </c>
       <c r="P20" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>26.88</v>
+        <v>9.219999999999999</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>3.640000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>050025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中信保诚至远动力混合A</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>250.59</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>-3.4</v>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>4.529999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>5.819999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>10.47</v>
+        <v>8.49</v>
       </c>
       <c r="H21" t="n">
-        <v>18.24</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>74.5</v>
+        <v>16.49</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>-26.17</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>-24.22</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2.919999999999999</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>-0.3299999999999992</v>
-      </c>
-      <c r="O21" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>73.62</v>
+        <v>-8.919999999999998</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>-18.38</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>-14.65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>040046</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-1.92</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.870000000000001</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4.029999999999999</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>-0.4100000000000001</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8.990000000000002</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>050025</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>博时标普500ETF联接A</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>92.37</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.4500000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9.139999999999999</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>-20.54</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>-4.680000000000003</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>0.8099999999999987</v>
-      </c>
-      <c r="P23" s="2" t="n">
-        <v>-21.42</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>4.889999999999997</v>
+        <v>-6.23</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -567,17 +567,17 @@
           <t>55.02</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1.09</v>
+      <c r="D3" s="1" t="n">
+        <v>2.86</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>8.4</v>
+        <v>5.23</v>
       </c>
       <c r="F3" t="n">
-        <v>0.35</v>
+        <v>3.21</v>
       </c>
       <c r="G3" t="n">
-        <v>8.25</v>
+        <v>7.52</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="K3" s="1" t="n">
-        <v>2.88</v>
+        <v>4.71</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>7.32</v>
+        <v>4.69</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0.8300000000000001</v>
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.94</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -639,19 +639,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.8799999999999999</v>
+        <v>-0.51</v>
       </c>
       <c r="E4" t="n">
-        <v>1.81</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>16.46</v>
+        <v>18.82</v>
       </c>
       <c r="G4" t="n">
-        <v>12.33</v>
+        <v>9.1</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>32.34</v>
+        <v>35.89</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.9099999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="L4" t="n">
-        <v>0.73</v>
+        <v>0.3599999999999999</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>14.65</v>
+        <v>15.41</v>
       </c>
       <c r="N4" t="n">
-        <v>4.91</v>
+        <v>4.52</v>
       </c>
       <c r="O4" t="n">
-        <v>18.11</v>
+        <v>19.97</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -702,23 +702,23 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>37.79</t>
+          <t>32.27</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.1400000000000001</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.55</v>
       </c>
       <c r="G5" t="n">
-        <v>3.47</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>8.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1.33</v>
+        <v>1.99</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>-1.19</v>
+        <v>-1.06</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>-1.84</v>
+        <v>-2.86</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-3.95</v>
+        <v>-3.07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>-6.16</v>
+        <v>-6.639999999999999</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -769,50 +769,50 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>62.19</t>
+          <t>42.19</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>-1.65</v>
+        <v>-2.58</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3300000000000001</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-0.8600000000000001</v>
+        <v>-0.33</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.3699999999999997</v>
+        <v>-0.3000000000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>8.539999999999999</v>
+        <v>6.489999999999999</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>41.97000000000001</v>
+        <v>40.25</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>50.21000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6299999999999999</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>-2.73</v>
+        <v>-0.73</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.21</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>-2.67</v>
+        <v>-3.74</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-7.05</v>
+        <v>-4.88</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-5.690000000000001</v>
+        <v>-9.43</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>49.76000000000001</v>
+        <v>53.38</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>52.90000000000001</v>
+        <v>53.97</v>
       </c>
     </row>
     <row r="7">
@@ -832,46 +832,46 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.59</v>
+        <v>-3.07</v>
       </c>
       <c r="E7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5.76</v>
+        <v>4.18</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>11.07</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>23.24</v>
+        <v>15.04</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>39.76</v>
+        <v>46.09</v>
       </c>
       <c r="I7" t="n">
-        <v>28.47</v>
+        <v>28.28</v>
       </c>
       <c r="J7" t="n">
-        <v>8.130000000000003</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.2</v>
+        <v>6.579999999999998</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>-1.22</v>
       </c>
       <c r="L7" t="n">
-        <v>2.67</v>
+        <v>3.64</v>
       </c>
       <c r="M7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>15.82</v>
+        <v>7.66</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.46</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>25.53</v>
+        <v>30.17</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>36.26</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10.82</v>
+        <v>41.41</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>5.949999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -891,46 +891,46 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.41</v>
+        <v>-4.19</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8899999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>10.43</v>
+        <v>13.82</v>
       </c>
       <c r="G8" t="n">
-        <v>8.300000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="H8" t="n">
-        <v>4.93</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45.05</v>
+        <v>42.62</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>64.32000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3799999999999999</v>
+        <v>64.03999999999999</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>-2.34</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0.8800000000000008</v>
+        <v>1.76</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.59</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>-9.300000000000001</v>
+        <v>-10.89</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>52.84</v>
+        <v>55.75</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>63.41</v>
       </c>
     </row>
     <row r="9">
@@ -950,45 +950,45 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.89</v>
+        <v>-3.5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-5.140000000000001</v>
+        <v>-3.49</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1.61</v>
+        <v>-0.13</v>
       </c>
       <c r="G9" t="n">
-        <v>6.25</v>
+        <v>1.7</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>21.49</v>
+        <v>24.1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>36.13</v>
+        <v>33.14</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>-0.1000000000000001</v>
+      <c r="K9" s="2" t="n">
+        <v>-1.65</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>-6.22</v>
+        <v>-4.029999999999999</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>-3.42</v>
+        <v>-3.54</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>-1.169999999999999</v>
+        <v>-2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>7.26</v>
+        <v>8.180000000000001</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>43.92</v>
+        <v>46.27</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1009,50 +1009,50 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>122.87</t>
+          <t>208.47</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.51</v>
+        <v>-0.06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.62</v>
+        <v>-2.24</v>
       </c>
       <c r="F10" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3</v>
+        <v>5.45</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-0.04000000000000004</v>
       </c>
       <c r="H10" t="n">
-        <v>17.06</v>
+        <v>18.53</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>59.01</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>39.16</v>
+        <v>39.97000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-2.7</v>
+        <v>-2.78</v>
       </c>
       <c r="M10" t="n">
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>-5.119999999999999</v>
+        <v>-4.619999999999999</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2.83</v>
+        <v>2.610000000000001</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>66.8</v>
+        <v>69.72999999999999</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>41.84999999999999</v>
+        <v>39.34</v>
       </c>
     </row>
     <row r="11">
@@ -1068,50 +1068,50 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>28.77</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.7</v>
+        <v>-0.57</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-2.51</v>
+        <v>-2.52</v>
       </c>
       <c r="F11" t="n">
-        <v>3.84</v>
+        <v>5.79</v>
       </c>
       <c r="G11" t="n">
-        <v>9.609999999999999</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>12.17</v>
+        <v>15.57</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>64.66</v>
+        <v>62.44</v>
       </c>
       <c r="J11" t="n">
-        <v>17.66</v>
+        <v>19.78</v>
       </c>
       <c r="K11" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>-3.59</v>
+        <v>-3.06</v>
       </c>
       <c r="M11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.19</v>
+        <v>2.38</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>-0.5799999999999998</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-2.06</v>
+        <v>-0.3499999999999996</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>72.45</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.35</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="12">
@@ -1131,46 +1131,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.63</v>
+        <v>0.44</v>
       </c>
       <c r="E12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-0.05000000000000004</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>14.5</v>
+        <v>0.21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.03</v>
       </c>
       <c r="H12" t="n">
-        <v>10.91</v>
+        <v>12.86</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>38.36000000000001</v>
+        <v>34.3</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.16</v>
+        <v>36.08000000000001</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>2.29</v>
       </c>
       <c r="L12" t="n">
-        <v>0.28</v>
+        <v>-0.3300000000000001</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-1.86</v>
+        <v>-1.83</v>
       </c>
       <c r="N12" t="n">
-        <v>7.08</v>
+        <v>6.45</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-3.32</v>
+        <v>-3.06</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>46.15000000000001</v>
+        <v>47.42999999999999</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>34.08</v>
+        <v>35.45</v>
       </c>
     </row>
     <row r="13">
@@ -1186,50 +1186,50 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>72.42</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.55</v>
+        <v>-3.2</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-3.65</v>
+        <v>-0.9600000000000004</v>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.26</v>
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.3099999999999998</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>20.82</v>
+        <v>22.25</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>32.4</v>
+        <v>37.52</v>
       </c>
       <c r="J13" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2399999999999999</v>
+        <v>13.06</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>-1.35</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>-4.73</v>
+        <v>-1.5</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>-0.06000000000000005</v>
+        <v>-0.4099999999999997</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>-2.16</v>
+        <v>-4.27</v>
       </c>
       <c r="O13" t="n">
-        <v>6.59</v>
+        <v>6.33</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>40.19</v>
+        <v>50.64999999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.39</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="14">
@@ -1245,23 +1245,23 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>88.87</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8699999999999999</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>-0.6300000000000003</v>
+        <v>0.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.23</v>
       </c>
       <c r="F14" t="n">
-        <v>4.74</v>
+        <v>6.380000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>9.84</v>
+        <v>5.93</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>20.33</v>
+        <v>23.91</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1274,19 +1274,19 @@
         </is>
       </c>
       <c r="K14" s="1" t="n">
-        <v>2.66</v>
+        <v>2.05</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>-1.71</v>
+        <v>-0.77</v>
       </c>
       <c r="M14" t="n">
-        <v>2.93</v>
+        <v>2.970000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>2.42</v>
+        <v>1.35</v>
       </c>
       <c r="O14" t="n">
-        <v>6.1</v>
+        <v>7.99</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1312,50 +1312,50 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>129.09</t>
+          <t>148.72</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.2</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5399999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="F15" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>-0.8999999999999999</v>
+        <v>-1.18</v>
       </c>
       <c r="H15" t="n">
-        <v>12.6</v>
+        <v>10.87</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>53.07</v>
+        <v>57.65000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="K15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6699999999999999</v>
+        <v>1.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>-0.6299999999999999</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>-8.32</v>
+        <v>-5.76</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>-1.630000000000001</v>
+        <v>-5.049999999999999</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>60.86</v>
+        <v>70.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.89</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="16">
@@ -1371,23 +1371,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>134.44</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-1.8</v>
+          <t>160.26</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.6799999999999999</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.26</v>
+        <v>-2.370000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>4.609999999999999</v>
+        <v>5.83</v>
       </c>
       <c r="G16" t="n">
-        <v>5.88</v>
+        <v>3.51</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>24.38</v>
+        <v>26.47</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-0.01000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>-2.34</v>
+        <v>-2.910000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-1.54</v>
+        <v>-1.07</v>
       </c>
       <c r="O16" t="n">
-        <v>10.15</v>
+        <v>10.55</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1442,46 +1442,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.6</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="E17" t="n">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="F17" t="n">
-        <v>3.92</v>
+        <v>4.41</v>
       </c>
       <c r="G17" t="n">
-        <v>11.58</v>
+        <v>9.27</v>
       </c>
       <c r="H17" t="n">
-        <v>13.12</v>
+        <v>17.63</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>47.01</v>
+        <v>41.16</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>-18.76</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.19</v>
+        <v>-15.53</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>2.53</v>
       </c>
       <c r="L17" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M17" t="n">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>4.16</v>
+        <v>4.69</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>-1.11</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>54.8</v>
+        <v>54.28999999999999</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>-16.07</v>
+        <v>-16.16</v>
       </c>
     </row>
     <row r="18">
@@ -1497,50 +1497,50 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>102.16</t>
+          <t>104.29</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.18</v>
+        <v>-3</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7399999999999998</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>3.88</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>3.93</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>17.05</v>
+        <v>16.48</v>
       </c>
       <c r="I18" t="n">
-        <v>23.35</v>
+        <v>23.77</v>
       </c>
       <c r="J18" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.61</v>
+        <v>26.43</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-1.15</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.3400000000000001</v>
+        <v>-0.1899999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>2.07</v>
+        <v>2.81</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>-3.49</v>
+        <v>-2.51</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2.819999999999999</v>
+        <v>0.5600000000000005</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>31.14</v>
+        <v>36.89999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.75</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="19">
@@ -1559,47 +1559,47 @@
           <t>64.78</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18.48</v>
+      <c r="D19" s="2" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>21.24</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>64.52000000000001</v>
+        <v>61.20999999999999</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>-4.389999999999997</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>2.24</v>
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.62</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>-2.35</v>
+        <v>-0.71</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>-2.51</v>
+        <v>-2.74</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>-1.91</v>
+        <v>-3.68</v>
       </c>
       <c r="O19" t="n">
-        <v>4.25</v>
+        <v>5.32</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>72.31</v>
+        <v>74.33999999999999</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-1.699999999999999</v>
+        <v>0.1700000000000017</v>
       </c>
     </row>
     <row r="20">
@@ -1619,46 +1619,46 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-6.67</v>
+        <v>-4.66</v>
       </c>
       <c r="E20" t="n">
-        <v>3.01</v>
+        <v>1.69</v>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G20" t="n">
-        <v>8.470000000000001</v>
+        <v>5.119999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>16.74</v>
+        <v>17.81</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.9500000000000028</v>
+        <v>-3.600000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.039999999999999</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-4.88</v>
+        <v>-2.81</v>
       </c>
       <c r="L20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.050000000000001</v>
+        <v>1.15</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0.54</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2.51</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>9.219999999999999</v>
+        <v>9.529999999999998</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.640000000000001</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="21">
@@ -1672,52 +1672,52 @@
           <t>博时标普500ETF联接A</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>92.48</t>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>138.38</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-5.16</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>4.529999999999999</v>
+        <v>-6.13</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.33</v>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>2.58</v>
       </c>
       <c r="G21" t="n">
-        <v>8.49</v>
+        <v>4.779999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>16.49</v>
+        <v>19.8</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-26.17</v>
+        <v>-32.75</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>-8.919999999999998</v>
+        <v>-4.23</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-3.37</v>
+        <v>-4.279999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>3.45</v>
+        <v>2.79</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>2.26</v>
+        <v>-0.8299999999999998</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.880000000000001</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>-18.38</v>
+        <v>-19.62</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>-6.23</v>
+        <v>-4.859999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,35 +554,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有混合A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>55.02</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.21</v>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>17.96</v>
       </c>
       <c r="G3" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>9.92</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>31.7</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -594,22 +592,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>-0.1999999999999997</v>
+      <c r="K3" t="n">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>14.85</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>6.97</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14.98</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -625,100 +621,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>84.81</t>
+          <t>南方转型增长混合A</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>373.86</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>18.82</v>
+        <v>1.53</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.99</v>
       </c>
       <c r="G4" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1.34</v>
+        <v>6.27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>50.86000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2.65</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3599999999999999</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>15.41</v>
+        <v>-0.4199999999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8800000000000008</v>
       </c>
       <c r="N4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>3.319999999999999</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>-6.97</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>009375</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>浦银安盛MSCI中国A股ETF联接C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>32.27</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1400000000000001</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-0.52</v>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.41</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>9.279999999999999</v>
+        <v>14.49</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -730,20 +718,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>-2.86</v>
+      <c r="K5" s="1" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.04</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-3.07</v>
+        <v>-0.71</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>-6.639999999999999</v>
+        <v>-2.23</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -759,477 +747,485 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>001508</t>
+          <t>009375</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合A</t>
+          <t>浦银安盛MSCI中国A股ETF联接C</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>42.19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-2.58</v>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2700000000000005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3300000000000001</v>
+        <v>-0.3399999999999999</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-0.3000000000000003</v>
+        <v>-0.27</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.59</v>
       </c>
       <c r="H6" t="n">
-        <v>6.489999999999999</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>40.25</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>54.6</v>
+        <v>8.15</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>-0.73</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.21</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>-3.74</v>
+        <v>-3.38</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-4.88</v>
+        <v>-0.3600000000000003</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-9.43</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>53.38</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>53.97</v>
+        <v>-8.57</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>001508</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>交银趋势混合A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>121.47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>46.09</v>
-      </c>
-      <c r="I7" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.579999999999998</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>30.17</v>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>42.19</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>-6.95</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>5.949999999999999</v>
+        <v>48.26</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>54.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1071.04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-4.19</v>
+          <t>交银趋势混合A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>121.47</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5100000000000002</v>
       </c>
       <c r="E8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>42.62</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>64.03999999999999</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>-2.34</v>
+        <v>0.8199999999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.58000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.380000000000003</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.63</v>
       </c>
       <c r="L8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>-10.89</v>
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>31.1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>55.75</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>63.41</v>
+        <v>36.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-3.5</v>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1071.04</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.9500000000000002</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-3.49</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-0.13</v>
+        <v>-1.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.930000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>24.1</v>
+        <v>9.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.37</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>-1.65</v>
+        <v>40.86000000000001</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1699999999999999</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>-4.029999999999999</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>-3.54</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.180000000000001</v>
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.820000000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>-10.35</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>46.27</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>49.77</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>62.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>208.47</t>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>90.15</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.06</v>
+        <v>1.02</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-2.24</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="H10" t="n">
-        <v>18.53</v>
+        <v>-5.98</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>24.64</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>56.59999999999999</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>39.97000000000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.79</v>
+        <v>36.21</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>2.14</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-2.78</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.04</v>
+        <v>-5.359999999999999</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>-4.96</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>-4.619999999999999</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>2.610000000000001</v>
+        <v>-1.73</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.920000000000001</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>69.72999999999999</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>39.34</v>
+        <v>45.12</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>金鹰产业整合混合</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>32.58</t>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>208.47</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.57</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-2.52</v>
+        <v>-2.08</v>
       </c>
       <c r="F11" t="n">
-        <v>5.79</v>
+        <v>3.96</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>15.57</v>
+        <v>16.3</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>62.44</v>
-      </c>
-      <c r="J11" t="n">
-        <v>19.78</v>
+        <v>60.45000000000001</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>40.04</v>
       </c>
       <c r="K11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>-3.06</v>
+        <v>-1.46</v>
       </c>
       <c r="M11" t="n">
-        <v>2.38</v>
+        <v>0.8500000000000005</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>-0.5799999999999998</v>
+        <v>-1.31</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-0.3499999999999996</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>75.56999999999999</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>19.15</v>
+        <v>69.36000000000001</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>39.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>金鹰产业整合混合</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.21</v>
+        <v>1.29</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-1.82</v>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>11.03</v>
+        <v>6.83</v>
       </c>
       <c r="H12" t="n">
-        <v>12.86</v>
+        <v>16.23</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>36.08000000000001</v>
+        <v>63.95000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18.09</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-0.3300000000000001</v>
+        <v>2.41</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>-1.2</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-1.83</v>
+        <v>-2.25</v>
       </c>
       <c r="N12" t="n">
-        <v>6.45</v>
+        <v>3.88</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-3.06</v>
+        <v>-0.4899999999999993</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>47.42999999999999</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>35.45</v>
+        <v>72.86000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>-0.9600000000000004</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0.3099999999999998</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>22.25</v>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8599999999999999</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.82</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>37.52</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>-1.5</v>
+        <v>42.01</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.48</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>-0.4099999999999997</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>-4.27</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.33</v>
+        <v>-4.23</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>-5.899999999999999</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>50.64999999999999</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>12.43</v>
+        <v>50.91999999999999</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>30.69</v>
       </c>
     </row>
     <row r="14">
@@ -1249,19 +1245,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2</v>
+        <v>1.54</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.23</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>6.380000000000001</v>
+        <v>4.56</v>
       </c>
       <c r="G14" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>23.91</v>
+        <v>8.02</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19.07</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1274,19 +1270,19 @@
         </is>
       </c>
       <c r="K14" s="1" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>-0.77</v>
+        <v>2.66</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8600000000000003</v>
       </c>
       <c r="M14" t="n">
-        <v>2.970000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="N14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="O14" t="n">
-        <v>7.99</v>
+        <v>5.069999999999999</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>2.350000000000001</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1302,422 +1298,733 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>001043</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>工银美丽城镇股票A</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>148.72</t>
+          <t>中泰兴诚价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>55.02</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.04999999999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.96</v>
+        <v>1.88</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>8.51</v>
       </c>
       <c r="F15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>57.65000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.4199999999999999</v>
+        <v>2.859999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>9.129999999999999</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>-0.6299999999999999</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>-5.76</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>-5.049999999999999</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>16.07</v>
+        <v>-0.25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>001043</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合A</t>
+          <t>工银美丽城镇股票A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>160.26</t>
+          <t>148.72</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>-2.370000000000001</v>
+        <v>1.84</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.0299999999999998</v>
       </c>
       <c r="F16" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>-2.910000000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.42</v>
+        <v>2.51</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5900000000000003</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>-0.5999999999999996</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-4.960000000000001</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>-4.529999999999999</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>63.77999999999999</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>16.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>82.25</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6800000000000002</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.41</v>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>160.26</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-0.3499999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="H17" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-15.53</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
+        <v>10.8</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.5699999999999994</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>-1.899999999999999</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>-3.46</v>
       </c>
       <c r="N17" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>1.710000000000001</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>54.28999999999999</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>-16.16</v>
+        <v>7.849999999999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8.260000000000002</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>104.29</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>-3</v>
+          <t>银华鑫锐灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.54</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3500000000000001</v>
+        <v>3.96</v>
       </c>
       <c r="F18" t="n">
-        <v>6.220000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>2.07</v>
+        <v>5.92</v>
       </c>
       <c r="H18" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-0.1899999999999999</v>
+        <v>19.54</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>-13.91</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>4.58</v>
       </c>
       <c r="M18" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>-2.51</v>
+        <v>0.2400000000000002</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.97</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.5600000000000005</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>36.89999999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>25.8</v>
+        <v>51.57</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>-14.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>163409</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中信保诚至远动力混合A</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>64.78</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.1699999999999999</v>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-2.34</v>
       </c>
       <c r="F19" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>61.20999999999999</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.8000000000000007</v>
+        <v>6.260000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23.08000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26.03</v>
       </c>
       <c r="K19" t="n">
-        <v>0.62</v>
+        <v>1.04</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>-2.74</v>
+        <v>-1.72</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.150000000000001</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.32</v>
+        <v>-1.77</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>-0.3099999999999996</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>74.33999999999999</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>0.1700000000000017</v>
+        <v>31.99</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>550015</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>中信保诚至远动力混合A</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>64.02</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>-4.66</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.97</v>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-2.02</v>
       </c>
       <c r="G20" t="n">
-        <v>5.119999999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-3.600000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.039999999999999</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.15</v>
+        <v>2.31</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>1.060000000000002</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>-0.7199999999999998</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>-1.44</v>
+        <v>-5.13</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9.529999999999998</v>
+        <v>-0.6400000000000006</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>70.46000000000001</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>5.41</v>
+        <v>0.7699999999999996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活混合A</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>471.20</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0.4899999999999998</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>-15.54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>-4.349999999999998</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>-6.629999999999999</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>-4.640000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>183.31</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>银河君尚混合A</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>53.93</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7100000000000002</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>-0.6100000000000003</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0.230000000000004</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>-2.399999999999999</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>-0.4299999999999997</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>-18.49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>183.31</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>-5.689999999999998</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.069999999999999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>3.219999999999999</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>-11.93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>64.02</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>0.03999999999999959</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>-1.909999999999997</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.460000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>-6.51</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9200000000000008</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>-2.910000000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>7.169999999999998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>050025</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>博时标普500ETF联接A</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>138.38</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>-6.13</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4.779999999999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-32.75</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>-4.23</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>-4.279999999999999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>-0.8299999999999998</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3.880000000000001</v>
-      </c>
-      <c r="P21" s="2" t="n">
-        <v>-19.62</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>-4.859999999999999</v>
+      <c r="D26" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.859999999999999</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>-0.8100000000000003</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>-31.23999999999999</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>-3.760000000000001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>-22.33</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>-3.040000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -568,19 +568,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3599999999999999</v>
+        <v>1.88</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-1.84</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>17.96</v>
+        <v>14.02</v>
       </c>
       <c r="G3" t="n">
-        <v>9.92</v>
+        <v>8.17</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>31.7</v>
+        <v>41.82</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -593,19 +593,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="L3" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>14.85</v>
+        <v>11.22</v>
       </c>
       <c r="N3" t="n">
-        <v>6.97</v>
+        <v>5.16</v>
       </c>
       <c r="O3" t="n">
-        <v>14.98</v>
+        <v>18.52</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -635,46 +635,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>-1.04</v>
+        <v>-0.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08999999999999986</v>
       </c>
       <c r="F4" t="n">
-        <v>3.99</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>6.27</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>9.75</v>
+        <v>13.18</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>50.86000000000001</v>
+        <v>43.03</v>
       </c>
       <c r="J4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>2.65</v>
+        <v>27.95</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>-1.65</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4199999999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.8800000000000008</v>
+        <v>2.94</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>-0.2199999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>3.319999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>-6.97</v>
+        <v>-10.12</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>59.77</v>
+        <v>60.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.01</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="5">
@@ -693,20 +693,20 @@
           <t>30.09</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>2.47</v>
+      <c r="D5" t="n">
+        <v>-0.26</v>
       </c>
       <c r="E5" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="F5" t="n">
-        <v>5.149999999999999</v>
+        <v>6.24</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>3.47</v>
       </c>
       <c r="H5" t="n">
-        <v>14.49</v>
+        <v>16.6</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -718,20 +718,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.03</v>
+      <c r="K5" s="2" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>4.83</v>
       </c>
       <c r="M5" t="n">
-        <v>2.04</v>
+        <v>3.44</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-0.71</v>
+        <v>0.46</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>-2.23</v>
+        <v>-6.700000000000001</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>009375</t>
+          <t>008777</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>浦银安盛MSCI中国A股ETF联接C</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>32.27</t>
+          <t>华安沪深300ETF联接C</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>585.92</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2700000000000005</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3399999999999999</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.15</v>
+        <v>-0.1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>2.81</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -785,20 +785,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>1.390000000000001</v>
+      <c r="K6" s="2" t="n">
+        <v>-1.52</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2800000000000002</v>
+        <v>2.949999999999999</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>-3.38</v>
+        <v>-2.9</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-0.3600000000000003</v>
+        <v>-2.51</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-8.57</v>
+        <v>-20.49</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -827,47 +827,47 @@
           <t>42.19</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>-2.75</v>
+      <c r="D7" s="2" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.74</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-1.79</v>
+        <v>-6.93</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.09</v>
       </c>
       <c r="H7" t="n">
-        <v>9.77</v>
+        <v>6.95</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>39.35</v>
+        <v>30.12</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>55.07</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>-2.13</v>
+        <v>67.52000000000001</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>-4.98</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>4.59</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>-5.44</v>
+        <v>-9.73</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>-4.74</v>
+        <v>-0.9199999999999999</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>-6.95</v>
+        <v>-16.35</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>48.26</v>
+        <v>48.01000000000001</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>54.78</v>
+        <v>62.29000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -887,46 +887,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5100000000000002</v>
+        <v>0.71</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8199999999999998</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F8" t="n">
-        <v>7.05</v>
+        <v>7.97</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>17.76</v>
+        <v>13.14</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>47.82</v>
+        <v>59.56</v>
       </c>
       <c r="I8" t="n">
-        <v>27.58000000000001</v>
+        <v>19.13</v>
       </c>
       <c r="J8" t="n">
-        <v>7.380000000000003</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="K8" t="n">
-        <v>1.63</v>
+        <v>-0.7400000000000002</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>2.859999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>14.81</v>
+        <v>5.17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10.13</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>31.1</v>
+        <v>36.26000000000001</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>36.49</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.09</v>
+        <v>37.02</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>3.030000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -946,46 +946,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.9500000000000002</v>
+        <v>-0.82</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.32</v>
+        <v>-2.23</v>
       </c>
       <c r="F9" t="n">
-        <v>8.930000000000001</v>
+        <v>6.64</v>
       </c>
       <c r="G9" t="n">
-        <v>9.83</v>
+        <v>5.45</v>
       </c>
       <c r="H9" t="n">
-        <v>6.37</v>
+        <v>16.63</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>40.86000000000001</v>
+        <v>30.70999999999999</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>-0.7000000000000002</v>
+        <v>64.54000000000001</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6200000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>5.820000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="N9" t="n">
-        <v>6.88</v>
+        <v>2.44</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>-10.35</v>
+        <v>-6.670000000000001</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>49.77</v>
+        <v>48.59999999999999</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>62.22</v>
+        <v>59.31</v>
       </c>
     </row>
     <row r="10">
@@ -1004,46 +1004,46 @@
           <t>90.15</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1.02</v>
+      <c r="D10" s="2" t="n">
+        <v>-2.58</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-5.98</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.22</v>
+        <v>-7.73</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.16</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>24.64</v>
+        <v>28.85</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>36.21</v>
+        <v>30.45</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>-5.359999999999999</v>
+      <c r="K10" s="2" t="n">
+        <v>-4.03</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.27</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>-4.96</v>
+        <v>-10.53</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>-1.73</v>
+        <v>-2.85</v>
       </c>
       <c r="O10" t="n">
-        <v>7.920000000000001</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>45.12</v>
+        <v>48.34</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1068,164 +1068,164 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.96</v>
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2699999999999996</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.64</v>
+        <v>5.56</v>
       </c>
       <c r="H11" t="n">
-        <v>16.3</v>
+        <v>14.54</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>60.45000000000001</v>
+        <v>58.58</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>40.04</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8500000000000005</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>-1.31</v>
+        <v>45.04000000000001</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.55</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-0.4199999999999999</v>
+        <v>-8.760000000000002</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>69.36000000000001</v>
+        <v>76.47</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>39.75</v>
+        <v>39.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>金鹰产业整合混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>32.58</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8600000000000001</v>
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>6.83</v>
+        <v>12.35</v>
       </c>
       <c r="H12" t="n">
-        <v>16.23</v>
+        <v>10.06</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>63.95000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>-1.2</v>
+        <v>38.42999999999999</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>5.449999999999999</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-2.25</v>
+        <v>-4.18</v>
       </c>
       <c r="N12" t="n">
-        <v>3.88</v>
+        <v>9.34</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-0.4899999999999993</v>
+        <v>-13.24</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>72.86000000000001</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>17.8</v>
+        <v>56.31999999999999</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>34.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>金鹰产业整合混合</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>2.3</v>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-2.98</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>13.76</v>
+        <v>0.08999999999999986</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.38</v>
       </c>
       <c r="H13" t="n">
-        <v>10.82</v>
+        <v>16.55</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>30.98</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>3.42</v>
+        <v>61.11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>-4.43</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>2.94</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>-4.23</v>
+        <v>-2.34</v>
       </c>
       <c r="N13" t="n">
-        <v>10.81</v>
+        <v>1.37</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>-5.899999999999999</v>
+        <v>-6.750000000000001</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>50.91999999999999</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>30.69</v>
+        <v>79</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19.97</v>
       </c>
     </row>
     <row r="14">
@@ -1244,20 +1244,20 @@
           <t>88.87</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1.54</v>
+      <c r="D14" s="2" t="n">
+        <v>-1.47</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2400000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="F14" t="n">
-        <v>4.56</v>
+        <v>0.71</v>
       </c>
       <c r="G14" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19.07</v>
+        <v>5.600000000000001</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>26.69</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1269,20 +1269,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K14" s="1" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.8600000000000003</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.45</v>
+      <c r="K14" s="2" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>-2.09</v>
       </c>
       <c r="N14" t="n">
-        <v>5.069999999999999</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>2.350000000000001</v>
+        <v>2.59</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.390000000000001</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1311,22 +1311,20 @@
           <t>55.02</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.859999999999999</v>
+      <c r="D15" s="1" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>10.62</v>
       </c>
       <c r="G15" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.77</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1338,22 +1336,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K15" s="1" t="n">
-        <v>3</v>
+      <c r="K15" t="n">
+        <v>1.18</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>9.129999999999999</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>-0.25</v>
+        <v>6.58</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.82</v>
       </c>
       <c r="N15" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>2.99</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>-7.530000000000001</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1382,47 +1378,47 @@
           <t>148.72</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1.84</v>
+      <c r="D16" s="2" t="n">
+        <v>-1.91</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0299999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="F16" t="n">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-2.01</v>
+        <v>-1.66</v>
       </c>
       <c r="H16" t="n">
-        <v>12.19</v>
+        <v>10.43</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>54.87</v>
+        <v>53.87</v>
       </c>
       <c r="J16" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.5900000000000003</v>
+        <v>19.89</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>4.82</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>-0.5999999999999996</v>
+        <v>-0.46</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-4.960000000000001</v>
+        <v>-4.67</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-4.529999999999999</v>
+        <v>-12.87</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>63.77999999999999</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.36</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="17">
@@ -1442,19 +1438,19 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.69</v>
+        <v>-1.11</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-2.52</v>
+        <v>-2.789999999999999</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-0.3499999999999999</v>
+        <v>-2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>6.350000000000001</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>24.98</v>
+        <v>32.13</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1466,20 +1462,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>-0.5699999999999994</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>-1.899999999999999</v>
+      <c r="K17" s="2" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0600000000000005</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>-3.46</v>
+        <v>-5.1</v>
       </c>
       <c r="N17" t="n">
-        <v>7.849999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="O17" t="n">
-        <v>8.260000000000002</v>
+        <v>8.829999999999998</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1508,47 +1504,47 @@
           <t>82.25</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0.54</v>
+      <c r="D18" s="1" t="n">
+        <v>2.44</v>
       </c>
       <c r="E18" t="n">
-        <v>3.96</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>5.12</v>
       </c>
       <c r="G18" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>42.66</v>
+        <v>7.49</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28.06</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>-13.91</v>
+        <v>-5.439999999999998</v>
       </c>
       <c r="K18" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>4.58</v>
+        <v>0.9899999999999998</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.649999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2400000000000002</v>
+        <v>2.32</v>
       </c>
       <c r="N18" t="n">
-        <v>2.97</v>
+        <v>4.48</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2.819999999999999</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>51.57</v>
+        <v>45.95</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>-14.2</v>
+        <v>-10.67</v>
       </c>
     </row>
     <row r="19">
@@ -1568,46 +1564,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-2.34</v>
+        <v>-3.4</v>
       </c>
       <c r="F19" t="n">
-        <v>6.260000000000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H19" t="n">
-        <v>16.41</v>
+        <v>6.54</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>20.18</v>
       </c>
       <c r="I19" t="n">
-        <v>23.08000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.04</v>
+        <v>14.71</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.62</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>-1.72</v>
+        <v>-0.5500000000000007</v>
       </c>
       <c r="M19" t="n">
-        <v>3.150000000000001</v>
+        <v>3.74</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>-1.77</v>
+        <v>-2.81</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>-0.3099999999999996</v>
+        <v>-3.120000000000001</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>31.99</v>
+        <v>32.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.74</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="20">
@@ -1626,117 +1622,121 @@
           <t>64.78</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>-1.34</v>
+      <c r="D20" s="2" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.19</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.31</v>
+        <v>-5.11</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0.87</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>21.75</v>
+        <v>26.21</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>61.55</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1.060000000000002</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>-0.7199999999999998</v>
+        <v>46.23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>5.039999999999999</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>-5.13</v>
+        <v>-7.91</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>-0.6400000000000006</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5.03</v>
+        <v>-2.14</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>2.91</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>70.46000000000001</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>0.7699999999999996</v>
+        <v>64.12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8.189999999999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>007509</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>招商丰拓灵活混合A</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>471.20</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0.4899999999999998</v>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>183.31</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.79</v>
       </c>
       <c r="H21" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-15.54</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>-4.349999999999998</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>3.88</v>
+        <v>13</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>-1.6</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>4.81</v>
+        <v>7.96</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>-1.28</v>
+        <v>-4.779999999999999</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>-2.46</v>
+        <v>-0.22</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P21" s="2" t="n">
-        <v>-6.629999999999999</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>-4.640000000000001</v>
+        <v>-10.3</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>007509</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合C</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1744,169 +1744,165 @@
           <t>183.31</t>
         </is>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.63</v>
+      <c r="D22" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>5.5</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-2.11</v>
+        <v>-2.71</v>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H22" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.25</v>
+        <v>6.33</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>-15.91</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>-4.309999999999999</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>8.35</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-5.22</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>-1.62</v>
+        <v>-5.51</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.32</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>-3.82</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-0.9600000000000009</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>519613</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>银河君尚混合A</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>53.93</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>3.2</v>
+          <t>招商丰拓灵活混合A</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>471.20</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.08000000000000007</v>
       </c>
       <c r="E23" t="n">
-        <v>2.6</v>
+        <v>3.63</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7100000000000002</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>-0.6100000000000003</v>
+        <v>3.29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.73</v>
       </c>
       <c r="H23" t="n">
-        <v>16.29</v>
+        <v>15.4</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.230000000000004</v>
+        <v>-21.76</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>-2.399999999999999</v>
+        <v>-1.789999999999999</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.4900000000000002</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>-3.56</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>-0.4299999999999997</v>
-      </c>
-      <c r="P23" t="n">
-        <v>9.140000000000001</v>
+        <v>-7.9</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>-3.870000000000001</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-18.49</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>183.31</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>4.55</v>
+          <t>银河君尚混合A</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>53.93</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.13</v>
       </c>
       <c r="E24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-2.61</v>
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.19</v>
       </c>
       <c r="G24" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>20.77</v>
+        <v>1.85</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.75</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-5.689999999999998</v>
+        <v>-8.079999999999998</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.94</v>
+        <v>-12.23</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>6.35</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.069999999999999</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="P24" s="2" t="n">
-        <v>3.219999999999999</v>
+        <v>-0.6099999999999999</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>-5.550000000000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.810000000000002</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-11.93</v>
+        <v>-17.46</v>
       </c>
     </row>
     <row r="25">
@@ -1925,47 +1921,47 @@
           <t>64.02</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>-1.41</v>
+      <c r="D25" t="n">
+        <v>-0.45</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-7.13</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0.03999999999999959</v>
+        <v>-1.99</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.140000000000001</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>24.01</v>
+        <v>20.78</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-1.909999999999997</v>
+        <v>-9.730000000000004</v>
       </c>
       <c r="J25" t="n">
-        <v>7.460000000000001</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>-6.51</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9200000000000008</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>-2.910000000000001</v>
-      </c>
-      <c r="O25" t="n">
-        <v>7.29</v>
+        <v>17.63</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>-7.359999999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>-2.520000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>8.159999999999997</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.169999999999998</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="26">
@@ -1985,46 +1981,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9100000000000001</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>-2.87</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.859999999999999</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>-0.8100000000000003</v>
+        <v>-0.11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.65</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>26.58</v>
+        <v>23.21</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-31.23999999999999</v>
+        <v>-37.45</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>-2.25</v>
+        <v>4.290000000000003</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.05</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>-3.760000000000001</v>
-      </c>
-      <c r="O26" t="n">
-        <v>9.859999999999999</v>
+        <v>-2.97</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>-0.08999999999999986</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>-22.33</v>
+        <v>-19.56</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>-3.040000000000003</v>
+        <v>-0.9399999999999977</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,17 @@
       <c r="O1" t="inlineStr"/>
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>中加纯债债券</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +561,41 @@
           <t>2年-3年</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>近一周</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1周~1月</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1月~3月</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>3月~6月</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>6月~1年</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1年-2年</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2年-3年</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,20 +613,20 @@
           <t>12.18</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1.88</v>
+      <c r="D3" s="1" t="n">
+        <v>3.65</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.84</v>
+        <v>-2.13</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>14.02</v>
+        <v>10.83</v>
       </c>
       <c r="G3" t="n">
-        <v>8.17</v>
+        <v>11.76</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>41.82</v>
+        <v>44.64</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -593,26 +639,51 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.4299999999999997</v>
+        <v>1.36</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0.3099999999999996</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>11.22</v>
+        <v>9.82</v>
       </c>
       <c r="N3" t="n">
+        <v>5.630000000000001</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
         <v>5.16</v>
       </c>
-      <c r="O3" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" s="2" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -621,97 +692,122 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南方转型增长混合A</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>373.86</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2</v>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-3.95</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.58</v>
+        <v>-0.3599999999999994</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G4" t="n">
-        <v>5.220000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27.95</v>
+        <v>4.27</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-1.65</v>
+        <v>-6.24</v>
       </c>
       <c r="L4" t="n">
-        <v>2.94</v>
+        <v>2.08</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>-10.12</v>
+        <v>-10.18</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.209999999999999</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>60.92</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>22.72</v>
+        <v>49.35000000000001</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>-6.779999999999999</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>78.54000000000001</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>008222</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>30.09</t>
+          <t>兴业机遇债券C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>198.15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.26</v>
+        <v>-0.51</v>
       </c>
       <c r="E5" t="n">
-        <v>1.98</v>
+        <v>4.18</v>
       </c>
       <c r="F5" t="n">
-        <v>6.24</v>
+        <v>4.44</v>
       </c>
       <c r="G5" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>11.53</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-43.1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -719,26 +815,47 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-1.71</v>
+        <v>-2.8</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>4.83</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0.46</v>
+        <v>3.43</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.4</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>-6.700000000000001</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-2.02</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>-22.19</v>
       </c>
       <c r="Q5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.859999999999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6.110000000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -761,19 +878,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.06999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>2.81</v>
+        <v>-1.07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.65</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -786,19 +903,19 @@
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-1.52</v>
+        <v>-2.08</v>
       </c>
       <c r="L6" t="n">
-        <v>2.949999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>-2.9</v>
+        <v>-2.08</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-2.51</v>
+        <v>-4</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-20.49</v>
+        <v>-19.57</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -806,6 +923,31 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>-11.44</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -814,119 +956,161 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>001508</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>42.19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-3.53</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>-6.93</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>67.52000000000001</v>
+          <t>交银趋势混合A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>121.47</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-0.6600000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.739999999999999</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>60.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.93</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-4.98</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>-9.73</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>-0.9199999999999999</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>-16.35</v>
+        <v>-1.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.779999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.940000000000001</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>37.66</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>48.01000000000001</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>62.29000000000001</v>
+        <v>36.67</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>3.199999999999999</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="U7" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>001508</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>交银趋势混合A</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>121.47</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.71</v>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>42.19</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-5.09</v>
       </c>
       <c r="E8" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>59.56</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.260000000000002</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-0.7400000000000002</v>
+        <v>1.73</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-8.09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>31.08000000000001</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>-7.38</v>
       </c>
       <c r="L8" t="n">
-        <v>2.859999999999999</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>36.26000000000001</v>
+        <v>4.17</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>-17.98</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>37.02</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>3.030000000000001</v>
+        <v>51.99000000000001</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>60.95</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>-9.85</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>81.55</v>
       </c>
     </row>
     <row r="9">
@@ -946,385 +1130,511 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.82</v>
+        <v>-0.4399999999999999</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-2.23</v>
+        <v>-1.81</v>
       </c>
       <c r="F9" t="n">
-        <v>6.64</v>
+        <v>4.17</v>
       </c>
       <c r="G9" t="n">
-        <v>5.45</v>
+        <v>9.31</v>
       </c>
       <c r="H9" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>30.70999999999999</v>
+        <v>16.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29.15</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>64.54000000000001</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-2.27</v>
+        <v>-2.73</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>3.84</v>
+        <v>3.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.44</v>
+        <v>3.18</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>-6.670000000000001</v>
+        <v>-6.91</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>48.59999999999999</v>
+        <v>50.06</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>59.31</v>
       </c>
+      <c r="R9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>-8.23</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.640000000000001</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>79.91</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-2.58</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-0.5800000000000001</v>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>208.47</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.3300000000000001</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-7.73</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>28.85</v>
+        <v>-1.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.29</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>30.45</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>58.96</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>46.28</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-4.03</v>
+        <v>-2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.27</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>-10.53</v>
+        <v>-2.69</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5.550000000000001</v>
+        <v>0.06999999999999984</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>-8.93</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>48.34</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>79.87</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>109.06</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>62.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>208.47</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1499999999999999</v>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2.37</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2699999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.56</v>
+        <v>-1.31</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>14.64</v>
       </c>
       <c r="H11" t="n">
-        <v>14.54</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>58.58</v>
+        <v>41.62</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>45.04000000000001</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.58</v>
+        <v>40.16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>5.34</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>-4.02</v>
+        <v>-2.32</v>
       </c>
       <c r="N11" t="n">
-        <v>2.55</v>
+        <v>8.51</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-8.760000000000002</v>
+        <v>-17.08</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>76.47</v>
+        <v>62.53</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>39.81</v>
+        <v>35.43</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>56.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>金鹰产业整合混合</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3700000000000001</v>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-2.37</v>
       </c>
       <c r="E12" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1.38</v>
+        <v>-1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>12.35</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06</v>
+        <v>15.8</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>38.42999999999999</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>39.75</v>
+        <v>59.99999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.7</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>5.449999999999999</v>
+        <v>-4.66</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.94</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-4.18</v>
+        <v>-2.05</v>
       </c>
       <c r="N12" t="n">
-        <v>9.34</v>
+        <v>1.73</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-13.24</v>
+        <v>-7.42</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>56.31999999999999</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>34.52</v>
+        <v>80.91</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0.7100000000000004</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>40.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>金鹰产业整合混合</t>
+          <t>中泰兴诚价值一年持有混合A</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>32.58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>-2.98</v>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2.78</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.46</v>
+        <v>3.6</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>10.66</v>
       </c>
       <c r="G13" t="n">
-        <v>4.38</v>
+        <v>6.33</v>
       </c>
       <c r="H13" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-4.43</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>-2.34</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.37</v>
+        <v>19.44</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4900000000000002</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>6.039999999999999</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>9.649999999999999</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0.2000000000000002</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>-6.750000000000001</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>19.97</v>
+        <v>-3.78</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>001043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>工银新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>88.87</t>
+          <t>工银美丽城镇股票A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>148.72</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.47</v>
+        <v>-2.72</v>
       </c>
       <c r="E14" t="n">
-        <v>2.45</v>
+        <v>1.94</v>
       </c>
       <c r="F14" t="n">
-        <v>0.71</v>
+        <v>0.15</v>
       </c>
       <c r="G14" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>1.37</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.440000000000001</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>55.73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20.01</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-2.92</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>5.3</v>
+        <v>-5.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.38</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3.390000000000001</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-0.86</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>-13.78</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>-0.1599999999999999</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>105.83</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>35.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有混合A</t>
+          <t>工银新兴制造混合A</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>55.02</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>2.63</v>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-3.55</v>
       </c>
       <c r="E15" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>10.62</v>
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-0.3200000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15.77</v>
+        <v>10.37</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>23.94</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1336,20 +1646,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>1.18</v>
+      <c r="K15" s="2" t="n">
+        <v>-5.84</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7.82</v>
+        <v>5.119999999999999</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>-1.33</v>
       </c>
       <c r="N15" t="n">
-        <v>2.99</v>
+        <v>4.24</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>-7.530000000000001</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1357,6 +1667,31 @@
         </is>
       </c>
       <c r="Q15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5.699999999999999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1365,304 +1700,401 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>001043</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>工银美丽城镇股票A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>148.72</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-1.91</v>
+          <t>南方转型增长混合A</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>373.86</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.26</v>
       </c>
       <c r="E16" t="n">
-        <v>1.97</v>
+        <v>0.1100000000000003</v>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>-1.66</v>
+        <v>1.53</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.6</v>
       </c>
       <c r="H16" t="n">
-        <v>10.43</v>
+        <v>14.73</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>53.87</v>
+        <v>41.22000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>19.89</v>
+        <v>28.88</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-3.36</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>-0.46</v>
+        <v>-2.55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.52</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>-4.67</v>
+        <v>-0.53</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-12.87</v>
+        <v>-8.49</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>71.76000000000001</v>
+        <v>62.13000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.66</v>
+        <v>24.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>-6.31</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>-0.3599999999999999</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>91.32000000000001</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>44.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合A</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>160.26</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>-2.789999999999999</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-2.3</v>
+          <t>九泰天富改革混合A</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.08</v>
       </c>
       <c r="G17" t="n">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>5.109999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.400000000000002</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-2.56</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O17" t="n">
-        <v>8.829999999999998</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-1.25</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>3.670000000000002</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>48.03</v>
+      </c>
+      <c r="X17" t="n">
+        <v>24.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合(LOF)A</t>
+          <t>诺安新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>82.25</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="D18" s="1" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7999999999999998</v>
+        <v>2.06</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>-1.01</v>
       </c>
       <c r="F18" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>24.59</v>
+        <v>4.43</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.73</v>
       </c>
       <c r="I18" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-5.439999999999998</v>
+        <v>17.65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17.64</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9899999999999998</v>
+        <v>-0.23</v>
       </c>
       <c r="L18" t="n">
-        <v>3.649999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
-        <v>2.32</v>
+        <v>3.42</v>
       </c>
       <c r="N18" t="n">
-        <v>4.48</v>
+        <v>8.84</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1.289999999999999</v>
+        <v>-15.49</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>45.95</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>-10.67</v>
+        <v>38.56</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>-7.359999999999999</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>33.51000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>104.29</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>-3.4</v>
+          <t>银华鑫锐灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3799999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.2000000000000001</v>
+        <v>4.88</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.56</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>20.18</v>
+        <v>24.45</v>
       </c>
       <c r="I19" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>-0.5500000000000007</v>
+        <v>24.36000000000001</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>-4.379999999999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.819999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>-2.81</v>
+        <v>3.87</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.43</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>-3.120000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>27.08</v>
+        <v>45.27000000000001</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>-9.109999999999999</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S19" s="2" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4.890000000000001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9.360000000000001</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>74.46000000000001</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>163409</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中信保诚至远动力混合A</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>64.78</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-5.11</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>46.23</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13.42</v>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>-3.209999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H20" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.97000000000001</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>33.7</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>5.039999999999999</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>-7.91</v>
+        <v>-2.52</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>-0.7699999999999996</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.33</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>-2.14</v>
+        <v>-3.78</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2.91</v>
+        <v>-4.11</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>64.12</v>
+        <v>33.88000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.189999999999998</v>
+        <v>28.97</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>-9.629999999999999</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>63.07000000000001</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>49.57</v>
       </c>
     </row>
     <row r="21">
@@ -1682,22 +2114,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.15</v>
+        <v>0.28</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>5.11</v>
+        <v>5.41</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.98</v>
+        <v>-2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.79</v>
+        <v>4.26</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>11.33</v>
       </c>
       <c r="I21" t="n">
-        <v>15.52</v>
+        <v>15.29</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1705,24 +2137,47 @@
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-1.6</v>
+        <v>-2.01</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>7.96</v>
+        <v>7.85</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>-4.779999999999999</v>
+        <v>-3.55</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>-0.22</v>
+        <v>-1.87</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>-10.3</v>
+        <v>-11.89</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>33.41</v>
+        <v>36.2</v>
       </c>
       <c r="Q21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="X21" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1731,296 +2186,2061 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>183.31</t>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>30.09</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-2.71</v>
+        <v>-0.22</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.26</v>
       </c>
       <c r="G22" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>-15.91</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>-4.309999999999999</v>
+        <v>5.67</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-1.95</v>
+        <v>-2.51</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.32</v>
+        <v>4.69</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>-0.46</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>-0.9600000000000009</v>
-      </c>
-      <c r="P22" s="2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>-9.539999999999999</v>
+        <v>-5.7</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>招商丰拓灵活混合A</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>471.20</t>
+          <t>银河君尚混合A</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>53.93</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.08000000000000007</v>
+        <v>-0.5699999999999998</v>
       </c>
       <c r="E23" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>-12.76</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.540000000000003</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>-17.49</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="V23" t="n">
         <v>3.63</v>
       </c>
-      <c r="F23" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="H23" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>-21.76</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>-1.789999999999999</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.4900000000000002</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0.7200000000000002</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>-7.9</v>
-      </c>
-      <c r="P23" s="2" t="n">
-        <v>-3.870000000000001</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>-7.02</v>
+      <c r="W23" s="1" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="X23" s="2" t="n">
+        <v>3.109999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>519613</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>银河君尚混合A</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>53.93</t>
+          <t>招商丰拓灵活混合A</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>471.20</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="F24" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.859999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>-6.86</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>-5.789999999999999</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>-6.73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.19</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>-8.079999999999998</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>-12.23</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>-0.6099999999999999</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>-5.550000000000001</v>
-      </c>
-      <c r="P24" t="n">
-        <v>9.810000000000002</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>-17.46</v>
+      <c r="V24" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W24" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>64.02</t>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>183.31</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>-1.99</v>
+        <v>-0.8099999999999999</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>5.91</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-4.56</v>
+        <v>-3.59</v>
       </c>
       <c r="G25" t="n">
-        <v>8.140000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>20.78</v>
+        <v>22.33</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-9.730000000000004</v>
-      </c>
-      <c r="J25" t="n">
-        <v>17.63</v>
+        <v>-20.4</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>-4.82</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.8599999999999994</v>
+        <v>-3.1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>8.35</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>-7.359999999999999</v>
+        <v>-4.6</v>
       </c>
       <c r="N25" t="n">
-        <v>5.130000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>-2.520000000000001</v>
-      </c>
-      <c r="P25" t="n">
-        <v>8.159999999999997</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>12.4</v>
+        <v>-0.8900000000000006</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>0.5100000000000016</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4.960000000000001</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="W25" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>64.02</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.07000000000000006</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-5.37</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>-14.68</v>
+      </c>
+      <c r="J26" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>-6.38</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.710000000000001</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>-1.460000000000001</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <v>-5.68</v>
+      </c>
+      <c r="U26" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>050025</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>博时标普500ETF联接A</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>138.38</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.949999999999999</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>-42.87</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>3.790000000000003</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.7599999999999998</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>-21.96</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>-0.9399999999999977</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="T27" s="2" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9.620000000000001</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="X27" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>003547</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>鹏华丰禄债券</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>257.74</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="H28" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>-47.08</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>-0.8399999999999999</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>-26.17</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>-19.85</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>-0.3199999999999998</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="X28" s="2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>003859</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>招商招旭纯债A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>241.77</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="H29" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>-49.13</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-16.66</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>-7.75</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>-28.22</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>-21.39</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="X29" s="2" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>002704</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>德邦锐兴债券A</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>-51.9</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>-19.68</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>-30.99</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>-24.41</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="X30" s="2" t="n">
+        <v>-3.81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>006966</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>财通安瑞短债债券C</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>360.96</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="H31" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>-49.26</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>-9.15</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>-28.35</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>007744</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>长盛安逸纯债债券A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>125.06</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="H32" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>-52.46</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>8.969999999999999</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>-31.55</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>0.9300000000000002</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>000914</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>中加纯债债券</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>-50.1</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>-15.87</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>-29.19</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>004127</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>鹏华丰康债券</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>241.41</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>-48.54</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>-16.34</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>-7.880000000000001</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>-27.63</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>-21.07</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X34" s="2" t="n">
+        <v>-0.4699999999999998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>003429</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>中证兴业中高等级信用债指数</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>242.90</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>-48.89</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>-18.01</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.619999999999999</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>-27.98</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>-22.74</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X35" s="2" t="n">
+        <v>-2.14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>258.17</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.859999999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>-33.78</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>-0.07000000000000006</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>-9.370000000000001</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>-12.87</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>-19.85</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="W36" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>002087</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>国富新机遇混合A</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>65.66</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>-26.37</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>-8.43</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>7.859999999999999</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>-10.61</v>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v>-5.460000000000001</v>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>-13.16</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="U37" s="2" t="n">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="W37" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>164.27</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="H38" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>-34.51000000000001</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>-24.53</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W38" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="X38" s="2" t="n">
+        <v>-3.93</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>741.08</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.5499999999999998</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="H39" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>-36.07</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>-12.23</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>-15.16</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>-16.96</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W39" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="X39" s="2" t="n">
+        <v>3.640000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>164105</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>华富强化回报债券(LOF)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>119.03</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>5.390000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>-43.46</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4899999999999998</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>-22.55</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>-17.43</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U40" s="2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="X40" s="2" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>1071.04</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H41" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>-20.43</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>-8.74</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U41" s="2" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>-0.6099999999999999</v>
+      </c>
+      <c r="W41" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>002742</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>泓德裕祥债券A</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>312.53</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>-32.6</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>-0.8199999999999998</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>-11.69</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>-16.08</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="W42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X42" s="2" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>008356</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>中加科丰价值精选混合</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6199999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>-0.3900000000000001</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>-7.050000000000001</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>002794</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>天弘永利债券E</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>726.27</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.9899999999999999</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="H44" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>-38.77</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>-11.11</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>7.619999999999999</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>-5.37</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>-17.86</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>-15.84</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W44" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="X44" s="2" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>-23.11</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>-13.42</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>6.869999999999999</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>-0.3800000000000001</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>-18.15</v>
+      </c>
+      <c r="R45" t="n">
         <v>-0.11</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-37.45</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>4.290000000000003</v>
-      </c>
-      <c r="K26" s="2" t="n">
+      <c r="S45" s="2" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="W45" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="X45" s="2" t="n">
+        <v>2.450000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>013260</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>太平睿享混合A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>140.86</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6199999999999999</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>-0.3900000000000001</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S46" s="2" t="n">
         <v>-1.56</v>
       </c>
-      <c r="L26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="P26" s="2" t="n">
-        <v>-19.56</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>-0.9399999999999977</v>
+      <c r="T46" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,20 +613,20 @@
           <t>12.18</t>
         </is>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>-2.13</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.76</v>
+      <c r="D3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6599999999999997</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>16.92</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44.64</v>
+        <v>42.53</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -639,19 +639,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.36</v>
+        <v>0.95</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.630000000000001</v>
+        <v>1.99</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>13.57</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>21.42</v>
+        <v>20.36</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>5.16</v>
+        <v>2.18</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>-8.550000000000001</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.09</v>
+        <v>-4.19</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>15.38</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>29.55</v>
+        <v>25.47</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -705,69 +705,69 @@
           <t>90.15</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.3599999999999994</v>
+      <c r="D4" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-6.79</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-9.17</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>4.27</v>
+        <v>5.51</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>26.43</v>
+        <v>26.52</v>
       </c>
       <c r="I4" t="n">
-        <v>28.44</v>
+        <v>23.07000000000001</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>-6.24</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.08</v>
+      <c r="K4" s="1" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>-5.46</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>-10.18</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>-1.86</v>
+        <v>-10.66</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.16</v>
       </c>
       <c r="O4" t="n">
-        <v>3.209999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>49.35000000000001</v>
+        <v>42.69</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>-2.44</v>
+      <c r="R4" s="1" t="n">
+        <v>4.79</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>-6.779999999999999</v>
+        <v>-11.64</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>-9.48</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>-0.4</v>
+        <v>-10.43</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.97</v>
       </c>
       <c r="V4" t="n">
-        <v>11.34</v>
+        <v>9.459999999999999</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>78.54000000000001</v>
+        <v>67.07000000000001</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -791,69 +791,69 @@
           <t>198.15</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-41.19</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.880000000000001</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0.2200000000000006</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>-21.57</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>-0.51</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>-43.1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>6.619999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>-22.19</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="S5" s="2" t="n">
-        <v>-2.24</v>
+        <v>-1.07</v>
       </c>
       <c r="T5" t="n">
-        <v>4.13</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>6.859999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="V5" t="n">
-        <v>6.110000000000001</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.000000000000001</v>
+        <v>5.33</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>2.81</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -878,19 +878,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.65</v>
+        <v>-0.32</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>2.98</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -902,20 +902,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>-2.08</v>
+      <c r="K6" t="n">
+        <v>-0.27</v>
       </c>
       <c r="L6" t="n">
-        <v>2.94</v>
+        <v>1.41</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>-2.08</v>
+        <v>-2.02</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>-4</v>
+        <v>-3.01</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-19.57</v>
+        <v>-19.19</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.72</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>-5.92</v>
+        <v>-4.77</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>-1.38</v>
+        <v>-1.79</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>-2.54</v>
+        <v>-1.2</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>-11.44</v>
+        <v>-14.08</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -970,67 +970,67 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>-0.3600000000000001</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6600000000000001</v>
+        <v>-1.03</v>
       </c>
       <c r="F7" t="n">
-        <v>6.739999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>16.07</v>
+        <v>14.15</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>60.88</v>
+        <v>60.7</v>
       </c>
       <c r="I7" t="n">
-        <v>15.76</v>
+        <v>22.01000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>-1.25</v>
+        <v>7.399999999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>1.779999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="M7" t="n">
-        <v>5.73</v>
+        <v>4.6</v>
       </c>
       <c r="N7" t="n">
-        <v>9.940000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>37.66</v>
+        <v>38.53</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>36.67</v>
+        <v>41.63</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.199999999999999</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>2.55</v>
+        <v>2.169999999999998</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.63</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>-7.08</v>
+        <v>-5.88</v>
       </c>
       <c r="T7" t="n">
-        <v>6.43</v>
+        <v>4.83</v>
       </c>
       <c r="U7" t="n">
-        <v>11.4</v>
+        <v>12.61</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>45.79</v>
+        <v>43.64</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>65.86</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>23.8</v>
+        <v>20.62</v>
       </c>
     </row>
     <row r="8">
@@ -1049,68 +1049,68 @@
           <t>42.19</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>-5.09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.73</v>
+      <c r="D8" s="1" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-5.600000000000001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-8.09</v>
+        <v>-5.49</v>
       </c>
       <c r="G8" t="n">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="H8" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>31.08000000000001</v>
+        <v>5.89</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25.27</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>65.68000000000001</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>-7.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.17</v>
+        <v>68.15000000000001</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>-4.27</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>-0.009999999999999787</v>
+        <v>-7.19</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.78</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>-17.98</v>
+        <v>-16.28</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>51.99000000000001</v>
+        <v>44.88999999999999</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>60.95</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>-3.58</v>
+        <v>62.92</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>3.85</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>-4.69</v>
+        <v>-10.45</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>-8.4</v>
+        <v>-6.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.45</v>
+        <v>4.59</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>-9.85</v>
+        <v>-11.17</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>81.18000000000001</v>
+        <v>69.27</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>81.55</v>
+        <v>81.37</v>
       </c>
     </row>
     <row r="9">
@@ -1130,67 +1130,67 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.4399999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.81</v>
+        <v>-7.760000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>4.17</v>
+        <v>3.93</v>
       </c>
       <c r="G9" t="n">
-        <v>9.31</v>
+        <v>11.5</v>
       </c>
       <c r="H9" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="I9" t="n">
-        <v>29.15</v>
+        <v>14.24</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>30.36</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>64.04000000000001</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.6299999999999999</v>
+        <v>61.47</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>-6.430000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>3.16</v>
+        <v>2.23</v>
       </c>
       <c r="N9" t="n">
-        <v>3.18</v>
+        <v>8.15</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>-6.91</v>
+        <v>-7.93</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>50.06</v>
+        <v>49.98</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>59.31</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.07</v>
+        <v>56.23999999999999</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>2.93</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>-8.23</v>
+        <v>-12.61</v>
       </c>
       <c r="T9" t="n">
-        <v>3.86</v>
+        <v>2.46</v>
       </c>
       <c r="U9" t="n">
-        <v>4.640000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>1.22</v>
+        <v>-2.82</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>79.25</v>
+        <v>74.36</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>79.91</v>
+        <v>74.69</v>
       </c>
     </row>
     <row r="10">
@@ -1209,68 +1209,68 @@
           <t>208.47</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.3300000000000001</v>
+      <c r="D10" s="2" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0.6100000000000003</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1.68</v>
+        <v>-2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>6.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>14.29</v>
+        <v>13.62</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>58.96</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>46.28</v>
+        <v>44.60000000000001</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-2.05</v>
+        <v>-1.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2.109999999999999</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0.06999999999999984</v>
+        <v>-3.94</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.85</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-8.93</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>79.87</v>
+        <v>72.72</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>41.55</v>
+        <v>39.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>-6.75</v>
+        <v>-5.46</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>-1.99</v>
+        <v>-3.71</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>5.66</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>-0.7999999999999998</v>
+        <v>-3.44</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>109.06</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>62.15</v>
+        <v>57.82000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1289,68 +1289,68 @@
           <t>17.77</t>
         </is>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.9</v>
+      <c r="D11" s="2" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>4.859999999999999</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1.31</v>
+        <v>-2.22</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>14.64</v>
+        <v>13.9</v>
       </c>
       <c r="H11" t="n">
-        <v>6.140000000000001</v>
+        <v>8.74</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>41.62</v>
+        <v>38.55</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>40.16</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.08000000000000007</v>
+        <v>34.90000000000001</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-2.11</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>5.34</v>
+        <v>6.19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>-2.32</v>
+        <v>-3.92</v>
       </c>
       <c r="N11" t="n">
-        <v>8.51</v>
+        <v>10.55</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-17.08</v>
+        <v>-13.43</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>-3.52</v>
+        <v>58.16999999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.01000000000000001</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>-1.62</v>
+        <v>-3.69</v>
       </c>
       <c r="U11" t="n">
-        <v>9.969999999999999</v>
+        <v>12.36</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>-8.949999999999999</v>
+        <v>-8.32</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>91.72</v>
+        <v>82.55</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>56.03</v>
+        <v>48.12</v>
       </c>
     </row>
     <row r="12">
@@ -1369,68 +1369,68 @@
           <t>32.58</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5</v>
+      <c r="D12" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-4.62</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1.04</v>
+        <v>-0.53</v>
       </c>
       <c r="G12" t="n">
-        <v>7.859999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="H12" t="n">
-        <v>15.8</v>
+        <v>13.48</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>59.99999999999999</v>
+        <v>54.38</v>
       </c>
       <c r="J12" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>-4.66</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.94</v>
+        <v>27.46</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>-3.29</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-2.05</v>
+        <v>-2.23</v>
       </c>
       <c r="N12" t="n">
-        <v>1.73</v>
+        <v>5.56</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-7.42</v>
+        <v>-8.69</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>80.91</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-0.86</v>
+        <v>22.23</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>3.39</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>-5.92</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>-1.35</v>
+        <v>-2</v>
       </c>
       <c r="U12" t="n">
-        <v>3.19</v>
+        <v>7.37</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0.7100000000000004</v>
+        <v>-3.58</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>110.1</v>
+        <v>98.38</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>40.57</v>
+        <v>40.68</v>
       </c>
     </row>
     <row r="13">
@@ -1449,20 +1449,20 @@
           <t>55.02</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.6</v>
+      <c r="D13" s="2" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>8.469999999999999</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>10.66</v>
+        <v>9.4</v>
       </c>
       <c r="G13" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19.44</v>
+        <v>2.29</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>23.12</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1474,20 +1474,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>0.4900000000000002</v>
+      <c r="K13" s="2" t="n">
+        <v>-2.41</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>6.039999999999999</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>9.649999999999999</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7.700000000000001</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.2000000000000002</v>
+        <v>-1.06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>-3.78</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1499,20 +1499,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="R13" s="1" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="T13" s="1" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.66</v>
+      <c r="R13" s="2" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.930000000000001</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="V13" t="n">
-        <v>4.35</v>
+        <v>6.059999999999999</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1541,68 +1541,68 @@
           <t>148.72</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>-2.72</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.94</v>
+      <c r="D14" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>-2.2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>3.56</v>
       </c>
       <c r="H14" t="n">
-        <v>9.440000000000001</v>
+        <v>10.07</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>55.73</v>
+        <v>46.94</v>
       </c>
       <c r="J14" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>-5.01</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.38</v>
+        <v>22.89</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>-0.8700000000000001</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-0.86</v>
+        <v>-1.38</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>-4.76</v>
+        <v>0.21</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>-13.78</v>
+        <v>-12.1</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>76.64</v>
+        <v>66.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.28</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>-1.21</v>
+        <v>17.66</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.66</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>-4.48</v>
+        <v>-7.05</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>-0.1599999999999999</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>-3.3</v>
+        <v>-1.15</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.02</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>-5.65</v>
+        <v>-6.99</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>105.83</v>
+        <v>90.94</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>35.88</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="15">
@@ -1622,19 +1622,19 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-3.55</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-0.3200000000000001</v>
+        <v>-1.14</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>10.37</v>
+        <v>10.67</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>23.94</v>
+        <v>23.25</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1647,19 +1647,19 @@
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-5.84</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>5.119999999999999</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>-1.33</v>
+        <v>-1.38</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.04000000000000004</v>
       </c>
       <c r="N15" t="n">
-        <v>4.24</v>
+        <v>7.32</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0.7199999999999989</v>
+        <v>1.08</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1671,20 +1671,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="R15" s="2" t="n">
-        <v>-2.04</v>
+      <c r="R15" t="n">
+        <v>-0.15</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>-3.74</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>-0.63</v>
+        <v>-8.24</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.27</v>
       </c>
       <c r="U15" t="n">
-        <v>5.699999999999999</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>8.85</v>
+        <v>6.19</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1714,67 +1714,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.26</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.53</v>
+        <v>-0.0600000000000005</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-0.48</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>7.71</v>
       </c>
       <c r="H16" t="n">
-        <v>14.73</v>
+        <v>13.54</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>41.22000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>-2.55</v>
+        <v>39.75</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7099999999999997</v>
       </c>
       <c r="L16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>-0.53</v>
+        <v>1.27</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.359999999999999</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-8.49</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>62.13000000000001</v>
+        <v>59.37</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.15</v>
+        <v>26.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U16" s="2" t="n">
-        <v>0.9299999999999999</v>
+        <v>-4.91</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.17</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>-0.3599999999999999</v>
+        <v>-3.52</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>91.32000000000001</v>
+        <v>83.75</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>44.75</v>
+        <v>44.65</v>
       </c>
     </row>
     <row r="17">
@@ -1794,67 +1794,67 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.04</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>3.81</v>
+        <v>1.55</v>
       </c>
       <c r="F17" t="n">
-        <v>4.08</v>
+        <v>5.72</v>
       </c>
       <c r="G17" t="n">
-        <v>5.109999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="H17" t="n">
-        <v>12.04</v>
+        <v>12.33</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-2.07</v>
+        <v>-5.990000000000002</v>
       </c>
       <c r="J17" t="n">
-        <v>8.400000000000002</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>6.25</v>
+        <v>10.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.3800000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
-        <v>3.07</v>
+        <v>4.02</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>-1.02</v>
+        <v>-0.8400000000000001</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>-11.18</v>
+        <v>-9.84</v>
       </c>
       <c r="P17" t="n">
-        <v>18.84</v>
+        <v>13.63</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.670000000000002</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>2.55</v>
+        <v>5.069999999999997</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.85</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>-2.61</v>
+        <v>-3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>3.77</v>
+        <v>4.25</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>-3.05</v>
+        <v>-4.73</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>48.03</v>
+        <v>38.01</v>
       </c>
       <c r="X17" t="n">
-        <v>24.27</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="18">
@@ -1873,68 +1873,68 @@
           <t>48.72</t>
         </is>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>-1.01</v>
+      <c r="D18" s="2" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9699999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>14.97</v>
+        <v>4.84</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.23</v>
       </c>
       <c r="H18" t="n">
-        <v>7.73</v>
+        <v>7.79</v>
       </c>
       <c r="I18" t="n">
-        <v>17.65</v>
+        <v>20.63</v>
       </c>
       <c r="J18" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.23</v>
+        <v>21.01</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>-1.82</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="N18" t="n">
-        <v>8.84</v>
+        <v>6.880000000000001</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>-15.49</v>
+        <v>-14.38</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>38.56</v>
+        <v>40.24999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>3.57</v>
+        <v>15.78</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.59</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>-7.43</v>
+        <v>-3.88</v>
       </c>
       <c r="T18" t="n">
-        <v>4.12</v>
+        <v>3.37</v>
       </c>
       <c r="U18" t="n">
-        <v>10.3</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>-7.359999999999999</v>
+        <v>-9.27</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>67.75</v>
+        <v>64.63</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>33.51000000000001</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="19">
@@ -1953,68 +1953,68 @@
           <t>82.25</t>
         </is>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>2.71</v>
+      <c r="D19" s="2" t="n">
+        <v>-1.23</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3799999999999999</v>
+        <v>3.87</v>
       </c>
       <c r="F19" t="n">
-        <v>4.88</v>
+        <v>3.53</v>
       </c>
       <c r="G19" t="n">
-        <v>9.56</v>
+        <v>8.01</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>24.45</v>
+        <v>23.79</v>
       </c>
       <c r="I19" t="n">
-        <v>24.36000000000001</v>
+        <v>22.87</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>-4.379999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.819999999999999</v>
+        <v>1.23</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>5.2</v>
       </c>
       <c r="M19" t="n">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="N19" t="n">
-        <v>3.43</v>
+        <v>4.66</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1.23</v>
+        <v>1.619999999999999</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>45.27000000000001</v>
+        <v>42.49</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-9.109999999999999</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>4.22</v>
+        <v>-4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.24</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>-6.04</v>
+        <v>-0.98</v>
       </c>
       <c r="T19" t="n">
-        <v>4.57</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
-        <v>4.890000000000001</v>
+        <v>6.47</v>
       </c>
       <c r="V19" t="n">
-        <v>9.360000000000001</v>
+        <v>6.729999999999999</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>74.46000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="20">
@@ -2034,67 +2034,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.23</v>
+        <v>0.3599999999999999</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-3.209999999999999</v>
+        <v>-4.04</v>
       </c>
       <c r="F20" t="n">
-        <v>5.34</v>
+        <v>4.739999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>19.11</v>
+        <v>18.32</v>
       </c>
       <c r="I20" t="n">
-        <v>12.97000000000001</v>
+        <v>14.68</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>-2.52</v>
+        <v>30.69</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1199999999999999</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>-0.7699999999999996</v>
+        <v>-2.71</v>
       </c>
       <c r="M20" t="n">
-        <v>4.33</v>
+        <v>3.04</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>-3.78</v>
+        <v>-0.8500000000000001</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>-4.11</v>
+        <v>-3.85</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>33.88000000000001</v>
+        <v>34.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>28.97</v>
+        <v>25.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>-9.629999999999999</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="T20" t="n">
-        <v>5.03</v>
+        <v>3.27</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4.02</v>
+        <v>0.96</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>1.26</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>63.07000000000001</v>
+        <v>58.68</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>49.57</v>
+        <v>43.91</v>
       </c>
     </row>
     <row r="21">
@@ -2113,23 +2113,23 @@
           <t>183.31</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.28</v>
+      <c r="D21" s="2" t="n">
+        <v>-1.19</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>5.41</v>
+        <v>5.93</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-2.54</v>
+        <v>-1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>4.26</v>
+        <v>2.97</v>
       </c>
       <c r="H21" t="n">
-        <v>11.33</v>
+        <v>12.54</v>
       </c>
       <c r="I21" t="n">
-        <v>15.29</v>
+        <v>9.520000000000003</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-2.01</v>
+        <v>-1.43</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>7.85</v>
+        <v>7.26</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>-3.55</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>-1.87</v>
+        <v>-0.3799999999999999</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>-11.89</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>36.2</v>
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="P21" t="n">
+        <v>29.14</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>-1.01</v>
+        <v>-0.2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.08</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="U21" s="2" t="n">
-        <v>-0.41</v>
+        <v>-3.32</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.43</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>-3.76</v>
+        <v>-4.52</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>65.39</v>
+        <v>53.52</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2199,20 +2199,20 @@
           <t>30.09</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>-0.22</v>
+      <c r="D22" s="2" t="n">
+        <v>-1.95</v>
       </c>
       <c r="E22" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="F22" t="n">
-        <v>5.26</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="H22" t="n">
-        <v>17.52</v>
+        <v>18.16</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2225,19 +2225,19 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>4.69</v>
+        <v>-2.19</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.64</v>
       </c>
       <c r="M22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>-0.46</v>
+        <v>1.35</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.37</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>-5.7</v>
+        <v>-4.01</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2250,19 +2250,19 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>-0.96</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>-4.17</v>
+        <v>-2.54</v>
       </c>
       <c r="T22" t="n">
-        <v>4.95</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4.18</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.43</v>
+        <v>1.1</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2292,67 +2292,67 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.5699999999999998</v>
+        <v>-0.6400000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>3.72</v>
+        <v>2.95</v>
       </c>
       <c r="F23" t="n">
-        <v>1.18</v>
+        <v>1.72</v>
       </c>
       <c r="G23" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18.72</v>
+        <v>1.41</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>20.73</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-12.37</v>
+        <v>-7.32</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>-12.76</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>6.16</v>
+        <v>-8.670000000000002</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.8800000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.28</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>-1.57</v>
+        <v>-1.94</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>-4.5</v>
+        <v>-1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>8.540000000000003</v>
+        <v>12.3</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-17.49</v>
+        <v>-13.9</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>-2.7</v>
+        <v>-1.9</v>
       </c>
       <c r="T23" t="n">
-        <v>0.87</v>
+        <v>0.25</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="V23" t="n">
-        <v>3.63</v>
+        <v>3.669999999999999</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>37.73</v>
+        <v>36.68</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>3.109999999999999</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="24">
@@ -2372,605 +2372,609 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-0.7300000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>3.77</v>
+        <v>3.16</v>
       </c>
       <c r="F24" t="n">
-        <v>2.09</v>
+        <v>2.98</v>
       </c>
       <c r="G24" t="n">
-        <v>6.859999999999999</v>
+        <v>4.32</v>
       </c>
       <c r="H24" t="n">
-        <v>16.36</v>
+        <v>17.49</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-26.7</v>
+        <v>-21.82</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>-2.29</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>6.21</v>
+        <v>-1.870000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.9700000000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.49</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.73</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>-6.86</v>
+        <v>-4.68</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>-5.789999999999999</v>
+        <v>-2.200000000000003</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>-6.73</v>
+        <v>-7.100000000000001</v>
       </c>
       <c r="R24" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.51</v>
       </c>
-      <c r="S24" s="2" t="n">
-        <v>-2.65</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.78</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.19</v>
+        <v>2.78</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1.27</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="W24" t="n">
-        <v>23.4</v>
+        <v>22.18</v>
       </c>
       <c r="X24" t="n">
-        <v>13.87</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>040046</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>183.31</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.8099999999999999</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>5.91</v>
+          <t>华安纳斯达克100指数</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>64.02</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>-1.43</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-3.59</v>
+        <v>-4.37</v>
       </c>
       <c r="G25" t="n">
-        <v>9.630000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>22.33</v>
+        <v>23.95</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-20.4</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>-4.82</v>
+        <v>-12.05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18.12</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>8.35</v>
+        <v>-5.34</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.09999999999999964</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>-4.6</v>
+        <v>-6.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.5</v>
+        <v>4.66</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>-0.8900000000000006</v>
-      </c>
-      <c r="P25" s="2" t="n">
-        <v>0.5100000000000016</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>-9.550000000000001</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.7</v>
+        <v>1.779999999999999</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>-4.109999999999999</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>-0.51</v>
+        <v>-6.279999999999999</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>-3.9</v>
+        <v>-5.84</v>
       </c>
       <c r="U25" t="n">
-        <v>4.960000000000001</v>
+        <v>6.47</v>
       </c>
       <c r="V25" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="W25" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>11.05</v>
+        <v>6.889999999999999</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>31.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>050025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>64.02</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.07000000000000006</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>-1.58</v>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>138.38</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9199999999999999</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-5.37</v>
+        <v>-0.3800000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>10.84</v>
+        <v>4.67</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>21.76</v>
+        <v>27.21</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-14.68</v>
-      </c>
-      <c r="J26" t="n">
-        <v>17.13</v>
+        <v>-38.56</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>4.529999999999998</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-2.22</v>
+        <v>-4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8599999999999994</v>
+        <v>2.25</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>-6.38</v>
+        <v>-2.08</v>
       </c>
       <c r="N26" t="n">
-        <v>4.710000000000001</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>-1.460000000000001</v>
-      </c>
-      <c r="P26" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.039999999999999</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>-18.94</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>-0.7000000000000028</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>-3.07</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>-8</v>
+        <v>-3.93</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>-5.68</v>
+        <v>-1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>6.17</v>
+        <v>3.13</v>
       </c>
       <c r="V26" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>35.42</v>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>33</v>
+        <v>10.15</v>
+      </c>
+      <c r="W26" s="2" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="X26" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>050025</t>
+          <t>002445</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>138.38</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6200000000000001</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>-0.8100000000000001</v>
+          <t>兴业丰泰债券</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>529.26</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.61</v>
       </c>
       <c r="G27" t="n">
-        <v>7.949999999999999</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>24.71</v>
+        <v>1.55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>17.71</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-42.87</v>
+        <v>-44.31</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>3.790000000000003</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.7599999999999998</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.06</v>
+        <v>-17.6</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>6.2</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.82</v>
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>-1.8</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1.49</v>
+        <v>-4.46</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>-21.96</v>
+        <v>-24.69</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-0.9399999999999977</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S27" s="2" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="T27" s="2" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="U27" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="V27" t="n">
-        <v>9.620000000000001</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="X27" t="n">
-        <v>19.66</v>
+        <v>-22.83</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="W27" s="2" t="n">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="X27" s="2" t="n">
+        <v>-4.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>003547</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>鹏华丰禄债券</t>
+          <t>招商丰美混合C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>257.74</t>
+          <t>160.16</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>-27.84</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>-10.68</v>
+      </c>
+      <c r="K28" s="2" t="n">
         <v>-1.46</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G28" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="H28" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>-47.08</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>-15.12</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>-0.8399999999999999</v>
+      <c r="L28" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.64</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>-8.449999999999999</v>
+        <v>-4.53</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>-26.17</v>
+        <v>-8.220000000000002</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>-19.85</v>
+        <v>-15.91</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="S28" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.23</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>-1.92</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="U28" s="2" t="n">
-        <v>0.6200000000000001</v>
+        <v>1.51</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4.45</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>-0.3199999999999998</v>
-      </c>
-      <c r="W28" s="2" t="n">
-        <v>3.02</v>
+        <v>0.5799999999999996</v>
+      </c>
+      <c r="W28" t="n">
+        <v>16.16</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.75</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>003859</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>招商招旭纯债A</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>241.77</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>6.2</v>
+          <t>信诚至利混合C</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.74</v>
       </c>
       <c r="F29" t="n">
-        <v>0.37</v>
+        <v>1.72</v>
       </c>
       <c r="G29" t="n">
-        <v>4.96</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>15.47</v>
+        <v>18.37</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-49.13</v>
+        <v>-43.31</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>-16.66</v>
+        <v>-5.850000000000001</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>-0.64</v>
+        <v>-1.08</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.02000000000000002</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>-1.17</v>
+        <v>-1.3</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>-7.75</v>
+        <v>-3.8</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>-28.22</v>
+        <v>-23.69</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>-21.39</v>
+        <v>-11.08</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.04000000000000001</v>
-      </c>
-      <c r="S29" t="n">
-        <v>-0.22</v>
+        <v>0.15</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>-2.11</v>
       </c>
       <c r="T29" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>0.3799999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="X29" s="2" t="n">
-        <v>-0.79</v>
+        <v>0.6900000000000002</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>002704</t>
+          <t>002729</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>德邦锐兴债券A</t>
+          <t>华富益鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>95.91</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>6.2</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.4</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6799999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="G30" t="n">
-        <v>5.92</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>16.31</v>
+        <v>14.14</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-51.9</v>
+        <v>-30.28</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>-19.68</v>
+        <v>-11.4</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-3.8</v>
+        <v>-1.07</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>8.640000000000001</v>
+        <v>4.73</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>-0.3300000000000001</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>-0.21</v>
+        <v>-1.1</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>-6.91</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>-30.99</v>
+        <v>-10.66</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>-24.41</v>
+        <v>-16.63</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>-0.22</v>
+        <v>0.16</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>-1.45</v>
       </c>
       <c r="T30" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.25</v>
+        <v>0.2</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <v>0.71</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W30" s="2" t="n">
-        <v>-1.8</v>
+        <v>-2.92</v>
+      </c>
+      <c r="W30" t="n">
+        <v>13.72</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>-3.81</v>
+        <v>1.819999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>006966</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>财通安瑞短债债券C</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>360.96</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>5.98</v>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.6700000000000002</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.53</v>
       </c>
       <c r="F31" t="n">
-        <v>0.11</v>
+        <v>2.66</v>
       </c>
       <c r="G31" t="n">
-        <v>4.82</v>
+        <v>2.95</v>
       </c>
       <c r="H31" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-49.26</v>
+        <v>19.35</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K31" s="2" t="n">
-        <v>-3.83</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>-0.9</v>
+      <c r="K31" t="n">
+        <v>-0.9100000000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.96</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>-1.31</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>-9.15</v>
-      </c>
-      <c r="P31" s="2" t="n">
-        <v>-28.35</v>
+        <v>-2.82</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2978,22 +2982,24 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="S31" t="n">
-        <v>-0.4400000000000001</v>
-      </c>
-      <c r="T31" s="2" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="U31" s="2" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.41</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="W31" s="2" t="n">
-        <v>0.8400000000000001</v>
+        <v>2.29</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3004,1240 +3010,1726 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>007744</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>长盛安逸纯债债券A</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>125.06</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>6.53</v>
+          <t>华夏智胜价值成长C</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>-1.29</v>
       </c>
       <c r="F32" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="H32" t="n">
-        <v>16.02</v>
+        <v>2.8</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>30.44</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-52.46</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>-3.67</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>8.969999999999999</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>-7.2</v>
+        <v>-20.31</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8099999999999998</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8.270000000000001</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>-31.55</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.11</v>
+        <v>-0.6900000000000013</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>5.009999999999998</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>-6.14</v>
       </c>
       <c r="T32" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="V32" s="2" t="n">
-        <v>0.9300000000000002</v>
-      </c>
-      <c r="W32" s="2" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>1.33</v>
+      </c>
+      <c r="U32" s="2" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="V32" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="W32" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="X32" t="n">
+        <v>23.46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>000914</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中加纯债债券</t>
+          <t>九泰久益混合C</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>6.42</v>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.08999999999999986</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.69</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3099999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="H33" t="n">
-        <v>15.09</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>21.56</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-50.1</v>
+        <v>-5.699999999999996</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>-15.87</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>-1.46</v>
+        <v>-4.700000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.1500000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>15.75</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>-8.130000000000001</v>
-      </c>
-      <c r="P33" s="2" t="n">
-        <v>-29.19</v>
+        <v>-0.6100000000000003</v>
+      </c>
+      <c r="P33" t="n">
+        <v>13.92</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>-20.6</v>
+        <v>-9.930000000000001</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
+        <v>1.08</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>-3.16</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="2" t="n">
-        <v>0</v>
+        <v>6.83</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>004127</t>
+          <t>003547</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>鹏华丰康债券</t>
+          <t>鹏华丰禄债券</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>241.41</t>
+          <t>257.74</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.57</v>
+        <v>-1.01</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>6.32</v>
+        <v>4.96</v>
       </c>
       <c r="F34" t="n">
-        <v>0.21</v>
+        <v>1.39</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>2.09</v>
       </c>
       <c r="H34" t="n">
-        <v>15.34</v>
+        <v>16.78</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-48.54</v>
+        <v>-40.97</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>-16.34</v>
+        <v>-12.53</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-3.86</v>
+        <v>-1.25</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>8.76</v>
+        <v>6.29</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>-0.8</v>
+        <v>-0.3100000000000001</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>-1.13</v>
+        <v>-1.26</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>-7.880000000000001</v>
+        <v>-5.390000000000001</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>-27.63</v>
+        <v>-21.35</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>-21.07</v>
+        <v>-17.76</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.06</v>
+        <v>-0.01999999999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>-0.09999999999999998</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>0.25</v>
+        <v>-0.2800000000000002</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>1.56</v>
+        <v>3.03</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>-0.4699999999999998</v>
+        <v>0.6900000000000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>003429</t>
+          <t>003859</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>中证兴业中高等级信用债指数</t>
+          <t>招商招旭纯债A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>242.90</t>
+          <t>241.77</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-1.58</v>
+        <v>-1.03</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>6.13</v>
+        <v>4.65</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="G35" t="n">
-        <v>10.75</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>15.57</v>
+        <v>17.46</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-48.89</v>
+        <v>-42.95</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>-18.01</v>
+        <v>-14.13</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-3.87</v>
+        <v>-1.27</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>8.57</v>
+        <v>5.98</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4.619999999999999</v>
+        <v>-0.29</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>-1.55</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>-7.65</v>
+        <v>-4.71</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>-27.98</v>
+        <v>-23.33</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>-22.74</v>
+        <v>-19.36</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.29</v>
+        <v>-0.2</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>-0.3099999999999999</v>
-      </c>
-      <c r="U35" t="n">
-        <v>6.08</v>
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>0.26</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>0.48</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>-2.14</v>
+        <v>-0.9100000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>519769</t>
+          <t>002704</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>交银优选回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>258.17</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.6899999999999999</v>
+          <t>德邦锐兴债券A</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>-1.01</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>4.7</v>
+        <v>4.84</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>5.859999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="H36" t="n">
-        <v>13.85</v>
+        <v>18.45</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-33.78</v>
+        <v>-45.7</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>-15.12</v>
+        <v>-17.14</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-2.98</v>
+        <v>-1.25</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>7.14</v>
+        <v>6.17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>-0.07000000000000006</v>
+        <v>-0.2</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>-0.27</v>
+        <v>-0.5</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>-9.370000000000001</v>
+        <v>-3.72</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>-12.87</v>
+        <v>-26.08</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>-19.85</v>
+        <v>-22.37</v>
       </c>
       <c r="R36" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="S36" s="2" t="n">
-        <v>-1.72</v>
+        <v>-0.01999999999999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.009999999999999953</v>
       </c>
       <c r="T36" t="n">
-        <v>0.63</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="U36" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="W36" t="n">
-        <v>16.32</v>
+        <v>1.39</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>-1.7</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.75</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>002087</t>
+          <t>006966</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>国富新机遇混合A</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>65.66</t>
+          <t>财通安瑞短债债券C</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>360.96</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.23</v>
+        <v>-1.03</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>5.42</v>
+        <v>4.64</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="G37" t="n">
-        <v>4.64</v>
+        <v>1.63</v>
       </c>
       <c r="H37" t="n">
-        <v>12.61</v>
+        <v>16.05</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-26.37</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>-8.43</v>
+        <v>-42.96</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-3.52</v>
+        <v>-1.27</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>7.859999999999999</v>
+        <v>5.97</v>
       </c>
       <c r="M37" s="2" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v>-23.34</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="S37" t="n">
         <v>-0.21</v>
       </c>
-      <c r="N37" s="2" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>-10.61</v>
-      </c>
-      <c r="P37" s="2" t="n">
-        <v>-5.460000000000001</v>
-      </c>
-      <c r="Q37" s="2" t="n">
-        <v>-13.16</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S37" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.4900000000000001</v>
+      <c r="T37" s="2" t="n">
+        <v>-0.4</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="W37" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="X37" t="n">
-        <v>7.44</v>
+        <v>-1.01</v>
+      </c>
+      <c r="W37" s="2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>007744</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>长盛安逸纯债债券A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>164.27</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.5999999999999999</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.71</v>
+          <t>125.06</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>5.23</v>
       </c>
       <c r="F38" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="G38" t="n">
-        <v>6.35</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>16.07</v>
+        <v>18.42</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-34.51000000000001</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>-19.8</v>
+        <v>-46.06</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-2.89</v>
+        <v>-1.32</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.46</v>
+        <v>6.56</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>-0.1699999999999999</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0.2200000000000002</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>-7.15</v>
+        <v>-3.75</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>-13.6</v>
-      </c>
-      <c r="Q38" s="2" t="n">
-        <v>-24.53</v>
+        <v>-26.44</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="R38" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="S38" s="2" t="n">
-        <v>-2.71</v>
+        <v>-0.09</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.38</v>
       </c>
       <c r="T38" t="n">
-        <v>1.16</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="U38" t="n">
-        <v>1.68</v>
+        <v>2.46</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="W38" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="X38" s="2" t="n">
-        <v>-3.93</v>
+        <v>1.36</v>
+      </c>
+      <c r="W38" s="2" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>000914</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>741.08</t>
+          <t>中加纯债债券</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>99.33</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.5499999999999998</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>5.45</v>
+        <v>4.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="G39" t="n">
-        <v>7.38</v>
+        <v>1.54</v>
       </c>
       <c r="H39" t="n">
-        <v>18.53</v>
+        <v>17.06</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-36.07</v>
+        <v>-44</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>-12.23</v>
+        <v>-13.22</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-2.84</v>
+        <v>-1.23</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.5699999999999998</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.25</v>
+        <v>6.18</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>-1.81</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>-4.69</v>
+        <v>-5.109999999999999</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>-15.16</v>
+        <v>-24.38</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>-16.96</v>
+        <v>-18.45</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9600000000000001</v>
-      </c>
-      <c r="S39" s="2" t="n">
-        <v>-0.97</v>
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="W39" t="n">
-        <v>14.03</v>
+        <v>0</v>
+      </c>
+      <c r="U39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>3.640000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>164105</t>
+          <t>004127</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>华富强化回报债券(LOF)</t>
+          <t>鹏华丰康债券</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>119.03</t>
+          <t>241.41</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-1.26</v>
+        <v>-1.04</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>5.390000000000001</v>
+        <v>4.68</v>
       </c>
       <c r="F40" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="G40" t="n">
-        <v>5.4</v>
+        <v>1.77</v>
       </c>
       <c r="H40" t="n">
-        <v>17.14</v>
+        <v>17.41</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-43.46</v>
+        <v>-42.51</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>-12.7</v>
+        <v>-13.59</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-3.55</v>
+        <v>-1.28</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.4899999999999998</v>
+        <v>6.01</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>-0.37</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>-0.73</v>
+        <v>-1.58</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>-6.08</v>
+        <v>-4.76</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>-22.55</v>
+        <v>-22.89</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>-17.43</v>
+        <v>-18.82</v>
       </c>
       <c r="R40" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S40" s="2" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.19</v>
+        <v>-0.05</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="T40" s="2" t="n">
+        <v>-0.14</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.73</v>
+        <v>0.23</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W40" t="n">
-        <v>6.64</v>
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="W40" s="2" t="n">
+        <v>1.49</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>3.17</v>
+        <v>-0.3700000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>003429</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>1071.04</t>
+          <t>中证兴业中高等级信用债指数</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>242.90</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.75</v>
+        <v>-1.08</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>4.67</v>
       </c>
       <c r="F41" t="n">
-        <v>2.23</v>
+        <v>1.01</v>
       </c>
       <c r="G41" t="n">
-        <v>5.34</v>
+        <v>7.52</v>
       </c>
       <c r="H41" t="n">
-        <v>14.48</v>
+        <v>17.63</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-20.43</v>
-      </c>
-      <c r="J41" t="n">
-        <v>16.53</v>
+        <v>-42.84</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>-15.32</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-3.76</v>
+        <v>-1.32</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>-0.79</v>
+        <v>6</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>-0.6900000000000001</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.17</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>-8.74</v>
+        <v>-4.54</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0.4800000000000004</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>11.8</v>
+        <v>-23.22</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>-20.55</v>
       </c>
       <c r="R41" t="n">
-        <v>0.04000000000000001</v>
-      </c>
-      <c r="S41" s="2" t="n">
-        <v>-3.67</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U41" s="2" t="n">
-        <v>0.6699999999999999</v>
+        <v>-0.09</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <v>-0.4600000000000001</v>
+      </c>
+      <c r="U41" t="n">
+        <v>5.98</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>-0.6099999999999999</v>
-      </c>
-      <c r="W41" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="X41" s="1" t="n">
-        <v>32.4</v>
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="W41" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X41" s="2" t="n">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>002742</t>
+          <t>519769</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>泓德裕祥债券A</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>312.53</t>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>258.17</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>4.56</v>
+        <v>-0.9400000000000001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.1</v>
       </c>
       <c r="F42" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="G42" t="n">
-        <v>5.31</v>
+        <v>2.67</v>
       </c>
       <c r="H42" t="n">
-        <v>11.76</v>
+        <v>15.77</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-32.6</v>
+        <v>-28.18</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>-11.35</v>
+        <v>-12</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-2.99</v>
+        <v>-1.18</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.11</v>
+        <v>5.43</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>-0.01000000000000001</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>-0.8199999999999998</v>
+        <v>-0.6800000000000002</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>-11.46</v>
+        <v>-6.4</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>-11.69</v>
+        <v>-8.560000000000002</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>-16.08</v>
+        <v>-17.23</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>-1.86</v>
+        <v>-0.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U42" s="2" t="n">
-        <v>0.6400000000000001</v>
+        <v>0.22</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.13</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>-3.33</v>
+        <v>-1.29</v>
       </c>
       <c r="W42" t="n">
-        <v>17.5</v>
+        <v>15.82</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>4.52</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>008356</t>
+          <t>002087</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>中加科丰价值精选混合</t>
+          <t>国富新机遇混合A</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>37.68</t>
+          <t>65.66</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>5.16</v>
+        <v>-1.02</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.26</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6199999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>1.77</v>
       </c>
       <c r="H43" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>14.8</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>-21.73</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>-5.200000000000001</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-3.3</v>
+        <v>-1.26</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>7.6</v>
+        <v>5.59</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>-0.3900000000000001</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>-1.43</v>
+        <v>-1.58</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>-7.050000000000001</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-7.37</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>-2.110000000000003</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>-10.43</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5</v>
+        <v>-0.03</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>-1.26</v>
+        <v>-0.59</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-2.26</v>
+      </c>
+      <c r="W43" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>002794</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>天弘永利债券E</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>726.27</t>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>164.27</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.9899999999999999</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>5.18</v>
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.33</v>
       </c>
       <c r="F44" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G44" t="n">
-        <v>6.94</v>
+        <v>3.73</v>
       </c>
       <c r="H44" t="n">
-        <v>17.85</v>
+        <v>17.54</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-38.77</v>
+        <v>-28.27</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>-11.11</v>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>-3.28</v>
+        <v>-16.46</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.8200000000000001</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>7.619999999999999</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.5899999999999999</v>
+        <v>4.66</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>-0.1300000000000001</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>-5.37</v>
+        <v>-4.63</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>-17.86</v>
+        <v>-8.650000000000002</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>-15.84</v>
+        <v>-21.69</v>
       </c>
       <c r="R44" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>-1.24</v>
+        <v>-1.52</v>
       </c>
       <c r="T44" t="n">
-        <v>1.29</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="U44" t="n">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>2.76</v>
+        <v>0.48</v>
       </c>
       <c r="W44" t="n">
-        <v>11.33</v>
+        <v>15.73</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>4.76</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>210010</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>金鹰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>32.58</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>-1.62</v>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>741.08</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.7000000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6299999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="G45" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13.23</v>
+        <v>3.76</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>21.07</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-23.11</v>
+        <v>-30.35</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>-13.42</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>-3.91</v>
+        <v>-8.330000000000002</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.9400000000000001</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>6.869999999999999</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>-0.3800000000000001</v>
+        <v>5.78</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6699999999999999</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>-0.5</v>
+        <v>0.4099999999999997</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>-9.99</v>
+        <v>-1.1</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>-2.199999999999999</v>
+        <v>-10.73</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>-18.15</v>
+        <v>-13.56</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="S45" s="2" t="n">
-        <v>-1.99</v>
+        <v>0.29</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-0.4</v>
       </c>
       <c r="T45" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="U45" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V45" s="2" t="n">
-        <v>-1.86</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4.01</v>
       </c>
       <c r="W45" t="n">
-        <v>26.99</v>
+        <v>13.65</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>2.450000000000001</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>164105</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>华富强化回报债券(LOF)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>119.03</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="H46" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>-38.05</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>-10.18</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>-18.43</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>-15.41</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="U46" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V46" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W46" s="2" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="X46" s="2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>1071.04</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H47" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>-16.65</v>
+      </c>
+      <c r="J47" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>-5.55</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>183.31</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>-23.21</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.630000000000001</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>-2.210000000000001</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T48" s="2" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="U48" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="X48" t="n">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>008356</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>中加科丰价值精选混合</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H49" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>-0.1900000000000001</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>002794</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>天弘永利债券E</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>726.27</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>-32.85</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>-9.100000000000001</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>0.1799999999999997</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>-13.23</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>-14.33</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W50" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="X50" s="2" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.6600000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>-18.47</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>1.149999999999999</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>-17.94</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="W51" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0.5100000000000007</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>013260</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>太平睿享混合A</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>140.86</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.6199999999999999</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>-3.23</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>-0.3900000000000001</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S46" s="2" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.3099999999999999</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
+      <c r="D52" s="2" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>-0.9099999999999999</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -614,19 +614,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.19</v>
+        <v>-0.8200000000000003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6599999999999997</v>
+        <v>3.05</v>
       </c>
       <c r="F3" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>16.92</v>
+        <v>5.800000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.909999999999999</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>42.53</v>
+        <v>44.98</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -639,19 +639,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.95</v>
+        <v>-0.1900000000000004</v>
       </c>
       <c r="L3" t="n">
-        <v>1.99</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>20.36</v>
+        <v>4.32</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18.04</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -663,20 +663,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="R3" s="1" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>-4.19</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>15.38</v>
+      <c r="R3" s="2" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7.909999999999999</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>25.47</v>
+        <v>41.59</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -692,36 +692,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>008222</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>90.15</t>
+          <t>兴业机遇债券C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>179.77</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>-6.79</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>-8.960000000000001</v>
+        <v>2.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>10.28</v>
       </c>
       <c r="G4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23.07000000000001</v>
+        <v>5.399999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>-25.81</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,45 +729,45 @@
         </is>
       </c>
       <c r="K4" s="1" t="n">
-        <v>3.56</v>
+        <v>3.149999999999999</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>-5.46</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>-10.66</v>
+        <v>-1.94</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>42.69</v>
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>-15.97</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>-14.89</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R4" s="1" t="n">
-        <v>4.79</v>
+      <c r="R4" s="2" t="n">
+        <v>-1.67</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>-10.43</v>
+        <v>-1.13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.25</v>
       </c>
       <c r="U4" t="n">
-        <v>3.97</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>9.459999999999999</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>67.07000000000001</v>
+        <v>7.58</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>3.36</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -778,419 +778,413 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>008222</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>兴业机遇债券C</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>198.15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>-1.5</v>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1071.04</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4699999999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.85</v>
+        <v>1.92</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-3.67</v>
       </c>
       <c r="G5" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>-41.19</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.15</v>
+        <v>6.52</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>37.47999999999999</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>-5.15</v>
       </c>
       <c r="N5" t="n">
-        <v>5.880000000000001</v>
+        <v>11.12</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.2200000000000006</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>-21.57</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
+        <v>-10.3</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>48.39999999999999</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>-13.7</v>
       </c>
       <c r="U5" t="n">
-        <v>7.69</v>
+        <v>6.52</v>
       </c>
       <c r="V5" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>13.25</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>66.64999999999999</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>50.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>008777</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>华安沪深300ETF联接C</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>585.92</t>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>44.26</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.03000000000000003</v>
+        <v>1.37</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>2.31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.989999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17.37</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>-3.01</v>
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.59</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-19.19</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9600000000000001</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>-4.77</v>
+        <v>-9.73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.03000000000000001</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>-14.08</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-5.12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.989999999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>008777</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>交银趋势混合A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>121.47</t>
+          <t>华安沪深300ETF联接C</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>585.92</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3600000000000001</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>-1.03</v>
+        <v>-0.04999999999999982</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.0299999999999998</v>
       </c>
       <c r="F7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22.01000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.399999999999999</v>
+        <v>0.0600000000000005</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.6</v>
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>-1.42</v>
       </c>
       <c r="N7" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>2.169999999999998</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.63</v>
+        <v>4.399999999999999</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>-23.75</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>-4.239999999999999</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>-5.88</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="U7" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="V7" s="1" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>66.01000000000001</v>
-      </c>
-      <c r="X7" t="n">
-        <v>20.62</v>
+        <v>-2.37</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>-9.969999999999999</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>001508</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>42.19</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>-5.600000000000001</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>-5.49</v>
+          <t>交银趋势混合A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>121.47</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7199999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.600000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>-4.27</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>-7.19</v>
+        <v>7.180000000000001</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>34.84999999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>-16.28</v>
+        <v>11.78</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>33.90000000000001</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>44.88999999999999</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>-10.45</v>
+        <v>45.77</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>-3.47</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>-6.96</v>
+        <v>-4.43</v>
       </c>
       <c r="U8" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>-11.17</v>
+        <v>7.180000000000001</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>57.45</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>69.27</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>81.37</v>
+        <v>64.02</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>001508</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1071.04</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>-7.760000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.93</v>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>42.19</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.470000000000001</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-6.709999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>11.5</v>
+        <v>4.66</v>
       </c>
       <c r="H9" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>30.36</v>
+        <v>5.79</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.55</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>61.47</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>-6.430000000000001</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.23</v>
+        <v>63.14000000000001</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>-8.19</v>
       </c>
       <c r="N9" t="n">
-        <v>8.15</v>
+        <v>9.26</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>-7.93</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>49.98</v>
+        <v>-21.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>28.47</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>56.23999999999999</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>-12.61</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.46</v>
+        <v>67.07000000000001</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>-16.74</v>
       </c>
       <c r="U9" t="n">
-        <v>9.960000000000001</v>
+        <v>4.66</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>-2.82</v>
+        <v>2.4</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>74.36</v>
+        <v>46.72</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>74.69</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="10">
@@ -1209,68 +1203,68 @@
           <t>208.47</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>-1.06</v>
+      <c r="D10" t="n">
+        <v>-0.3200000000000003</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6100000000000003</v>
+        <v>-0.75</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-2.24</v>
+        <v>-1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>13.62</v>
+        <v>18.31</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>53.09999999999999</v>
+        <v>46.86</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>44.60000000000001</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.7199999999999998</v>
+        <v>31.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3099999999999996</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>-3.9</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>-3.94</v>
+        <v>-3.25</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>10.38</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-8.550000000000001</v>
+        <v>-8.629999999999999</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>72.72</v>
+        <v>57.78</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-0.06999999999999999</v>
+        <v>35.53</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>-4.51</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>-5.46</v>
+        <v>-3.09</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>-3.71</v>
+        <v>-11.8</v>
       </c>
       <c r="U10" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>-3.44</v>
+        <v>5.779999999999999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>14.92</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>97.09999999999999</v>
+        <v>76.03</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>57.82000000000001</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="11">
@@ -1286,71 +1280,71 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>4.859999999999999</v>
-      </c>
-      <c r="F11" s="2" t="n">
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.1800000000000006</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>40.00999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4499999999999993</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>50.92999999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <v>-2.22</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>38.55</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>34.90000000000001</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>-2.11</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>-13.43</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>58.16999999999999</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.01000000000000001</v>
-      </c>
       <c r="T11" s="2" t="n">
-        <v>-3.69</v>
-      </c>
-      <c r="U11" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>-8.32</v>
+        <v>-2.99</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>13.42</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>48.12</v>
+        <v>69.17999999999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19.97</v>
       </c>
     </row>
     <row r="12">
@@ -1369,68 +1363,68 @@
           <t>32.58</t>
         </is>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-4.62</v>
+      <c r="D12" t="n">
+        <v>0.6599999999999997</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.71</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-0.53</v>
+        <v>-5.4</v>
       </c>
       <c r="G12" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13.48</v>
+        <v>6.149999999999999</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>24.93</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>54.38</v>
+        <v>42.86999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>2.16</v>
+        <v>20.33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.29</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>-3.29</v>
+        <v>-1.44</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-2.23</v>
+        <v>-6.880000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>5.56</v>
+        <v>10.75</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-8.69</v>
+        <v>-2.009999999999998</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>74</v>
+        <v>53.78999999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>3.39</v>
+        <v>24.26</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>-3.53</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>-9.470000000000001</v>
+        <v>-0.6300000000000001</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>-2</v>
+        <v>-15.43</v>
       </c>
       <c r="U12" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>-3.58</v>
+        <v>6.149999999999999</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>21.54</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>98.38</v>
-      </c>
-      <c r="X12" s="1" t="n">
-        <v>40.68</v>
+        <v>72.03999999999999</v>
+      </c>
+      <c r="X12" t="n">
+        <v>22.81</v>
       </c>
     </row>
     <row r="13">
@@ -1449,20 +1443,20 @@
           <t>55.02</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>8.469999999999999</v>
+      <c r="D13" t="n">
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.29</v>
+        <v>18.37</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-8.119999999999999</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>23.12</v>
+        <v>22.17</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1474,20 +1468,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K13" s="2" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7.700000000000001</v>
+      <c r="K13" t="n">
+        <v>0.6599999999999993</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>16.89</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>-1.06</v>
+        <v>-3.52</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0.9499999999999993</v>
+        <v>-4.77</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1500,19 +1494,19 @@
         </is>
       </c>
       <c r="R13" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.62</v>
+        <v>-4.16</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>-3.59</v>
       </c>
       <c r="T13" t="n">
-        <v>7.930000000000001</v>
+        <v>8.34</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.75</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>6.059999999999999</v>
+        <v>18.78</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1542,239 +1536,227 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.32</v>
+        <v>1.57</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-0.6999999999999993</v>
       </c>
       <c r="G14" t="n">
-        <v>3.56</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>10.07</v>
+        <v>11.74</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>46.94</v>
+        <v>35.38</v>
       </c>
       <c r="J14" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>-0.8700000000000001</v>
+        <v>20.73</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.23</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0.21</v>
+        <v>-2.18</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.75</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>-12.1</v>
+        <v>-15.2</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>66.56</v>
+        <v>46.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>-7.05</v>
+        <v>24.66</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5800000000000001</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>-1.15</v>
+        <v>-10.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>-6.99</v>
+        <v>5.149999999999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.35</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>90.94</v>
-      </c>
-      <c r="X14" s="1" t="n">
-        <v>36.11</v>
+        <v>64.55</v>
+      </c>
+      <c r="X14" t="n">
+        <v>23.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>工银新兴制造混合A</t>
+          <t>中加转型动力混合A</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>88.87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-3.39</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>-1.38</v>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>2.08</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>-2.06</v>
+        <v>-1.98</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04000000000000004</v>
+        <v>7.85</v>
       </c>
       <c r="N15" t="n">
-        <v>7.32</v>
+        <v>1.17</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>-0.15</v>
+        <v>-13.23</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>-2.74</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>-8.24</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="U15" t="n">
-        <v>9.129999999999999</v>
+        <v>-1.17</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>-3.43</v>
       </c>
       <c r="V15" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>10.32</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>50.12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>002036</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南方转型增长混合A</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>373.86</t>
+          <t>安信优势增长混合C</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>32.90</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9499999999999997</v>
+        <v>1.08</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-0.48</v>
+        <v>3.63</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.180000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>7.71</v>
+        <v>4.58</v>
       </c>
       <c r="H16" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>39.75</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>31.43</v>
+        <v>10.14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19.08</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7099999999999997</v>
+        <v>1.71</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>-2.18</v>
+        <v>0.4800000000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.7</v>
       </c>
       <c r="N16" t="n">
-        <v>4.359999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-8.630000000000001</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>59.37</v>
+        <v>-16.8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>26.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S16" s="2" t="n">
-        <v>-4.91</v>
+        <v>23.01</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>-1.95</v>
+        <v>-6.85</v>
       </c>
       <c r="U16" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>-3.52</v>
+        <v>4.58</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6.75</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>83.75</v>
-      </c>
-      <c r="X16" s="1" t="n">
-        <v>44.65</v>
+        <v>44.48999999999999</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21.56</v>
       </c>
     </row>
     <row r="17">
@@ -1793,68 +1775,68 @@
           <t>3.91</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>-0.1400000000000001</v>
+      <c r="D17" s="1" t="n">
+        <v>2.41</v>
       </c>
       <c r="E17" t="n">
-        <v>1.55</v>
+        <v>0.96</v>
       </c>
       <c r="F17" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12.33</v>
+        <v>7.23</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>21.55</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-5.990000000000002</v>
+        <v>-9.52</v>
       </c>
       <c r="J17" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.3800000000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.88</v>
+        <v>7.33</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>-2.19</v>
       </c>
       <c r="M17" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>-0.8400000000000001</v>
+        <v>5.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.93</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="P17" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>5.069999999999997</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.85</v>
+        <v>-5.390000000000001</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>1.400000000000002</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>-1.78</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4.25</v>
+        <v>-1.38</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>-2.8</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>-4.73</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <v>38.01</v>
+        <v>-2.67</v>
+      </c>
+      <c r="V17" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>19.65</v>
       </c>
       <c r="X17" t="n">
-        <v>23.52</v>
+        <v>9.809999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1873,68 +1855,68 @@
           <t>48.72</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>-1.58</v>
+      <c r="D18" t="n">
+        <v>0.1499999999999995</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9699999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10.23</v>
+        <v>7.94</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0.96</v>
       </c>
       <c r="H18" t="n">
-        <v>7.79</v>
+        <v>11.34</v>
       </c>
       <c r="I18" t="n">
-        <v>20.63</v>
+        <v>27.43</v>
       </c>
       <c r="J18" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.3</v>
+        <v>16.21</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7799999999999994</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>-3.02</v>
       </c>
       <c r="M18" t="n">
-        <v>3.14</v>
+        <v>6.46</v>
       </c>
       <c r="N18" t="n">
-        <v>6.880000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>-14.38</v>
+        <v>-15.6</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>40.24999999999999</v>
+        <v>38.34999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="R18" t="n">
-        <v>-0.59</v>
+        <v>20.14</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>-4.04</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8.690000000000001</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>-9.27</v>
+        <v>-2.21</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7.949999999999999</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>64.63</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>34.23</v>
+        <v>56.59999999999999</v>
+      </c>
+      <c r="X18" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="19">
@@ -1953,68 +1935,68 @@
           <t>82.25</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>-1.23</v>
+      <c r="D19" t="n">
+        <v>0.6299999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>3.87</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>3.53</v>
+        <v>8.950000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>8.01</v>
+        <v>1.98</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22.87</v>
+        <v>20.09</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>35.53</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>5.2</v>
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>-3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.83</v>
+        <v>7.47</v>
       </c>
       <c r="N19" t="n">
-        <v>4.66</v>
+        <v>6.58</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1.619999999999999</v>
+        <v>-6.849999999999998</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>42.49</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-0.24</v>
+        <v>46.45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6.929999999999999</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>-3.56</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.06</v>
+        <v>-2.59</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>-1.08</v>
       </c>
       <c r="U19" t="n">
-        <v>6.47</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>6.729999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>66.87</v>
-      </c>
-      <c r="X19" t="n">
-        <v>14.45</v>
+        <v>64.7</v>
+      </c>
+      <c r="X19" s="2" t="n">
+        <v>5.479999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -2034,67 +2016,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3599999999999999</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.739999999999999</v>
+        <v>-0.08999999999999986</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-0.3699999999999992</v>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>18.32</v>
+        <v>16.89</v>
       </c>
       <c r="I20" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>30.69</v>
+        <v>21.96</v>
+      </c>
+      <c r="J20" t="n">
+        <v>22.55</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>-2.71</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>-0.8500000000000001</v>
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.6</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>-3.85</v>
+        <v>-10.05</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>34.3</v>
+        <v>32.88</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>-8.890000000000001</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="U20" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>1.26</v>
+        <v>26.48</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>-4.279999999999999</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.5</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>58.68</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>43.91</v>
+        <v>51.13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>25.03</v>
       </c>
     </row>
     <row r="21">
@@ -2113,69 +2095,69 @@
           <t>183.31</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.97</v>
+      <c r="D21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0.8899999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>12.54</v>
+        <v>11.93</v>
       </c>
       <c r="I21" t="n">
-        <v>9.520000000000003</v>
+        <v>16.33</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K21" s="2" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>-3.55</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>-0.3799999999999999</v>
+      <c r="K21" s="1" t="n">
+        <v>2.379999999999999</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.859999999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.49</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>-9.630000000000001</v>
+        <v>-15.01</v>
       </c>
       <c r="P21" t="n">
-        <v>29.14</v>
+        <v>27.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.08</v>
+      <c r="R21" s="2" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>-0.6699999999999999</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>-3.32</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>-4.52</v>
+        <v>-2.69</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>8.539999999999999</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>53.52</v>
+        <v>45.5</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2196,23 +2178,23 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>30.09</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>-1.95</v>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2.48</v>
       </c>
       <c r="E22" t="n">
-        <v>2.31</v>
+        <v>1.03</v>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>8.09</v>
       </c>
       <c r="G22" t="n">
-        <v>5.72</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>18.16</v>
+        <v>12.41</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2224,20 +2206,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K22" s="2" t="n">
-        <v>-2.19</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.64</v>
+      <c r="K22" s="1" t="n">
+        <v>3.109999999999999</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>-2.12</v>
       </c>
       <c r="M22" t="n">
-        <v>1.35</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>2.37</v>
+        <v>6.02</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>-4.01</v>
+        <v>-14.53</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2249,20 +2231,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="R22" t="n">
-        <v>-0.96</v>
+      <c r="R22" s="2" t="n">
+        <v>-1.71</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>-2.54</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.58</v>
+        <v>-1.31</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>-1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="V22" s="2" t="n">
-        <v>1.1</v>
+        <v>1.42</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9.02</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2291,68 +2273,68 @@
           <t>53.93</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>-0.6400000000000001</v>
+      <c r="D23" s="1" t="n">
+        <v>2.96</v>
       </c>
       <c r="E23" t="n">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="F23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>20.73</v>
+        <v>7.32</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.68</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-7.32</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>-8.670000000000002</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-0.8800000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.28</v>
+        <v>-6.529999999999999</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>-0.67</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>-1.94</v>
+        <v>5.84</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.17</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>-1.44</v>
+        <v>-16.26</v>
       </c>
       <c r="P23" t="n">
-        <v>12.3</v>
+        <v>16.52</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-13.9</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S23" s="2" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.25</v>
+        <v>-2.600000000000001</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>-2.71</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>-0.13</v>
+        <v>-0.43</v>
       </c>
       <c r="V23" t="n">
-        <v>3.669999999999999</v>
+        <v>7.289999999999999</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>36.68</v>
+        <v>34.77</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>4.55</v>
+        <v>-4.050000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2372,67 +2354,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.7300000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="E24" t="n">
-        <v>3.16</v>
+        <v>1.53</v>
       </c>
       <c r="F24" t="n">
-        <v>2.98</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>4.32</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>17.49</v>
+        <v>7.63</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-21.82</v>
+        <v>-7.960000000000001</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>-1.870000000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-0.9700000000000001</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.49</v>
+        <v>2.790000000000001</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>-1.62</v>
       </c>
       <c r="M24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0.9699999999999998</v>
+        <v>7.14</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.96</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>-4.68</v>
+        <v>-19.31</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>-2.200000000000003</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>-7.100000000000001</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.26</v>
+        <v>2.960000000000001</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>-2.27</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.51</v>
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>-1.41</v>
       </c>
       <c r="U24" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V24" s="2" t="n">
-        <v>0.4299999999999997</v>
+        <v>2.36</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.24</v>
       </c>
       <c r="W24" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11.35</v>
+        <v>21.21</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>5.27</v>
       </c>
     </row>
     <row r="25">
@@ -2443,7 +2425,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>华安纳斯达克100指数(QDII)A</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -2451,68 +2433,68 @@
           <t>64.02</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>-5.1</v>
+      <c r="D25" t="n">
+        <v>1.18</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.43</v>
+        <v>-3.11</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-4.37</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>8.01</v>
+        <v>3.26</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-12.05</v>
+        <v>20.18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.77</v>
       </c>
       <c r="J25" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-0.09999999999999964</v>
+        <v>12.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>-6.26</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>-6.07</v>
+        <v>-2.68</v>
       </c>
       <c r="N25" t="n">
-        <v>4.66</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1.779999999999999</v>
+        <v>-6.759999999999998</v>
       </c>
       <c r="P25" t="n">
-        <v>7.57</v>
+        <v>23.69</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.89</v>
+        <v>16.73</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>-4.109999999999999</v>
+        <v>-3.01</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>-6.279999999999999</v>
+        <v>-5.45</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>-5.84</v>
+        <v>-11.23</v>
       </c>
       <c r="U25" t="n">
-        <v>6.47</v>
+        <v>3.26</v>
       </c>
       <c r="V25" t="n">
-        <v>6.889999999999999</v>
+        <v>16.79</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="X25" s="1" t="n">
-        <v>31.34</v>
+        <v>41.94</v>
+      </c>
+      <c r="X25" t="n">
+        <v>15.28</v>
       </c>
     </row>
     <row r="26">
@@ -2528,71 +2510,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>138.38</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-0.3800000000000001</v>
+          <t>140.53</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.48</v>
       </c>
       <c r="G26" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>27.21</v>
+        <v>3.14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.85</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-38.56</v>
+        <v>-4.490000000000002</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>4.529999999999998</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>-2.08</v>
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O26" t="n">
-        <v>5.039999999999999</v>
-      </c>
-      <c r="P26" s="2" t="n">
-        <v>-18.94</v>
+        <v>7.74</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>-14.09</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6.43</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>-0.7000000000000028</v>
+        <v>2.23</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>-3.07</v>
+        <v>-2.09</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>-3.93</v>
+        <v>-3.84</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="U26" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="V26" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="W26" s="2" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17.75</v>
+        <v>9.459999999999999</v>
+      </c>
+      <c r="W26" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="X26" s="2" t="n">
+        <v>0.7799999999999994</v>
       </c>
     </row>
     <row r="27">
@@ -2611,68 +2593,68 @@
           <t>529.26</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.55</v>
+      <c r="D27" s="1" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0.06000000000000005</v>
       </c>
       <c r="H27" t="n">
-        <v>17.71</v>
+        <v>3.94</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-44.31</v>
+        <v>-29.06</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>-17.6</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>-0.09000000000000008</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>-1.8</v>
+        <v>-7.27</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>4.649999999999999</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.66</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>-4.46</v>
+        <v>-23</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>-24.69</v>
+        <v>-18.14</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-22.83</v>
+        <v>-3.34</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.09</v>
+        <v>-0.17</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02000000000000002</v>
+        <v>-0.16</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>-0.3100000000000001</v>
+        <v>0.1099999999999999</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>-4.38</v>
+        <v>-4.790000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -2691,68 +2673,68 @@
           <t>160.16</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>-1.22</v>
+      <c r="D28" s="1" t="n">
+        <v>2.16</v>
       </c>
       <c r="E28" t="n">
-        <v>2.93</v>
+        <v>1.15</v>
       </c>
       <c r="F28" t="n">
-        <v>2.98</v>
+        <v>8.48</v>
       </c>
       <c r="G28" t="n">
-        <v>5.99</v>
+        <v>3.13</v>
       </c>
       <c r="H28" t="n">
-        <v>17.64</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-27.84</v>
+        <v>-15.97</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>-10.68</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.26</v>
+        <v>-2.299999999999999</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>-2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.28</v>
+        <v>7</v>
       </c>
       <c r="N28" t="n">
-        <v>2.64</v>
+        <v>7.73</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>-4.53</v>
+        <v>-17.72</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>-8.220000000000002</v>
+        <v>-5.049999999999999</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>-15.91</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-0.23</v>
+        <v>1.63</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>-2.03</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>-1.92</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.51</v>
+        <v>-1.19</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>-1.55</v>
       </c>
       <c r="U28" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="V28" s="2" t="n">
-        <v>0.5799999999999996</v>
+        <v>3.13</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.83</v>
       </c>
       <c r="W28" t="n">
-        <v>16.16</v>
+        <v>13.2</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>2.54</v>
+        <v>0.1799999999999997</v>
       </c>
     </row>
     <row r="29">
@@ -2771,68 +2753,68 @@
           <t>46.47</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>-0.8400000000000001</v>
+      <c r="D29" s="1" t="n">
+        <v>3.32</v>
       </c>
       <c r="E29" t="n">
-        <v>2.74</v>
+        <v>2.09</v>
       </c>
       <c r="F29" t="n">
-        <v>1.72</v>
+        <v>7.390000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>1.27</v>
       </c>
       <c r="H29" t="n">
-        <v>18.37</v>
+        <v>6.34</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-43.31</v>
+        <v>-28.95</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>-5.850000000000001</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.07</v>
+        <v>-0.05999999999999872</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>-1.06</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>-1.3</v>
+        <v>5.91</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.869999999999999</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>-3.8</v>
+        <v>-20.6</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>-23.69</v>
+        <v>-18.03</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>-11.08</v>
+        <v>3.87</v>
       </c>
       <c r="R29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S29" s="2" t="n">
-        <v>-2.11</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="U29" s="2" t="n">
-        <v>0.51</v>
+        <v>-0.87</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.27</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>1.31</v>
+        <v>2.95</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.6900000000000002</v>
-      </c>
-      <c r="X29" t="n">
-        <v>7.37</v>
+        <v>0.22</v>
+      </c>
+      <c r="X29" s="2" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="30">
@@ -2851,68 +2833,68 @@
           <t>91.05</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>-0.8300000000000001</v>
+      <c r="D30" s="1" t="n">
+        <v>2.74</v>
       </c>
       <c r="E30" t="n">
-        <v>3.4</v>
+        <v>2.27</v>
       </c>
       <c r="F30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.25</v>
+        <v>8.08</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>-0.5900000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>14.14</v>
+        <v>4.720000000000001</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-30.28</v>
+        <v>-17.64</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>-0.03000000000000003</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>-1.1</v>
+        <v>-1.76</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.01</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>-8.029999999999999</v>
+        <v>-22.22</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>-10.66</v>
+        <v>-6.719999999999999</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>-16.63</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S30" s="2" t="n">
+        <v>2.169999999999999</v>
+      </c>
+      <c r="R30" s="2" t="n">
         <v>-1.45</v>
       </c>
-      <c r="T30" t="n">
-        <v>0.2</v>
+      <c r="S30" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>-1.95</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.71</v>
+        <v>-0.5900000000000001</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>-2.92</v>
+        <v>1.330000000000001</v>
       </c>
       <c r="W30" t="n">
-        <v>13.72</v>
+        <v>11.53</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.819999999999999</v>
+        <v>0.7199999999999989</v>
       </c>
     </row>
     <row r="31">
@@ -2931,20 +2913,20 @@
           <t>53.23</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>-0.6700000000000002</v>
+      <c r="D31" s="1" t="n">
+        <v>2.23</v>
       </c>
       <c r="E31" t="n">
-        <v>2.53</v>
+        <v>1.9</v>
       </c>
       <c r="F31" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.95</v>
+        <v>8.06</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>19.35</v>
+        <v>8.59</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2956,20 +2938,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>-0.9100000000000001</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.86</v>
+      <c r="K31" s="1" t="n">
+        <v>2.859999999999999</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>-1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>-0.3999999999999999</v>
+        <v>6.58</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.54</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>-2.82</v>
+        <v>-18.35</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2981,20 +2963,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S31" s="2" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V31" s="2" t="n">
-        <v>2.29</v>
+      <c r="R31" s="2" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.199999999999999</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3024,67 +3006,67 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>-1.29</v>
+        <v>0.7599999999999998</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>4.58</v>
       </c>
       <c r="F32" t="n">
-        <v>2.8</v>
+        <v>2.010000000000001</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>-0.51</v>
+        <v>-3.78</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>30.44</v>
+        <v>25.94</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-20.31</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>10.24</v>
+        <v>21.01</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8099999999999998</v>
+        <v>1.39</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04000000000000004</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>0.5300000000000002</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>-3.86</v>
-      </c>
-      <c r="O32" t="n">
-        <v>8.270000000000001</v>
+        <v>0.8199999999999998</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>-1</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>-0.6900000000000013</v>
-      </c>
-      <c r="Q32" s="2" t="n">
-        <v>5.009999999999998</v>
-      </c>
-      <c r="R32" s="1" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S32" s="2" t="n">
-        <v>-6.14</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.33</v>
+        <v>2.32</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T32" s="2" t="n">
+        <v>-8.02</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="V32" t="n">
-        <v>13.38</v>
+        <v>-3.78</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>22.55</v>
       </c>
       <c r="W32" t="n">
-        <v>23.69</v>
+        <v>20.57</v>
       </c>
       <c r="X32" t="n">
-        <v>23.46</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="33">
@@ -3103,68 +3085,68 @@
           <t>1.05</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0.08999999999999986</v>
+      <c r="D33" s="1" t="n">
+        <v>2.1</v>
       </c>
       <c r="E33" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="F33" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>19.1</v>
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.149999999999999</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>21.56</v>
+        <v>28.59</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-5.699999999999996</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>-4.700000000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-0.1500000000000001</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="M33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>15.75</v>
+        <v>-3.739999999999999</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.75</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>-0.6100000000000003</v>
+        <v>1.650000000000002</v>
       </c>
       <c r="P33" t="n">
-        <v>13.92</v>
+        <v>13.22</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>-9.930000000000001</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.08</v>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>-2.09</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>-3.16</v>
+        <v>-1.41</v>
       </c>
       <c r="T33" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="U33" s="1" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4.5</v>
+        <v>1.45</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6.149999999999999</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>25.2</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="X33" t="n">
-        <v>8.52</v>
+        <v>31.47</v>
+      </c>
+      <c r="X33" s="2" t="n">
+        <v>-1.260000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3183,68 +3165,68 @@
           <t>257.74</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.09</v>
+      <c r="D34" s="1" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0.3899999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>16.78</v>
+        <v>3.31</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-40.97</v>
+        <v>-26.94</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>-12.53</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>-0.3100000000000001</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>-1.26</v>
+        <v>-0.6999999999999993</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.99</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>-5.390000000000001</v>
+        <v>-23.63</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>-21.35</v>
+        <v>-16.02</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>-17.76</v>
+        <v>3.23</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.01999999999999999</v>
+        <v>-0.03</v>
       </c>
       <c r="S34" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>0.3899999999999999</v>
+      </c>
+      <c r="V34" s="2" t="n">
         <v>-0.08000000000000007</v>
       </c>
-      <c r="U34" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="V34" s="2" t="n">
-        <v>-0.2800000000000002</v>
-      </c>
       <c r="W34" s="2" t="n">
-        <v>3.03</v>
+        <v>2.23</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.6900000000000004</v>
+        <v>1.779999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3263,68 +3245,68 @@
           <t>241.77</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.8</v>
+      <c r="D35" s="1" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0.08000000000000007</v>
       </c>
       <c r="H35" t="n">
-        <v>17.46</v>
+        <v>3.87</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-42.95</v>
+        <v>-27.8</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>-14.13</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>-1.55</v>
+        <v>-3.829999999999999</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.68</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>-4.71</v>
+        <v>-23.07</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>-23.33</v>
+        <v>-16.88</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>-19.36</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.03999999999999999</v>
+        <v>-0.06</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>-0.06000000000000005</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.26</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>-0.9100000000000001</v>
+        <v>-1.350000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3343,68 +3325,68 @@
           <t>95.91</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.5</v>
+      <c r="D36" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>9.970000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>2.85</v>
+        <v>1.16</v>
       </c>
       <c r="H36" t="n">
-        <v>18.45</v>
+        <v>4.54</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-45.7</v>
+        <v>-30.36</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>-17.14</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>-0.5</v>
+        <v>-6.44</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.76</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>-3.72</v>
+        <v>-22.4</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>-26.08</v>
+        <v>-19.44</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>-22.37</v>
+        <v>-2.510000000000001</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01999999999999999</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.009999999999999953</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <v>-0.05999999999999983</v>
       </c>
       <c r="U36" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>-1.7</v>
+        <v>-1.19</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>-3.92</v>
+        <v>-3.960000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3423,46 +3405,46 @@
           <t>360.96</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16.05</v>
+      <c r="D37" s="1" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>2.61</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-42.96</v>
+        <v>-27.73</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K37" s="2" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>-1.72</v>
+      <c r="K37" s="1" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.47</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>-6.12</v>
+        <v>-24.33</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>-23.34</v>
+        <v>-16.81</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3470,22 +3452,22 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>-0.03999999999999999</v>
+        <v>-0.03</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.21</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.4499999999999998</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.08999999999999997</v>
+        <v>-0.13</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>-1.01</v>
+        <v>-0.7799999999999998</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -3509,46 +3491,46 @@
           <t>125.06</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.53</v>
+      <c r="D38" s="1" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>10.39</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="H38" t="n">
-        <v>18.42</v>
+        <v>5.95</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-46.06</v>
+        <v>-30.63</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K38" s="2" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>0.6499999999999999</v>
+      <c r="K38" s="1" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.15</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>-3.75</v>
+        <v>-20.99</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>-26.44</v>
+        <v>-19.71</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3556,22 +3538,22 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="S38" t="n">
-        <v>0.38</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="U38" t="n">
-        <v>2.46</v>
+        <v>1.55</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1.36</v>
+        <v>2.56</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>-2.06</v>
+        <v>-1.46</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -3595,47 +3577,47 @@
           <t>99.33</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>-0.9900000000000001</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.54</v>
+      <c r="D39" s="1" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>17.06</v>
+        <v>3.39</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-44</v>
+        <v>-29.17</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>-13.22</v>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>-1.81</v>
+        <v>-2.479999999999999</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>4.819999999999999</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.6</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>-5.109999999999999</v>
+        <v>-23.55</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>-24.38</v>
+        <v>-18.25</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>-18.45</v>
+        <v>1.45</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3675,68 +3657,68 @@
           <t>241.41</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.77</v>
+      <c r="D40" s="1" t="n">
+        <v>4.109999999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>9.790000000000001</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="H40" t="n">
-        <v>17.41</v>
+        <v>3.74</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-42.51</v>
+        <v>-27.87</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>-13.59</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>-1.58</v>
+        <v>-2.73</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>4.739999999999999</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.82</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>-4.76</v>
+        <v>-23.2</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>-22.89</v>
+        <v>-16.95</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>-18.82</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.2399999999999999</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.3499999999999996</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>-0.3700000000000001</v>
+        <v>-0.2500000000000009</v>
       </c>
     </row>
     <row r="41">
@@ -3755,68 +3737,68 @@
           <t>242.90</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.01</v>
+      <c r="D41" s="1" t="n">
+        <v>4.109999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>9.56</v>
       </c>
       <c r="G41" t="n">
-        <v>7.52</v>
+        <v>5.84</v>
       </c>
       <c r="H41" t="n">
-        <v>17.63</v>
+        <v>3.88</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-42.84</v>
+        <v>-27.69</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>-15.32</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>-0.6900000000000001</v>
+        <v>-4.789999999999999</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>4.739999999999999</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.08</v>
       </c>
       <c r="N41" t="n">
-        <v>4.17</v>
+        <v>10.44</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>-4.54</v>
+        <v>-23.06</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>-23.22</v>
+        <v>-16.77</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>-20.55</v>
+        <v>-0.8600000000000003</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>-0.4600000000000001</v>
+        <v>-0.4699999999999999</v>
       </c>
       <c r="U41" t="n">
-        <v>5.98</v>
+        <v>5.84</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.5699999999999998</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>-2.1</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="42">
@@ -3835,68 +3817,68 @@
           <t>258.17</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>-0.9400000000000001</v>
+      <c r="D42" s="1" t="n">
+        <v>3.04</v>
       </c>
       <c r="E42" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.67</v>
+        <v>1.57</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>-0.26</v>
       </c>
       <c r="H42" t="n">
-        <v>15.77</v>
+        <v>5.86</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-28.18</v>
+        <v>-15.44</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>-12</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="L42" s="1" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>-0.01000000000000001</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>-0.6800000000000002</v>
+        <v>-1.44</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.34</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>-6.4</v>
+        <v>-21.08</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>-8.560000000000002</v>
+        <v>-4.52</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>-17.23</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.05000000000000002</v>
+        <v>2.489999999999999</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>-1.15</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.13</v>
+        <v>-0.77</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>-0.8499999999999999</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <v>-0.26</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>-1.29</v>
+        <v>2.47</v>
       </c>
       <c r="W42" t="n">
-        <v>15.82</v>
+        <v>13.73</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.22</v>
+        <v>1.039999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3915,68 +3897,68 @@
           <t>65.66</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>-1.02</v>
+      <c r="D43" s="1" t="n">
+        <v>3.66</v>
       </c>
       <c r="E43" t="n">
-        <v>4.26</v>
+        <v>1.65</v>
       </c>
       <c r="F43" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.77</v>
+        <v>8.65</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>0.04000000000000004</v>
       </c>
       <c r="H43" t="n">
-        <v>14.8</v>
+        <v>5.53</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-21.73</v>
+        <v>-11.17</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>-5.200000000000001</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>-1.58</v>
+        <v>5.270000000000001</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>4.289999999999999</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.64</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>-7.37</v>
+        <v>-21.41</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>-2.110000000000003</v>
-      </c>
-      <c r="Q43" s="2" t="n">
-        <v>-10.43</v>
+        <v>-0.25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.03</v>
+        <v>-0.53</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.08999999999999986</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <v>-1.38</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>-2.26</v>
+        <v>2.14</v>
       </c>
       <c r="W43" t="n">
-        <v>22.27</v>
+        <v>18</v>
       </c>
       <c r="X43" t="n">
-        <v>8.02</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="44">
@@ -3995,68 +3977,68 @@
           <t>164.27</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>-0.5800000000000001</v>
+      <c r="D44" s="1" t="n">
+        <v>2.59</v>
       </c>
       <c r="E44" t="n">
-        <v>3.33</v>
+        <v>2.41</v>
       </c>
       <c r="F44" t="n">
-        <v>1.57</v>
+        <v>7.78</v>
       </c>
       <c r="G44" t="n">
-        <v>3.73</v>
+        <v>2.52</v>
       </c>
       <c r="H44" t="n">
-        <v>17.54</v>
+        <v>5.42</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-28.27</v>
+        <v>-13.34</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>-16.46</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.8200000000000001</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>-0.1300000000000001</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>0.3799999999999999</v>
+        <v>-6.819999999999999</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.119999999999999</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>-4.63</v>
+        <v>-21.52</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>-8.650000000000002</v>
+        <v>-2.419999999999998</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>-21.69</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S44" s="2" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.09999999999999987</v>
+        <v>-2.890000000000001</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>-2.25</v>
       </c>
       <c r="U44" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>0.48</v>
+        <v>2.03</v>
       </c>
       <c r="W44" t="n">
-        <v>15.73</v>
+        <v>15.83</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>-3.24</v>
+        <v>-4.340000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4072,71 +4054,71 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>741.08</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>-0.7000000000000001</v>
+          <t>743.45</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>3.75</v>
       </c>
       <c r="E45" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>21.07</v>
+        <v>2.34</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10.21</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-30.35</v>
+        <v>-14.82</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>-8.330000000000002</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.9400000000000001</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>5.78</v>
+        <v>1.790000000000001</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>-0.8100000000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>0.4099999999999997</v>
+        <v>8.59</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.38</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>-1.1</v>
+        <v>-16.73</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>-10.73</v>
+        <v>-3.899999999999999</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>-13.56</v>
+        <v>5.72</v>
       </c>
       <c r="R45" t="n">
-        <v>0.29</v>
+        <v>-0.4399999999999999</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.22</v>
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>-0.22</v>
       </c>
       <c r="V45" t="n">
-        <v>4.01</v>
+        <v>6.82</v>
       </c>
       <c r="W45" t="n">
-        <v>13.65</v>
+        <v>14.35</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>4.89</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="46">
@@ -4155,68 +4137,68 @@
           <t>119.03</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>-1.72</v>
+      <c r="D46" s="1" t="n">
+        <v>3.39</v>
       </c>
       <c r="E46" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.51</v>
+        <v>1.04</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0.3999999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>18.49</v>
+        <v>7.75</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-38.05</v>
+        <v>-23.2</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>-10.18</v>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>5.41</v>
+        <v>-2.829999999999999</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>-2.11</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>-0.8400000000000001</v>
+        <v>7.72</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>-3.68</v>
+        <v>-19.19</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>-18.43</v>
+        <v>-12.28</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>-15.41</v>
+        <v>1.1</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.73</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.8699999999999999</v>
+        <v>-1.3</v>
+      </c>
+      <c r="T46" s="2" t="n">
+        <v>-0.8299999999999998</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V46" s="2" t="n">
-        <v>1.43</v>
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.359999999999999</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>5.95</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>3.04</v>
+        <v>-0.3500000000000005</v>
       </c>
     </row>
     <row r="47">
@@ -4235,68 +4217,68 @@
           <t>1071.04</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>-0.7000000000000002</v>
+      <c r="D47" s="1" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.79</v>
       </c>
       <c r="F47" t="n">
-        <v>2.6</v>
+        <v>4.15</v>
       </c>
       <c r="G47" t="n">
-        <v>4.95</v>
+        <v>2.23</v>
       </c>
       <c r="H47" t="n">
-        <v>14.86</v>
+        <v>7.75</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16.65</v>
+        <v>-5.109999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.6299999999999999</v>
+        <v>19.23</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>-1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8999999999999999</v>
+        <v>2.67</v>
       </c>
       <c r="N47" t="n">
-        <v>1.6</v>
+        <v>6.83</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>-7.31</v>
+        <v>-19.19</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>2.969999999999999</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="Q47" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.03</v>
+        <v>23.16</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>-1.66</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>-5.55</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.13</v>
+        <v>-0.55</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <v>-5.88</v>
       </c>
       <c r="U47" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="V47" s="2" t="n">
-        <v>-2.2</v>
+        <v>2.23</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.359999999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>27.35</v>
-      </c>
-      <c r="X47" s="1" t="n">
-        <v>30.4</v>
+        <v>24.06</v>
+      </c>
+      <c r="X47" t="n">
+        <v>21.71</v>
       </c>
     </row>
     <row r="48">
@@ -4315,68 +4297,68 @@
           <t>183.31</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="E48" s="1" t="n">
+      <c r="D48" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>-10.87</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>5.380000000000001</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>2.669999999999999</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="N48" t="n">
         <v>5.41</v>
       </c>
-      <c r="F48" s="2" t="n">
-        <v>-2.65</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>-23.21</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="L48" s="1" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>-4.35</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.630000000000001</v>
-      </c>
       <c r="O48" s="2" t="n">
-        <v>-0.1099999999999994</v>
+        <v>-7.18</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>-3.59</v>
-      </c>
-      <c r="Q48" s="2" t="n">
-        <v>-2.210000000000001</v>
-      </c>
-      <c r="R48" t="n">
-        <v>-0.2</v>
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9.309999999999999</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>-2.15</v>
       </c>
       <c r="S48" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.24</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="U48" t="n">
-        <v>6.44</v>
+        <v>-2.66</v>
+      </c>
+      <c r="U48" s="2" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="V48" t="n">
-        <v>5</v>
+        <v>16.37</v>
       </c>
       <c r="W48" t="n">
-        <v>20.79</v>
+        <v>18.3</v>
       </c>
       <c r="X48" t="n">
-        <v>16.24</v>
+        <v>7.859999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -4395,20 +4377,20 @@
           <t>37.68</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>-1.1</v>
+      <c r="D49" s="1" t="n">
+        <v>3.52</v>
       </c>
       <c r="E49" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>-1.18</v>
       </c>
       <c r="H49" t="n">
-        <v>17.7</v>
+        <v>6.63</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4420,20 +4402,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K49" s="2" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="L49" s="1" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>-1.57</v>
+      <c r="K49" s="1" t="n">
+        <v>4.149999999999999</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="M49" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.42</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>-4.47</v>
+        <v>-20.31</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4446,19 +4428,19 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>-0.11</v>
+        <v>-0.6699999999999999</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>-0.57</v>
+        <v>-0.51</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>-0.1900000000000001</v>
+        <v>-0.8399999999999999</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>0.6400000000000001</v>
+        <v>-1.18</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.24</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4487,68 +4469,68 @@
           <t>726.27</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>-1.2</v>
+      <c r="D50" s="1" t="n">
+        <v>3.03</v>
       </c>
       <c r="E50" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3.53</v>
+        <v>1.56</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>-1.05</v>
       </c>
       <c r="H50" t="n">
-        <v>19.7</v>
+        <v>12.12</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-32.85</v>
+        <v>-20.35</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>-9.100000000000001</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>5.42</v>
+        <v>0.4500000000000011</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>-1.59</v>
       </c>
       <c r="M50" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>0.1799999999999997</v>
+        <v>7.85</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.55</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>-2.47</v>
+        <v>-14.82</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>-13.23</v>
+        <v>-9.429999999999998</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>-14.33</v>
-      </c>
-      <c r="R50" t="n">
-        <v>-0.21</v>
+        <v>4.38</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>-1.16</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V50" s="2" t="n">
-        <v>2.64</v>
+        <v>-0.78</v>
+      </c>
+      <c r="T50" s="2" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="V50" t="n">
+        <v>8.73</v>
       </c>
       <c r="W50" t="n">
-        <v>11.15</v>
+        <v>8.82</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>4.12</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="51">
@@ -4567,68 +4549,68 @@
           <t>32.58</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>-0.6600000000000001</v>
+      <c r="D51" s="1" t="n">
+        <v>3.16</v>
       </c>
       <c r="E51" t="n">
-        <v>2.53</v>
+        <v>1.66</v>
       </c>
       <c r="F51" t="n">
-        <v>0.99</v>
+        <v>6.07</v>
       </c>
       <c r="G51" t="n">
-        <v>3.28</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
-        <v>14.73</v>
+        <v>5.26</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-18.47</v>
+        <v>-7.18</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>-12.71</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-0.9000000000000001</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>-0.07000000000000028</v>
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.5</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>-7.44</v>
+        <v>-21.68</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>1.149999999999999</v>
+        <v>3.740000000000002</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>-17.94</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.33</v>
+        <v>3.259999999999999</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>-1.03</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>-2.32</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>-0.48</v>
+        <v>-3.96</v>
       </c>
       <c r="U51" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>-2.33</v>
+        <v>1.87</v>
       </c>
       <c r="W51" t="n">
-        <v>25.53</v>
+        <v>21.99</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>0.5100000000000007</v>
+        <v>1.809999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -4647,14 +4629,14 @@
           <t>140.86</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>-1.33</v>
+      <c r="D52" s="1" t="n">
+        <v>3.33</v>
       </c>
       <c r="E52" t="n">
-        <v>3.94</v>
+        <v>1.37</v>
       </c>
       <c r="F52" t="n">
-        <v>1.37</v>
+        <v>8.030000000000001</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4676,14 +4658,14 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K52" s="2" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>-0.3300000000000001</v>
+      <c r="K52" s="1" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6.55</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4706,13 +4688,13 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>-0.34</v>
+        <v>-0.86</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>-0.9099999999999999</v>
+        <v>-0.97</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>-0.1000000000000001</v>
+        <v>-2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -1820,22 +1820,22 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3.34</v>
+        <v>6.91</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-8.699999999999999</v>
+        <v>-12.95</v>
       </c>
       <c r="F23" t="n">
-        <v>4.09</v>
+        <v>5.870000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>3.23</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>19.52</v>
+        <v>15.22</v>
       </c>
       <c r="I23" t="n">
-        <v>12.68</v>
+        <v>12.61</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>3.11</v>
+        <v>6.68</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>-13.95</v>
+        <v>-18.2</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.609999999999998</v>
+        <v>11.39</v>
       </c>
       <c r="N23" t="n">
-        <v>3.47</v>
+        <v>5.73</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>0.3200000000000003</v>
+        <v>-3.98</v>
       </c>
       <c r="P23" t="n">
-        <v>20.69</v>
+        <v>20.62</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -564,20 +564,20 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>47.18</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-4.089999999999999</v>
+        <v>10.92</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.06</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-5.52</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -594,17 +594,17 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.33</v>
+      <c r="K3" s="1" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>-4.77</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>-5.319999999999999</v>
+        <v>-2.040000000000001</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>-4.529999999999998</v>
+        <v>-7.129999999999999</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.93</v>
+        <v>-0.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.290000000000001</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-0.4400000000000013</v>
+        <v>2.52</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.5899999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.140000000000001</v>
+        <v>2.19</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2.51</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1300000000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0.5500000000000007</v>
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>-3.500000000000002</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.57</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>-8.219999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.390000000000001</v>
+        <v>-1.23</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>-0.629999999999999</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-3.55</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>13.85</v>
+        <v>-3.49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.23</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-13.88</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -728,17 +728,17 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>-0.48</v>
+      <c r="K5" s="1" t="n">
+        <v>2.26</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>12.62</v>
+        <v>-7.06</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>-0.870000000000001</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-12.89</v>
+        <v>-2.789999999999999</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -772,20 +772,20 @@
           <t>683.61</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>-0.9500000000000002</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-1.079999999999999</v>
+      <c r="D6" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-5.869999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.23</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>5.06</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-25.89</v>
+        <v>-24.99</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -797,20 +797,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>-3.51</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>-2.31</v>
+      <c r="K6" s="1" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>-9.44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.129999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>3.910000000000002</v>
+        <v>6.47</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>-33.52</v>
+        <v>-28.41</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -840,46 +840,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4099999999999999</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.6500000000000004</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2.56</v>
+        <v>1.739999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>9.399999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>9.649999999999995</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>-1.89</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-0.04000000000000004</v>
+        <v>10.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>-2.47</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>-0.5800000000000001</v>
+        <v>-2.450000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>2.160000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>-5.07</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.649999999999999</v>
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>5.970000000000001</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>-6.480000000000004</v>
+        <v>-7.339999999999996</v>
       </c>
     </row>
     <row r="8">
@@ -899,49 +899,45 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.15</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2.31</v>
+        <v>-0.4299999999999997</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.5099999999999998</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>4.24</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K8" s="2" t="n">
-        <v>-1.51</v>
+      <c r="K8" t="n">
+        <v>0.23</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>-0.6</v>
+        <v>-3.59</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>-3.54</v>
+        <v>-3.530000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>1.500000000000002</v>
+        <v>1.01</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>-5.46</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-2.97</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>1.100000000000001</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -966,46 +962,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6399999999999999</v>
+        <v>-0.3700000000000001</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-0.2799999999999994</v>
+        <v>-1.390000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>7.42</v>
+        <v>7.16</v>
       </c>
       <c r="H9" s="2" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.379999999999999</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>83.72999999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>-3.94</v>
       </c>
-      <c r="I9" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>79.97999999999999</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>-1.92</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1899999999999999</v>
-      </c>
       <c r="M9" s="2" t="n">
-        <v>-1.51</v>
+        <v>-4.490000000000002</v>
       </c>
       <c r="N9" t="n">
-        <v>8.410000000000002</v>
+        <v>8.57</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>-11.57</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10.97</v>
+        <v>-7.19</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>4.24</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>63.84999999999999</v>
+        <v>65.50999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1024,47 +1020,47 @@
           <t>141.03</t>
         </is>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.030000000000001</v>
+      <c r="D10" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-2.07</v>
       </c>
       <c r="G10" t="n">
-        <v>3.369999999999999</v>
+        <v>4.86</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>30.8</v>
+        <v>22.63</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>42.36</v>
+        <v>36.51000000000001</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>43.92999999999999</v>
+        <v>54.52999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4700000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3800000000000001</v>
+        <v>3.47</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>-0.1999999999999993</v>
+        <v>-5.170000000000002</v>
       </c>
       <c r="N10" t="n">
-        <v>4.360000000000001</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>23.17</v>
+        <v>6.27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19.21</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>40.61</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>27.8</v>
+        <v>33.37</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>36.31</v>
       </c>
     </row>
     <row r="11">
@@ -1080,50 +1076,50 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>47.98</t>
+          <t>45.01</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.59</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3200000000000001</v>
+        <v>4.33</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-6.539999999999999</v>
+        <v>-8.16</v>
       </c>
       <c r="G11" t="n">
-        <v>10.13</v>
+        <v>8.370000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>12.36</v>
+        <v>7.37</v>
       </c>
       <c r="I11" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26.77</v>
+        <v>23.39</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>31.63</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>-0.77</v>
+        <v>0.42</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7599999999999998</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>-7.77</v>
+        <v>-11.26</v>
       </c>
       <c r="N11" t="n">
-        <v>11.12</v>
+        <v>9.780000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>4.73</v>
+        <v>3.95</v>
       </c>
       <c r="P11" t="n">
-        <v>23.21</v>
+        <v>20.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.64</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="12">
@@ -1143,46 +1139,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>-1.02</v>
+        <v>0.03</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2400000000000002</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-2.44</v>
+        <v>-4.390000000000001</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>13.44</v>
+        <v>15.41</v>
       </c>
       <c r="H12" t="n">
-        <v>8.02</v>
+        <v>6.05</v>
       </c>
       <c r="I12" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="J12" t="n">
-        <v>29.28</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>-1.74</v>
+        <v>15.81</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>32.25000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.15</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>-1.47</v>
+        <v>-3.33</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>-3.67</v>
+        <v>-7.490000000000002</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>14.43</v>
+        <v>16.82</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.3900000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="P12" t="n">
-        <v>16.06</v>
+        <v>12.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.15</v>
+        <v>14.03000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1202,46 +1198,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
       <c r="E13" t="n">
-        <v>1.34</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-3.299999999999999</v>
+        <v>-3.879999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>6.949999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.6399999999999997</v>
+        <v>1.72</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>35.27</v>
+        <v>33.05</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>37.17</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.8900000000000001</v>
+        <v>36.71</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>-2.850000000000001</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>-4.529999999999999</v>
+        <v>-6.98</v>
       </c>
       <c r="N13" t="n">
-        <v>7.940000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>-6.99</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>33.52</v>
+        <v>-1.7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.04</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="14">
@@ -1260,20 +1256,20 @@
           <t>124.36</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>-0.7200000000000002</v>
+      <c r="D14" s="2" t="n">
+        <v>-2.58</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-4.009999999999999</v>
+        <v>-7.31</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>13.21</v>
+        <v>14.68</v>
       </c>
       <c r="H14" t="n">
-        <v>19.86</v>
+        <v>19.88</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1286,19 +1282,19 @@
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-3.28</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.05</v>
+        <v>-2.46</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>-2.87</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-5.239999999999999</v>
+        <v>-10.41</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>14.2</v>
+        <v>16.09</v>
       </c>
       <c r="O14" t="n">
-        <v>12.23</v>
+        <v>16.46</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1328,46 +1324,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.63</v>
+        <v>-0.6900000000000001</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>6.36</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-2.719999999999999</v>
+        <v>-2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>10.58</v>
+        <v>5.93</v>
       </c>
       <c r="H15" t="n">
-        <v>4.83</v>
+        <v>6.18</v>
       </c>
       <c r="I15" t="n">
-        <v>15.29</v>
+        <v>13.63</v>
       </c>
       <c r="J15" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>-1.48</v>
+        <v>21.92</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.5700000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>-3.949999999999999</v>
+        <v>-5.200000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>11.57</v>
+        <v>7.34</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>-2.8</v>
+        <v>2.76</v>
       </c>
       <c r="P15" t="n">
-        <v>13.54</v>
+        <v>10.49</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1.229999999999997</v>
+        <v>3.700000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -1387,46 +1383,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.53</v>
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>5.74</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-4.749999999999999</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>13.5</v>
+        <v>-5.029999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.33</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.8700000000000001</v>
+        <v>-0.4500000000000002</v>
       </c>
       <c r="I16" t="n">
-        <v>15.99</v>
+        <v>12.69</v>
       </c>
       <c r="J16" t="n">
-        <v>13.2</v>
+        <v>19.34</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.9400000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="L16" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>-5.98</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>14.49</v>
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11.74</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-8.5</v>
+        <v>-3.87</v>
       </c>
       <c r="P16" t="n">
-        <v>14.24</v>
+        <v>9.550000000000002</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>-2.93</v>
+        <v>1.120000000000005</v>
       </c>
     </row>
     <row r="17">
@@ -1445,23 +1441,23 @@
           <t>30.75</t>
         </is>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.05</v>
+      <c r="D17" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>6.75</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-4.329999999999999</v>
+        <v>-6.47</v>
       </c>
       <c r="G17" t="n">
-        <v>9.279999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="H17" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>5.100000000000001</v>
+        <v>12.09</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.82</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1469,22 +1465,22 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.4800000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6000000000000001</v>
+        <v>3.18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>-5.56</v>
+        <v>-9.57</v>
       </c>
       <c r="N17" t="n">
-        <v>10.27</v>
+        <v>8.73</v>
       </c>
       <c r="O17" t="n">
-        <v>8.100000000000001</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>3.350000000000001</v>
+        <v>8.67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9.680000000000001</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1509,46 +1505,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>6.01</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-5.379999999999999</v>
+        <v>-8.239999999999998</v>
       </c>
       <c r="G18" t="n">
-        <v>12.13</v>
+        <v>9.19</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>7.93</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>4.73</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>6.819999999999997</v>
+        <v>6.82</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.4199999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>-6.609999999999999</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0.77</v>
+        <v>-11.34</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.51</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.98</v>
+        <v>2.640000000000001</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>-9.310000000000002</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="19">
@@ -1564,50 +1560,50 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>52.11</t>
+          <t>54.82</t>
         </is>
       </c>
       <c r="D19" s="1" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.17</v>
+        <v>5.22</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>16.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-25.75</v>
+        <v>-21.66</v>
       </c>
       <c r="G19" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8.02</v>
+        <v>4.15</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>1.63</v>
       </c>
       <c r="I19" t="n">
-        <v>14.25</v>
+        <v>20.25</v>
       </c>
       <c r="J19" t="n">
-        <v>13.38</v>
+        <v>13.54</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>3.629999999999999</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.72</v>
+        <v>5.34</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>13.13</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>-26.98</v>
+        <v>-24.76</v>
       </c>
       <c r="N19" t="n">
-        <v>11.79</v>
+        <v>5.56</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0.3900000000000001</v>
+        <v>-1.79</v>
       </c>
       <c r="P19" t="n">
-        <v>12.5</v>
+        <v>17.11</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>-2.75</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="20">
@@ -1623,50 +1619,50 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>193.76</t>
+          <t>193.95</t>
         </is>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.02</v>
+        <v>2.23</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>13.06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-22.02</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>16.28</v>
+        <v>-18.73</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8.58</v>
       </c>
       <c r="H20" t="n">
-        <v>7.91</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>10.13</v>
+        <v>16.29</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>-14.41</v>
+        <v>-18.68</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>9.49</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>-23.25</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>0.28</v>
+        <v>-21.83</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.11</v>
       </c>
       <c r="P20" t="n">
-        <v>8.379999999999999</v>
+        <v>13.15</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>-30.54</v>
+        <v>-36.9</v>
       </c>
     </row>
     <row r="21">
@@ -1686,46 +1682,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>-6.04</v>
+        <v>1.83</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>4.84</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-9.83</v>
+        <v>-16.2</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>22.3</v>
+        <v>20.93</v>
       </c>
       <c r="H21" t="n">
-        <v>5.55</v>
+        <v>4.82</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-17.91</v>
+        <v>-20.74</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>-2.210000000000001</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>-6.49</v>
+        <v>-1.190000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.27</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>-11.06</v>
+        <v>-19.3</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>23.29</v>
+        <v>22.34</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>-2.08</v>
+        <v>1.4</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>-19.66</v>
+        <v>-23.88</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>-18.34</v>
+        <v>-19.41</v>
       </c>
     </row>
     <row r="22">
@@ -1741,17 +1737,17 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>52.11</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-6.02</v>
+          <t>54.82</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>9.08</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-11.85</v>
+        <v>-14.75</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1773,14 +1769,14 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K22" s="1" t="n">
-        <v>3.379999999999999</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>-6.470000000000001</v>
+      <c r="K22" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>5.51</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-13.08</v>
+        <v>-17.85</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1934,19 +1930,19 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.28</v>
+        <v>-1.2</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>-2.79</v>
+        <v>-1.77</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>4.06</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1959,19 +1955,19 @@
         </is>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0.12</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.3200000000000003</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>0.46</v>
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0.05000000000000004</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>3.37</v>
+        <v>2.3</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2001,19 +1997,19 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.19</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.53</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>3.16</v>
+        <v>2.74</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>-3.59</v>
+        <v>-1.71</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-1.3</v>
+        <v>-1.72</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2026,19 +2022,19 @@
         </is>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>0.29</v>
+        <v>0.79</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>-0.3400000000000003</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>-1.99</v>
+        <v>-2.09</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2067,47 +2063,47 @@
           <t>943.32</t>
         </is>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>0.39</v>
+      <c r="D28" s="2" t="n">
+        <v>-0.09000000000000002</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>-1.07</v>
+        <v>-0.12</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>4.23</v>
+        <v>3.28</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>8</v>
+        <v>6.390000000000001</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>14.18</v>
+        <v>12.49</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>0.34</v>
+        <v>1.39</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.8199999999999998</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.24</v>
+        <v>2.91</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0.4900000000000002</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>3.15</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="29">
@@ -2126,23 +2122,23 @@
           <t>13.58</t>
         </is>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>0.99</v>
+      <c r="D29" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-0.39</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.7</v>
+        <v>1.54</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>-1.51</v>
+        <v>-0.49</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>4.59</v>
+        <v>3.63</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>4.380000000000001</v>
+        <v>4.459999999999999</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2150,22 +2146,22 @@
         </is>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>-0.6699999999999999</v>
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1699999999999999</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>3.9</v>
+        <v>3.26</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>-2.379999999999999</v>
+        <v>-1.440000000000001</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2190,46 +2186,46 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>0.12</v>
+        <v>-0.27</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>-1.43</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>-2.22</v>
+        <v>-1.35</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.8</v>
+        <v>-1.22</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>5.09</v>
+        <v>4.43</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>0.44</v>
+        <v>13.51</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>-0.11</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.3200000000000003</v>
+        <v>1.07</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>1.03</v>
+        <v>0.4700000000000002</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>-1.49</v>
+        <v>-1.59</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>-1.67</v>
+        <v>-1.470000000000001</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>4.110000000000001</v>
+        <v>2.779999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -2249,46 +2245,46 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.06000000000000003</v>
+        <v>-0.13</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1.7</v>
+        <v>2.47</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.3799999999999999</v>
+        <v>-1.47</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>-0.009999999999999787</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>5.6</v>
+        <v>4.23</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>10.33</v>
+        <v>10.65</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>0.9699999999999998</v>
+        <v>1.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3500000000000001</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>-0.3100000000000001</v>
+        <v>-0.3799999999999999</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>-1.16</v>
+        <v>-1.67</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>-0.6999999999999993</v>
+        <v>-0.08000000000000007</v>
       </c>
     </row>
     <row r="32">
@@ -2307,20 +2303,20 @@
           <t>13.15</t>
         </is>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0.15</v>
+      <c r="D32" s="2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>-0.13</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.06</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>3.3</v>
+        <v>3.410000000000001</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2333,19 +2329,19 @@
         </is>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.47</v>
+        <v>1.19</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>-0.9599999999999997</v>
+        <v>-0.51</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>2.85</v>
+        <v>1.76</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>2.61</v>
+        <v>3.04</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2374,47 +2370,47 @@
           <t>48.01</t>
         </is>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>0.13</v>
+      <c r="D33" s="2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>-0.22</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.52</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-0.4800000000000004</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>0.45</v>
+        <v>1.1</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>-0.9699999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>2.98</v>
+        <v>1.59</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>-7.24</v>
+        <v>-6.02</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>-9.129999999999999</v>
+        <v>-8.969999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2434,46 +2430,46 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0.6699999999999999</v>
+        <v>-0.27</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-0.07999999999999996</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>2.32</v>
+        <v>2.77</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>-3.13</v>
+        <v>-2.22</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>2.23</v>
+        <v>1.25</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>4.359999999999999</v>
+        <v>3.23</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>6.170000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.99</v>
+        <v>1.24</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.9500000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0.1199999999999997</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>1.54</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>-2.4</v>
+        <v>-2.67</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>-4.859999999999999</v>
+        <v>-2.790000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -2493,46 +2489,46 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.45</v>
+        <v>-1.25</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>2.4</v>
+        <v>2.71</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>-2.76</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.8700000000000001</v>
+        <v>-0.61</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5300000000000002</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.3799999999999999</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>8.239999999999998</v>
+        <v>8.360000000000001</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>0.07999999999999999</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>-0.13</v>
+        <v>0.42</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>0.4899999999999998</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0.1600000000000001</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>-5.89</v>
+        <v>-5.52</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>-2.790000000000001</v>
+        <v>-2.369999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -2573,25 +2569,25 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.32</v>
+        <v>1.32</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>-1.37</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>3.25</v>
+        <v>1.82</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.3700000000000001</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>-6.76</v>
+        <v>-5.9</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>-11.03</v>
+        <v>-10.73</v>
       </c>
     </row>
     <row r="37">
@@ -2607,108 +2603,112 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>321.88</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>-0.08000000000000002</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.03999999999999998</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2000000000000001</v>
+          <t>389.95</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0.3200000000000001</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-0.2300000000000004</v>
+        <v>-0.29</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>4.98</v>
+        <v>4.69</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>0.36</v>
+        <v>1.12</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>-1.17</v>
+        <v>-1.05</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>4.44</v>
+        <v>2.98</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>-0.3199999999999998</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>-6.99</v>
+        <v>-6.19</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>-6.050000000000001</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>007744</t>
+          <t>011489</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>长盛安逸纯债债券A</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>172.69</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.07000000000000001</v>
+          <t>创金合信双季享6个月持有A</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>-0.13</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>-0.1600000000000001</v>
+        <v>1.26</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>0.03</v>
+      <c r="K38" s="1" t="n">
+        <v>0.63</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.39</v>
+        <v>1.19</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>-1.06</v>
+        <v>-0.7200000000000002</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="P38" s="2" t="n">
-        <v>-6.92</v>
+        <v>3.08</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2719,119 +2719,127 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>000931</t>
+          <t>007744</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>国寿安保尊益信用纯债债券</t>
+          <t>长盛安逸纯债债券A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>203.80</t>
+          <t>172.69</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.05000000000000002</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>0.04000000000000004</v>
+        <v>-0.13</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>-0.2799999999999999</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0.51</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.6399999999999997</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>3.680000000000001</v>
+        <v>0.79</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>0.2599999999999998</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.15</v>
+        <v>0.49</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.32</v>
+        <v>1.04</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>-1.33</v>
+        <v>-0.8600000000000001</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>-0.3599999999999999</v>
+        <v>2.61</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>2.94</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>-6.12</v>
-      </c>
-      <c r="Q39" s="2" t="n">
-        <v>-7.35</v>
+        <v>-5.640000000000001</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>002704</t>
+          <t>009196</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>德邦锐兴债券A</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>120.19</t>
+          <t>北信瑞丰鼎盛中短债A</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>6.84</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-0.06999999999999995</v>
+        <v>-0.21</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.26</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>1.75</v>
+        <v>1.07</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.29</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-0.1900000000000004</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>-1.67</v>
+        <v>-2.03</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K40" s="1" t="n">
-        <v>0.07999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.26</v>
+        <v>1.11</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>-1.44</v>
+        <v>-1.11</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="O40" s="1" t="n">
-        <v>1.06</v>
+        <v>2.89</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>-0.08000000000000007</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>-12.7</v>
+        <v>-7.930000000000001</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2851,542 +2859,526 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>0.18</v>
+        <v>-0.1</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>-0.26</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.6</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0.0900000000000003</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-1.62</v>
+        <v>-1.8</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.01000000000000001</v>
+        <v>1.72</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>0.52</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>-0.8199999999999998</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>3.85</v>
+        <v>2.39</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>-0.75</v>
+        <v>-0.2799999999999998</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>-8.379999999999999</v>
+        <v>-7.700000000000001</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>-9.48</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>000914</t>
+          <t>006242</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中加纯债债券</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>142.01</t>
+          <t>宝盈盈润纯债债券</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>395.66</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.06000000000000003</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.03999999999999998</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.18</v>
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0.6100000000000001</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>-0.06999999999999984</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>0.9700000000000002</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J42" s="1" t="n">
-        <v>2</v>
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.07999999999999999</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>0.28</v>
+        <v>1.13</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>-1.19</v>
+        <v>-0.76</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>-0.7599999999999998</v>
+        <v>2.63</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>-6.82</v>
-      </c>
-      <c r="Q42" s="2" t="n">
-        <v>-9.030000000000001</v>
+        <v>-6.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>006242</t>
+          <t>000931</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>宝盈盈润纯债债券</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>395.66</t>
+          <t>国寿安保尊益信用纯债债券</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>203.80</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>0.3900000000000001</v>
+        <v>-0.06000000000000003</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>0.08999999999999997</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="H43" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>0.3800000000000003</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>2.2</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.1</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>0.47</v>
+        <v>1.19</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>-0.9799999999999998</v>
+        <v>-1.28</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>4.08</v>
+        <v>2.25</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000023</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-5.040000000000001</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>-8.530000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>970132</t>
+          <t>400030</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>东证融汇添添益中短债A</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>-0.03999999999999998</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>0.3600000000000001</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>东方添益债券</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>133.34</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01999999999999996</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>-0.6100000000000003</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>2.95</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>0.07999999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>0.28</v>
+        <v>1.32</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-1.1</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>-6.510000000000001</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>-7.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>400030</t>
+          <t>003859</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>东方添益债券</t>
+          <t>招商招旭纯债A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>222.14</t>
+          <t>295.80</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.02999999999999997</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-0.01000000000000001</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="F45" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>-0.4699999999999998</v>
+        <v>0.48</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>0.1700000000000004</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6299999999999999</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>2.91</v>
+        <v>1.52</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.23</v>
+        <v>0.61</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.31</v>
+        <v>1.22</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>-1.19</v>
+        <v>-1.24</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.3100000000000001</v>
+        <v>2.3</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>-0.1999999999999997</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>-7.23</v>
+        <v>-5.27</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>-8.120000000000001</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>003859</t>
+          <t>000914</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>招商招旭纯债A</t>
+          <t>中加纯债债券</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>290.08</t>
+          <t>142.01</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
         <v>-0.04000000000000001</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>0.07000000000000006</v>
+      <c r="E46" s="2" t="n">
+        <v>-0.2799999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.26</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.46</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.8899999999999997</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.38</v>
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>-0.1600000000000001</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>2.36</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>0.16</v>
+        <v>0.58</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>0.34</v>
+        <v>1.04</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>-1.3</v>
+        <v>-1.11</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>3.71</v>
+        <v>2.7</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>-0.71</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>-5.87</v>
+        <v>-6.06</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>-9.65</v>
+        <v>-8.370000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>147.80</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>0.08999999999999997</v>
+          <t>206.20</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>-1.17</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-0.53</v>
+        <v>-0.74</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.77</v>
+        <v>7.289999999999999</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>-4.64</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>1.96</v>
+        <v>-4.95</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0.1800000000000002</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>7.209999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>-0.5999999999999999</v>
+        <v>29.55</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>5.92</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="O47" s="1" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>0.4499999999999993</v>
-      </c>
-      <c r="Q47" s="2" t="n">
-        <v>-2.529999999999999</v>
+        <v>-3.13</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>7.999999999999998</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>18.82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>008356</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>206.20</t>
+          <t>中加科丰价值精选混合</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>45.01</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>2.08</v>
+        <v>-0.1</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>-0.7</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>3.62</v>
+        <v>0.76</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>0.8199999999999998</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>-0.9299999999999997</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>29.28</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>-0.52</v>
+        <v>8.629999999999999</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0.52</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M48" s="1" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>-0.9600000000000004</v>
+        <v>0.62</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>-0.6100000000000001</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>1.13</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0.1299999999999999</v>
+        <v>-1.3</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q48" s="1" t="n">
-        <v>18.25</v>
+        <v>2.729999999999999</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>008356</t>
+          <t>002704</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>中加科丰价值精选混合</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>47.98</t>
+          <t>德邦锐兴债券A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>120.19</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.09000000000000002</v>
+        <v>-0.12</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.3699999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2200000000000001</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.3500000000000001</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>-0.7800000000000002</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>0.22</v>
+        <v>0.95</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>-1.15</v>
+        <v>-1.26</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>-0.3399999999999999</v>
-      </c>
-      <c r="P49" s="1" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>2.54</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>-11.51</v>
       </c>
     </row>
     <row r="50">
@@ -3406,46 +3398,46 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>0.13</v>
+        <v>-0.31</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>-1.71</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>-5</v>
+        <v>-4.13</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>-0.3599999999999999</v>
+        <v>-0.4899999999999998</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>10.62</v>
+        <v>7.92</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>0.45</v>
+        <v>18.46</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>-0.39</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>0.5100000000000002</v>
+        <v>1.73</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>-1.75</v>
+        <v>-2.31</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>-1.05</v>
+        <v>-0.8599999999999999</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>3.859999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>4.430000000000001</v>
+        <v>7.729999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3461,50 +3453,50 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>141.24</t>
+          <t>152.07</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>0.14</v>
+        <v>-0.4</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>-1.22</v>
       </c>
       <c r="F51" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>-0.3699999999999999</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P51" t="n">
         <v>1.16</v>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L51" s="1" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>-0.2099999999999997</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>-0.8300000000000001</v>
-      </c>
-      <c r="P51" s="1" t="n">
-        <v>1.85</v>
-      </c>
       <c r="Q51" s="1" t="n">
-        <v>8.470000000000001</v>
+        <v>6.83</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -573,10 +573,10 @@
       <c r="E3" s="1" t="n">
         <v>-4.8</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" t="n">
         <v>-4.49</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>7.84</v>
       </c>
       <c r="H3" t="inlineStr">
@@ -594,13 +594,13 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>1.52</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" t="n">
         <v>-2.01</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" t="n">
         <v>-4.57</v>
       </c>
       <c r="N3" t="n">
@@ -647,13 +647,13 @@
       <c r="F4" t="n">
         <v>4.989999999999999</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" t="n">
         <v>-5.02</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" t="n">
         <v>-9.73</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -671,13 +671,13 @@
       <c r="N4" t="n">
         <v>3.53</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" t="n">
         <v>-3.029999999999999</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>-36.68</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" t="n">
         <v>-14.35</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
       <c r="D5" t="n">
         <v>1.31</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" t="n">
         <v>-2.42</v>
       </c>
       <c r="F5" t="n">
@@ -709,7 +709,7 @@
       <c r="G5" t="n">
         <v>2.92</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" t="n">
         <v>-9.100000000000001</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -731,10 +731,10 @@
       <c r="M5" t="n">
         <v>1.88</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" t="n">
         <v>-3.19</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" t="n">
         <v>-7.110000000000001</v>
       </c>
       <c r="P5" t="inlineStr">
@@ -773,7 +773,7 @@
       <c r="F6" t="n">
         <v>3.579999999999999</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" t="n">
         <v>-0.6500000000000004</v>
       </c>
       <c r="H6" t="n">
@@ -788,7 +788,7 @@
       <c r="K6" s="1" t="n">
         <v>-1.68</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" t="n">
         <v>-2.24</v>
       </c>
       <c r="M6" t="n">
@@ -823,7 +823,7 @@
           <t>426.55</t>
         </is>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" t="n">
         <v>-1.32</v>
       </c>
       <c r="E7" t="n">
@@ -835,7 +835,7 @@
       <c r="G7" t="n">
         <v>5.56</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" t="n">
         <v>1.220000000000001</v>
       </c>
       <c r="I7" t="n">
@@ -847,19 +847,19 @@
       <c r="K7" t="n">
         <v>0.28</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="2" t="n">
         <v>3.76</v>
       </c>
       <c r="M7" t="n">
         <v>0.7699999999999996</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" t="n">
         <v>-0.5499999999999998</v>
       </c>
       <c r="O7" t="n">
         <v>3.210000000000001</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" t="n">
         <v>-14.2</v>
       </c>
       <c r="Q7" s="1" t="n">
@@ -891,10 +891,10 @@
       <c r="F8" t="n">
         <v>3.04</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2" t="n">
         <v>6.59</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" t="n">
         <v>-0.1099999999999994</v>
       </c>
       <c r="I8" t="n">
@@ -908,19 +908,19 @@
       <c r="K8" s="1" t="n">
         <v>-2.28</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" t="n">
         <v>-1.73</v>
       </c>
       <c r="M8" t="n">
         <v>2.96</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" t="n">
         <v>0.4800000000000004</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" t="n">
         <v>1.880000000000001</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" t="n">
         <v>-14.35</v>
       </c>
       <c r="Q8" t="inlineStr">
@@ -945,10 +945,10 @@
           <t>55.91</t>
         </is>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" t="n">
         <v>-1.28</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" t="n">
         <v>-2.83</v>
       </c>
       <c r="F9" s="2" t="n">
@@ -979,7 +979,7 @@
       <c r="M9" s="2" t="n">
         <v>15.89</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" t="n">
         <v>-0.2699999999999996</v>
       </c>
       <c r="O9" t="n">
@@ -1018,10 +1018,10 @@
       <c r="E10" t="n">
         <v>2.04</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>7.819999999999999</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" t="n">
         <v>0.2799999999999994</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -1033,16 +1033,16 @@
       <c r="J10" s="1" t="n">
         <v>-42.32</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="2" t="n">
         <v>1.55</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>4.83</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="2" t="n">
         <v>7.739999999999999</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" t="n">
         <v>-5.83</v>
       </c>
       <c r="O10" s="1" t="n">
@@ -1083,7 +1083,7 @@
       <c r="G11" t="n">
         <v>3.09</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>10.59</v>
       </c>
       <c r="I11" t="inlineStr">
@@ -1099,16 +1099,16 @@
       <c r="K11" t="n">
         <v>1.12</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" t="n">
         <v>-1.38</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>-8.77</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" t="n">
         <v>-3.02</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="2" t="n">
         <v>12.58</v>
       </c>
       <c r="P11" t="inlineStr">
@@ -1147,7 +1147,7 @@
       <c r="F12" t="n">
         <v>4.89</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" t="n">
         <v>0.8900000000000006</v>
       </c>
       <c r="H12" t="n">
@@ -1172,7 +1172,7 @@
       <c r="M12" t="n">
         <v>4.81</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" t="n">
         <v>-5.219999999999999</v>
       </c>
       <c r="O12" t="n">
@@ -1208,7 +1208,7 @@
       <c r="D13" t="n">
         <v>0.3000000000000003</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" t="n">
         <v>-2.8</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -1217,7 +1217,7 @@
       <c r="G13" s="1" t="n">
         <v>-6.529999999999999</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>12.91</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -1230,7 +1230,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="2" t="n">
         <v>1.9</v>
       </c>
       <c r="L13" t="n">
@@ -1242,7 +1242,7 @@
       <c r="N13" s="1" t="n">
         <v>-12.64</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="2" t="n">
         <v>14.9</v>
       </c>
       <c r="P13" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="M14" s="1" t="n">
         <v>-14</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" t="n">
         <v>-4.549999999999999</v>
       </c>
       <c r="O14" s="2" t="n">
@@ -1342,16 +1342,16 @@
       <c r="D15" s="1" t="n">
         <v>-5.38</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" t="n">
         <v>-1.51</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" t="n">
         <v>-4.99</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2" t="n">
         <v>7.74</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" t="n">
         <v>-2.09</v>
       </c>
       <c r="I15" t="n">
@@ -1372,7 +1372,7 @@
       <c r="N15" t="n">
         <v>1.630000000000001</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" t="n">
         <v>-0.09999999999999964</v>
       </c>
       <c r="P15" s="1" t="n">
@@ -1407,7 +1407,7 @@
       <c r="F16" t="n">
         <v>4.96</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" t="n">
         <v>-5.610000000000001</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -1426,7 +1426,7 @@
       <c r="K16" t="n">
         <v>-0.57</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" t="n">
         <v>-2.95</v>
       </c>
       <c r="M16" t="n">
@@ -1435,7 +1435,7 @@
       <c r="N16" s="1" t="n">
         <v>-11.72</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="O16" t="n">
         <v>-8.089999999999998</v>
       </c>
       <c r="P16" t="inlineStr">
@@ -1465,7 +1465,7 @@
           <t>650.22</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>1.52</v>
       </c>
       <c r="E17" t="n">
@@ -1474,10 +1474,10 @@
       <c r="F17" t="n">
         <v>2.359999999999999</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" t="n">
         <v>-3.99</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" t="n">
         <v>-2.27</v>
       </c>
       <c r="I17" t="inlineStr">
@@ -1502,7 +1502,7 @@
       <c r="N17" s="1" t="n">
         <v>-10.1</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" t="n">
         <v>-0.2799999999999994</v>
       </c>
       <c r="P17" t="inlineStr">
@@ -1541,10 +1541,10 @@
       <c r="F18" s="2" t="n">
         <v>23.68</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2" t="n">
         <v>11.47</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" t="n">
         <v>-6.959999999999999</v>
       </c>
       <c r="I18" t="inlineStr">
@@ -1569,7 +1569,7 @@
       <c r="N18" t="n">
         <v>5.36</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" t="n">
         <v>-4.969999999999999</v>
       </c>
       <c r="P18" t="inlineStr">
@@ -1611,7 +1611,7 @@
       <c r="G19" s="1" t="n">
         <v>-11.75</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" t="n">
         <v>1.21</v>
       </c>
       <c r="I19" t="inlineStr">
@@ -1678,7 +1678,7 @@
       <c r="G20" s="1" t="n">
         <v>-13.33</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" t="n">
         <v>-8.419999999999998</v>
       </c>
       <c r="I20" t="inlineStr">
@@ -1694,7 +1694,7 @@
       <c r="K20" t="n">
         <v>-0.21</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="2" t="n">
         <v>4.45</v>
       </c>
       <c r="M20" s="2" t="n">
@@ -1703,7 +1703,7 @@
       <c r="N20" s="1" t="n">
         <v>-19.44</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" t="n">
         <v>-6.429999999999998</v>
       </c>
       <c r="P20" t="inlineStr">
@@ -1739,13 +1739,13 @@
       <c r="E21" t="n">
         <v>-0.23</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" t="n">
         <v>-0.8100000000000005</v>
       </c>
       <c r="G21" t="n">
         <v>2.24</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" t="n">
         <v>1.73</v>
       </c>
       <c r="I21" t="n">
@@ -1760,10 +1760,10 @@
       <c r="L21" t="n">
         <v>2.56</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="M21" t="n">
         <v>-0.8900000000000006</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="N21" t="n">
         <v>-3.869999999999999</v>
       </c>
       <c r="O21" t="n">
@@ -1772,7 +1772,7 @@
       <c r="P21" s="1" t="n">
         <v>-18.35</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>21.15</v>
       </c>
     </row>
@@ -1798,16 +1798,16 @@
       <c r="E22" t="n">
         <v>-0.13</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" t="n">
         <v>-0.2400000000000002</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" t="n">
         <v>0.2200000000000006</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" t="n">
         <v>-0.6899999999999995</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" t="n">
         <v>3.220000000000001</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1815,19 +1815,19 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="2" t="n">
         <v>1.53</v>
       </c>
       <c r="L22" t="n">
         <v>2.66</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="M22" t="n">
         <v>-0.3200000000000003</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="N22" t="n">
         <v>-5.889999999999999</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" t="n">
         <v>1.300000000000001</v>
       </c>
       <c r="P22" s="1" t="n">
@@ -1858,22 +1858,22 @@
       <c r="D23" s="1" t="n">
         <v>-1.65</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" t="n">
         <v>-2.69</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" t="n">
         <v>-0.2599999999999998</v>
       </c>
       <c r="G23" t="n">
         <v>6.399999999999999</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" t="n">
         <v>-1.1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="2" t="n">
         <v>26.05</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="J23" t="n">
         <v>-12.05</v>
       </c>
       <c r="K23" t="n">
@@ -1882,19 +1882,19 @@
       <c r="L23" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="M23" t="n">
         <v>-0.3399999999999999</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="N23" t="n">
         <v>0.29</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="Q23" t="n">
         <v>-2.349999999999998</v>
       </c>
     </row>
@@ -1917,10 +1917,10 @@
       <c r="D24" t="n">
         <v>-0.09999999999999964</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" t="n">
         <v>-1.35</v>
       </c>
       <c r="G24" t="n">
@@ -1935,16 +1935,16 @@
       <c r="J24" s="2" t="n">
         <v>42.43</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="2" t="n">
         <v>1.5</v>
       </c>
       <c r="L24" t="n">
         <v>2.23</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="M24" t="n">
         <v>-1.43</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" t="n">
         <v>-3.539999999999999</v>
       </c>
       <c r="O24" t="n">
@@ -1991,7 +1991,7 @@
       <c r="I25" s="2" t="n">
         <v>86.67</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="2" t="n">
         <v>23</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -2003,7 +2003,7 @@
       <c r="M25" s="1" t="n">
         <v>-5.21</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="2" t="n">
         <v>7.220000000000001</v>
       </c>
       <c r="O25" t="n">
@@ -2035,16 +2035,16 @@
       <c r="D26" s="1" t="n">
         <v>-2.71</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" t="n">
         <v>-2.13</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2" t="n">
         <v>6.510000000000001</v>
       </c>
       <c r="G26" t="n">
         <v>2.51</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="2" t="n">
         <v>14.53</v>
       </c>
       <c r="I26" t="inlineStr">
@@ -2057,19 +2057,19 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" t="n">
         <v>-1.11</v>
       </c>
       <c r="L26" t="n">
         <v>0.6599999999999999</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="2" t="n">
         <v>6.430000000000001</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" t="n">
         <v>-3.6</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="2" t="n">
         <v>16.52</v>
       </c>
       <c r="P26" t="inlineStr">
@@ -2099,25 +2099,25 @@
           <t>231.31</t>
         </is>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" t="n">
         <v>-1.02</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" t="n">
         <v>-0.99</v>
       </c>
       <c r="F27" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="2" t="n">
         <v>10.57</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="2" t="n">
         <v>15.05</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="2" t="n">
         <v>28.2</v>
       </c>
       <c r="K27" t="n">
@@ -2132,10 +2132,10 @@
       <c r="N27" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="2" t="n">
         <v>12.56</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="P27" t="n">
         <v>-11.9</v>
       </c>
       <c r="Q27" s="2" t="n">
@@ -2161,16 +2161,16 @@
       <c r="D28" s="1" t="n">
         <v>-1.73</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" t="n">
         <v>-1.15</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>-6.61</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="2" t="n">
         <v>11.29</v>
       </c>
       <c r="I28" t="n">
@@ -2191,13 +2191,13 @@
       <c r="N28" t="n">
         <v>3.09</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="2" t="n">
         <v>13.28</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="P28" t="n">
         <v>-13.21</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="2" t="n">
         <v>16.85</v>
       </c>
     </row>
@@ -2220,19 +2220,19 @@
       <c r="D29" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" t="n">
         <v>-1</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" t="n">
         <v>-2.45</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2" t="n">
         <v>10.07</v>
       </c>
       <c r="H29" t="n">
         <v>6.220000000000001</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="2" t="n">
         <v>28.53</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2246,7 +2246,7 @@
       <c r="L29" t="n">
         <v>1.79</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="M29" t="n">
         <v>-2.53</v>
       </c>
       <c r="N29" t="n">
@@ -2255,7 +2255,7 @@
       <c r="O29" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="P29" t="n">
         <v>1.58</v>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2289,7 +2289,7 @@
       <c r="F30" t="n">
         <v>0.4399999999999995</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2" t="n">
         <v>9.15</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -2298,7 +2298,7 @@
       <c r="I30" s="2" t="n">
         <v>33.40000000000001</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" t="n">
         <v>0.2800000000000011</v>
       </c>
       <c r="K30" s="2" t="n">
@@ -2348,10 +2348,10 @@
       <c r="F31" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2" t="n">
         <v>11.36</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" t="n">
         <v>-6.23</v>
       </c>
       <c r="I31" s="2" t="n">
@@ -2360,7 +2360,7 @@
       <c r="J31" s="1" t="n">
         <v>-26.83</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="2" t="n">
         <v>1.52</v>
       </c>
       <c r="L31" s="1" t="n">
@@ -2372,7 +2372,7 @@
       <c r="N31" t="n">
         <v>5.25</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="O31" t="n">
         <v>-4.24</v>
       </c>
       <c r="P31" t="n">
@@ -2398,13 +2398,13 @@
           <t>496.02</t>
         </is>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" t="n">
         <v>-1.12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" t="n">
         <v>-2.2</v>
       </c>
       <c r="G32" s="2" t="n">
@@ -2425,10 +2425,10 @@
       <c r="L32" t="n">
         <v>2.79</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M32" t="n">
         <v>-2.28</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32" s="2" t="n">
         <v>11.01</v>
       </c>
       <c r="O32" t="n">
@@ -2460,10 +2460,10 @@
       <c r="D33" t="n">
         <v>-0.06999999999999984</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" t="n">
         <v>-2.19</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" t="n">
         <v>-0.7999999999999998</v>
       </c>
       <c r="G33" s="2" t="n">
@@ -2484,13 +2484,13 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="2" t="n">
         <v>1.53</v>
       </c>
       <c r="L33" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="M33" s="1" t="n">
+      <c r="M33" t="n">
         <v>-0.8799999999999999</v>
       </c>
       <c r="N33" s="2" t="n">

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,19 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr"/>
       <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr">
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr">
         <is>
           <t>易方达中证500ETF</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr"/>
       <c r="O1" t="inlineStr"/>
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -515,51 +517,53 @@
           <t>2年-3年</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>近一周</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1周~1月</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1月~3月</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>3月~6月</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>6月~1年</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1年-2年</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2年-3年</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>015577</t>
+          <t>257060</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>国联安上证商品ETF联接C</t>
+          <t>国联安上证商品ETF联接A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,58 +572,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>-4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.49</v>
+        <v>-4.44</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="L3" t="n">
+        <v>7.899999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>48.68000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8099999999999952</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M3" t="n">
         <v>-2.01</v>
       </c>
-      <c r="M3" t="n">
-        <v>-4.57</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="N3" s="1" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.51</v>
       </c>
     </row>
     <row r="4">
@@ -659,37 +651,37 @@
       <c r="J4" s="1" t="n">
         <v>-24.05</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>4.909999999999999</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>3.53</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-3.029999999999999</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>-36.68</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>-14.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>012646</t>
+          <t>012645</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>建信中证全指证券公司ETF联接C</t>
+          <t>建信中证全指证券公司ETF联接A</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -698,19 +690,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.42</v>
+        <v>-2.37</v>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.100000000000001</v>
+        <v>-8.93</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -722,27 +714,27 @@
           <t>--</t>
         </is>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3700000000000001</v>
+      <c r="L5" s="2" t="n">
+        <v>2.9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.88</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.19</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>-7.110000000000001</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>-3.109999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-6.94</v>
       </c>
       <c r="Q5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -785,25 +777,25 @@
       <c r="J6" s="1" t="n">
         <v>-42.81</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>-1.68</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>-2.24</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3.499999999999999</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>-6.76</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>9.01</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>7.659999999999998</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>-33.11</v>
       </c>
     </row>
@@ -844,37 +836,37 @@
       <c r="J7" s="1" t="n">
         <v>-34.47</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.28</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>3.76</v>
       </c>
-    